--- a/data/input/CLASIFICACION_ABC+D_SEMILLAS_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_SEMILLAS_P1_2025.xlsx
@@ -2749,12 +2749,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5402050014</t>
+          <t>5401010026</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE ECOLOGICO</t>
+          <t>PETUNIA PENDULA VARIADA 2011</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -2776,13 +2776,13 @@
         <v>9</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>15.93</v>
+        <v>16.11</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>7.28</v>
+        <v>7.45</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>64.29000000000001</v>
+        <v>90</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>13.7</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S27" s="5" t="n">
         <v>10</v>
@@ -2815,29 +2815,29 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5401010026</t>
+          <t>5402050014</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>PETUNIA PENDULA VARIADA 2011</t>
+          <t>TOMATE MARMANDE ECOLOGICO</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -2859,13 +2859,13 @@
         <v>9</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>16.11</v>
+        <v>15.93</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>7.45</v>
+        <v>7.28</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>90</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="L28" s="4" t="n">
         <v>0</v>
@@ -2877,16 +2877,16 @@
         <v>13.7</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S28" s="5" t="n">
         <v>10</v>
@@ -2898,17 +2898,17 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3504,12 +3504,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5103010004</t>
+          <t>5101010002</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE CIMAROSA 14/16 12 UDS</t>
+          <t>BEGONIA DOBLE ROSA 5/6 X3</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -3531,10 +3531,10 @@
         <v>2</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>11.98</v>
+        <v>10.98</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>5.27</v>
+        <v>4.36</v>
       </c>
       <c r="K36" s="4" t="n">
         <v>40</v>
@@ -3587,12 +3587,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5101010002</t>
+          <t>5103010004</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE ROSA 5/6 X3</t>
+          <t>GLADIOLO FLOR GRANDE CIMAROSA 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -3614,10 +3614,10 @@
         <v>2</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>10.98</v>
+        <v>11.98</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>4.36</v>
+        <v>5.27</v>
       </c>
       <c r="K37" s="4" t="n">
         <v>40</v>
@@ -3670,12 +3670,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5401010007</t>
+          <t>5402020010</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>CAPUCHINA ENANA VARIADA</t>
+          <t>PEPINO BELLPUIG LARGO VERDE</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -3697,13 +3697,13 @@
         <v>7</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>12.53</v>
+        <v>12.35</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>5.79</v>
+        <v>5.63</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>70</v>
+        <v>77.78</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0</v>
@@ -3715,16 +3715,16 @@
         <v>10.7</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S38" s="5" t="n">
         <v>10</v>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -3753,12 +3753,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5402020010</t>
+          <t>5402020011</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>PEPINO BELLPUIG LARGO VERDE</t>
+          <t>PEPINO MARKETER ECOLOGICO</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -3780,13 +3780,13 @@
         <v>7</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>12.35</v>
+        <v>12.53</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>5.63</v>
+        <v>5.79</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>77.78</v>
+        <v>70</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -3798,16 +3798,16 @@
         <v>10.7</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S39" s="5" t="n">
         <v>10</v>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -3836,12 +3836,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5404010020</t>
+          <t>5401010007</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ROMERO COMUN</t>
+          <t>CAPUCHINA ENANA VARIADA</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -3869,7 +3869,7 @@
         <v>5.79</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>116.67</v>
+        <v>70</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>0</v>
@@ -3881,50 +3881,50 @@
         <v>10.7</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T40" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5402020011</t>
+          <t>5404010020</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>PEPINO MARKETER ECOLOGICO</t>
+          <t>ROMERO COMUN</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -3952,7 +3952,7 @@
         <v>5.79</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>70</v>
+        <v>116.67</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
@@ -3964,38 +3964,38 @@
         <v>10.7</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>13</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T41" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T41" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -4251,12 +4251,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5404010010</t>
+          <t>5404010017</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>HIERBA PARA GATOS</t>
+          <t>PEREJIL COMUN DE HOJA LISA</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -4278,13 +4278,13 @@
         <v>6</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>4.72</v>
+        <v>4.96</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>46.15</v>
+        <v>26.09</v>
       </c>
       <c r="L45" s="4" t="n">
         <v>0</v>
@@ -4296,16 +4296,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S45" s="5" t="n">
         <v>10</v>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -4583,12 +4583,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5401010028</t>
+          <t>5401010019</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>TAGETE ALTO DOBLE VARIADO</t>
+          <t>GIRASOL ORNAMENTAL 2011</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -4616,7 +4616,7 @@
         <v>4.96</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>0</v>
@@ -4628,50 +4628,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T49" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T49" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5401010019</t>
+          <t>5404010010</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>GIRASOL ORNAMENTAL 2011</t>
+          <t>HIERBA PARA GATOS</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -4693,13 +4693,13 @@
         <v>6</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>4.96</v>
+        <v>4.72</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>100</v>
+        <v>46.15</v>
       </c>
       <c r="L50" s="4" t="n">
         <v>0</v>
@@ -4711,50 +4711,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T50" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5404010017</t>
+          <t>5401010028</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL COMUN DE HOJA LISA</t>
+          <t>TAGETE ALTO DOBLE VARIADO</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -4782,7 +4782,7 @@
         <v>4.96</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>26.09</v>
+        <v>54.55</v>
       </c>
       <c r="L51" s="4" t="n">
         <v>0</v>
@@ -4794,7 +4794,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>5</v>
@@ -5081,12 +5081,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5401010013</t>
+          <t>5402050015</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>COSMOS DEL JAPON</t>
+          <t>TOMATE MARMANDE RAF</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
@@ -5114,7 +5114,7 @@
         <v>4.14</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>83.33</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
@@ -5126,10 +5126,10 @@
         <v>7.6</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q55" s="4" t="n">
         <v>59</v>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
@@ -5157,90 +5157,90 @@
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>5107190015</t>
+          <t>5401010013</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>LIS CANDIDUM 22/24 X1</t>
+          <t>COSMOS DEL JAPON</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
       <c r="D56" s="3" t="inlineStr"/>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H56" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I56" s="4" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="J56" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="K56" s="4" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="L56" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" s="5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N56" s="5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O56" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I56" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="J56" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="K56" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O56" s="4" t="n">
-        <v>-1</v>
-      </c>
       <c r="P56" s="4" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T56" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -5330,95 +5330,95 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>5402050015</t>
+          <t>5107190015</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE RAF</t>
+          <t>LIS CANDIDUM 22/24 X1</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr"/>
       <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H58" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>5.99</v>
       </c>
       <c r="J58" s="4" t="n">
-        <v>4.14</v>
+        <v>1.45</v>
       </c>
       <c r="K58" s="4" t="n">
-        <v>71.43000000000001</v>
+        <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N58" s="5" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P58" s="4" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T58" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T58" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>5401010004</t>
+          <t>5401010010</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>BELLA DE NOCHE</t>
+          <t>COLEUS HIBRIDO ARCO IRIS</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
@@ -5446,7 +5446,7 @@
         <v>4.19</v>
       </c>
       <c r="K59" s="4" t="n">
-        <v>83.33</v>
+        <v>100</v>
       </c>
       <c r="L59" s="4" t="n">
         <v>0</v>
@@ -5458,50 +5458,50 @@
         <v>7.6</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T59" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T59" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>5401010010</t>
+          <t>5402050018</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>COLEUS HIBRIDO ARCO IRIS</t>
+          <t>TOMATE ROMA</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>
@@ -5529,7 +5529,7 @@
         <v>4.19</v>
       </c>
       <c r="K60" s="4" t="n">
-        <v>100</v>
+        <v>26.32</v>
       </c>
       <c r="L60" s="4" t="n">
         <v>0</v>
@@ -5541,50 +5541,50 @@
         <v>7.6</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P60" s="4" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T60" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T60" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>5401010006</t>
+          <t>5401010004</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>CAMPANULA DOBLE, VARIADA 2011</t>
+          <t>BELLA DE NOCHE</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr"/>
@@ -5612,7 +5612,7 @@
         <v>4.19</v>
       </c>
       <c r="K61" s="4" t="n">
-        <v>71.43000000000001</v>
+        <v>83.33</v>
       </c>
       <c r="L61" s="4" t="n">
         <v>0</v>
@@ -5624,10 +5624,10 @@
         <v>7.6</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P61" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q61" s="4" t="n">
         <v>59</v>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
@@ -5655,19 +5655,19 @@
       </c>
       <c r="W61" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>5402050018</t>
+          <t>5401010006</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>TOMATE ROMA</t>
+          <t>CAMPANULA DOBLE, VARIADA 2011</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr"/>
@@ -5695,7 +5695,7 @@
         <v>4.19</v>
       </c>
       <c r="K62" s="4" t="n">
-        <v>26.32</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="L62" s="4" t="n">
         <v>0</v>
@@ -5707,10 +5707,10 @@
         <v>7.6</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P62" s="4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="4" t="n">
         <v>59</v>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
@@ -5738,19 +5738,19 @@
       </c>
       <c r="W62" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>5401010009</t>
+          <t>5404010011</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>CLAVEL DE POETA</t>
+          <t>HIERBABUENA</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr"/>
@@ -5772,13 +5772,13 @@
         <v>5</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>8.41</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>4.34</v>
+        <v>3.85</v>
       </c>
       <c r="K63" s="4" t="n">
-        <v>83.33</v>
+        <v>55.56</v>
       </c>
       <c r="L63" s="4" t="n">
         <v>0</v>
@@ -5790,10 +5790,10 @@
         <v>7.6</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P63" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="4" t="n">
         <v>59</v>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="W63" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5991,12 +5991,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5404010011</t>
+          <t>5401010009</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>HIERBABUENA</t>
+          <t>CLAVEL DE POETA</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
@@ -6018,13 +6018,13 @@
         <v>5</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.41</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.85</v>
+        <v>4.34</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>55.56</v>
+        <v>83.33</v>
       </c>
       <c r="L2" s="4" t="n">
         <v>0</v>
@@ -6036,10 +6036,10 @@
         <v>7.6</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>59</v>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="W2" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -6240,12 +6240,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5402050011</t>
+          <t>5401010016</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CORAZÓN DE BUEY 2017</t>
+          <t>ESTATICE VARIADA</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -6273,7 +6273,7 @@
         <v>3.31</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>33.33</v>
+        <v>44.44</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>0</v>
@@ -6285,10 +6285,10 @@
         <v>6.1</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>59</v>
@@ -6323,12 +6323,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5404010012</t>
+          <t>5402050011</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>LAVANDA OFFICINALIS</t>
+          <t>TOMATE CORAZÓN DE BUEY 2017</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -6356,7 +6356,7 @@
         <v>3.31</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>40</v>
+        <v>33.33</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>0</v>
@@ -6368,16 +6368,16 @@
         <v>6.1</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S6" s="5" t="n">
         <v>10</v>
@@ -6394,7 +6394,7 @@
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -6406,12 +6406,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5402050004</t>
+          <t>5404010012</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO DULCE ITALIANO ECOL</t>
+          <t>LAVANDA OFFICINALIS</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -6439,7 +6439,7 @@
         <v>3.31</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -6451,50 +6451,50 @@
         <v>6.1</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T7" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
         <is>
-          <t>13B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5404010013</t>
+          <t>5402050004</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>MANZANILLA</t>
+          <t>PIMIENTO DULCE ITALIANO ECOL</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -6516,13 +6516,13 @@
         <v>4</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>3.06</v>
+        <v>3.31</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>57.14</v>
+        <v>100</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>0</v>
@@ -6534,50 +6534,50 @@
         <v>6.1</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T8" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T8" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13B</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5401010016</t>
+          <t>5404010013</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>ESTATICE VARIADA</t>
+          <t>MANZANILLA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -6599,13 +6599,13 @@
         <v>4</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>3.31</v>
+        <v>3.06</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>44.44</v>
+        <v>57.14</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
@@ -6617,10 +6617,10 @@
         <v>6.1</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>59</v>
@@ -6821,12 +6821,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5402050012</t>
+          <t>5404010006</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>TOMATE DE COLGAR</t>
+          <t>ANIS</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -6848,13 +6848,13 @@
         <v>4</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>0</v>
+        <v>36.36</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>0</v>
@@ -6866,50 +6866,50 @@
         <v>6.1</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T12" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5401010003</t>
+          <t>5402050012</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>BELLA DE DIA</t>
+          <t>TOMATE DE COLGAR</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -6937,7 +6937,7 @@
         <v>3.35</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>44.44</v>
+        <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
@@ -6949,50 +6949,50 @@
         <v>6.1</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T13" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T13" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5402020003</t>
+          <t>5401010003</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>CALABACIN REDONDO DE NIZA</t>
+          <t>BELLA DE DIA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -7020,7 +7020,7 @@
         <v>3.35</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>33.33</v>
+        <v>44.44</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
@@ -7032,10 +7032,10 @@
         <v>6.1</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>59</v>
@@ -7070,12 +7070,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5401010008</t>
+          <t>5402020003</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>CAPUCHINA TREPADORA</t>
+          <t>CALABACIN REDONDO DE NIZA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -7103,7 +7103,7 @@
         <v>3.35</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>100</v>
+        <v>33.33</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>0</v>
@@ -7115,50 +7115,50 @@
         <v>6.1</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T15" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5404010006</t>
+          <t>5401010008</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ANIS</t>
+          <t>CAPUCHINA TREPADORA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -7180,13 +7180,13 @@
         <v>4</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
@@ -7198,38 +7198,38 @@
         <v>6.1</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T16" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T16" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
@@ -7402,12 +7402,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5103010002</t>
+          <t>5107020001</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE TRITON 14/16 12 UDS</t>
+          <t>ANEMONA DE CAEN MEZCLADO 7/8 15UDS</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -7429,10 +7429,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>5.49</v>
+        <v>6.99</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>2.18</v>
+        <v>3.54</v>
       </c>
       <c r="K19" s="4" t="n">
         <v>20</v>
@@ -7450,7 +7450,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>10</v>
@@ -7485,12 +7485,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5107020001</t>
+          <t>5103010002</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ANEMONA DE CAEN MEZCLADO 7/8 15UDS</t>
+          <t>GLADIOLO FLOR GRANDE TRITON 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -7512,10 +7512,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>6.99</v>
+        <v>5.49</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>3.54</v>
+        <v>2.18</v>
       </c>
       <c r="K20" s="4" t="n">
         <v>20</v>
@@ -7533,7 +7533,7 @@
         <v>4</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>10</v>
@@ -7817,12 +7817,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5401010015</t>
+          <t>5404010015</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>DALIA DECORATIVA, VARIADA 2011</t>
+          <t>MENTA VERDE</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -7850,7 +7850,7 @@
         <v>2.48</v>
       </c>
       <c r="K24" s="4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L24" s="4" t="n">
         <v>0</v>
@@ -7862,50 +7862,50 @@
         <v>4.6</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T24" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5402090017</t>
+          <t>5402030004</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>MAIZ DULCE JUBILEE</t>
+          <t>RABANITO REDONDO ROJO</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -7927,13 +7927,13 @@
         <v>3</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>5.34</v>
+        <v>5.37</v>
       </c>
       <c r="J25" s="4" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="K25" s="4" t="n">
-        <v>100</v>
+        <v>42.86</v>
       </c>
       <c r="L25" s="4" t="n">
         <v>0</v>
@@ -7945,50 +7945,50 @@
         <v>4.6</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T25" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5401010027</t>
+          <t>5404010009</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>SALVIA ENANA ROJA</t>
+          <t>ENELDO</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -8010,13 +8010,13 @@
         <v>3</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>5.37</v>
+        <v>5.1</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>2.48</v>
+        <v>2.24</v>
       </c>
       <c r="K26" s="4" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L26" s="4" t="n">
         <v>0</v>
@@ -8028,10 +8028,10 @@
         <v>4.6</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>59</v>
@@ -8049,7 +8049,7 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
@@ -8059,19 +8059,19 @@
       </c>
       <c r="W26" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5402020016</t>
+          <t>5401010027</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA BUTTERNUT ECO</t>
+          <t>SALVIA ENANA ROJA</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -8099,7 +8099,7 @@
         <v>2.48</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
@@ -8111,10 +8111,10 @@
         <v>4.6</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="Q27" s="4" t="n">
         <v>59</v>
@@ -8132,7 +8132,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -8142,19 +8142,19 @@
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5401010025</t>
+          <t>5401010015</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>PETUNIA DOBLE VARIADA</t>
+          <t>DALIA DECORATIVA, VARIADA 2011</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -8197,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
@@ -8225,19 +8225,19 @@
       </c>
       <c r="W28" s="4" t="inlineStr">
         <is>
-          <t>13B</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5402030004</t>
+          <t>5402090017</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>RABANITO REDONDO ROJO</t>
+          <t>MAIZ DULCE JUBILEE</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -8259,13 +8259,13 @@
         <v>3</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>5.37</v>
+        <v>5.34</v>
       </c>
       <c r="J29" s="4" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>42.86</v>
+        <v>100</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>0</v>
@@ -8277,50 +8277,50 @@
         <v>4.6</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T29" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T29" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5404010009</t>
+          <t>5404010026</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>ENELDO</t>
+          <t>MANZANILLA ECO</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -8342,10 +8342,10 @@
         <v>3</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>5.1</v>
+        <v>5.37</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="K30" s="4" t="n">
         <v>50</v>
@@ -8363,7 +8363,7 @@
         <v>3</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>59</v>
@@ -8398,12 +8398,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5404010026</t>
+          <t>5401010025</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>MANZANILLA ECO</t>
+          <t>PETUNIA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -8431,7 +8431,7 @@
         <v>2.48</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
@@ -8443,50 +8443,50 @@
         <v>4.6</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T31" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T31" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13B</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5404010015</t>
+          <t>5402020016</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>MENTA VERDE</t>
+          <t>CALABAZA BUTTERNUT ECO</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -8514,7 +8514,7 @@
         <v>2.48</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -8526,10 +8526,10 @@
         <v>4.6</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>59</v>
@@ -8547,7 +8547,7 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
@@ -8557,19 +8557,19 @@
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5402020007</t>
+          <t>5402020001</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>MELON ROCHET</t>
+          <t>CALABACIN DE MESA NEGRO</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -8597,7 +8597,7 @@
         <v>2.51</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
@@ -8609,50 +8609,50 @@
         <v>4.6</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T33" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T33" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5402090022</t>
+          <t>5402050009</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>REMOLACHA DE MESA ROJA</t>
+          <t>PIMIENTO PIQUILLO</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -8680,7 +8680,7 @@
         <v>2.51</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
@@ -8692,10 +8692,10 @@
         <v>4.6</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="4" t="n">
         <v>59</v>
@@ -8730,12 +8730,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>5402020009</t>
+          <t>5401010035</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO</t>
+          <t>PORTULACA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -8763,7 +8763,7 @@
         <v>2.51</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="L35" s="4" t="n">
         <v>0</v>
@@ -8775,50 +8775,50 @@
         <v>4.6</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T35" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5402050002</t>
+          <t>5402050024</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO BLOCKY AMARILLO 2019</t>
+          <t>BERENJENA LARGA NEGRA ECO</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -8840,13 +8840,13 @@
         <v>3</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>5.37</v>
+        <v>5.1</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>2.51</v>
+        <v>2.27</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>0</v>
@@ -8858,10 +8858,10 @@
         <v>4.6</v>
       </c>
       <c r="O36" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P36" s="4" t="n">
         <v>2</v>
-      </c>
-      <c r="P36" s="4" t="n">
-        <v>8</v>
       </c>
       <c r="Q36" s="4" t="n">
         <v>59</v>
@@ -8896,12 +8896,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5401010017</t>
+          <t>5402020009</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
+          <t>MELON PIÑONET PIEL DE SAPO</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -8929,7 +8929,7 @@
         <v>2.51</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0</v>
@@ -8941,50 +8941,50 @@
         <v>4.6</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T37" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T37" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5402050024</t>
+          <t>5402050002</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA LARGA NEGRA ECO</t>
+          <t>PIMIENTO BLOCKY AMARILLO 2019</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -9006,13 +9006,13 @@
         <v>3</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>5.1</v>
+        <v>5.37</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>2.27</v>
+        <v>2.51</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>4.6</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>59</v>
@@ -9062,12 +9062,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5402020001</t>
+          <t>5402090022</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>CALABACIN DE MESA NEGRO</t>
+          <t>REMOLACHA DE MESA ROJA</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -9095,7 +9095,7 @@
         <v>2.51</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -9107,50 +9107,50 @@
         <v>4.6</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T39" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5402050009</t>
+          <t>5402020007</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PIQUILLO</t>
+          <t>MELON ROCHET</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -9178,7 +9178,7 @@
         <v>2.51</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>0</v>
@@ -9190,10 +9190,10 @@
         <v>4.6</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>59</v>
@@ -9228,12 +9228,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5401010035</t>
+          <t>5402060003</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>PORTULACA DOBLE VARIADA</t>
+          <t>GUISANTE RONDO ECO</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -9261,7 +9261,7 @@
         <v>2.51</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
@@ -9273,50 +9273,50 @@
         <v>4.6</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T41" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T41" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>5402060003</t>
+          <t>5401010017</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>GUISANTE RONDO ECO</t>
+          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -9344,7 +9344,7 @@
         <v>2.51</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>0</v>
@@ -9356,38 +9356,38 @@
         <v>4.6</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T42" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -9726,12 +9726,12 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5102010003</t>
+          <t>5107040000</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
+          <t>CANNA ENANA FV ZUMBA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -9753,10 +9753,10 @@
         <v>1</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>5.99</v>
+        <v>4.29</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>3.51</v>
+        <v>1.96</v>
       </c>
       <c r="K47" s="4" t="n">
         <v>20</v>
@@ -9809,12 +9809,12 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5107040000</t>
+          <t>5102010003</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>CANNA ENANA FV ZUMBA</t>
+          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -9836,10 +9836,10 @@
         <v>1</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>4.29</v>
+        <v>5.99</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.96</v>
+        <v>3.51</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>20</v>
@@ -10058,12 +10058,12 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5401010022</t>
+          <t>5401010014</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>MARGARITA GRANDE BLANCA</t>
+          <t>CRISANTEMOS DE LOS JARDINES, VARIADOS 2011</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -10091,7 +10091,7 @@
         <v>1.65</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>66.67</v>
+        <v>100</v>
       </c>
       <c r="L51" s="4" t="n">
         <v>0</v>
@@ -10103,50 +10103,50 @@
         <v>3.1</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T51" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T51" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>5401010014</t>
+          <t>5402020006</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>CRISANTEMOS DE LOS JARDINES, VARIADOS 2011</t>
+          <t>CALABAZA CABELLO DE ANGEL 2011</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
@@ -10174,7 +10174,7 @@
         <v>1.65</v>
       </c>
       <c r="K52" s="4" t="n">
-        <v>100</v>
+        <v>22.22</v>
       </c>
       <c r="L52" s="4" t="n">
         <v>0</v>
@@ -10186,50 +10186,50 @@
         <v>3.1</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T52" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>5402050006</t>
+          <t>5404010008</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO HABANERO ROJO 2019</t>
+          <t>CILANTRO</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
@@ -10272,13 +10272,13 @@
         <v>8</v>
       </c>
       <c r="P53" s="4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S53" s="5" t="n">
         <v>10</v>
@@ -10295,7 +10295,7 @@
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
@@ -10307,12 +10307,12 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>5404010008</t>
+          <t>5401030003</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>CILANTRO</t>
+          <t>CINERARIA ENANA HIBRIDA VARIADA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
@@ -10340,7 +10340,7 @@
         <v>1.65</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>20</v>
+        <v>28.57</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0</v>
@@ -10352,16 +10352,16 @@
         <v>3.1</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S54" s="5" t="n">
         <v>10</v>
@@ -10378,7 +10378,7 @@
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
@@ -10390,12 +10390,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5402020006</t>
+          <t>5401010022</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA CABELLO DE ANGEL 2011</t>
+          <t>MARGARITA GRANDE BLANCA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
@@ -10423,7 +10423,7 @@
         <v>1.65</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>22.22</v>
+        <v>66.67</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
@@ -10435,10 +10435,10 @@
         <v>3.1</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q55" s="4" t="n">
         <v>59</v>
@@ -10456,7 +10456,7 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
@@ -10466,19 +10466,19 @@
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>5401030003</t>
+          <t>5402050006</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>CINERARIA ENANA HIBRIDA VARIADA</t>
+          <t>PIMIENTO HABANERO ROJO 2019</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
@@ -10506,7 +10506,7 @@
         <v>1.65</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>28.57</v>
+        <v>20</v>
       </c>
       <c r="L56" s="4" t="n">
         <v>0</v>
@@ -10518,10 +10518,10 @@
         <v>3.1</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q56" s="4" t="n">
         <v>59</v>
@@ -10556,12 +10556,12 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>5404010023</t>
+          <t>5402090010</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>TOMILLO</t>
+          <t>COLIFLOR ROMANESCO NATALINO</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
@@ -10589,7 +10589,7 @@
         <v>1.67</v>
       </c>
       <c r="K57" s="4" t="n">
-        <v>33.33</v>
+        <v>10</v>
       </c>
       <c r="L57" s="4" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>3.1</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="P57" s="4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q57" s="4" t="n">
         <v>59</v>
@@ -10802,12 +10802,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5401010036</t>
+          <t>5402090012</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>MEZCLA DE FLORES PARDO JAPONES VARIADA</t>
+          <t>ESCAROLA CABELLO DE ANGEL 2011</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
@@ -10835,7 +10835,7 @@
         <v>1.67</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>20</v>
+        <v>33.33</v>
       </c>
       <c r="L2" s="4" t="n">
         <v>0</v>
@@ -10847,10 +10847,10 @@
         <v>3.1</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>59</v>
@@ -10968,12 +10968,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5402040007</t>
+          <t>5402040005</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA SUCRINE</t>
+          <t>LECHUGA RED SALAD BALL 2011</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -11001,7 +11001,7 @@
         <v>1.67</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.33</v>
+        <v>20</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>0</v>
@@ -11013,10 +11013,10 @@
         <v>3.1</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>59</v>
@@ -11051,12 +11051,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5402020012</t>
+          <t>5402020013</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
+          <t>SANDIA CRIMSON SWEET ECOLOG</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -11084,7 +11084,7 @@
         <v>1.67</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>22.22</v>
+        <v>18.18</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>0</v>
@@ -11096,10 +11096,10 @@
         <v>3.1</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>59</v>
@@ -11134,12 +11134,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5402040002</t>
+          <t>5404010023</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA GRANDES LAGOS -CALIFORNIA</t>
+          <t>TOMILLO</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -11167,7 +11167,7 @@
         <v>1.67</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>4.26</v>
+        <v>33.33</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>0</v>
@@ -11179,10 +11179,10 @@
         <v>3.1</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="4" t="n">
         <v>59</v>
@@ -11217,12 +11217,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5402090012</t>
+          <t>5402090001</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ESCAROLA CABELLO DE ANGEL 2011</t>
+          <t>ACELGA VERDE PENCA BLANCA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -11250,7 +11250,7 @@
         <v>1.67</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>33.33</v>
+        <v>22.22</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -11262,10 +11262,10 @@
         <v>3.1</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>59</v>
@@ -11300,12 +11300,12 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5402090001</t>
+          <t>5402030005</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ACELGA VERDE PENCA BLANCA</t>
+          <t>RABANITO REDONDO ROJO ECOL</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -11327,13 +11327,13 @@
         <v>2</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>22.22</v>
+        <v>40</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>0</v>
@@ -11345,10 +11345,10 @@
         <v>3.1</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>59</v>
@@ -11383,12 +11383,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5401010020</t>
+          <t>5401010036</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
+          <t>MEZCLA DE FLORES PARDO JAPONES VARIADA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -11416,7 +11416,7 @@
         <v>1.67</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>9.52</v>
+        <v>20</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
@@ -11428,10 +11428,10 @@
         <v>3.1</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>59</v>
@@ -11466,12 +11466,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5402090018</t>
+          <t>5402080005</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>MAIZ PALOMITAS</t>
+          <t>JUDIA PEROLAR 35GR</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -11493,13 +11493,13 @@
         <v>2</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>3.5</v>
+        <v>3.56</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>15.38</v>
+        <v>40</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
@@ -11511,10 +11511,10 @@
         <v>3.1</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>59</v>
@@ -11549,12 +11549,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5402030005</t>
+          <t>5402040008</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>RABANITO REDONDO ROJO ECOL</t>
+          <t>LECHUGA REINA DE MAYO ECO</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -11576,13 +11576,13 @@
         <v>2</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>3.31</v>
+        <v>3.58</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -11594,10 +11594,10 @@
         <v>3.1</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>59</v>
@@ -11632,12 +11632,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5402090010</t>
+          <t>5402020012</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>COLIFLOR ROMANESCO NATALINO</t>
+          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -11665,7 +11665,7 @@
         <v>1.67</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>10</v>
+        <v>22.22</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>0</v>
@@ -11677,10 +11677,10 @@
         <v>3.1</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>59</v>
@@ -11715,12 +11715,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5402040005</t>
+          <t>5402090018</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA RED SALAD BALL 2011</t>
+          <t>MAIZ PALOMITAS</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -11742,13 +11742,13 @@
         <v>2</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>3.58</v>
+        <v>3.5</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>20</v>
+        <v>15.38</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
@@ -11760,10 +11760,10 @@
         <v>3.1</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>59</v>
@@ -11798,12 +11798,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5402020013</t>
+          <t>5402040002</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>SANDIA CRIMSON SWEET ECOLOG</t>
+          <t>LECHUGA GRANDES LAGOS -CALIFORNIA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -11831,7 +11831,7 @@
         <v>1.67</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>18.18</v>
+        <v>4.26</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
@@ -11843,10 +11843,10 @@
         <v>3.1</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>59</v>
@@ -11881,12 +11881,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5402040008</t>
+          <t>5402040007</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA REINA DE MAYO ECO</t>
+          <t>LECHUGA SUCRINE</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -11914,7 +11914,7 @@
         <v>1.67</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>10</v>
+        <v>13.33</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>0</v>
@@ -11926,10 +11926,10 @@
         <v>3.1</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>59</v>
@@ -11964,12 +11964,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5402080005</t>
+          <t>5401010020</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>JUDIA PEROLAR 35GR</t>
+          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -11991,13 +11991,13 @@
         <v>2</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>3.56</v>
+        <v>3.58</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>40</v>
+        <v>9.52</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
@@ -12009,10 +12009,10 @@
         <v>3.1</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>59</v>
@@ -12130,12 +12130,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>5401030002</t>
+          <t>5401010012</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>CLAVEL MARGARITA VARIADO 00543</t>
+          <t>CORONADO PRINCESA, VARIADO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
@@ -12163,7 +12163,7 @@
         <v>1.71</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L18" s="4" t="n">
         <v>0</v>
@@ -12175,38 +12175,38 @@
         <v>3.1</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T18" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -12296,12 +12296,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5401010012</t>
+          <t>5401030002</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>CORONADO PRINCESA, VARIADO</t>
+          <t>CLAVEL MARGARITA VARIADO 00543</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -12329,7 +12329,7 @@
         <v>1.71</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L20" s="4" t="n">
         <v>0</v>
@@ -12341,38 +12341,38 @@
         <v>3.1</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T20" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T20" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
@@ -12545,12 +12545,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5402020014</t>
+          <t>5402020008</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>SANDIA SUGAR BABY</t>
+          <t>MELON AMARILLO CANARIO</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
@@ -12578,7 +12578,7 @@
         <v>0.83</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>16.67</v>
+        <v>11.11</v>
       </c>
       <c r="L23" s="4" t="n">
         <v>0</v>
@@ -12590,10 +12590,10 @@
         <v>1.5</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>59</v>
@@ -12628,12 +12628,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5402090023</t>
+          <t>5404010014</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>SANDÍA CRIMSON SWEET 2019</t>
+          <t>MELISSA OFFICINALIS</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>0.83</v>
       </c>
       <c r="K24" s="4" t="n">
-        <v>0</v>
+        <v>16.67</v>
       </c>
       <c r="L24" s="4" t="n">
         <v>0</v>
@@ -12673,38 +12673,38 @@
         <v>1.5</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T24" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -12794,12 +12794,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5402020008</t>
+          <t>5402020014</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>MELON AMARILLO CANARIO</t>
+          <t>SANDIA SUGAR BABY</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -12827,7 +12827,7 @@
         <v>0.83</v>
       </c>
       <c r="K26" s="4" t="n">
-        <v>11.11</v>
+        <v>16.67</v>
       </c>
       <c r="L26" s="4" t="n">
         <v>0</v>
@@ -12839,10 +12839,10 @@
         <v>1.5</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>59</v>
@@ -12877,12 +12877,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5404010014</t>
+          <t>5402090023</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>MELISSA OFFICINALIS</t>
+          <t>SANDÍA CRIMSON SWEET 2019</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -12910,7 +12910,7 @@
         <v>0.83</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>16.67</v>
+        <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
@@ -12922,38 +12922,38 @@
         <v>1.5</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T27" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T27" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -13043,12 +13043,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5402030003</t>
+          <t>5404010022</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
+          <t>STEVIA 2015</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -13076,7 +13076,7 @@
         <v>0.84</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>100</v>
+        <v>4.76</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>0</v>
@@ -13088,50 +13088,50 @@
         <v>1.5</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T29" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5402090008</t>
+          <t>5404010004</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
+          <t>ALBAHACA LIMON 2015</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -13159,7 +13159,7 @@
         <v>0.84</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>11.11</v>
+        <v>100</v>
       </c>
       <c r="L30" s="4" t="n">
         <v>0</v>
@@ -13171,50 +13171,50 @@
         <v>1.5</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T30" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T30" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5402090006</t>
+          <t>5402090008</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA ARBO - MORADA DE AMPOSTA 2011</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -13242,7 +13242,7 @@
         <v>0.84</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>50</v>
+        <v>11.11</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
@@ -13254,7 +13254,7 @@
         <v>1.5</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>55</v>
@@ -13292,12 +13292,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5402020017</t>
+          <t>5402040003</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO ECO</t>
+          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -13325,7 +13325,7 @@
         <v>0.84</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>11.11</v>
+        <v>10</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -13337,10 +13337,10 @@
         <v>1.5</v>
       </c>
       <c r="O32" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="P32" s="4" t="n">
         <v>8</v>
-      </c>
-      <c r="P32" s="4" t="n">
-        <v>43</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>59</v>
@@ -13375,12 +13375,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5401010034</t>
+          <t>5402020017</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
+          <t>MELON PIÑONET PIEL DE SAPO ECO</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -13408,7 +13408,7 @@
         <v>0.84</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>20</v>
+        <v>11.11</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
@@ -13420,10 +13420,10 @@
         <v>1.5</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="Q33" s="4" t="n">
         <v>59</v>
@@ -13458,12 +13458,12 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5402090028</t>
+          <t>5401010034</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
+          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -13491,7 +13491,7 @@
         <v>0.84</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
@@ -13503,10 +13503,10 @@
         <v>1.5</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="Q34" s="4" t="n">
         <v>59</v>
@@ -13541,12 +13541,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>5402040003</t>
+          <t>5402090006</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
+          <t>CEBOLLA ARBO - MORADA DE AMPOSTA 2011</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -13574,7 +13574,7 @@
         <v>0.84</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L35" s="4" t="n">
         <v>0</v>
@@ -13586,10 +13586,10 @@
         <v>1.5</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="Q35" s="4" t="n">
         <v>59</v>
@@ -13624,12 +13624,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5404010004</t>
+          <t>5402030003</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA LIMON 2015</t>
+          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -13672,7 +13672,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="Q36" s="4" t="n">
         <v>0</v>
@@ -13707,12 +13707,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5404010022</t>
+          <t>5402090028</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>STEVIA 2015</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -13740,7 +13740,7 @@
         <v>0.84</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>4.76</v>
+        <v>50</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0</v>
@@ -13752,10 +13752,10 @@
         <v>1.5</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>59</v>
@@ -13790,12 +13790,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5401010021</t>
+          <t>5402020005</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>IPOMEA CAMPANILLA VARIADA</t>
+          <t>CALABAZA BUTTERNUT</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -13823,7 +13823,7 @@
         <v>0.86</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0</v>
@@ -13835,50 +13835,50 @@
         <v>1.5</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T38" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T38" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5402020005</t>
+          <t>5401010021</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA BUTTERNUT</t>
+          <t>IPOMEA CAMPANILLA VARIADA</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -13906,7 +13906,7 @@
         <v>0.86</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -13918,50 +13918,50 @@
         <v>1.5</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T39" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5402090005</t>
+          <t>5402030006</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>CANONIGOS GRANO GRUESO</t>
+          <t>ZANAHORIA NANTESA ECOLOGICA</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -13983,13 +13983,13 @@
         <v>1</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1.79</v>
+        <v>1.52</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>0.87</v>
+        <v>0.62</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>11.11</v>
+        <v>14.29</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>0</v>
@@ -14001,10 +14001,10 @@
         <v>1.5</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>59</v>
@@ -14039,12 +14039,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5402030006</t>
+          <t>5402090005</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>ZANAHORIA NANTESA ECOLOGICA</t>
+          <t>CANONIGOS GRANO GRUESO</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -14066,13 +14066,13 @@
         <v>1</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.52</v>
+        <v>1.79</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>0.62</v>
+        <v>0.87</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>14.29</v>
+        <v>11.11</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
@@ -14084,10 +14084,10 @@
         <v>1.5</v>
       </c>
       <c r="O41" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="P41" s="4" t="n">
         <v>6</v>
-      </c>
-      <c r="P41" s="4" t="n">
-        <v>2</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>59</v>
@@ -14368,24 +14368,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5102090001</t>
+          <t>5302010001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
+          <t>CESPED FORMULA SPORT</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -14413,19 +14413,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
@@ -14434,12 +14434,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -14451,24 +14451,24 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5404010007</t>
+          <t>5102020013</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLINO ANUAL 2011</t>
+          <t>DAHLIA DECORATIVA ENANA JAMAICA I X1</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -14502,13 +14502,13 @@
         <v>59</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
@@ -14517,12 +14517,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -14534,24 +14534,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5402090029</t>
+          <t>5102010005</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>MAIZ DULCE GOLDEN BANTAAM ECO</t>
+          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -14579,19 +14579,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
@@ -14600,12 +14600,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -14617,24 +14617,24 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5402080001</t>
+          <t>5102010004</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>JUDÍA EFEQUINCE</t>
+          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -14662,19 +14662,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T5" s="8" t="inlineStr">
         <is>
@@ -14683,12 +14683,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -14783,24 +14783,16 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5402090003</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>60G</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ALCACHOFA TALPIOT 2011</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
           <t>54</t>
@@ -14874,24 +14866,24 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5102020015</t>
+          <t>5404010021</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
+          <t>SALVIA OFFICINALIS</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -14919,19 +14911,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T8" s="8" t="inlineStr">
         <is>
@@ -14940,12 +14932,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -14957,32 +14949,24 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5305010001</t>
+          <t>5102040000</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SOMBRA</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DAHLIA ENANA DOBLE MACARON I X1 FDF</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -15010,19 +14994,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T9" s="8" t="inlineStr">
         <is>
@@ -15031,12 +15015,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -15048,32 +15032,24 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5107010002</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>250G</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>AMARYLLIS BELLADONNA 20/+ X1</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr"/>
+      <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -15101,19 +15077,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
@@ -15122,12 +15098,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -15139,24 +15115,32 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5102020010</t>
+          <t>5301010001</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA RESISTENTE</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -15184,19 +15168,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
@@ -15205,12 +15189,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -15222,12 +15206,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5402050020</t>
+          <t>5402080003</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA LARGA NEGRA</t>
+          <t>JUDIA GARRAFAL ORO-VELEZ</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -15267,7 +15251,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>59</v>
@@ -15288,7 +15272,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -15305,12 +15289,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5107100002</t>
+          <t>5102080000</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
+          <t>DAHLIA GIGANTE TARTARUS I X1</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -15350,7 +15334,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
@@ -15388,12 +15372,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5102040001</t>
+          <t>5103010006</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA DOBLE MEZCLADO I/II X4</t>
+          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -15471,24 +15455,24 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5402010002</t>
+          <t>5102020010</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>COL BRUSELAS MEDIO ENANA</t>
+          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -15516,19 +15500,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T15" s="8" t="inlineStr">
         <is>
@@ -15537,12 +15521,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -15554,12 +15538,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5402030001</t>
+          <t>5402010002</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>NABO DE MESA VIRTUDES MARTILLO</t>
+          <t>COL BRUSELAS MEDIO ENANA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -15599,7 +15583,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>59</v>
@@ -15620,7 +15604,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -15637,24 +15621,24 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>5404010002</t>
+          <t>5107100002</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA GIGANTE</t>
+          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
       <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -15682,19 +15666,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T17" s="8" t="inlineStr">
         <is>
@@ -15703,12 +15687,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -15720,12 +15704,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>5107010002</t>
+          <t>5102070006</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>AMARYLLIS BELLADONNA 20/+ X1</t>
+          <t>DAHLIA POMPON ASHADO X1</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
@@ -15803,24 +15787,32 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5301010002</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr"/>
-      <c r="D19" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SPARRING</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -15854,10 +15846,10 @@
         <v>59</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S19" s="5" t="n">
         <v>10</v>
@@ -15869,12 +15861,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -15886,12 +15878,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5102080000</t>
+          <t>5107190009</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA GIGANTE TARTARUS I X1</t>
+          <t>LIS ORIENTAL STARGAZER 16/18 3 UDS</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -15969,12 +15961,12 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5404010018</t>
+          <t>5402080002</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL DOBLE RIZADO 2011</t>
+          <t>JUDIA GARRAFAL ENANA 250GR</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
@@ -16014,7 +16006,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>59</v>
@@ -16035,7 +16027,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.01€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -16052,24 +16044,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5402080003</t>
+          <t>5102020015</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>JUDIA GARRAFAL ORO-VELEZ</t>
+          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -16097,19 +16089,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T22" s="8" t="inlineStr">
         <is>
@@ -16118,12 +16110,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -16135,24 +16127,24 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5302010001</t>
+          <t>5102020016</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPORT</t>
+          <t>DAHLIA DECORATIVA ENANA ZANZIBAR I X1</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -16180,19 +16172,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T23" s="8" t="inlineStr">
         <is>
@@ -16201,12 +16193,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -16218,32 +16210,24 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5301010001</t>
+          <t>5103030000</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA RESISTENTE</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>GLADIOLO FLOR GRANDE MEZCLADO 10/12 40 UDS</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
+      <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -16271,19 +16255,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T24" s="8" t="inlineStr">
         <is>
@@ -16292,12 +16276,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -16309,24 +16293,24 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5402080002</t>
+          <t>5103020000</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>JUDIA GARRAFAL ENANA 250GR</t>
+          <t>GLADIOLO COLVILLEI MEZCLADO 8/9 X7</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
       <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -16354,19 +16338,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T25" s="8" t="inlineStr">
         <is>
@@ -16375,12 +16359,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -16392,12 +16376,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5102010005</t>
+          <t>5107190013</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
+          <t>ARUM MAJESTIC RED 14/+ X1</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -16475,12 +16459,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5107100001</t>
+          <t>5102020012</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>FREESIA DOBLE MEZCLADO 5+ 15 UDS</t>
+          <t>DAHLIA DECORATIVA ENANA LE THOUREIL I X1</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -16520,7 +16504,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>59</v>
@@ -16558,12 +16542,12 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5107170001</t>
+          <t>5102020019</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>IXIA MACULATA MEZCLADO 5/+ X15</t>
+          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -16641,32 +16625,24 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5301010002</t>
+          <t>5102090001</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPARRING</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>1Kg</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr"/>
+      <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -16694,19 +16670,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T29" s="8" t="inlineStr">
         <is>
@@ -16715,12 +16691,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 74.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -16732,12 +16708,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5103030000</t>
+          <t>5107190005</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE MEZCLADO 10/12 40 UDS</t>
+          <t>ARUM FORET NEGRO 14+1 UDS</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -16815,24 +16791,24 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5103020000</t>
+          <t>5401010001</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO COLVILLEI MEZCLADO 8/9 X7</t>
+          <t>AMAPOLA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
       <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
@@ -16860,19 +16836,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T31" s="8" t="inlineStr">
         <is>
@@ -16881,12 +16857,12 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -16898,12 +16874,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5103010006</t>
+          <t>5107190017</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 12 UDS</t>
+          <t>ARUM PINK PERSUASION 14/+ X1</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -16981,24 +16957,24 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5401010031</t>
+          <t>5301010003</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>GERANIO ZONALE VARIADO</t>
+          <t>SEMILLAS CESPED RESISTENTE 1KG</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
       <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
@@ -17026,7 +17002,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>59</v>
@@ -17047,7 +17023,7 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
@@ -17064,12 +17040,12 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5402010001</t>
+          <t>5401010031</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>COL BRUNSWICK TENTA</t>
+          <t>GERANIO ZONALE VARIADO</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -17109,7 +17085,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>59</v>
@@ -17130,7 +17106,7 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
@@ -17147,24 +17123,32 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>5102070006</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON ASHADO X1</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr"/>
-      <c r="D35" s="3" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>250G</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -17192,19 +17176,19 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T35" s="8" t="inlineStr">
         <is>
@@ -17213,12 +17197,12 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -17230,24 +17214,24 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5103010003</t>
+          <t>5404010018</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
+          <t>PEREJIL DOBLE RIZADO 2011</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
       <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -17275,19 +17259,19 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T36" s="8" t="inlineStr">
         <is>
@@ -17296,12 +17280,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.01€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -17313,12 +17297,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5102020011</t>
+          <t>5103010003</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
+          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -17396,24 +17380,24 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5402010003</t>
+          <t>5101010003</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>COL RIZADA KALE 2017</t>
+          <t>BEGONIA DOBLE ESCARLATA 5/6 X3</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
       <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -17441,19 +17425,19 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T38" s="8" t="inlineStr">
         <is>
@@ -17462,12 +17446,12 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -17479,12 +17463,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5102020016</t>
+          <t>5107190018</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA ZANZIBAR I X1</t>
+          <t>ARUM HOTSHOT 14/+ X1</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -17562,24 +17546,24 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5307010005</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS REPOBLADORAS 1 KG</t>
+          <t>HABA HISTAL</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
       <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -17607,7 +17591,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>59</v>
@@ -17628,7 +17612,7 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.19€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
@@ -17645,12 +17629,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5402090003</t>
+          <t>5402050020</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>ALCACHOFA TALPIOT 2011</t>
+          <t>BERENJENA LARGA NEGRA</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -17690,16 +17674,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S41" s="5" t="n">
         <v>10</v>
@@ -17711,12 +17695,12 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -17728,24 +17712,24 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>5102070000</t>
+          <t>5402080006</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON VILLA BLANCA 1 UDS</t>
+          <t>JUDIA HELDA ECO</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
       <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -17773,19 +17757,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T42" s="8" t="inlineStr">
         <is>
@@ -17794,12 +17778,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -17811,24 +17795,24 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>5107190005</t>
+          <t>5307010005</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>ARUM FORET NEGRO 14+1 UDS</t>
+          <t>SEMILLAS REPOBLADORAS 1 KG</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
       <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -17856,19 +17840,19 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T43" s="8" t="inlineStr">
         <is>
@@ -17877,12 +17861,12 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.19€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
@@ -17894,24 +17878,24 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>5102020019</t>
+          <t>5402090029</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
+          <t>MAIZ DULCE GOLDEN BANTAAM ECO</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
       <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -17939,19 +17923,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T44" s="8" t="inlineStr">
         <is>
@@ -17960,12 +17944,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -17977,24 +17961,32 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5102050000</t>
+          <t>5305010001</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA SIMPLE MEZCLADO I/II X4</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr"/>
-      <c r="D45" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SOMBRA</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -18022,19 +18014,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T45" s="8" t="inlineStr">
         <is>
@@ -18043,12 +18035,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -18060,24 +18052,24 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5102020013</t>
+          <t>5404010007</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA JAMAICA I X1</t>
+          <t>CEBOLLINO ANUAL 2011</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -18111,13 +18103,13 @@
         <v>59</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T46" s="8" t="inlineStr">
         <is>
@@ -18126,12 +18118,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -18143,24 +18135,24 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5101010003</t>
+          <t>5404010002</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE ESCARLATA 5/6 X3</t>
+          <t>ALBAHACA GIGANTE</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
       <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
@@ -18188,19 +18180,19 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T47" s="8" t="inlineStr">
         <is>
@@ -18209,12 +18201,12 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
@@ -18226,24 +18218,24 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5107190009</t>
+          <t>5402030001</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL STARGAZER 16/18 3 UDS</t>
+          <t>NABO DE MESA VIRTUDES MARTILLO</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
       <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -18277,13 +18269,13 @@
         <v>59</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T48" s="8" t="inlineStr">
         <is>
@@ -18292,12 +18284,12 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -18309,12 +18301,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5107190010</t>
+          <t>5107170001</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL BERGAME 16/18 3 UDS</t>
+          <t>IXIA MACULATA MEZCLADO 5/+ X15</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -18392,12 +18384,12 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5107190013</t>
+          <t>5102050000</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>ARUM MAJESTIC RED 14/+ X1</t>
+          <t>DAHLIA ENANA SIMPLE MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -18475,24 +18467,24 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5102010004</t>
+          <t>5402080001</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
+          <t>JUDÍA EFEQUINCE</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
       <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -18520,19 +18512,19 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T51" s="8" t="inlineStr">
         <is>
@@ -18541,12 +18533,12 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
@@ -18558,24 +18550,24 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>5401010001</t>
+          <t>5107190010</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>AMAPOLA DOBLE VARIADA</t>
+          <t>LIS ORIENTAL BERGAME 16/18 3 UDS</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
       <c r="D52" s="3" t="inlineStr"/>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -18603,19 +18595,19 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T52" s="8" t="inlineStr">
         <is>
@@ -18624,12 +18616,12 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
@@ -18641,12 +18633,12 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>5404010021</t>
+          <t>5402010003</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>SALVIA OFFICINALIS</t>
+          <t>COL RIZADA KALE 2017</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
@@ -18686,7 +18678,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>59</v>
@@ -18707,7 +18699,7 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
@@ -18724,24 +18716,32 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>5107190018</t>
+          <t>5301010002</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>ARUM HOTSHOT 14/+ X1</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr"/>
-      <c r="D54" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SPARRING</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -18769,19 +18769,19 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T54" s="8" t="inlineStr">
         <is>
@@ -18790,12 +18790,12 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 74.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
@@ -18807,17 +18807,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5301010002</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPARRING</t>
+          <t>HABA HISTAL</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>5KG</t>
+          <t>60G</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -18827,12 +18827,12 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
@@ -18860,7 +18860,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>59</v>
@@ -18898,12 +18898,12 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>5102020012</t>
+          <t>5102040001</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA LE THOUREIL I X1</t>
+          <t>DAHLIA ENANA DOBLE MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
@@ -18981,12 +18981,12 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>5107190017</t>
+          <t>5102020011</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>ARUM PINK PERSUASION 14/+ X1</t>
+          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
@@ -19064,24 +19064,24 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>5102040000</t>
+          <t>5402010001</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA DOBLE MACARON I X1 FDF</t>
+          <t>COL BRUNSWICK TENTA</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr"/>
       <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
@@ -19109,19 +19109,19 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T58" s="8" t="inlineStr">
         <is>
@@ -19130,12 +19130,12 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
@@ -19147,24 +19147,24 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>5301010003</t>
+          <t>5102070000</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS CESPED RESISTENTE 1KG</t>
+          <t>DAHLIA POMPON VILLA BLANCA 1 UDS</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
       <c r="D59" s="3" t="inlineStr"/>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
@@ -19192,19 +19192,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T59" s="8" t="inlineStr">
         <is>
@@ -19213,12 +19213,12 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.77€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
@@ -19230,24 +19230,24 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>5402080006</t>
+          <t>5107100001</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>JUDIA HELDA ECO</t>
+          <t>FREESIA DOBLE MEZCLADO 5+ 15 UDS</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>
       <c r="D60" s="3" t="inlineStr"/>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
@@ -19275,19 +19275,19 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T60" s="8" t="inlineStr">
         <is>
@@ -19296,12 +19296,12 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_SEMILLAS_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_SEMILLAS_P1_2025.xlsx
@@ -2160,55 +2160,55 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5404010019</t>
+          <t>5105010009</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL GIGANTE D'ITALIA</t>
+          <t>NARCISSE GRANDE COUPE PINK CHARM 1</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>17.63</v>
+        <v>14.98</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>5.62</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>15.3</v>
+        <v>3.1</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>0</v>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="W20" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2326,12 +2326,12 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5105010009</t>
+          <t>5104010012</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>NARCISSE GRANDE COUPE PINK CHARM 1</t>
+          <t>JACINTHE BLEU DE DELFT FDF 15/+ X5</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
@@ -2353,10 +2353,10 @@
         <v>2</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>14.98</v>
+        <v>15.98</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>5.62</v>
+        <v>6.53</v>
       </c>
       <c r="K22" s="4" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>-2</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>0</v>
@@ -2409,55 +2409,55 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5104010012</t>
+          <t>5404010019</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>JACINTHE BLEU DE DELFT FDF 15/+ X5</t>
+          <t>PEREJIL GIGANTE D'ITALIA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>15.98</v>
+        <v>17.63</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>6.53</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L23" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>3.1</v>
+        <v>15.3</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>0</v>
@@ -2470,12 +2470,12 @@
       </c>
       <c r="T23" s="7" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="W23" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
@@ -2749,12 +2749,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5401010026</t>
+          <t>5402050014</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>PETUNIA PENDULA VARIADA 2011</t>
+          <t>TOMATE MARMANDE ECOLOGICO</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -2776,13 +2776,13 @@
         <v>9</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>16.11</v>
+        <v>15.93</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>7.45</v>
+        <v>7.28</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>90</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>13.7</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S27" s="5" t="n">
         <v>10</v>
@@ -2815,29 +2815,29 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5402050014</t>
+          <t>5401010026</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE ECOLOGICO</t>
+          <t>PETUNIA PENDULA VARIADA 2011</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -2859,13 +2859,13 @@
         <v>9</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>15.93</v>
+        <v>16.11</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>7.28</v>
+        <v>7.45</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>64.29000000000001</v>
+        <v>90</v>
       </c>
       <c r="L28" s="4" t="n">
         <v>0</v>
@@ -2877,16 +2877,16 @@
         <v>13.7</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S28" s="5" t="n">
         <v>10</v>
@@ -2898,17 +2898,17 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -3504,12 +3504,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5101010002</t>
+          <t>5103010004</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE ROSA 5/6 X3</t>
+          <t>GLADIOLO FLOR GRANDE CIMAROSA 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -3531,10 +3531,10 @@
         <v>2</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>10.98</v>
+        <v>11.98</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>4.36</v>
+        <v>5.27</v>
       </c>
       <c r="K36" s="4" t="n">
         <v>40</v>
@@ -3587,12 +3587,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5103010004</t>
+          <t>5101010002</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE CIMAROSA 14/16 12 UDS</t>
+          <t>BEGONIA DOBLE ROSA 5/6 X3</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -3614,10 +3614,10 @@
         <v>2</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>11.98</v>
+        <v>10.98</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>5.27</v>
+        <v>4.36</v>
       </c>
       <c r="K37" s="4" t="n">
         <v>40</v>
@@ -3670,12 +3670,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5402020010</t>
+          <t>5401010007</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>PEPINO BELLPUIG LARGO VERDE</t>
+          <t>CAPUCHINA ENANA VARIADA</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -3697,13 +3697,13 @@
         <v>7</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>12.35</v>
+        <v>12.53</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>5.63</v>
+        <v>5.79</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>77.78</v>
+        <v>70</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0</v>
@@ -3715,16 +3715,16 @@
         <v>10.7</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S38" s="5" t="n">
         <v>10</v>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -3753,12 +3753,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5402020011</t>
+          <t>5404010020</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>PEPINO MARKETER ECOLOGICO</t>
+          <t>ROMERO COMUN</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -3786,7 +3786,7 @@
         <v>5.79</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>70</v>
+        <v>116.67</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -3798,50 +3798,50 @@
         <v>10.7</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>13</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T39" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T39" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5401010007</t>
+          <t>5402020011</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>CAPUCHINA ENANA VARIADA</t>
+          <t>PEPINO MARKETER ECOLOGICO</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -3884,7 +3884,7 @@
         <v>3</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>50</v>
@@ -3919,12 +3919,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5404010020</t>
+          <t>5402020010</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>ROMERO COMUN</t>
+          <t>PEPINO BELLPUIG LARGO VERDE</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -3946,13 +3946,13 @@
         <v>7</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>12.53</v>
+        <v>12.35</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>5.79</v>
+        <v>5.63</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>116.67</v>
+        <v>77.78</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
@@ -3964,38 +3964,38 @@
         <v>10.7</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T41" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -4251,12 +4251,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5404010017</t>
+          <t>5402050008</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL COMUN DE HOJA LISA</t>
+          <t>PIMIENTO PADRON 2011</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -4278,13 +4278,13 @@
         <v>6</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>4.96</v>
+        <v>4.72</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>26.09</v>
+        <v>100</v>
       </c>
       <c r="L45" s="4" t="n">
         <v>0</v>
@@ -4296,50 +4296,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T45" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T45" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5401010030</t>
+          <t>5401010028</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>ZINNIA FLOR DE DALIA</t>
+          <t>TAGETE ALTO DOBLE VARIADO</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -4367,7 +4367,7 @@
         <v>4.96</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>100</v>
+        <v>54.55</v>
       </c>
       <c r="L46" s="4" t="n">
         <v>0</v>
@@ -4379,50 +4379,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T46" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5402050008</t>
+          <t>5401010019</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PADRON 2011</t>
+          <t>GIRASOL ORNAMENTAL 2011</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -4444,10 +4444,10 @@
         <v>6</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>4.72</v>
+        <v>4.96</v>
       </c>
       <c r="K47" s="4" t="n">
         <v>100</v>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q47" s="4" t="n">
         <v>0</v>
@@ -4500,12 +4500,12 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5402090016</t>
+          <t>5404010010</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>FRESON ALEXANDRIA</t>
+          <t>HIERBA PARA GATOS</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -4527,13 +4527,13 @@
         <v>6</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>4.96</v>
+        <v>4.72</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>85.70999999999999</v>
+        <v>46.15</v>
       </c>
       <c r="L48" s="4" t="n">
         <v>0</v>
@@ -4545,16 +4545,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S48" s="5" t="n">
         <v>10</v>
@@ -4566,29 +4566,29 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5401010019</t>
+          <t>5404010017</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>GIRASOL ORNAMENTAL 2011</t>
+          <t>PEREJIL COMUN DE HOJA LISA</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -4616,7 +4616,7 @@
         <v>4.96</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>100</v>
+        <v>26.09</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>0</v>
@@ -4628,50 +4628,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T49" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5404010010</t>
+          <t>5402090016</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>HIERBA PARA GATOS</t>
+          <t>FRESON ALEXANDRIA</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -4693,13 +4693,13 @@
         <v>6</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>4.72</v>
+        <v>4.96</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>46.15</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="L50" s="4" t="n">
         <v>0</v>
@@ -4711,16 +4711,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S50" s="5" t="n">
         <v>10</v>
@@ -4732,29 +4732,29 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5401010028</t>
+          <t>5401010030</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>TAGETE ALTO DOBLE VARIADO</t>
+          <t>ZINNIA FLOR DE DALIA</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -4782,7 +4782,7 @@
         <v>4.96</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="L51" s="4" t="n">
         <v>0</v>
@@ -4794,38 +4794,38 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T51" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T51" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
@@ -5413,12 +5413,12 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>5401010010</t>
+          <t>5402050018</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>COLEUS HIBRIDO ARCO IRIS</t>
+          <t>TOMATE ROMA</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
@@ -5446,7 +5446,7 @@
         <v>4.19</v>
       </c>
       <c r="K59" s="4" t="n">
-        <v>100</v>
+        <v>26.32</v>
       </c>
       <c r="L59" s="4" t="n">
         <v>0</v>
@@ -5458,50 +5458,50 @@
         <v>7.6</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P59" s="4" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T59" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>5402050018</t>
+          <t>5401010010</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>TOMATE ROMA</t>
+          <t>COLEUS HIBRIDO ARCO IRIS</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>
@@ -5529,7 +5529,7 @@
         <v>4.19</v>
       </c>
       <c r="K60" s="4" t="n">
-        <v>26.32</v>
+        <v>100</v>
       </c>
       <c r="L60" s="4" t="n">
         <v>0</v>
@@ -5541,38 +5541,38 @@
         <v>7.6</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P60" s="4" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T60" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T60" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
@@ -6240,12 +6240,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5401010016</t>
+          <t>5404010013</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>ESTATICE VARIADA</t>
+          <t>MANZANILLA</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -6267,13 +6267,13 @@
         <v>4</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.31</v>
+        <v>3.06</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>44.44</v>
+        <v>57.14</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>0</v>
@@ -6285,10 +6285,10 @@
         <v>6.1</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>59</v>
@@ -6323,12 +6323,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5402050011</t>
+          <t>5401010016</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CORAZÓN DE BUEY 2017</t>
+          <t>ESTATICE VARIADA</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -6356,7 +6356,7 @@
         <v>3.31</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>33.33</v>
+        <v>44.44</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>0</v>
@@ -6368,10 +6368,10 @@
         <v>6.1</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="4" t="n">
         <v>59</v>
@@ -6406,12 +6406,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5404010012</t>
+          <t>5402050011</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>LAVANDA OFFICINALIS</t>
+          <t>TOMATE CORAZÓN DE BUEY 2017</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -6439,7 +6439,7 @@
         <v>3.31</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>40</v>
+        <v>33.33</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -6451,16 +6451,16 @@
         <v>6.1</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S7" s="5" t="n">
         <v>10</v>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -6489,12 +6489,12 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5402050004</t>
+          <t>5404010012</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO DULCE ITALIANO ECOL</t>
+          <t>LAVANDA OFFICINALIS</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -6522,7 +6522,7 @@
         <v>3.31</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>0</v>
@@ -6534,50 +6534,50 @@
         <v>6.1</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T8" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
         <is>
-          <t>13B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5404010013</t>
+          <t>5402090013</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>MANZANILLA</t>
+          <t>ESPARRAGO MARY WASHINGTON 2011</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -6605,7 +6605,7 @@
         <v>3.06</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>57.14</v>
+        <v>80</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
@@ -6617,10 +6617,10 @@
         <v>6.1</v>
       </c>
       <c r="O9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4" t="n">
         <v>3</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>59</v>
@@ -6638,7 +6638,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -6648,19 +6648,19 @@
       </c>
       <c r="W9" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5402090013</t>
+          <t>5402050004</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ESPARRAGO MARY WASHINGTON 2011</t>
+          <t>PIMIENTO DULCE ITALIANO ECOL</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -6682,13 +6682,13 @@
         <v>4</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>3.06</v>
+        <v>3.31</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
@@ -6700,50 +6700,50 @@
         <v>6.1</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T10" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T10" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13B</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5401010033</t>
+          <t>5401010008</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>STRELITZIA AVE DEL PARAISO</t>
+          <t>CAPUCHINA TREPADORA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
         <v>3.35</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -6783,50 +6783,50 @@
         <v>6.1</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T11" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T11" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5404010006</t>
+          <t>5401010033</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>ANIS</t>
+          <t>STRELITZIA AVE DEL PARAISO</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -6848,13 +6848,13 @@
         <v>4</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>36.36</v>
+        <v>80</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>0</v>
@@ -6866,10 +6866,10 @@
         <v>6.1</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>59</v>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="W12" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -7153,12 +7153,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5401010008</t>
+          <t>5404010006</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>CAPUCHINA TREPADORA</t>
+          <t>ANIS</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -7180,13 +7180,13 @@
         <v>4</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>100</v>
+        <v>36.36</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
@@ -7198,38 +7198,38 @@
         <v>6.1</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T16" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -7402,12 +7402,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5107020001</t>
+          <t>5103010002</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ANEMONA DE CAEN MEZCLADO 7/8 15UDS</t>
+          <t>GLADIOLO FLOR GRANDE TRITON 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -7429,10 +7429,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>6.99</v>
+        <v>5.49</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>3.54</v>
+        <v>2.18</v>
       </c>
       <c r="K19" s="4" t="n">
         <v>20</v>
@@ -7450,7 +7450,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>10</v>
@@ -7485,12 +7485,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5103010002</t>
+          <t>5107020001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE TRITON 14/16 12 UDS</t>
+          <t>ANEMONA DE CAEN MEZCLADO 7/8 15UDS</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -7512,10 +7512,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>5.49</v>
+        <v>6.99</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>2.18</v>
+        <v>3.54</v>
       </c>
       <c r="K20" s="4" t="n">
         <v>20</v>
@@ -7533,7 +7533,7 @@
         <v>4</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>10</v>
@@ -7817,12 +7817,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5404010015</t>
+          <t>5404010026</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>MENTA VERDE</t>
+          <t>MANZANILLA ECO</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -7850,7 +7850,7 @@
         <v>2.48</v>
       </c>
       <c r="K24" s="4" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L24" s="4" t="n">
         <v>0</v>
@@ -7862,10 +7862,10 @@
         <v>4.6</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>59</v>
@@ -7883,7 +7883,7 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
@@ -7893,19 +7893,19 @@
       </c>
       <c r="W24" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5402030004</t>
+          <t>5401010025</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>RABANITO REDONDO ROJO</t>
+          <t>PETUNIA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -7933,7 +7933,7 @@
         <v>2.48</v>
       </c>
       <c r="K25" s="4" t="n">
-        <v>42.86</v>
+        <v>100</v>
       </c>
       <c r="L25" s="4" t="n">
         <v>0</v>
@@ -7945,50 +7945,50 @@
         <v>4.6</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T25" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T25" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13B</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5404010009</t>
+          <t>5402090017</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>ENELDO</t>
+          <t>MAIZ DULCE JUBILEE</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -8010,13 +8010,13 @@
         <v>3</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>5.1</v>
+        <v>5.34</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>2.24</v>
+        <v>2.45</v>
       </c>
       <c r="K26" s="4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L26" s="4" t="n">
         <v>0</v>
@@ -8028,50 +8028,50 @@
         <v>4.6</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T26" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T26" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5401010027</t>
+          <t>5401010015</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>SALVIA ENANA ROJA</t>
+          <t>DALIA DECORATIVA, VARIADA 2011</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -8099,7 +8099,7 @@
         <v>2.48</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
@@ -8111,50 +8111,50 @@
         <v>4.6</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T27" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T27" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5401010015</t>
+          <t>5402020016</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>DALIA DECORATIVA, VARIADA 2011</t>
+          <t>CALABAZA BUTTERNUT ECO</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -8182,7 +8182,7 @@
         <v>2.48</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L28" s="4" t="n">
         <v>0</v>
@@ -8194,50 +8194,50 @@
         <v>4.6</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T28" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5402090017</t>
+          <t>5404010015</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>MAIZ DULCE JUBILEE</t>
+          <t>MENTA VERDE</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -8259,13 +8259,13 @@
         <v>3</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>5.34</v>
+        <v>5.37</v>
       </c>
       <c r="J29" s="4" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>0</v>
@@ -8277,50 +8277,50 @@
         <v>4.6</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T29" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5404010026</t>
+          <t>5401010027</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>MANZANILLA ECO</t>
+          <t>SALVIA ENANA ROJA</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -8348,7 +8348,7 @@
         <v>2.48</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L30" s="4" t="n">
         <v>0</v>
@@ -8360,10 +8360,10 @@
         <v>4.6</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>59</v>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -8391,19 +8391,19 @@
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5401010025</t>
+          <t>5404010009</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>PETUNIA DOBLE VARIADA</t>
+          <t>ENELDO</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -8425,13 +8425,13 @@
         <v>3</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>5.37</v>
+        <v>5.1</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>2.48</v>
+        <v>2.24</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
@@ -8443,50 +8443,50 @@
         <v>4.6</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T31" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>13B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5402020016</t>
+          <t>5402030004</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA BUTTERNUT ECO</t>
+          <t>RABANITO REDONDO ROJO</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -8514,7 +8514,7 @@
         <v>2.48</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>30</v>
+        <v>42.86</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -8526,10 +8526,10 @@
         <v>4.6</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>59</v>
@@ -8564,12 +8564,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5402020001</t>
+          <t>5402050024</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>CALABACIN DE MESA NEGRO</t>
+          <t>BERENJENA LARGA NEGRA ECO</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -8591,13 +8591,13 @@
         <v>3</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>5.37</v>
+        <v>5.1</v>
       </c>
       <c r="J33" s="4" t="n">
-        <v>2.51</v>
+        <v>2.27</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
@@ -8609,50 +8609,50 @@
         <v>4.6</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T33" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5402050009</t>
+          <t>5402020009</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PIQUILLO</t>
+          <t>MELON PIÑONET PIEL DE SAPO</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -8680,7 +8680,7 @@
         <v>2.51</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
@@ -8692,50 +8692,50 @@
         <v>4.6</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T34" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T34" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>5401010035</t>
+          <t>5401010017</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>PORTULACA DOBLE VARIADA</t>
+          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -8763,7 +8763,7 @@
         <v>2.51</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="L35" s="4" t="n">
         <v>0</v>
@@ -8775,10 +8775,10 @@
         <v>4.6</v>
       </c>
       <c r="O35" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P35" s="4" t="n">
         <v>5</v>
-      </c>
-      <c r="P35" s="4" t="n">
-        <v>16</v>
       </c>
       <c r="Q35" s="4" t="n">
         <v>59</v>
@@ -8813,12 +8813,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5402050024</t>
+          <t>5402050002</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA LARGA NEGRA ECO</t>
+          <t>PIMIENTO BLOCKY AMARILLO 2019</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -8840,13 +8840,13 @@
         <v>3</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>5.1</v>
+        <v>5.37</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>2.27</v>
+        <v>2.51</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>0</v>
@@ -8858,10 +8858,10 @@
         <v>4.6</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q36" s="4" t="n">
         <v>59</v>
@@ -8896,12 +8896,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5402020009</t>
+          <t>5401010035</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO</t>
+          <t>PORTULACA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -8929,7 +8929,7 @@
         <v>2.51</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0</v>
@@ -8941,50 +8941,50 @@
         <v>4.6</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T37" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5402050002</t>
+          <t>5402020007</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO BLOCKY AMARILLO 2019</t>
+          <t>MELON ROCHET</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -9012,7 +9012,7 @@
         <v>2.51</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>4.6</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>59</v>
@@ -9062,12 +9062,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5402090022</t>
+          <t>5402060003</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>REMOLACHA DE MESA ROJA</t>
+          <t>GUISANTE RONDO ECO</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -9095,7 +9095,7 @@
         <v>2.51</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -9107,50 +9107,50 @@
         <v>4.6</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T39" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T39" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5402020007</t>
+          <t>5402020001</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>MELON ROCHET</t>
+          <t>CALABACIN DE MESA NEGRO</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -9178,7 +9178,7 @@
         <v>2.51</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>0</v>
@@ -9190,50 +9190,50 @@
         <v>4.6</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T40" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T40" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5402060003</t>
+          <t>5402090022</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>GUISANTE RONDO ECO</t>
+          <t>REMOLACHA DE MESA ROJA</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -9261,7 +9261,7 @@
         <v>2.51</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
@@ -9273,50 +9273,50 @@
         <v>4.6</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T41" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>5401010017</t>
+          <t>5402050009</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
+          <t>PIMIENTO PIQUILLO</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -9359,7 +9359,7 @@
         <v>3</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="Q42" s="4" t="n">
         <v>59</v>
@@ -9726,12 +9726,12 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5107040000</t>
+          <t>5102070005</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>CANNA ENANA FV ZUMBA</t>
+          <t>DAHLIA POMPON OKAPI I X1</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -9753,10 +9753,10 @@
         <v>1</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>4.29</v>
+        <v>3.5</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.96</v>
+        <v>1.24</v>
       </c>
       <c r="K47" s="4" t="n">
         <v>20</v>
@@ -9774,7 +9774,7 @@
         <v>4</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q47" s="4" t="n">
         <v>10</v>
@@ -9892,12 +9892,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5102070005</t>
+          <t>5107040000</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON OKAPI I X1</t>
+          <t>CANNA ENANA FV ZUMBA</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -9919,10 +9919,10 @@
         <v>1</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>3.5</v>
+        <v>4.29</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.24</v>
+        <v>1.96</v>
       </c>
       <c r="K49" s="4" t="n">
         <v>20</v>
@@ -9940,7 +9940,7 @@
         <v>4</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="4" t="n">
         <v>10</v>
@@ -10058,12 +10058,12 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5401010014</t>
+          <t>5401010022</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>CRISANTEMOS DE LOS JARDINES, VARIADOS 2011</t>
+          <t>MARGARITA GRANDE BLANCA</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -10091,7 +10091,7 @@
         <v>1.65</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>100</v>
+        <v>66.67</v>
       </c>
       <c r="L51" s="4" t="n">
         <v>0</v>
@@ -10103,50 +10103,50 @@
         <v>3.1</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T51" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>5402020006</t>
+          <t>5401030003</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA CABELLO DE ANGEL 2011</t>
+          <t>CINERARIA ENANA HIBRIDA VARIADA</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
@@ -10174,7 +10174,7 @@
         <v>1.65</v>
       </c>
       <c r="K52" s="4" t="n">
-        <v>22.22</v>
+        <v>28.57</v>
       </c>
       <c r="L52" s="4" t="n">
         <v>0</v>
@@ -10186,10 +10186,10 @@
         <v>3.1</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="Q52" s="4" t="n">
         <v>59</v>
@@ -10224,12 +10224,12 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>5404010008</t>
+          <t>5402020006</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>CILANTRO</t>
+          <t>CALABAZA CABELLO DE ANGEL 2011</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
@@ -10257,7 +10257,7 @@
         <v>1.65</v>
       </c>
       <c r="K53" s="4" t="n">
-        <v>20</v>
+        <v>22.22</v>
       </c>
       <c r="L53" s="4" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>3.1</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P53" s="4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S53" s="5" t="n">
         <v>10</v>
@@ -10295,7 +10295,7 @@
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
@@ -10307,12 +10307,12 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>5401030003</t>
+          <t>5404010008</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>CINERARIA ENANA HIBRIDA VARIADA</t>
+          <t>CILANTRO</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
@@ -10340,7 +10340,7 @@
         <v>1.65</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>28.57</v>
+        <v>20</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0</v>
@@ -10352,16 +10352,16 @@
         <v>3.1</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S54" s="5" t="n">
         <v>10</v>
@@ -10378,7 +10378,7 @@
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
@@ -10390,12 +10390,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5401010022</t>
+          <t>5402050006</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>MARGARITA GRANDE BLANCA</t>
+          <t>PIMIENTO HABANERO ROJO 2019</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
@@ -10423,7 +10423,7 @@
         <v>1.65</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
@@ -10435,10 +10435,10 @@
         <v>3.1</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q55" s="4" t="n">
         <v>59</v>
@@ -10456,7 +10456,7 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
@@ -10466,19 +10466,19 @@
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>5402050006</t>
+          <t>5401010014</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO HABANERO ROJO 2019</t>
+          <t>CRISANTEMOS DE LOS JARDINES, VARIADOS 2011</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
@@ -10506,7 +10506,7 @@
         <v>1.65</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L56" s="4" t="n">
         <v>0</v>
@@ -10518,50 +10518,50 @@
         <v>3.1</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T56" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T56" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>5402090010</t>
+          <t>5402090012</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>COLIFLOR ROMANESCO NATALINO</t>
+          <t>ESCAROLA CABELLO DE ANGEL 2011</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
@@ -10589,7 +10589,7 @@
         <v>1.67</v>
       </c>
       <c r="K57" s="4" t="n">
-        <v>10</v>
+        <v>33.33</v>
       </c>
       <c r="L57" s="4" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>3.1</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P57" s="4" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="Q57" s="4" t="n">
         <v>59</v>
@@ -10802,12 +10802,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5402090012</t>
+          <t>5402040005</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>ESCAROLA CABELLO DE ANGEL 2011</t>
+          <t>LECHUGA RED SALAD BALL 2011</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
@@ -10835,7 +10835,7 @@
         <v>1.67</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>33.33</v>
+        <v>20</v>
       </c>
       <c r="L2" s="4" t="n">
         <v>0</v>
@@ -10847,10 +10847,10 @@
         <v>3.1</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>59</v>
@@ -10885,12 +10885,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5404010001</t>
+          <t>5402080005</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA FINA</t>
+          <t>JUDIA PEROLAR 35GR</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
@@ -10912,13 +10912,13 @@
         <v>2</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.58</v>
+        <v>3.56</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>0</v>
@@ -10930,10 +10930,10 @@
         <v>3.1</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>59</v>
@@ -10951,7 +10951,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado. Continuar monitoreo.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -10961,19 +10961,19 @@
       </c>
       <c r="W3" s="4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5402040005</t>
+          <t>5402040008</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA RED SALAD BALL 2011</t>
+          <t>LECHUGA REINA DE MAYO ECO</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -11001,7 +11001,7 @@
         <v>1.67</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>0</v>
@@ -11013,10 +11013,10 @@
         <v>3.1</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>59</v>
@@ -11051,12 +11051,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5402020013</t>
+          <t>5402030005</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>SANDIA CRIMSON SWEET ECOLOG</t>
+          <t>RABANITO REDONDO ROJO ECOL</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -11078,13 +11078,13 @@
         <v>2</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.18</v>
+        <v>40</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>0</v>
@@ -11096,10 +11096,10 @@
         <v>3.1</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>59</v>
@@ -11134,12 +11134,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5404010023</t>
+          <t>5402020012</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>TOMILLO</t>
+          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -11167,7 +11167,7 @@
         <v>1.67</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>33.33</v>
+        <v>22.22</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>0</v>
@@ -11179,10 +11179,10 @@
         <v>3.1</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="4" t="n">
         <v>59</v>
@@ -11217,12 +11217,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5402090001</t>
+          <t>5402040002</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ACELGA VERDE PENCA BLANCA</t>
+          <t>LECHUGA GRANDES LAGOS -CALIFORNIA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -11250,7 +11250,7 @@
         <v>1.67</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>22.22</v>
+        <v>4.26</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -11262,10 +11262,10 @@
         <v>3.1</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>59</v>
@@ -11300,12 +11300,12 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5402030005</t>
+          <t>5402090010</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>RABANITO REDONDO ROJO ECOL</t>
+          <t>COLIFLOR ROMANESCO NATALINO</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -11327,13 +11327,13 @@
         <v>2</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>3.31</v>
+        <v>3.58</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>0</v>
@@ -11345,10 +11345,10 @@
         <v>3.1</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>59</v>
@@ -11383,12 +11383,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5401010036</t>
+          <t>5404010023</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>MEZCLA DE FLORES PARDO JAPONES VARIADA</t>
+          <t>TOMILLO</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -11416,7 +11416,7 @@
         <v>1.67</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>20</v>
+        <v>33.33</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
@@ -11428,10 +11428,10 @@
         <v>3.1</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>59</v>
@@ -11466,12 +11466,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5402080005</t>
+          <t>5402040007</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>JUDIA PEROLAR 35GR</t>
+          <t>LECHUGA SUCRINE</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -11493,13 +11493,13 @@
         <v>2</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>3.56</v>
+        <v>3.58</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>40</v>
+        <v>13.33</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
@@ -11511,10 +11511,10 @@
         <v>3.1</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>59</v>
@@ -11549,12 +11549,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5402040008</t>
+          <t>5402020013</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA REINA DE MAYO ECO</t>
+          <t>SANDIA CRIMSON SWEET ECOLOG</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -11582,7 +11582,7 @@
         <v>1.67</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>10</v>
+        <v>18.18</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -11594,10 +11594,10 @@
         <v>3.1</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>59</v>
@@ -11632,12 +11632,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5402020012</t>
+          <t>5404010001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
+          <t>ALBAHACA FINA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -11665,7 +11665,7 @@
         <v>1.67</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>22.22</v>
+        <v>66.67</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>0</v>
@@ -11677,10 +11677,10 @@
         <v>3.1</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>59</v>
@@ -11698,7 +11698,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>OPTIMIZAR: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado. Continuar monitoreo.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -11708,7 +11708,7 @@
       </c>
       <c r="W12" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -11798,12 +11798,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5402040002</t>
+          <t>5402090001</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA GRANDES LAGOS -CALIFORNIA</t>
+          <t>ACELGA VERDE PENCA BLANCA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -11831,7 +11831,7 @@
         <v>1.67</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>4.26</v>
+        <v>22.22</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
@@ -11843,10 +11843,10 @@
         <v>3.1</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>59</v>
@@ -11881,12 +11881,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5402040007</t>
+          <t>5401010036</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA SUCRINE</t>
+          <t>MEZCLA DE FLORES PARDO JAPONES VARIADA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -11914,7 +11914,7 @@
         <v>1.67</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>13.33</v>
+        <v>20</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>0</v>
@@ -11926,10 +11926,10 @@
         <v>3.1</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>59</v>
@@ -12130,12 +12130,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>5401010012</t>
+          <t>5401030002</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>CORONADO PRINCESA, VARIADO</t>
+          <t>CLAVEL MARGARITA VARIADO 00543</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
@@ -12163,7 +12163,7 @@
         <v>1.71</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L18" s="4" t="n">
         <v>0</v>
@@ -12175,50 +12175,50 @@
         <v>3.1</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T18" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T18" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5401030001</t>
+          <t>5401010012</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CLAVEL GIGANTE ROSA PÁLIDO</t>
+          <t>CORONADO PRINCESA, VARIADO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -12246,7 +12246,7 @@
         <v>1.71</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L19" s="4" t="n">
         <v>0</v>
@@ -12258,50 +12258,50 @@
         <v>3.1</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T19" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 30%. Stock objetivo: 1 unidades. Monitorear demanda próximas semanas.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>26B</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5401030002</t>
+          <t>5401030001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>CLAVEL MARGARITA VARIADO 00543</t>
+          <t>CLAVEL GIGANTE ROSA PÁLIDO</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -12344,7 +12344,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>0</v>
@@ -12362,7 +12362,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>RECOMPRA PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 30%. Stock objetivo: 1 unidades. Monitorear demanda próximas semanas.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -12372,7 +12372,7 @@
       </c>
       <c r="W20" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>26B</t>
         </is>
       </c>
     </row>
@@ -12628,12 +12628,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5404010014</t>
+          <t>5402090020</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>MELISSA OFFICINALIS</t>
+          <t>PUERRO VDE CARENTAN ECOLOG</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>0.83</v>
       </c>
       <c r="K24" s="4" t="n">
-        <v>16.67</v>
+        <v>11.11</v>
       </c>
       <c r="L24" s="4" t="n">
         <v>0</v>
@@ -12673,10 +12673,10 @@
         <v>1.5</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>59</v>
@@ -12711,12 +12711,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5402090020</t>
+          <t>5402020014</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>PUERRO VDE CARENTAN ECOLOG</t>
+          <t>SANDIA SUGAR BABY</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -12744,7 +12744,7 @@
         <v>0.83</v>
       </c>
       <c r="K25" s="4" t="n">
-        <v>11.11</v>
+        <v>16.67</v>
       </c>
       <c r="L25" s="4" t="n">
         <v>0</v>
@@ -12756,10 +12756,10 @@
         <v>1.5</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>59</v>
@@ -12794,12 +12794,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5402020014</t>
+          <t>5404010014</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>SANDIA SUGAR BABY</t>
+          <t>MELISSA OFFICINALIS</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -12842,7 +12842,7 @@
         <v>5</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>59</v>
@@ -12960,12 +12960,12 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5401010032</t>
+          <t>5402020017</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>GIPSOFILA ELEGANS BLANCA</t>
+          <t>MELON PIÑONET PIEL DE SAPO ECO</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -12993,7 +12993,7 @@
         <v>0.84</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>10</v>
+        <v>11.11</v>
       </c>
       <c r="L28" s="4" t="n">
         <v>0</v>
@@ -13005,16 +13005,16 @@
         <v>1.5</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S28" s="5" t="n">
         <v>10</v>
@@ -13031,7 +13031,7 @@
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
@@ -13043,12 +13043,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5404010022</t>
+          <t>5402090008</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>STEVIA 2015</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -13076,7 +13076,7 @@
         <v>0.84</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>4.76</v>
+        <v>11.11</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>0</v>
@@ -13088,10 +13088,10 @@
         <v>1.5</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="Q29" s="4" t="n">
         <v>59</v>
@@ -13126,12 +13126,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5404010004</t>
+          <t>5404010022</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA LIMON 2015</t>
+          <t>STEVIA 2015</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -13159,7 +13159,7 @@
         <v>0.84</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>100</v>
+        <v>4.76</v>
       </c>
       <c r="L30" s="4" t="n">
         <v>0</v>
@@ -13171,50 +13171,50 @@
         <v>1.5</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T30" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5402090008</t>
+          <t>5402090006</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
+          <t>CEBOLLA ARBO - MORADA DE AMPOSTA 2011</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -13242,7 +13242,7 @@
         <v>0.84</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>11.11</v>
+        <v>50</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
@@ -13254,7 +13254,7 @@
         <v>1.5</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>55</v>
@@ -13375,12 +13375,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5402020017</t>
+          <t>5401010034</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO ECO</t>
+          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -13408,7 +13408,7 @@
         <v>0.84</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>11.11</v>
+        <v>20</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
@@ -13420,10 +13420,10 @@
         <v>1.5</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="Q33" s="4" t="n">
         <v>59</v>
@@ -13458,12 +13458,12 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5401010034</t>
+          <t>5402030003</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
+          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -13491,7 +13491,7 @@
         <v>0.84</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
@@ -13503,50 +13503,50 @@
         <v>1.5</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T34" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T34" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>5402090006</t>
+          <t>5402090028</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA ARBO - MORADA DE AMPOSTA 2011</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -13589,7 +13589,7 @@
         <v>1</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="Q35" s="4" t="n">
         <v>59</v>
@@ -13624,12 +13624,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5402030003</t>
+          <t>5401010032</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
+          <t>GIPSOFILA ELEGANS BLANCA</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -13657,7 +13657,7 @@
         <v>0.84</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>0</v>
@@ -13669,50 +13669,50 @@
         <v>1.5</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T36" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5402090028</t>
+          <t>5404010004</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
+          <t>ALBAHACA LIMON 2015</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -13740,7 +13740,7 @@
         <v>0.84</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0</v>
@@ -13752,50 +13752,50 @@
         <v>1.5</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T37" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T37" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5402020005</t>
+          <t>5401010021</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA BUTTERNUT</t>
+          <t>IPOMEA CAMPANILLA VARIADA</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -13823,7 +13823,7 @@
         <v>0.86</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0</v>
@@ -13835,50 +13835,50 @@
         <v>1.5</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T38" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5401010021</t>
+          <t>5402020005</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>IPOMEA CAMPANILLA VARIADA</t>
+          <t>CALABAZA BUTTERNUT</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -13906,7 +13906,7 @@
         <v>0.86</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -13918,38 +13918,38 @@
         <v>1.5</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T39" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T39" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
@@ -14368,24 +14368,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5302010001</t>
+          <t>5402080002</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPORT</t>
+          <t>JUDIA GARRAFAL ENANA 250GR</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -14413,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>59</v>
@@ -14434,7 +14434,7 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
@@ -14451,12 +14451,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5102020013</t>
+          <t>5102010005</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA JAMAICA I X1</t>
+          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
@@ -14534,24 +14534,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5102010005</t>
+          <t>5402010002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
+          <t>COL BRUSELAS MEDIO ENANA</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -14579,19 +14579,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
@@ -14600,12 +14600,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -14617,24 +14617,24 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5102010004</t>
+          <t>5401010001</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
+          <t>AMAPOLA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -14662,19 +14662,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T5" s="8" t="inlineStr">
         <is>
@@ -14683,12 +14683,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -14783,24 +14783,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5402090003</t>
+          <t>5107190010</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ALCACHOFA TALPIOT 2011</t>
+          <t>LIS ORIENTAL BERGAME 16/18 3 UDS</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -14828,19 +14828,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T7" s="8" t="inlineStr">
         <is>
@@ -14849,12 +14849,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -14866,24 +14866,32 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5404010021</t>
+          <t>5301010002</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>SALVIA OFFICINALIS</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SPARRING</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -14911,16 +14919,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S8" s="5" t="n">
         <v>10</v>
@@ -14932,12 +14940,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -14949,24 +14957,24 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5102040000</t>
+          <t>5402080001</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA DOBLE MACARON I X1 FDF</t>
+          <t>JUDÍA EFEQUINCE</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -14994,19 +15002,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T9" s="8" t="inlineStr">
         <is>
@@ -15015,12 +15023,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -15032,12 +15040,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5107010002</t>
+          <t>5107170001</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>AMARYLLIS BELLADONNA 20/+ X1</t>
+          <t>IXIA MACULATA MEZCLADO 5/+ X15</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -15115,32 +15123,24 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5301010001</t>
+          <t>5102020016</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA RESISTENTE</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DAHLIA DECORATIVA ENANA ZANZIBAR I X1</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr"/>
+      <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -15168,19 +15168,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
@@ -15189,12 +15189,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -15206,24 +15206,24 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5402080003</t>
+          <t>5102010004</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>JUDIA GARRAFAL ORO-VELEZ</t>
+          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -15251,19 +15251,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T12" s="8" t="inlineStr">
         <is>
@@ -15272,12 +15272,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -15289,24 +15289,24 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5102080000</t>
+          <t>5402090003</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA GIGANTE TARTARUS I X1</t>
+          <t>ALCACHOFA TALPIOT 2011</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
       <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -15334,19 +15334,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T13" s="8" t="inlineStr">
         <is>
@@ -15355,12 +15355,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -15372,12 +15372,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5103010006</t>
+          <t>5102070000</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 12 UDS</t>
+          <t>DAHLIA POMPON VILLA BLANCA 1 UDS</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -15455,24 +15455,24 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5102020010</t>
+          <t>5402080003</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
+          <t>JUDIA GARRAFAL ORO-VELEZ</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -15506,13 +15506,13 @@
         <v>59</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T15" s="8" t="inlineStr">
         <is>
@@ -15521,12 +15521,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -15538,12 +15538,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5402010002</t>
+          <t>5402010003</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>COL BRUSELAS MEDIO ENANA</t>
+          <t>COL RIZADA KALE 2017</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -15621,12 +15621,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>5107100002</t>
+          <t>5102040000</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
+          <t>DAHLIA ENANA DOBLE MACARON I X1 FDF</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
@@ -15666,7 +15666,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
@@ -15704,12 +15704,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>5102070006</t>
+          <t>5107190005</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON ASHADO X1</t>
+          <t>ARUM FORET NEGRO 14+1 UDS</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
@@ -15787,32 +15787,24 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5301010002</t>
+          <t>5102020011</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPARRING</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr"/>
+      <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -15840,19 +15832,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T19" s="8" t="inlineStr">
         <is>
@@ -15861,12 +15853,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -15878,24 +15870,24 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5107190009</t>
+          <t>5302010001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL STARGAZER 16/18 3 UDS</t>
+          <t>CESPED FORMULA SPORT</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -15923,19 +15915,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T20" s="8" t="inlineStr">
         <is>
@@ -15944,12 +15936,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -15961,12 +15953,12 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5402080002</t>
+          <t>5402080006</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>JUDIA GARRAFAL ENANA 250GR</t>
+          <t>JUDIA HELDA ECO</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
@@ -16006,7 +15998,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>59</v>
@@ -16027,7 +16019,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -16044,12 +16036,12 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5102020015</t>
+          <t>5102020019</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
+          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
@@ -16127,24 +16119,24 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5102020016</t>
+          <t>5301010003</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA ZANZIBAR I X1</t>
+          <t>SEMILLAS CESPED RESISTENTE 1KG</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -16172,19 +16164,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T23" s="8" t="inlineStr">
         <is>
@@ -16193,12 +16185,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -16210,24 +16202,32 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5103030000</t>
+          <t>5301010001</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE MEZCLADO 10/12 40 UDS</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr"/>
-      <c r="D24" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA RESISTENTE</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -16255,19 +16255,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T24" s="8" t="inlineStr">
         <is>
@@ -16276,12 +16276,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -16293,12 +16293,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5103020000</t>
+          <t>5107100002</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO COLVILLEI MEZCLADO 8/9 X7</t>
+          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -16338,7 +16338,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>59</v>
@@ -16376,12 +16376,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5107190013</t>
+          <t>5102050000</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>ARUM MAJESTIC RED 14/+ X1</t>
+          <t>DAHLIA ENANA SIMPLE MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -16459,24 +16459,24 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5102020012</t>
+          <t>5402030001</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA LE THOUREIL I X1</t>
+          <t>NABO DE MESA VIRTUDES MARTILLO</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
       <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -16510,13 +16510,13 @@
         <v>59</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T27" s="8" t="inlineStr">
         <is>
@@ -16525,12 +16525,12 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -16542,12 +16542,12 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5102020019</t>
+          <t>5102020012</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
+          <t>DAHLIA DECORATIVA ENANA LE THOUREIL I X1</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -16625,12 +16625,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5102090001</t>
+          <t>5102020015</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
+          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -16708,12 +16708,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5107190005</t>
+          <t>5102080000</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>ARUM FORET NEGRO 14+1 UDS</t>
+          <t>DAHLIA GIGANTE TARTARUS I X1</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -16791,24 +16791,24 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5401010001</t>
+          <t>5103020000</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>AMAPOLA DOBLE VARIADA</t>
+          <t>GLADIOLO COLVILLEI MEZCLADO 8/9 X7</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
       <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
@@ -16836,19 +16836,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T31" s="8" t="inlineStr">
         <is>
@@ -16857,12 +16857,12 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -16874,12 +16874,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5107190017</t>
+          <t>5107190009</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>ARUM PINK PERSUASION 14/+ X1</t>
+          <t>LIS ORIENTAL STARGAZER 16/18 3 UDS</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -16957,24 +16957,24 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5301010003</t>
+          <t>5402010001</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS CESPED RESISTENTE 1KG</t>
+          <t>COL BRUNSWICK TENTA</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
       <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
@@ -17002,7 +17002,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>59</v>
@@ -17023,7 +17023,7 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.77€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
@@ -17040,24 +17040,24 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5401010031</t>
+          <t>5102090001</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>GERANIO ZONALE VARIADO</t>
+          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
       <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -17085,19 +17085,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T34" s="8" t="inlineStr">
         <is>
@@ -17106,12 +17106,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -17123,17 +17123,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5301010002</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
+          <t>CESPED FORMULA SPARRING</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>250G</t>
+          <t>1Kg</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -17143,12 +17143,12 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -17176,16 +17176,16 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S35" s="5" t="n">
         <v>10</v>
@@ -17197,12 +17197,12 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 74.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -17214,12 +17214,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5404010018</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL DOBLE RIZADO 2011</t>
+          <t>HABA HISTAL</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -17259,7 +17259,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>59</v>
@@ -17280,7 +17280,7 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.01€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
@@ -17297,24 +17297,24 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5103010003</t>
+          <t>5404010021</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
+          <t>SALVIA OFFICINALIS</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
       <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -17342,19 +17342,19 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T37" s="8" t="inlineStr">
         <is>
@@ -17363,12 +17363,12 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -17380,12 +17380,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5101010003</t>
+          <t>5107190018</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE ESCARLATA 5/6 X3</t>
+          <t>ARUM HOTSHOT 14/+ X1</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -17463,12 +17463,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5107190018</t>
+          <t>5102020013</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>ARUM HOTSHOT 14/+ X1</t>
+          <t>DAHLIA DECORATIVA ENANA JAMAICA I X1</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -17546,12 +17546,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5404010018</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
+          <t>PEREJIL DOBLE RIZADO 2011</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -17591,7 +17591,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>59</v>
@@ -17612,7 +17612,7 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.01€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
@@ -17712,16 +17712,24 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>5402080006</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>JUDIA HELDA ECO</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr"/>
-      <c r="D42" s="3" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>60G</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
           <t>54</t>
@@ -17757,16 +17765,16 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S42" s="5" t="n">
         <v>10</v>
@@ -17778,12 +17786,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -17795,24 +17803,24 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>5307010005</t>
+          <t>5404010002</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS REPOBLADORAS 1 KG</t>
+          <t>ALBAHACA GIGANTE</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
       <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -17840,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>59</v>
@@ -17861,7 +17869,7 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.19€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
@@ -17878,24 +17886,24 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>5402090029</t>
+          <t>5307010005</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>MAIZ DULCE GOLDEN BANTAAM ECO</t>
+          <t>SEMILLAS REPOBLADORAS 1 KG</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
       <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -17923,7 +17931,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>59</v>
@@ -17944,7 +17952,7 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.19€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
@@ -17961,32 +17969,24 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5305010001</t>
+          <t>5103010003</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SOMBRA</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr"/>
+      <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -18014,19 +18014,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T45" s="8" t="inlineStr">
         <is>
@@ -18035,12 +18035,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -18052,24 +18052,24 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5404010007</t>
+          <t>5107100001</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLINO ANUAL 2011</t>
+          <t>FREESIA DOBLE MEZCLADO 5+ 15 UDS</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -18097,19 +18097,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T46" s="8" t="inlineStr">
         <is>
@@ -18118,12 +18118,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -18135,24 +18135,24 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5404010002</t>
+          <t>5102020010</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA GIGANTE</t>
+          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
       <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
@@ -18180,19 +18180,19 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T47" s="8" t="inlineStr">
         <is>
@@ -18201,12 +18201,12 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
@@ -18218,24 +18218,24 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5402030001</t>
+          <t>5107010002</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>NABO DE MESA VIRTUDES MARTILLO</t>
+          <t>AMARYLLIS BELLADONNA 20/+ X1</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
       <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -18269,13 +18269,13 @@
         <v>59</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T48" s="8" t="inlineStr">
         <is>
@@ -18284,12 +18284,12 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -18301,12 +18301,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5107170001</t>
+          <t>5107190013</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>IXIA MACULATA MEZCLADO 5/+ X15</t>
+          <t>ARUM MAJESTIC RED 14/+ X1</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -18384,24 +18384,24 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5102050000</t>
+          <t>5401010031</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA SIMPLE MEZCLADO I/II X4</t>
+          <t>GERANIO ZONALE VARIADO</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
       <c r="D50" s="3" t="inlineStr"/>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
@@ -18429,19 +18429,19 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T50" s="8" t="inlineStr">
         <is>
@@ -18450,12 +18450,12 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
@@ -18467,24 +18467,24 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5402080001</t>
+          <t>5103010006</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>JUDÍA EFEQUINCE</t>
+          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
       <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -18512,19 +18512,19 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T51" s="8" t="inlineStr">
         <is>
@@ -18533,12 +18533,12 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
@@ -18550,12 +18550,12 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>5107190010</t>
+          <t>5103030000</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL BERGAME 16/18 3 UDS</t>
+          <t>GLADIOLO FLOR GRANDE MEZCLADO 10/12 40 UDS</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
@@ -18633,12 +18633,12 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>5402010003</t>
+          <t>5404010007</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>COL RIZADA KALE 2017</t>
+          <t>CEBOLLINO ANUAL 2011</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
@@ -18678,7 +18678,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>59</v>
@@ -18699,7 +18699,7 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
@@ -18716,32 +18716,24 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>5301010002</t>
+          <t>5102070006</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPARRING</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t>1Kg</t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DAHLIA POMPON ASHADO X1</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr"/>
+      <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -18769,19 +18761,19 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T54" s="8" t="inlineStr">
         <is>
@@ -18790,12 +18782,12 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 74.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
@@ -18807,24 +18799,16 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5402090029</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>60G</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MAIZ DULCE GOLDEN BANTAAM ECO</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr"/>
+      <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="4" t="inlineStr">
         <is>
           <t>54</t>
@@ -18860,16 +18844,16 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S55" s="5" t="n">
         <v>10</v>
@@ -18881,12 +18865,12 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
@@ -18898,24 +18882,32 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>5102040001</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA DOBLE MEZCLADO I/II X4</t>
-        </is>
-      </c>
-      <c r="C56" s="3" t="inlineStr"/>
-      <c r="D56" s="3" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>250G</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
@@ -18943,19 +18935,19 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T56" s="8" t="inlineStr">
         <is>
@@ -18964,12 +18956,12 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
@@ -18981,24 +18973,32 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>5102020011</t>
+          <t>5305010001</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr"/>
-      <c r="D57" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SOMBRA</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -19026,19 +19026,19 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q57" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R57" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T57" s="8" t="inlineStr">
         <is>
@@ -19047,12 +19047,12 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W57" s="4" t="inlineStr">
@@ -19064,24 +19064,24 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>5402010001</t>
+          <t>5101010003</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>COL BRUNSWICK TENTA</t>
+          <t>BEGONIA DOBLE ESCARLATA 5/6 X3</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr"/>
       <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
@@ -19109,19 +19109,19 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T58" s="8" t="inlineStr">
         <is>
@@ -19130,12 +19130,12 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
@@ -19147,12 +19147,12 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>5102070000</t>
+          <t>5107190017</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON VILLA BLANCA 1 UDS</t>
+          <t>ARUM PINK PERSUASION 14/+ X1</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
@@ -19230,12 +19230,12 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>5107100001</t>
+          <t>5102040001</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>FREESIA DOBLE MEZCLADO 5+ 15 UDS</t>
+          <t>DAHLIA ENANA DOBLE MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>59</v>

--- a/data/input/CLASIFICACION_ABC+D_SEMILLAS_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_SEMILLAS_P1_2025.xlsx
@@ -2077,55 +2077,55 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5401010005</t>
+          <t>5105010009</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CALENDULA VARIADA</t>
+          <t>NARCISSE GRANDE COUPE PINK CHARM 1</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>17.9</v>
+        <v>14.98</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>8.27</v>
+        <v>5.62</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>15.3</v>
+        <v>3.1</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>0</v>
@@ -2138,12 +2138,12 @@
       </c>
       <c r="T19" s="7" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -2153,62 +2153,62 @@
       </c>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5105010009</t>
+          <t>5401010005</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>NARCISSE GRANDE COUPE PINK CHARM 1</t>
+          <t>CALENDULA VARIADA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>14.98</v>
+        <v>17.9</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>5.62</v>
+        <v>8.27</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>3.1</v>
+        <v>15.3</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>0</v>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -2236,62 +2236,62 @@
       </c>
       <c r="W20" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5402050010</t>
+          <t>5104010012</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CHERRY</t>
+          <t>JACINTHE BLEU DE DELFT FDF 15/+ X5</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>17.72</v>
+        <v>15.98</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>6.53</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>15.3</v>
+        <v>3.1</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>0</v>
@@ -2304,12 +2304,12 @@
       </c>
       <c r="T21" s="7" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -2319,62 +2319,62 @@
       </c>
       <c r="W21" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5104010012</t>
+          <t>5402050010</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>JACINTHE BLEU DE DELFT FDF 15/+ X5</t>
+          <t>TOMATE CHERRY</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>15.98</v>
+        <v>17.72</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>6.53</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>3.1</v>
+        <v>15.3</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>0</v>
@@ -2387,12 +2387,12 @@
       </c>
       <c r="T22" s="7" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="W22" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
@@ -2749,12 +2749,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5402050014</t>
+          <t>5401010026</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE ECOLOGICO</t>
+          <t>PETUNIA PENDULA VARIADA 2011</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -2776,13 +2776,13 @@
         <v>9</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>15.93</v>
+        <v>16.11</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>7.28</v>
+        <v>7.45</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>64.29000000000001</v>
+        <v>90</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>13.7</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S27" s="5" t="n">
         <v>10</v>
@@ -2815,29 +2815,29 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5401010026</t>
+          <t>5402050014</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>PETUNIA PENDULA VARIADA 2011</t>
+          <t>TOMATE MARMANDE ECOLOGICO</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -2859,13 +2859,13 @@
         <v>9</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>16.11</v>
+        <v>15.93</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>7.45</v>
+        <v>7.28</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>90</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="L28" s="4" t="n">
         <v>0</v>
@@ -2877,16 +2877,16 @@
         <v>13.7</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S28" s="5" t="n">
         <v>10</v>
@@ -2898,17 +2898,17 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3255,12 +3255,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5404010016</t>
+          <t>5401010023</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>OREGANO</t>
+          <t>PASIONARIA</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -3282,13 +3282,13 @@
         <v>8</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>14.05</v>
+        <v>14.32</v>
       </c>
       <c r="J33" s="4" t="n">
-        <v>6.37</v>
+        <v>6.62</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>80</v>
+        <v>88.89</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
@@ -3300,16 +3300,16 @@
         <v>12.2</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S33" s="5" t="n">
         <v>10</v>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -3338,12 +3338,12 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5401010023</t>
+          <t>5404010016</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>PASIONARIA</t>
+          <t>OREGANO</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -3365,13 +3365,13 @@
         <v>8</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>14.32</v>
+        <v>14.05</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>6.62</v>
+        <v>6.37</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>88.89</v>
+        <v>80</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
@@ -3383,16 +3383,16 @@
         <v>12.2</v>
       </c>
       <c r="O34" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="P34" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q34" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S34" s="5" t="n">
         <v>10</v>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -3753,12 +3753,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5404010020</t>
+          <t>5402020010</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>ROMERO COMUN</t>
+          <t>PEPINO BELLPUIG LARGO VERDE</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -3780,13 +3780,13 @@
         <v>7</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>12.53</v>
+        <v>12.35</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>5.79</v>
+        <v>5.63</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>116.67</v>
+        <v>77.78</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -3798,38 +3798,38 @@
         <v>10.7</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T39" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -3919,12 +3919,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5402020010</t>
+          <t>5404010020</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>PEPINO BELLPUIG LARGO VERDE</t>
+          <t>ROMERO COMUN</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -3946,13 +3946,13 @@
         <v>7</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>12.35</v>
+        <v>12.53</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>5.63</v>
+        <v>5.79</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>77.78</v>
+        <v>116.67</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
@@ -3964,38 +3964,38 @@
         <v>10.7</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T41" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T41" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -4417,12 +4417,12 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5401010019</t>
+          <t>5401010030</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>GIRASOL ORNAMENTAL 2011</t>
+          <t>ZINNIA FLOR DE DALIA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q47" s="4" t="n">
         <v>0</v>
@@ -4500,12 +4500,12 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5404010010</t>
+          <t>5401010019</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>HIERBA PARA GATOS</t>
+          <t>GIRASOL ORNAMENTAL 2011</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -4527,13 +4527,13 @@
         <v>6</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>4.72</v>
+        <v>4.96</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>46.15</v>
+        <v>100</v>
       </c>
       <c r="L48" s="4" t="n">
         <v>0</v>
@@ -4545,50 +4545,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T48" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T48" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5404010017</t>
+          <t>5402090016</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL COMUN DE HOJA LISA</t>
+          <t>FRESON ALEXANDRIA</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -4616,7 +4616,7 @@
         <v>4.96</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>26.09</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>0</v>
@@ -4628,10 +4628,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="Q49" s="4" t="n">
         <v>59</v>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
@@ -4659,19 +4659,19 @@
       </c>
       <c r="W49" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5402090016</t>
+          <t>5404010010</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>FRESON ALEXANDRIA</t>
+          <t>HIERBA PARA GATOS</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -4693,13 +4693,13 @@
         <v>6</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>4.96</v>
+        <v>4.72</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>85.70999999999999</v>
+        <v>46.15</v>
       </c>
       <c r="L50" s="4" t="n">
         <v>0</v>
@@ -4711,16 +4711,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S50" s="5" t="n">
         <v>10</v>
@@ -4732,29 +4732,29 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5401010030</t>
+          <t>5404010017</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ZINNIA FLOR DE DALIA</t>
+          <t>PEREJIL COMUN DE HOJA LISA</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -4782,7 +4782,7 @@
         <v>4.96</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>100</v>
+        <v>26.09</v>
       </c>
       <c r="L51" s="4" t="n">
         <v>0</v>
@@ -4794,38 +4794,38 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T51" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5081,12 +5081,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5402050015</t>
+          <t>5401010013</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE RAF</t>
+          <t>COSMOS DEL JAPON</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
@@ -5114,7 +5114,7 @@
         <v>4.14</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>71.43000000000001</v>
+        <v>83.33</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
@@ -5126,10 +5126,10 @@
         <v>7.6</v>
       </c>
       <c r="O55" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" s="4" t="n">
         <v>2</v>
-      </c>
-      <c r="P55" s="4" t="n">
-        <v>20</v>
       </c>
       <c r="Q55" s="4" t="n">
         <v>59</v>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
@@ -5157,102 +5157,102 @@
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>5401010013</t>
+          <t>5104010011</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>COSMOS DEL JAPON</t>
+          <t>JACINTHE JAN BOS FDF 15/+ X5</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
       <c r="D56" s="3" t="inlineStr"/>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>7.99</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>4.14</v>
+        <v>3.26</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="L56" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N56" s="5" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T56" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T56" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>5104010011</t>
+          <t>5107190015</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>JACINTHE JAN BOS FDF 15/+ X5</t>
+          <t>LIS CANDIDUM 22/24 X1</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
@@ -5274,10 +5274,10 @@
         <v>1</v>
       </c>
       <c r="I57" s="4" t="n">
-        <v>7.99</v>
+        <v>5.99</v>
       </c>
       <c r="J57" s="4" t="n">
-        <v>3.26</v>
+        <v>1.45</v>
       </c>
       <c r="K57" s="4" t="n">
         <v>0</v>
@@ -5330,95 +5330,95 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>5107190015</t>
+          <t>5402050015</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>LIS CANDIDUM 22/24 X1</t>
+          <t>TOMATE MARMANDE RAF</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr"/>
       <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H58" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>5.99</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="J58" s="4" t="n">
-        <v>1.45</v>
+        <v>4.14</v>
       </c>
       <c r="K58" s="4" t="n">
-        <v>0</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="L58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="N58" s="5" t="n">
-        <v>1.5</v>
+        <v>7.6</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P58" s="4" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T58" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>5402050018</t>
+          <t>5401010006</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>TOMATE ROMA</t>
+          <t>CAMPANULA DOBLE, VARIADA 2011</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
@@ -5446,7 +5446,7 @@
         <v>4.19</v>
       </c>
       <c r="K59" s="4" t="n">
-        <v>26.32</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="L59" s="4" t="n">
         <v>0</v>
@@ -5458,10 +5458,10 @@
         <v>7.6</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P59" s="4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="4" t="n">
         <v>59</v>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
@@ -5489,19 +5489,19 @@
       </c>
       <c r="W59" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>5401010010</t>
+          <t>5401010004</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>COLEUS HIBRIDO ARCO IRIS</t>
+          <t>BELLA DE NOCHE</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>
@@ -5529,7 +5529,7 @@
         <v>4.19</v>
       </c>
       <c r="K60" s="4" t="n">
-        <v>100</v>
+        <v>83.33</v>
       </c>
       <c r="L60" s="4" t="n">
         <v>0</v>
@@ -5541,50 +5541,50 @@
         <v>7.6</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T60" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T60" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>5401010004</t>
+          <t>5401010010</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>BELLA DE NOCHE</t>
+          <t>COLEUS HIBRIDO ARCO IRIS</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr"/>
@@ -5612,7 +5612,7 @@
         <v>4.19</v>
       </c>
       <c r="K61" s="4" t="n">
-        <v>83.33</v>
+        <v>100</v>
       </c>
       <c r="L61" s="4" t="n">
         <v>0</v>
@@ -5624,50 +5624,50 @@
         <v>7.6</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q61" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R61" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T61" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T61" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W61" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>5401010006</t>
+          <t>5402050018</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>CAMPANULA DOBLE, VARIADA 2011</t>
+          <t>TOMATE ROMA</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr"/>
@@ -5695,7 +5695,7 @@
         <v>4.19</v>
       </c>
       <c r="K62" s="4" t="n">
-        <v>71.43000000000001</v>
+        <v>26.32</v>
       </c>
       <c r="L62" s="4" t="n">
         <v>0</v>
@@ -5707,10 +5707,10 @@
         <v>7.6</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P62" s="4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q62" s="4" t="n">
         <v>59</v>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
@@ -5738,19 +5738,19 @@
       </c>
       <c r="W62" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>5404010011</t>
+          <t>5401010009</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>HIERBABUENA</t>
+          <t>CLAVEL DE POETA</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr"/>
@@ -5772,13 +5772,13 @@
         <v>5</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>8.41</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>3.85</v>
+        <v>4.34</v>
       </c>
       <c r="K63" s="4" t="n">
-        <v>55.56</v>
+        <v>83.33</v>
       </c>
       <c r="L63" s="4" t="n">
         <v>0</v>
@@ -5790,10 +5790,10 @@
         <v>7.6</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P63" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q63" s="4" t="n">
         <v>59</v>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="W63" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -5991,166 +5991,166 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5401010009</t>
+          <t>5102070004</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>CLAVEL DE POETA</t>
+          <t>DAHLIA POMPON MEZCLADO 1/2 4 UDS</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>6.45</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.34</v>
+        <v>2.06</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>83.33</v>
+        <v>4</v>
       </c>
       <c r="L2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M2" s="5" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N2" s="5" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T2" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T2" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 1416 días.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5102070004</t>
+          <t>5404010011</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON MEZCLADO 1/2 4 UDS</t>
+          <t>HIERBABUENA</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.45</v>
+        <v>8.41</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.06</v>
+        <v>3.85</v>
       </c>
       <c r="K3" s="4" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O3" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N3" s="5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>24</v>
-      </c>
       <c r="P3" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T3" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 1416 días.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6323,12 +6323,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5401010016</t>
+          <t>5402090013</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>ESTATICE VARIADA</t>
+          <t>ESPARRAGO MARY WASHINGTON 2011</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -6350,13 +6350,13 @@
         <v>4</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>3.31</v>
+        <v>3.06</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>44.44</v>
+        <v>80</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>0</v>
@@ -6368,7 +6368,7 @@
         <v>6.1</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>3</v>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -6399,7 +6399,7 @@
       </c>
       <c r="W6" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -6489,12 +6489,12 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5404010012</t>
+          <t>5401010016</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>LAVANDA OFFICINALIS</t>
+          <t>ESTATICE VARIADA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -6522,7 +6522,7 @@
         <v>3.31</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>40</v>
+        <v>44.44</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>0</v>
@@ -6534,16 +6534,16 @@
         <v>6.1</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S8" s="5" t="n">
         <v>10</v>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -6572,12 +6572,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5402090013</t>
+          <t>5404010012</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>ESPARRAGO MARY WASHINGTON 2011</t>
+          <t>LAVANDA OFFICINALIS</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -6599,13 +6599,13 @@
         <v>4</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>3.06</v>
+        <v>3.31</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
@@ -6617,16 +6617,16 @@
         <v>6.1</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S9" s="5" t="n">
         <v>10</v>
@@ -6638,17 +6638,17 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6904,12 +6904,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5402050012</t>
+          <t>5401010003</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>TOMATE DE COLGAR</t>
+          <t>BELLA DE DIA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -6937,7 +6937,7 @@
         <v>3.35</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>0</v>
+        <v>44.44</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
@@ -6949,50 +6949,50 @@
         <v>6.1</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T13" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5401010003</t>
+          <t>5402020003</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>BELLA DE DIA</t>
+          <t>CALABACIN REDONDO DE NIZA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -7020,7 +7020,7 @@
         <v>3.35</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>44.44</v>
+        <v>33.33</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
@@ -7032,10 +7032,10 @@
         <v>6.1</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>59</v>
@@ -7070,12 +7070,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5402020003</t>
+          <t>5402050012</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>CALABACIN REDONDO DE NIZA</t>
+          <t>TOMATE DE COLGAR</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -7103,7 +7103,7 @@
         <v>3.35</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>0</v>
@@ -7115,38 +7115,38 @@
         <v>6.1</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T15" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T15" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -7817,12 +7817,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5404010026</t>
+          <t>5402090017</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>MANZANILLA ECO</t>
+          <t>MAIZ DULCE JUBILEE</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -7844,13 +7844,13 @@
         <v>3</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>5.37</v>
+        <v>5.34</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="K24" s="4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L24" s="4" t="n">
         <v>0</v>
@@ -7862,50 +7862,50 @@
         <v>4.6</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>13</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T24" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T24" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5401010025</t>
+          <t>5404010015</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>PETUNIA DOBLE VARIADA</t>
+          <t>MENTA VERDE</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -7933,7 +7933,7 @@
         <v>2.48</v>
       </c>
       <c r="K25" s="4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L25" s="4" t="n">
         <v>0</v>
@@ -7945,50 +7945,50 @@
         <v>4.6</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T25" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
         <is>
-          <t>13B</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5402090017</t>
+          <t>5401010015</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>MAIZ DULCE JUBILEE</t>
+          <t>DALIA DECORATIVA, VARIADA 2011</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -8010,10 +8010,10 @@
         <v>3</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>5.34</v>
+        <v>5.37</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="K26" s="4" t="n">
         <v>100</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>0</v>
@@ -8049,7 +8049,7 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
@@ -8059,19 +8059,19 @@
       </c>
       <c r="W26" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5401010015</t>
+          <t>5404010026</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>DALIA DECORATIVA, VARIADA 2011</t>
+          <t>MANZANILLA ECO</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -8099,7 +8099,7 @@
         <v>2.48</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
@@ -8111,50 +8111,50 @@
         <v>4.6</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T27" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5402020016</t>
+          <t>5401010025</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA BUTTERNUT ECO</t>
+          <t>PETUNIA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -8182,7 +8182,7 @@
         <v>2.48</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L28" s="4" t="n">
         <v>0</v>
@@ -8194,50 +8194,50 @@
         <v>4.6</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T28" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T28" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13B</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5404010015</t>
+          <t>5402030004</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>MENTA VERDE</t>
+          <t>RABANITO REDONDO ROJO</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -8265,7 +8265,7 @@
         <v>2.48</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>75</v>
+        <v>42.86</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>0</v>
@@ -8277,10 +8277,10 @@
         <v>4.6</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q29" s="4" t="n">
         <v>59</v>
@@ -8298,7 +8298,7 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
@@ -8308,19 +8308,19 @@
       </c>
       <c r="W29" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5401010027</t>
+          <t>5402020016</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>SALVIA ENANA ROJA</t>
+          <t>CALABAZA BUTTERNUT ECO</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -8348,7 +8348,7 @@
         <v>2.48</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="L30" s="4" t="n">
         <v>0</v>
@@ -8360,10 +8360,10 @@
         <v>4.6</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>59</v>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -8391,19 +8391,19 @@
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5404010009</t>
+          <t>5401010027</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>ENELDO</t>
+          <t>SALVIA ENANA ROJA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -8425,13 +8425,13 @@
         <v>3</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>5.1</v>
+        <v>5.37</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
@@ -8443,10 +8443,10 @@
         <v>4.6</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>59</v>
@@ -8464,7 +8464,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -8474,19 +8474,19 @@
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5402030004</t>
+          <t>5404010009</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>RABANITO REDONDO ROJO</t>
+          <t>ENELDO</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -8508,13 +8508,13 @@
         <v>3</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>5.37</v>
+        <v>5.1</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>2.48</v>
+        <v>2.24</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>42.86</v>
+        <v>50</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -8526,10 +8526,10 @@
         <v>4.6</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>59</v>
@@ -8564,12 +8564,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5402050024</t>
+          <t>5402020009</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA LARGA NEGRA ECO</t>
+          <t>MELON PIÑONET PIEL DE SAPO</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -8591,13 +8591,13 @@
         <v>3</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>5.1</v>
+        <v>5.37</v>
       </c>
       <c r="J33" s="4" t="n">
-        <v>2.27</v>
+        <v>2.51</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
@@ -8609,50 +8609,50 @@
         <v>4.6</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T33" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T33" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5402020009</t>
+          <t>5402050024</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO</t>
+          <t>BERENJENA LARGA NEGRA ECO</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -8674,13 +8674,13 @@
         <v>3</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>5.37</v>
+        <v>5.1</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>2.51</v>
+        <v>2.27</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
@@ -8692,50 +8692,50 @@
         <v>4.6</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T34" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>5401010017</t>
+          <t>5402020007</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
+          <t>MELON ROCHET</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -8763,7 +8763,7 @@
         <v>2.51</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L35" s="4" t="n">
         <v>0</v>
@@ -8775,10 +8775,10 @@
         <v>4.6</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q35" s="4" t="n">
         <v>59</v>
@@ -8813,12 +8813,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5402050002</t>
+          <t>5402090022</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO BLOCKY AMARILLO 2019</t>
+          <t>REMOLACHA DE MESA ROJA</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -8896,12 +8896,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5401010035</t>
+          <t>5402050002</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>PORTULACA DOBLE VARIADA</t>
+          <t>PIMIENTO BLOCKY AMARILLO 2019</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -8929,7 +8929,7 @@
         <v>2.51</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>37.5</v>
+        <v>60</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>4.6</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>59</v>
@@ -8979,12 +8979,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5402020007</t>
+          <t>5402020001</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>MELON ROCHET</t>
+          <t>CALABACIN DE MESA NEGRO</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -9012,7 +9012,7 @@
         <v>2.51</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0</v>
@@ -9024,50 +9024,50 @@
         <v>4.6</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T38" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T38" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5402060003</t>
+          <t>5401010017</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>GUISANTE RONDO ECO</t>
+          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -9095,7 +9095,7 @@
         <v>2.51</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -9107,50 +9107,50 @@
         <v>4.6</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T39" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5402020001</t>
+          <t>5402050009</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>CALABACIN DE MESA NEGRO</t>
+          <t>PIMIENTO PIQUILLO</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -9178,7 +9178,7 @@
         <v>2.51</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>0</v>
@@ -9190,50 +9190,50 @@
         <v>4.6</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T40" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5402090022</t>
+          <t>5401010035</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>REMOLACHA DE MESA ROJA</t>
+          <t>PORTULACA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -9261,7 +9261,7 @@
         <v>2.51</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>60</v>
+        <v>37.5</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
@@ -9273,10 +9273,10 @@
         <v>4.6</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>59</v>
@@ -9311,12 +9311,12 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>5402050009</t>
+          <t>5402060003</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PIQUILLO</t>
+          <t>GUISANTE RONDO ECO</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -9344,7 +9344,7 @@
         <v>2.51</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>0</v>
@@ -9356,50 +9356,50 @@
         <v>4.6</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T42" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T42" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>5402090007</t>
+          <t>5402040009</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA DULCE DE FUENTES 2019</t>
+          <t>LECHUGA ROMANA LARGA RUBIA ECO</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -9421,13 +9421,13 @@
         <v>3</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>5.37</v>
+        <v>5.1</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>27.27</v>
+        <v>30</v>
       </c>
       <c r="L43" s="4" t="n">
         <v>0</v>
@@ -9439,10 +9439,10 @@
         <v>4.6</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>59</v>
@@ -9477,12 +9477,12 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>5402040009</t>
+          <t>5402090007</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA ROMANA LARGA RUBIA ECO</t>
+          <t>CEBOLLA DULCE DE FUENTES 2019</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
@@ -9504,13 +9504,13 @@
         <v>3</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>5.1</v>
+        <v>5.37</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>30</v>
+        <v>27.27</v>
       </c>
       <c r="L44" s="4" t="n">
         <v>0</v>
@@ -9522,10 +9522,10 @@
         <v>4.6</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>59</v>
@@ -9726,12 +9726,12 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5102070005</t>
+          <t>5102010003</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON OKAPI I X1</t>
+          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -9753,10 +9753,10 @@
         <v>1</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>3.5</v>
+        <v>5.99</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.24</v>
+        <v>3.51</v>
       </c>
       <c r="K47" s="4" t="n">
         <v>20</v>
@@ -9774,7 +9774,7 @@
         <v>4</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="4" t="n">
         <v>10</v>
@@ -9809,12 +9809,12 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5102010003</t>
+          <t>5107040000</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
+          <t>CANNA ENANA FV ZUMBA</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -9836,10 +9836,10 @@
         <v>1</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>5.99</v>
+        <v>4.29</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>3.51</v>
+        <v>1.96</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>20</v>
@@ -9892,12 +9892,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5107040000</t>
+          <t>5102070005</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>CANNA ENANA FV ZUMBA</t>
+          <t>DAHLIA POMPON OKAPI I X1</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -9919,10 +9919,10 @@
         <v>1</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>4.29</v>
+        <v>3.5</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.96</v>
+        <v>1.24</v>
       </c>
       <c r="K49" s="4" t="n">
         <v>20</v>
@@ -9940,7 +9940,7 @@
         <v>4</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q49" s="4" t="n">
         <v>10</v>
@@ -10058,12 +10058,12 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5401010022</t>
+          <t>5402020006</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>MARGARITA GRANDE BLANCA</t>
+          <t>CALABAZA CABELLO DE ANGEL 2011</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -10091,7 +10091,7 @@
         <v>1.65</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>66.67</v>
+        <v>22.22</v>
       </c>
       <c r="L51" s="4" t="n">
         <v>0</v>
@@ -10103,10 +10103,10 @@
         <v>3.1</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q51" s="4" t="n">
         <v>59</v>
@@ -10124,7 +10124,7 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
@@ -10134,7 +10134,7 @@
       </c>
       <c r="W51" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -10224,12 +10224,12 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>5402020006</t>
+          <t>5402050006</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA CABELLO DE ANGEL 2011</t>
+          <t>PIMIENTO HABANERO ROJO 2019</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
@@ -10257,7 +10257,7 @@
         <v>1.65</v>
       </c>
       <c r="K53" s="4" t="n">
-        <v>22.22</v>
+        <v>20</v>
       </c>
       <c r="L53" s="4" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>3.1</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P53" s="4" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Q53" s="4" t="n">
         <v>59</v>
@@ -10307,12 +10307,12 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>5404010008</t>
+          <t>5401010022</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>CILANTRO</t>
+          <t>MARGARITA GRANDE BLANCA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
@@ -10340,7 +10340,7 @@
         <v>1.65</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>20</v>
+        <v>66.67</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0</v>
@@ -10352,16 +10352,16 @@
         <v>3.1</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S54" s="5" t="n">
         <v>10</v>
@@ -10373,29 +10373,29 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5402050006</t>
+          <t>5404010008</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO HABANERO ROJO 2019</t>
+          <t>CILANTRO</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
@@ -10438,13 +10438,13 @@
         <v>8</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S55" s="5" t="n">
         <v>10</v>
@@ -10461,7 +10461,7 @@
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
@@ -10556,12 +10556,12 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>5402090012</t>
+          <t>5402090001</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>ESCAROLA CABELLO DE ANGEL 2011</t>
+          <t>ACELGA VERDE PENCA BLANCA</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
@@ -10589,7 +10589,7 @@
         <v>1.67</v>
       </c>
       <c r="K57" s="4" t="n">
-        <v>33.33</v>
+        <v>22.22</v>
       </c>
       <c r="L57" s="4" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>3.1</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P57" s="4" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q57" s="4" t="n">
         <v>59</v>
@@ -10802,12 +10802,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5402040005</t>
+          <t>5402020013</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA RED SALAD BALL 2011</t>
+          <t>SANDIA CRIMSON SWEET ECOLOG</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
@@ -10835,7 +10835,7 @@
         <v>1.67</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>20</v>
+        <v>18.18</v>
       </c>
       <c r="L2" s="4" t="n">
         <v>0</v>
@@ -10847,10 +10847,10 @@
         <v>3.1</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>59</v>
@@ -10885,12 +10885,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5402080005</t>
+          <t>5404010023</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>JUDIA PEROLAR 35GR</t>
+          <t>TOMILLO</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
@@ -10912,13 +10912,13 @@
         <v>2</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.56</v>
+        <v>3.58</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>40</v>
+        <v>33.33</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>0</v>
@@ -10930,10 +10930,10 @@
         <v>3.1</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>59</v>
@@ -10968,12 +10968,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5402040008</t>
+          <t>5402040002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA REINA DE MAYO ECO</t>
+          <t>LECHUGA GRANDES LAGOS -CALIFORNIA</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -11001,7 +11001,7 @@
         <v>1.67</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10</v>
+        <v>4.26</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>0</v>
@@ -11013,10 +11013,10 @@
         <v>3.1</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>59</v>
@@ -11051,12 +11051,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5402030005</t>
+          <t>5402020012</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>RABANITO REDONDO ROJO ECOL</t>
+          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -11078,13 +11078,13 @@
         <v>2</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.31</v>
+        <v>3.58</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>40</v>
+        <v>22.22</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>0</v>
@@ -11096,10 +11096,10 @@
         <v>3.1</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>59</v>
@@ -11134,12 +11134,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5402020012</t>
+          <t>5401010036</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
+          <t>MEZCLA DE FLORES PARDO JAPONES VARIADA</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -11167,7 +11167,7 @@
         <v>1.67</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>22.22</v>
+        <v>20</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>0</v>
@@ -11179,10 +11179,10 @@
         <v>3.1</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="4" t="n">
         <v>59</v>
@@ -11217,12 +11217,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5402040002</t>
+          <t>5402040008</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA GRANDES LAGOS -CALIFORNIA</t>
+          <t>LECHUGA REINA DE MAYO ECO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -11250,7 +11250,7 @@
         <v>1.67</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>4.26</v>
+        <v>10</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -11262,10 +11262,10 @@
         <v>3.1</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>59</v>
@@ -11300,12 +11300,12 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5402090010</t>
+          <t>5401010020</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>COLIFLOR ROMANESCO NATALINO</t>
+          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -11333,7 +11333,7 @@
         <v>1.67</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>10</v>
+        <v>9.52</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>0</v>
@@ -11345,10 +11345,10 @@
         <v>3.1</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>59</v>
@@ -11383,12 +11383,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5404010023</t>
+          <t>5402040005</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>TOMILLO</t>
+          <t>LECHUGA RED SALAD BALL 2011</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -11416,7 +11416,7 @@
         <v>1.67</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>33.33</v>
+        <v>20</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
@@ -11428,10 +11428,10 @@
         <v>3.1</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>59</v>
@@ -11466,12 +11466,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5402040007</t>
+          <t>5402090012</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA SUCRINE</t>
+          <t>ESCAROLA CABELLO DE ANGEL 2011</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -11499,7 +11499,7 @@
         <v>1.67</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>13.33</v>
+        <v>33.33</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
@@ -11511,10 +11511,10 @@
         <v>3.1</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>59</v>
@@ -11549,12 +11549,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5402020013</t>
+          <t>5402090018</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>SANDIA CRIMSON SWEET ECOLOG</t>
+          <t>MAIZ PALOMITAS</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -11576,13 +11576,13 @@
         <v>2</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>3.58</v>
+        <v>3.5</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>18.18</v>
+        <v>15.38</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -11594,10 +11594,10 @@
         <v>3.1</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>59</v>
@@ -11632,12 +11632,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5404010001</t>
+          <t>5402080005</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA FINA</t>
+          <t>JUDIA PEROLAR 35GR</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -11659,13 +11659,13 @@
         <v>2</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>3.58</v>
+        <v>3.56</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>0</v>
@@ -11677,10 +11677,10 @@
         <v>3.1</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>59</v>
@@ -11698,7 +11698,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado. Continuar monitoreo.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -11708,19 +11708,19 @@
       </c>
       <c r="W12" s="4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5402090018</t>
+          <t>5404010001</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>MAIZ PALOMITAS</t>
+          <t>ALBAHACA FINA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -11742,13 +11742,13 @@
         <v>2</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>3.5</v>
+        <v>3.58</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>15.38</v>
+        <v>66.67</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
@@ -11760,10 +11760,10 @@
         <v>3.1</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>59</v>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>OPTIMIZAR: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado. Continuar monitoreo.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -11791,19 +11791,19 @@
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5402090001</t>
+          <t>5402040007</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>ACELGA VERDE PENCA BLANCA</t>
+          <t>LECHUGA SUCRINE</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -11831,7 +11831,7 @@
         <v>1.67</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>22.22</v>
+        <v>13.33</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
@@ -11843,10 +11843,10 @@
         <v>3.1</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>59</v>
@@ -11881,12 +11881,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5401010036</t>
+          <t>5402090010</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>MEZCLA DE FLORES PARDO JAPONES VARIADA</t>
+          <t>COLIFLOR ROMANESCO NATALINO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -11914,7 +11914,7 @@
         <v>1.67</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>0</v>
@@ -11926,10 +11926,10 @@
         <v>3.1</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>59</v>
@@ -11964,12 +11964,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5401010020</t>
+          <t>5402030005</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
+          <t>RABANITO REDONDO ROJO ECOL</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -11991,13 +11991,13 @@
         <v>2</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>9.52</v>
+        <v>40</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
@@ -12009,10 +12009,10 @@
         <v>3.1</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>59</v>
@@ -12130,12 +12130,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>5401030002</t>
+          <t>5401010012</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>CLAVEL MARGARITA VARIADO 00543</t>
+          <t>CORONADO PRINCESA, VARIADO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
@@ -12163,7 +12163,7 @@
         <v>1.71</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L18" s="4" t="n">
         <v>0</v>
@@ -12175,50 +12175,50 @@
         <v>3.1</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T18" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5401010012</t>
+          <t>5401030001</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CORONADO PRINCESA, VARIADO</t>
+          <t>CLAVEL GIGANTE ROSA PÁLIDO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -12246,7 +12246,7 @@
         <v>1.71</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L19" s="4" t="n">
         <v>0</v>
@@ -12258,50 +12258,50 @@
         <v>3.1</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T19" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T19" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 30%. Stock objetivo: 1 unidades. Monitorear demanda próximas semanas.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26B</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5401030001</t>
+          <t>5401030002</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>CLAVEL GIGANTE ROSA PÁLIDO</t>
+          <t>CLAVEL MARGARITA VARIADO 00543</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -12344,7 +12344,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>0</v>
@@ -12362,7 +12362,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 30%. Stock objetivo: 1 unidades. Monitorear demanda próximas semanas.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -12372,7 +12372,7 @@
       </c>
       <c r="W20" s="4" t="inlineStr">
         <is>
-          <t>26B</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
@@ -12545,12 +12545,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5402020008</t>
+          <t>5402020014</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>MELON AMARILLO CANARIO</t>
+          <t>SANDIA SUGAR BABY</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
@@ -12578,7 +12578,7 @@
         <v>0.83</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>11.11</v>
+        <v>16.67</v>
       </c>
       <c r="L23" s="4" t="n">
         <v>0</v>
@@ -12590,10 +12590,10 @@
         <v>1.5</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>59</v>
@@ -12628,12 +12628,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5402090020</t>
+          <t>5402090023</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>PUERRO VDE CARENTAN ECOLOG</t>
+          <t>SANDÍA CRIMSON SWEET 2019</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>0.83</v>
       </c>
       <c r="K24" s="4" t="n">
-        <v>11.11</v>
+        <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
         <v>0</v>
@@ -12673,50 +12673,50 @@
         <v>1.5</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T24" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T24" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5402020014</t>
+          <t>5404010014</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>SANDIA SUGAR BABY</t>
+          <t>MELISSA OFFICINALIS</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -12759,7 +12759,7 @@
         <v>5</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>59</v>
@@ -12794,12 +12794,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5404010014</t>
+          <t>5402090020</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>MELISSA OFFICINALIS</t>
+          <t>PUERRO VDE CARENTAN ECOLOG</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -12827,7 +12827,7 @@
         <v>0.83</v>
       </c>
       <c r="K26" s="4" t="n">
-        <v>16.67</v>
+        <v>11.11</v>
       </c>
       <c r="L26" s="4" t="n">
         <v>0</v>
@@ -12839,10 +12839,10 @@
         <v>1.5</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>59</v>
@@ -12877,12 +12877,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5402090023</t>
+          <t>5402020008</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>SANDÍA CRIMSON SWEET 2019</t>
+          <t>MELON AMARILLO CANARIO</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -12910,7 +12910,7 @@
         <v>0.83</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>0</v>
+        <v>11.11</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
@@ -12922,50 +12922,50 @@
         <v>1.5</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T27" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5402020017</t>
+          <t>5402040003</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO ECO</t>
+          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -12993,7 +12993,7 @@
         <v>0.84</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>11.11</v>
+        <v>10</v>
       </c>
       <c r="L28" s="4" t="n">
         <v>0</v>
@@ -13005,10 +13005,10 @@
         <v>1.5</v>
       </c>
       <c r="O28" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="P28" s="4" t="n">
         <v>8</v>
-      </c>
-      <c r="P28" s="4" t="n">
-        <v>43</v>
       </c>
       <c r="Q28" s="4" t="n">
         <v>59</v>
@@ -13043,12 +13043,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5402090008</t>
+          <t>5402020017</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
+          <t>MELON PIÑONET PIEL DE SAPO ECO</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -13091,7 +13091,7 @@
         <v>8</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="Q29" s="4" t="n">
         <v>59</v>
@@ -13126,12 +13126,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5404010022</t>
+          <t>5402030003</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>STEVIA 2015</t>
+          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -13159,7 +13159,7 @@
         <v>0.84</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>4.76</v>
+        <v>100</v>
       </c>
       <c r="L30" s="4" t="n">
         <v>0</v>
@@ -13171,50 +13171,50 @@
         <v>1.5</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T30" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T30" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5402090006</t>
+          <t>5402090028</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA ARBO - MORADA DE AMPOSTA 2011</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -13257,7 +13257,7 @@
         <v>1</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>59</v>
@@ -13292,12 +13292,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5402040003</t>
+          <t>5404010004</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
+          <t>ALBAHACA LIMON 2015</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -13325,7 +13325,7 @@
         <v>0.84</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -13337,50 +13337,50 @@
         <v>1.5</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T32" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T32" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5401010034</t>
+          <t>5404010022</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
+          <t>STEVIA 2015</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -13408,7 +13408,7 @@
         <v>0.84</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>20</v>
+        <v>4.76</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
@@ -13420,10 +13420,10 @@
         <v>1.5</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="Q33" s="4" t="n">
         <v>59</v>
@@ -13458,12 +13458,12 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5402030003</t>
+          <t>5402090006</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
+          <t>CEBOLLA ARBO - MORADA DE AMPOSTA 2011</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -13491,7 +13491,7 @@
         <v>0.84</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
@@ -13503,50 +13503,50 @@
         <v>1.5</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T34" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>5402090028</t>
+          <t>5401010034</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
+          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -13574,7 +13574,7 @@
         <v>0.84</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L35" s="4" t="n">
         <v>0</v>
@@ -13586,10 +13586,10 @@
         <v>1.5</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="Q35" s="4" t="n">
         <v>59</v>
@@ -13707,12 +13707,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5404010004</t>
+          <t>5402090008</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA LIMON 2015</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -13740,7 +13740,7 @@
         <v>0.84</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>100</v>
+        <v>11.11</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0</v>
@@ -13752,50 +13752,50 @@
         <v>1.5</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T37" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5401010021</t>
+          <t>5402020005</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>IPOMEA CAMPANILLA VARIADA</t>
+          <t>CALABAZA BUTTERNUT</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -13823,7 +13823,7 @@
         <v>0.86</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0</v>
@@ -13835,50 +13835,50 @@
         <v>1.5</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T38" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T38" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5402020005</t>
+          <t>5401010021</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA BUTTERNUT</t>
+          <t>IPOMEA CAMPANILLA VARIADA</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -13906,7 +13906,7 @@
         <v>0.86</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -13918,50 +13918,50 @@
         <v>1.5</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T39" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5402030006</t>
+          <t>5402090005</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ZANAHORIA NANTESA ECOLOGICA</t>
+          <t>CANONIGOS GRANO GRUESO</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -13983,13 +13983,13 @@
         <v>1</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1.52</v>
+        <v>1.79</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>0.62</v>
+        <v>0.87</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>14.29</v>
+        <v>11.11</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>0</v>
@@ -14001,10 +14001,10 @@
         <v>1.5</v>
       </c>
       <c r="O40" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="P40" s="4" t="n">
         <v>6</v>
-      </c>
-      <c r="P40" s="4" t="n">
-        <v>2</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>59</v>
@@ -14039,12 +14039,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5402090005</t>
+          <t>5402030006</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>CANONIGOS GRANO GRUESO</t>
+          <t>ZANAHORIA NANTESA ECOLOGICA</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -14066,13 +14066,13 @@
         <v>1</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.79</v>
+        <v>1.52</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>0.87</v>
+        <v>0.62</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>11.11</v>
+        <v>14.29</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
@@ -14084,10 +14084,10 @@
         <v>1.5</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>59</v>
@@ -14368,24 +14368,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5402080002</t>
+          <t>5102020014</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>JUDIA GARRAFAL ENANA 250GR</t>
+          <t>DAHLIA DECORATIVA PAYASO I X1</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -14413,19 +14413,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
@@ -14434,12 +14434,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -14451,12 +14451,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5102010005</t>
+          <t>5102020012</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
+          <t>DAHLIA DECORATIVA ENANA LE THOUREIL I X1</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
@@ -14534,24 +14534,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5402010002</t>
+          <t>5307010005</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>COL BRUSELAS MEDIO ENANA</t>
+          <t>SEMILLAS REPOBLADORAS 1 KG</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -14579,7 +14579,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
@@ -14600,7 +14600,7 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.19€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
@@ -14617,24 +14617,24 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5401010001</t>
+          <t>5107190009</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>AMAPOLA DOBLE VARIADA</t>
+          <t>LIS ORIENTAL STARGAZER 16/18 3 UDS</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -14662,19 +14662,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T5" s="8" t="inlineStr">
         <is>
@@ -14683,12 +14683,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -14700,12 +14700,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5102020014</t>
+          <t>5102040001</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA PAYASO I X1</t>
+          <t>DAHLIA ENANA DOBLE MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -14783,24 +14783,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5107190010</t>
+          <t>5302010001</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL BERGAME 16/18 3 UDS</t>
+          <t>CESPED FORMULA SPORT</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -14828,19 +14828,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T7" s="8" t="inlineStr">
         <is>
@@ -14849,12 +14849,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -14866,32 +14866,24 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5301010002</t>
+          <t>5402080006</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPARRING</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>JUDIA HELDA ECO</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -14919,16 +14911,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S8" s="5" t="n">
         <v>10</v>
@@ -14940,12 +14932,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -14957,24 +14949,32 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5402080001</t>
+          <t>5305010001</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>JUDÍA EFEQUINCE</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr"/>
-      <c r="D9" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SOMBRA</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -15002,16 +15002,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S9" s="5" t="n">
         <v>10</v>
@@ -15023,12 +15023,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -15040,12 +15040,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5107170001</t>
+          <t>5102070006</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>IXIA MACULATA MEZCLADO 5/+ X15</t>
+          <t>DAHLIA POMPON ASHADO X1</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -15123,24 +15123,24 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5102020016</t>
+          <t>5402080003</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA ZANZIBAR I X1</t>
+          <t>JUDIA GARRAFAL ORO-VELEZ</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -15168,19 +15168,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
@@ -15189,12 +15189,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -15206,24 +15206,24 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5102010004</t>
+          <t>5404010002</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
+          <t>ALBAHACA GIGANTE</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -15251,19 +15251,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T12" s="8" t="inlineStr">
         <is>
@@ -15272,12 +15272,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -15289,24 +15289,24 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5402090003</t>
+          <t>5107190010</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>ALCACHOFA TALPIOT 2011</t>
+          <t>LIS ORIENTAL BERGAME 16/18 3 UDS</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
       <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -15334,19 +15334,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T13" s="8" t="inlineStr">
         <is>
@@ -15355,12 +15355,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -15372,12 +15372,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5102070000</t>
+          <t>5102050000</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON VILLA BLANCA 1 UDS</t>
+          <t>DAHLIA ENANA SIMPLE MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -15455,24 +15455,32 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5402080003</t>
+          <t>5301010001</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>JUDIA GARRAFAL ORO-VELEZ</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA RESISTENTE</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -15500,16 +15508,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S15" s="5" t="n">
         <v>10</v>
@@ -15521,12 +15529,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -15538,12 +15546,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5402010003</t>
+          <t>5402010002</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>COL RIZADA KALE 2017</t>
+          <t>COL BRUSELAS MEDIO ENANA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -15621,24 +15629,24 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>5102040000</t>
+          <t>5402050020</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA DOBLE MACARON I X1 FDF</t>
+          <t>BERENJENA LARGA NEGRA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
       <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -15666,19 +15674,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T17" s="8" t="inlineStr">
         <is>
@@ -15687,12 +15695,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -15704,24 +15712,24 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>5107190005</t>
+          <t>5401010031</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ARUM FORET NEGRO 14+1 UDS</t>
+          <t>GERANIO ZONALE VARIADO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -15749,19 +15757,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T18" s="8" t="inlineStr">
         <is>
@@ -15770,12 +15778,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -15787,12 +15795,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5102020011</t>
+          <t>5107190013</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
+          <t>ARUM MAJESTIC RED 14/+ X1</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -15870,24 +15878,24 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5302010001</t>
+          <t>5402010001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPORT</t>
+          <t>COL BRUNSWICK TENTA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -15915,7 +15923,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>59</v>
@@ -15936,7 +15944,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -15953,24 +15961,24 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5402080006</t>
+          <t>5102090001</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>JUDIA HELDA ECO</t>
+          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -15998,19 +16006,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T21" s="8" t="inlineStr">
         <is>
@@ -16019,12 +16027,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -16036,12 +16044,12 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5102020019</t>
+          <t>5101010003</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
+          <t>BEGONIA DOBLE ESCARLATA 5/6 X3</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
@@ -16119,24 +16127,24 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5301010003</t>
+          <t>5402080001</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS CESPED RESISTENTE 1KG</t>
+          <t>JUDÍA EFEQUINCE</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -16170,10 +16178,10 @@
         <v>59</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S23" s="5" t="n">
         <v>10</v>
@@ -16185,12 +16193,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.77€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -16202,32 +16210,24 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5301010001</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA RESISTENTE</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
+      <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -16261,10 +16261,10 @@
         <v>59</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S24" s="5" t="n">
         <v>10</v>
@@ -16276,12 +16276,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -16293,12 +16293,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5107100002</t>
+          <t>5103010006</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
+          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -16338,7 +16338,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>59</v>
@@ -16376,12 +16376,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5102050000</t>
+          <t>5102020010</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA SIMPLE MEZCLADO I/II X4</t>
+          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -16421,7 +16421,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>59</v>
@@ -16459,24 +16459,24 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5402030001</t>
+          <t>5102020013</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>NABO DE MESA VIRTUDES MARTILLO</t>
+          <t>DAHLIA DECORATIVA ENANA JAMAICA I X1</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
       <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -16510,13 +16510,13 @@
         <v>59</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T27" s="8" t="inlineStr">
         <is>
@@ -16525,12 +16525,12 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -16542,24 +16542,24 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5102020012</t>
+          <t>5401010001</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA LE THOUREIL I X1</t>
+          <t>AMAPOLA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -16587,19 +16587,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T28" s="8" t="inlineStr">
         <is>
@@ -16608,12 +16608,12 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
@@ -16625,12 +16625,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5102020015</t>
+          <t>5107100001</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
+          <t>FREESIA DOBLE MEZCLADO 5+ 15 UDS</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -16670,7 +16670,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>59</v>
@@ -16708,12 +16708,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5102080000</t>
+          <t>5107010002</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA GIGANTE TARTARUS I X1</t>
+          <t>AMARYLLIS BELLADONNA 20/+ X1</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -16791,12 +16791,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5103020000</t>
+          <t>5107190017</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO COLVILLEI MEZCLADO 8/9 X7</t>
+          <t>ARUM PINK PERSUASION 14/+ X1</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -16874,24 +16874,24 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5107190009</t>
+          <t>5402010003</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL STARGAZER 16/18 3 UDS</t>
+          <t>COL RIZADA KALE 2017</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
       <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
@@ -16919,19 +16919,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T32" s="8" t="inlineStr">
         <is>
@@ -16940,12 +16940,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -16957,12 +16957,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5402010001</t>
+          <t>5402030001</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>COL BRUNSWICK TENTA</t>
+          <t>NABO DE MESA VIRTUDES MARTILLO</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>59</v>
@@ -17023,7 +17023,7 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
@@ -17040,12 +17040,12 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5102090001</t>
+          <t>5107100002</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
+          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -17085,7 +17085,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>59</v>
@@ -17123,32 +17123,24 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>5301010002</t>
+          <t>5107170001</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPARRING</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>1Kg</t>
-        </is>
-      </c>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>IXIA MACULATA MEZCLADO 5/+ X15</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr"/>
+      <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -17176,19 +17168,19 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T35" s="8" t="inlineStr">
         <is>
@@ -17197,12 +17189,12 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 74.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -17222,8 +17214,16 @@
           <t>HABA HISTAL</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr"/>
-      <c r="D36" s="3" t="inlineStr"/>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>60G</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
           <t>54</t>
@@ -17259,16 +17259,16 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S36" s="5" t="n">
         <v>10</v>
@@ -17280,12 +17280,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -17297,24 +17297,32 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5404010021</t>
+          <t>5301010002</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>SALVIA OFFICINALIS</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr"/>
-      <c r="D37" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SPARRING</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -17342,16 +17350,16 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S37" s="5" t="n">
         <v>10</v>
@@ -17363,12 +17371,12 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -17380,12 +17388,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5107190018</t>
+          <t>5103020000</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>ARUM HOTSHOT 14/+ X1</t>
+          <t>GLADIOLO COLVILLEI MEZCLADO 8/9 X7</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -17463,12 +17471,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5102020013</t>
+          <t>5102010005</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA JAMAICA I X1</t>
+          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -17546,24 +17554,24 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5404010018</t>
+          <t>5107190018</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL DOBLE RIZADO 2011</t>
+          <t>ARUM HOTSHOT 14/+ X1</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
       <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -17591,19 +17599,19 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T40" s="8" t="inlineStr">
         <is>
@@ -17612,12 +17620,12 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.01€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -17629,24 +17637,24 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5402050020</t>
+          <t>5103030000</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA LARGA NEGRA</t>
+          <t>GLADIOLO FLOR GRANDE MEZCLADO 10/12 40 UDS</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -17674,19 +17682,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T41" s="8" t="inlineStr">
         <is>
@@ -17695,12 +17703,12 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -17712,32 +17720,24 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5102010004</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr">
-        <is>
-          <t>60G</t>
-        </is>
-      </c>
-      <c r="D42" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr"/>
+      <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -17765,19 +17765,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T42" s="8" t="inlineStr">
         <is>
@@ -17786,12 +17786,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -17803,12 +17803,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>5404010002</t>
+          <t>5404010021</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA GIGANTE</t>
+          <t>SALVIA OFFICINALIS</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>59</v>
@@ -17869,7 +17869,7 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
@@ -17886,24 +17886,24 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>5307010005</t>
+          <t>5102020015</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS REPOBLADORAS 1 KG</t>
+          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
       <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -17931,19 +17931,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T44" s="8" t="inlineStr">
         <is>
@@ -17952,12 +17952,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.19€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -17969,24 +17969,24 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5103010003</t>
+          <t>5402080002</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
+          <t>JUDIA GARRAFAL ENANA 250GR</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
       <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -18014,19 +18014,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T45" s="8" t="inlineStr">
         <is>
@@ -18035,12 +18035,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -18052,24 +18052,32 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5107100001</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>FREESIA DOBLE MEZCLADO 5+ 15 UDS</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr"/>
-      <c r="D46" s="3" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>250G</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -18097,19 +18105,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T46" s="8" t="inlineStr">
         <is>
@@ -18118,12 +18126,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -18135,12 +18143,12 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5102020010</t>
+          <t>5102070000</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
+          <t>DAHLIA POMPON VILLA BLANCA 1 UDS</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -18180,7 +18188,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>59</v>
@@ -18218,24 +18226,24 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5107010002</t>
+          <t>5402090029</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>AMARYLLIS BELLADONNA 20/+ X1</t>
+          <t>MAIZ DULCE GOLDEN BANTAAM ECO</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
       <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -18263,19 +18271,19 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T48" s="8" t="inlineStr">
         <is>
@@ -18284,12 +18292,12 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -18301,12 +18309,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5107190013</t>
+          <t>5107190005</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>ARUM MAJESTIC RED 14/+ X1</t>
+          <t>ARUM FORET NEGRO 14+1 UDS</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -18384,24 +18392,24 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5401010031</t>
+          <t>5102080000</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>GERANIO ZONALE VARIADO</t>
+          <t>DAHLIA GIGANTE TARTARUS I X1</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
       <c r="D50" s="3" t="inlineStr"/>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
@@ -18429,19 +18437,19 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T50" s="8" t="inlineStr">
         <is>
@@ -18450,12 +18458,12 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
@@ -18467,24 +18475,32 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5103010006</t>
+          <t>5301010002</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 12 UDS</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr"/>
-      <c r="D51" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SPARRING</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -18512,19 +18528,19 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T51" s="8" t="inlineStr">
         <is>
@@ -18533,12 +18549,12 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 74.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
@@ -18550,24 +18566,24 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>5103030000</t>
+          <t>5404010007</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE MEZCLADO 10/12 40 UDS</t>
+          <t>CEBOLLINO ANUAL 2011</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
       <c r="D52" s="3" t="inlineStr"/>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -18601,13 +18617,13 @@
         <v>59</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T52" s="8" t="inlineStr">
         <is>
@@ -18616,12 +18632,12 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
@@ -18633,12 +18649,12 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>5404010007</t>
+          <t>5402090003</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLINO ANUAL 2011</t>
+          <t>ALCACHOFA TALPIOT 2011</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
@@ -18678,16 +18694,16 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S53" s="5" t="n">
         <v>10</v>
@@ -18699,12 +18715,12 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
@@ -18716,24 +18732,24 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>5102070006</t>
+          <t>5404010018</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON ASHADO X1</t>
+          <t>PEREJIL DOBLE RIZADO 2011</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -18761,19 +18777,19 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T54" s="8" t="inlineStr">
         <is>
@@ -18782,12 +18798,12 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.01€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
@@ -18799,24 +18815,24 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5402090029</t>
+          <t>5102040000</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>MAIZ DULCE GOLDEN BANTAAM ECO</t>
+          <t>DAHLIA ENANA DOBLE MACARON I X1 FDF</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
       <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
@@ -18844,19 +18860,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T55" s="8" t="inlineStr">
         <is>
@@ -18865,12 +18881,12 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
@@ -18882,32 +18898,24 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5102020019</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C56" s="3" t="inlineStr">
-        <is>
-          <t>250G</t>
-        </is>
-      </c>
-      <c r="D56" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr"/>
+      <c r="D56" s="3" t="inlineStr"/>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
@@ -18935,19 +18943,19 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T56" s="8" t="inlineStr">
         <is>
@@ -18956,12 +18964,12 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
@@ -18973,24 +18981,16 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>5305010001</t>
+          <t>5301010003</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SOMBRA</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D57" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>SEMILLAS CESPED RESISTENTE 1KG</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr"/>
+      <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="4" t="inlineStr">
         <is>
           <t>53</t>
@@ -19026,7 +19026,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>59</v>
@@ -19047,7 +19047,7 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
@@ -19064,12 +19064,12 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>5101010003</t>
+          <t>5102020011</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE ESCARLATA 5/6 X3</t>
+          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr"/>
@@ -19147,12 +19147,12 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>5107190017</t>
+          <t>5103010003</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>ARUM PINK PERSUASION 14/+ X1</t>
+          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
@@ -19230,12 +19230,12 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>5102040001</t>
+          <t>5102020016</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA DOBLE MEZCLADO I/II X4</t>
+          <t>DAHLIA DECORATIVA ENANA ZANZIBAR I X1</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>

--- a/data/input/CLASIFICACION_ABC+D_SEMILLAS_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_SEMILLAS_P1_2025.xlsx
@@ -2077,55 +2077,55 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5105010009</t>
+          <t>5404010019</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>NARCISSE GRANDE COUPE PINK CHARM 1</t>
+          <t>PEREJIL GIGANTE D'ITALIA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>14.98</v>
+        <v>17.63</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>5.62</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>3.1</v>
+        <v>15.3</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>0</v>
@@ -2138,12 +2138,12 @@
       </c>
       <c r="T19" s="7" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -2153,62 +2153,62 @@
       </c>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5401010005</t>
+          <t>5104010012</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>CALENDULA VARIADA</t>
+          <t>JACINTHE BLEU DE DELFT FDF 15/+ X5</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>17.9</v>
+        <v>15.98</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>8.27</v>
+        <v>6.53</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>15.3</v>
+        <v>3.1</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>0</v>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -2236,62 +2236,62 @@
       </c>
       <c r="W20" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5104010012</t>
+          <t>5401010005</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>JACINTHE BLEU DE DELFT FDF 15/+ X5</t>
+          <t>CALENDULA VARIADA</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>15.98</v>
+        <v>17.9</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>6.53</v>
+        <v>8.27</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L21" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>3.1</v>
+        <v>15.3</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>0</v>
@@ -2304,12 +2304,12 @@
       </c>
       <c r="T21" s="7" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -2319,62 +2319,62 @@
       </c>
       <c r="W21" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5402050010</t>
+          <t>5105010009</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CHERRY</t>
+          <t>NARCISSE GRANDE COUPE PINK CHARM 1</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>17.72</v>
+        <v>14.98</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>5.62</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>15.3</v>
+        <v>3.1</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>0</v>
@@ -2387,12 +2387,12 @@
       </c>
       <c r="T22" s="7" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -2402,19 +2402,19 @@
       </c>
       <c r="W22" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5404010019</t>
+          <t>5402050010</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL GIGANTE D'ITALIA</t>
+          <t>TOMATE CHERRY</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
@@ -2436,10 +2436,10 @@
         <v>10</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>17.63</v>
+        <v>17.72</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="K23" s="4" t="n">
         <v>100</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>0</v>
@@ -2749,12 +2749,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5401010026</t>
+          <t>5402050014</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>PETUNIA PENDULA VARIADA 2011</t>
+          <t>TOMATE MARMANDE ECOLOGICO</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -2776,13 +2776,13 @@
         <v>9</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>16.11</v>
+        <v>15.93</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>7.45</v>
+        <v>7.28</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>90</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>13.7</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S27" s="5" t="n">
         <v>10</v>
@@ -2815,29 +2815,29 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5402050014</t>
+          <t>5401010026</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE ECOLOGICO</t>
+          <t>PETUNIA PENDULA VARIADA 2011</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -2859,13 +2859,13 @@
         <v>9</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>15.93</v>
+        <v>16.11</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>7.28</v>
+        <v>7.45</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>64.29000000000001</v>
+        <v>90</v>
       </c>
       <c r="L28" s="4" t="n">
         <v>0</v>
@@ -2877,16 +2877,16 @@
         <v>13.7</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S28" s="5" t="n">
         <v>10</v>
@@ -2898,17 +2898,17 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -3753,12 +3753,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5402020010</t>
+          <t>5404010020</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>PEPINO BELLPUIG LARGO VERDE</t>
+          <t>ROMERO COMUN</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -3780,13 +3780,13 @@
         <v>7</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>12.35</v>
+        <v>12.53</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>5.63</v>
+        <v>5.79</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>77.78</v>
+        <v>116.67</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -3798,38 +3798,38 @@
         <v>10.7</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T39" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T39" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -3919,12 +3919,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5404010020</t>
+          <t>5402020010</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>ROMERO COMUN</t>
+          <t>PEPINO BELLPUIG LARGO VERDE</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -3946,13 +3946,13 @@
         <v>7</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>12.53</v>
+        <v>12.35</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>5.79</v>
+        <v>5.63</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>116.67</v>
+        <v>77.78</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
@@ -3964,38 +3964,38 @@
         <v>10.7</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T41" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -4251,12 +4251,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5402050008</t>
+          <t>5401010019</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PADRON 2011</t>
+          <t>GIRASOL ORNAMENTAL 2011</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -4278,10 +4278,10 @@
         <v>6</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>4.72</v>
+        <v>4.96</v>
       </c>
       <c r="K45" s="4" t="n">
         <v>100</v>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q45" s="4" t="n">
         <v>0</v>
@@ -4334,12 +4334,12 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5401010028</t>
+          <t>5402050008</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>TAGETE ALTO DOBLE VARIADO</t>
+          <t>PIMIENTO PADRON 2011</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -4361,13 +4361,13 @@
         <v>6</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>4.96</v>
+        <v>4.72</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="L46" s="4" t="n">
         <v>0</v>
@@ -4379,50 +4379,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T46" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T46" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5401010030</t>
+          <t>5404010010</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>ZINNIA FLOR DE DALIA</t>
+          <t>HIERBA PARA GATOS</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -4444,13 +4444,13 @@
         <v>6</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>4.96</v>
+        <v>4.72</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>100</v>
+        <v>46.15</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>0</v>
@@ -4462,50 +4462,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T47" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5401010019</t>
+          <t>5404010017</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>GIRASOL ORNAMENTAL 2011</t>
+          <t>PEREJIL COMUN DE HOJA LISA</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -4533,7 +4533,7 @@
         <v>4.96</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>100</v>
+        <v>26.09</v>
       </c>
       <c r="L48" s="4" t="n">
         <v>0</v>
@@ -4545,38 +4545,38 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T48" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4666,12 +4666,12 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5404010010</t>
+          <t>5401010028</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>HIERBA PARA GATOS</t>
+          <t>TAGETE ALTO DOBLE VARIADO</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -4693,13 +4693,13 @@
         <v>6</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>4.72</v>
+        <v>4.96</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>46.15</v>
+        <v>54.55</v>
       </c>
       <c r="L50" s="4" t="n">
         <v>0</v>
@@ -4711,16 +4711,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S50" s="5" t="n">
         <v>10</v>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
@@ -4749,12 +4749,12 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5404010017</t>
+          <t>5401010030</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL COMUN DE HOJA LISA</t>
+          <t>ZINNIA FLOR DE DALIA</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -4782,7 +4782,7 @@
         <v>4.96</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>26.09</v>
+        <v>100</v>
       </c>
       <c r="L51" s="4" t="n">
         <v>0</v>
@@ -4794,38 +4794,38 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T51" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T51" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
@@ -5081,344 +5081,344 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5401010013</t>
+          <t>5107190015</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>COSMOS DEL JAPON</t>
+          <t>LIS CANDIDUM 22/24 X1</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
       <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>5.99</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>4.14</v>
+        <v>1.45</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N55" s="5" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T55" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T55" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>5104010011</t>
+          <t>5402050015</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>JACINTHE JAN BOS FDF 15/+ X5</t>
+          <t>TOMATE MARMANDE RAF</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
       <c r="D56" s="3" t="inlineStr"/>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>7.99</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>3.26</v>
+        <v>4.14</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>0</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="L56" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="N56" s="5" t="n">
-        <v>1.5</v>
+        <v>7.6</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T56" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>5107190015</t>
+          <t>5401010013</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>LIS CANDIDUM 22/24 X1</t>
+          <t>COSMOS DEL JAPON</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
       <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H57" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I57" s="4" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="J57" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="K57" s="4" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="L57" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" s="5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N57" s="5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O57" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I57" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="J57" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="K57" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N57" s="5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O57" s="4" t="n">
-        <v>-1</v>
-      </c>
       <c r="P57" s="4" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="Q57" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R57" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T57" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W57" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>5402050015</t>
+          <t>5104010011</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE RAF</t>
+          <t>JACINTHE JAN BOS FDF 15/+ X5</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr"/>
       <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H58" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>7.99</v>
       </c>
       <c r="J58" s="4" t="n">
-        <v>4.14</v>
+        <v>3.26</v>
       </c>
       <c r="K58" s="4" t="n">
-        <v>71.43000000000001</v>
+        <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N58" s="5" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P58" s="4" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T58" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T58" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>5401010006</t>
+          <t>5402050018</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>CAMPANULA DOBLE, VARIADA 2011</t>
+          <t>TOMATE ROMA</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
@@ -5446,7 +5446,7 @@
         <v>4.19</v>
       </c>
       <c r="K59" s="4" t="n">
-        <v>71.43000000000001</v>
+        <v>26.32</v>
       </c>
       <c r="L59" s="4" t="n">
         <v>0</v>
@@ -5458,10 +5458,10 @@
         <v>7.6</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P59" s="4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q59" s="4" t="n">
         <v>59</v>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
@@ -5489,19 +5489,19 @@
       </c>
       <c r="W59" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>5401010004</t>
+          <t>5401010006</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>BELLA DE NOCHE</t>
+          <t>CAMPANULA DOBLE, VARIADA 2011</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>
@@ -5529,7 +5529,7 @@
         <v>4.19</v>
       </c>
       <c r="K60" s="4" t="n">
-        <v>83.33</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="L60" s="4" t="n">
         <v>0</v>
@@ -5541,10 +5541,10 @@
         <v>7.6</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P60" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="4" t="n">
         <v>59</v>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
@@ -5572,19 +5572,19 @@
       </c>
       <c r="W60" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>5401010010</t>
+          <t>5401010004</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>COLEUS HIBRIDO ARCO IRIS</t>
+          <t>BELLA DE NOCHE</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr"/>
@@ -5612,7 +5612,7 @@
         <v>4.19</v>
       </c>
       <c r="K61" s="4" t="n">
-        <v>100</v>
+        <v>83.33</v>
       </c>
       <c r="L61" s="4" t="n">
         <v>0</v>
@@ -5624,50 +5624,50 @@
         <v>7.6</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q61" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R61" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T61" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T61" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W61" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>5402050018</t>
+          <t>5401010010</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>TOMATE ROMA</t>
+          <t>COLEUS HIBRIDO ARCO IRIS</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr"/>
@@ -5695,7 +5695,7 @@
         <v>4.19</v>
       </c>
       <c r="K62" s="4" t="n">
-        <v>26.32</v>
+        <v>100</v>
       </c>
       <c r="L62" s="4" t="n">
         <v>0</v>
@@ -5707,121 +5707,121 @@
         <v>7.6</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P62" s="4" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T62" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T62" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>5401010009</t>
+          <t>5102070004</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>CLAVEL DE POETA</t>
+          <t>DAHLIA POMPON MEZCLADO 1/2 4 UDS</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr"/>
       <c r="D63" s="3" t="inlineStr"/>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H63" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>6.45</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>4.34</v>
+        <v>2.06</v>
       </c>
       <c r="K63" s="4" t="n">
-        <v>83.33</v>
+        <v>4</v>
       </c>
       <c r="L63" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N63" s="5" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="P63" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R63" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T63" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T63" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 1416 días.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W63" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5991,83 +5991,83 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5102070004</t>
+          <t>5401010009</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON MEZCLADO 1/2 4 UDS</t>
+          <t>CLAVEL DE POETA</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H2" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N2" s="5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>24</v>
-      </c>
       <c r="P2" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T2" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 1416 días.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -6240,12 +6240,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5404010013</t>
+          <t>5402090013</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>MANZANILLA</t>
+          <t>ESPARRAGO MARY WASHINGTON 2011</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -6273,7 +6273,7 @@
         <v>3.06</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>57.14</v>
+        <v>80</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>0</v>
@@ -6285,10 +6285,10 @@
         <v>6.1</v>
       </c>
       <c r="O5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4" t="n">
         <v>3</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>2</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>59</v>
@@ -6306,7 +6306,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -6316,19 +6316,19 @@
       </c>
       <c r="W5" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5402090013</t>
+          <t>5404010013</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>ESPARRAGO MARY WASHINGTON 2011</t>
+          <t>MANZANILLA</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -6356,7 +6356,7 @@
         <v>3.06</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>80</v>
+        <v>57.14</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>0</v>
@@ -6368,10 +6368,10 @@
         <v>6.1</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="4" t="n">
         <v>59</v>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -6399,19 +6399,19 @@
       </c>
       <c r="W6" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5402050011</t>
+          <t>5404010012</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CORAZÓN DE BUEY 2017</t>
+          <t>LAVANDA OFFICINALIS</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -6439,7 +6439,7 @@
         <v>3.31</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>33.33</v>
+        <v>40</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -6451,16 +6451,16 @@
         <v>6.1</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S7" s="5" t="n">
         <v>10</v>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -6572,12 +6572,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5404010012</t>
+          <t>5402050004</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>LAVANDA OFFICINALIS</t>
+          <t>PIMIENTO DULCE ITALIANO ECOL</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -6605,7 +6605,7 @@
         <v>3.31</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
@@ -6617,50 +6617,50 @@
         <v>6.1</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T9" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T9" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13B</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5402050004</t>
+          <t>5402050011</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO DULCE ITALIANO ECOL</t>
+          <t>TOMATE CORAZÓN DE BUEY 2017</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>3.31</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>100</v>
+        <v>33.33</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
@@ -6700,50 +6700,50 @@
         <v>6.1</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T10" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
         <is>
-          <t>13B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5401010008</t>
+          <t>5404010006</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>CAPUCHINA TREPADORA</t>
+          <t>ANIS</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -6765,13 +6765,13 @@
         <v>4</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>100</v>
+        <v>36.36</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -6783,50 +6783,50 @@
         <v>6.1</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T11" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5401010033</t>
+          <t>5401010003</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>STRELITZIA AVE DEL PARAISO</t>
+          <t>BELLA DE DIA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -6854,7 +6854,7 @@
         <v>3.35</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>80</v>
+        <v>44.44</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>0</v>
@@ -6866,10 +6866,10 @@
         <v>6.1</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>59</v>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -6897,19 +6897,19 @@
       </c>
       <c r="W12" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5401010003</t>
+          <t>5401010033</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>BELLA DE DIA</t>
+          <t>STRELITZIA AVE DEL PARAISO</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -6937,7 +6937,7 @@
         <v>3.35</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>44.44</v>
+        <v>80</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
@@ -6949,10 +6949,10 @@
         <v>6.1</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>59</v>
@@ -6970,7 +6970,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -6980,19 +6980,19 @@
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5402020003</t>
+          <t>5402050012</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>CALABACIN REDONDO DE NIZA</t>
+          <t>TOMATE DE COLGAR</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -7020,7 +7020,7 @@
         <v>3.35</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
@@ -7032,50 +7032,50 @@
         <v>6.1</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T14" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T14" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5402050012</t>
+          <t>5401010008</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>TOMATE DE COLGAR</t>
+          <t>CAPUCHINA TREPADORA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -7103,7 +7103,7 @@
         <v>3.35</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>0</v>
@@ -7115,10 +7115,10 @@
         <v>6.1</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>0</v>
@@ -7131,12 +7131,12 @@
       </c>
       <c r="T15" s="7" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
@@ -7146,19 +7146,19 @@
       </c>
       <c r="W15" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5404010006</t>
+          <t>5402020003</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ANIS</t>
+          <t>CALABACIN REDONDO DE NIZA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -7180,13 +7180,13 @@
         <v>4</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>36.36</v>
+        <v>33.33</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
@@ -7198,10 +7198,10 @@
         <v>6.1</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>59</v>
@@ -7402,12 +7402,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5103010002</t>
+          <t>5107020001</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE TRITON 14/16 12 UDS</t>
+          <t>ANEMONA DE CAEN MEZCLADO 7/8 15UDS</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -7429,10 +7429,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>5.49</v>
+        <v>6.99</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>2.18</v>
+        <v>3.54</v>
       </c>
       <c r="K19" s="4" t="n">
         <v>20</v>
@@ -7450,7 +7450,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>10</v>
@@ -7485,12 +7485,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5107020001</t>
+          <t>5103010002</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ANEMONA DE CAEN MEZCLADO 7/8 15UDS</t>
+          <t>GLADIOLO FLOR GRANDE TRITON 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -7512,10 +7512,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>6.99</v>
+        <v>5.49</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>3.54</v>
+        <v>2.18</v>
       </c>
       <c r="K20" s="4" t="n">
         <v>20</v>
@@ -7533,7 +7533,7 @@
         <v>4</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>10</v>
@@ -7817,12 +7817,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5402090017</t>
+          <t>5401010015</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>MAIZ DULCE JUBILEE</t>
+          <t>DALIA DECORATIVA, VARIADA 2011</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -7844,10 +7844,10 @@
         <v>3</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>5.34</v>
+        <v>5.37</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="K24" s="4" t="n">
         <v>100</v>
@@ -7865,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>0</v>
@@ -7883,7 +7883,7 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
@@ -7893,19 +7893,19 @@
       </c>
       <c r="W24" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5404010015</t>
+          <t>5404010026</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>MENTA VERDE</t>
+          <t>MANZANILLA ECO</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -7933,7 +7933,7 @@
         <v>2.48</v>
       </c>
       <c r="K25" s="4" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L25" s="4" t="n">
         <v>0</v>
@@ -7945,10 +7945,10 @@
         <v>4.6</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>59</v>
@@ -7966,7 +7966,7 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -7976,19 +7976,19 @@
       </c>
       <c r="W25" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5401010015</t>
+          <t>5401010027</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>DALIA DECORATIVA, VARIADA 2011</t>
+          <t>SALVIA ENANA ROJA</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -8016,7 +8016,7 @@
         <v>2.48</v>
       </c>
       <c r="K26" s="4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L26" s="4" t="n">
         <v>0</v>
@@ -8028,50 +8028,50 @@
         <v>4.6</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T26" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5404010026</t>
+          <t>5404010009</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>MANZANILLA ECO</t>
+          <t>ENELDO</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -8093,10 +8093,10 @@
         <v>3</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>5.37</v>
+        <v>5.1</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>2.48</v>
+        <v>2.24</v>
       </c>
       <c r="K27" s="4" t="n">
         <v>50</v>
@@ -8114,7 +8114,7 @@
         <v>3</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Q27" s="4" t="n">
         <v>59</v>
@@ -8149,12 +8149,12 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5401010025</t>
+          <t>5402090017</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>PETUNIA DOBLE VARIADA</t>
+          <t>MAIZ DULCE JUBILEE</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -8176,10 +8176,10 @@
         <v>3</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>5.37</v>
+        <v>5.34</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="K28" s="4" t="n">
         <v>100</v>
@@ -8197,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q28" s="4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="W28" s="4" t="inlineStr">
         <is>
-          <t>13B</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
@@ -8315,12 +8315,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5402020016</t>
+          <t>5404010015</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA BUTTERNUT ECO</t>
+          <t>MENTA VERDE</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -8348,7 +8348,7 @@
         <v>2.48</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="L30" s="4" t="n">
         <v>0</v>
@@ -8360,10 +8360,10 @@
         <v>4.6</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>59</v>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -8391,19 +8391,19 @@
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5401010027</t>
+          <t>5401010025</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>SALVIA ENANA ROJA</t>
+          <t>PETUNIA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -8431,7 +8431,7 @@
         <v>2.48</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
@@ -8443,50 +8443,50 @@
         <v>4.6</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T31" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T31" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13B</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5404010009</t>
+          <t>5402020016</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>ENELDO</t>
+          <t>CALABAZA BUTTERNUT ECO</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -8508,13 +8508,13 @@
         <v>3</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>5.1</v>
+        <v>5.37</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -8526,10 +8526,10 @@
         <v>4.6</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>59</v>
@@ -8564,12 +8564,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5402020009</t>
+          <t>5402020001</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO</t>
+          <t>CALABACIN DE MESA NEGRO</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -8597,7 +8597,7 @@
         <v>2.51</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
@@ -8609,10 +8609,10 @@
         <v>4.6</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q33" s="4" t="n">
         <v>0</v>
@@ -8625,12 +8625,12 @@
       </c>
       <c r="T33" s="7" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
@@ -8640,19 +8640,19 @@
       </c>
       <c r="W33" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5402050024</t>
+          <t>5402050002</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA LARGA NEGRA ECO</t>
+          <t>PIMIENTO BLOCKY AMARILLO 2019</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -8674,13 +8674,13 @@
         <v>3</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>5.1</v>
+        <v>5.37</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>2.27</v>
+        <v>2.51</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
@@ -8692,10 +8692,10 @@
         <v>4.6</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q34" s="4" t="n">
         <v>59</v>
@@ -8730,12 +8730,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>5402020007</t>
+          <t>5402020009</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>MELON ROCHET</t>
+          <t>MELON PIÑONET PIEL DE SAPO</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -8763,7 +8763,7 @@
         <v>2.51</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
         <v>0</v>
@@ -8775,50 +8775,50 @@
         <v>4.6</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>17</v>
+        <v>-3</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>6</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T35" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T35" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5402090022</t>
+          <t>5402020007</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>REMOLACHA DE MESA ROJA</t>
+          <t>MELON ROCHET</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -8846,7 +8846,7 @@
         <v>2.51</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>0</v>
@@ -8858,10 +8858,10 @@
         <v>4.6</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q36" s="4" t="n">
         <v>59</v>
@@ -8896,12 +8896,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5402050002</t>
+          <t>5402050009</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO BLOCKY AMARILLO 2019</t>
+          <t>PIMIENTO PIQUILLO</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -8929,7 +8929,7 @@
         <v>2.51</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>4.6</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>59</v>
@@ -8979,12 +8979,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5402020001</t>
+          <t>5401010017</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>CALABACIN DE MESA NEGRO</t>
+          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -9012,7 +9012,7 @@
         <v>2.51</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0</v>
@@ -9024,50 +9024,50 @@
         <v>4.6</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T38" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5401010017</t>
+          <t>5401010035</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
+          <t>PORTULACA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -9095,7 +9095,7 @@
         <v>2.51</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -9107,10 +9107,10 @@
         <v>4.6</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>59</v>
@@ -9145,12 +9145,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5402050009</t>
+          <t>5402050024</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PIQUILLO</t>
+          <t>BERENJENA LARGA NEGRA ECO</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -9172,10 +9172,10 @@
         <v>3</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>5.37</v>
+        <v>5.1</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>2.51</v>
+        <v>2.27</v>
       </c>
       <c r="K40" s="4" t="n">
         <v>50</v>
@@ -9193,7 +9193,7 @@
         <v>3</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>59</v>
@@ -9228,12 +9228,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5401010035</t>
+          <t>5402060003</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>PORTULACA DOBLE VARIADA</t>
+          <t>GUISANTE RONDO ECO</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -9261,7 +9261,7 @@
         <v>2.51</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
@@ -9273,50 +9273,50 @@
         <v>4.6</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T41" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T41" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>5402060003</t>
+          <t>5402090022</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>GUISANTE RONDO ECO</t>
+          <t>REMOLACHA DE MESA ROJA</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -9344,7 +9344,7 @@
         <v>2.51</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>0</v>
@@ -9356,38 +9356,38 @@
         <v>4.6</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T42" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -9726,12 +9726,12 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5102010003</t>
+          <t>5107040000</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
+          <t>CANNA ENANA FV ZUMBA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -9753,10 +9753,10 @@
         <v>1</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>5.99</v>
+        <v>4.29</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>3.51</v>
+        <v>1.96</v>
       </c>
       <c r="K47" s="4" t="n">
         <v>20</v>
@@ -9809,12 +9809,12 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5107040000</t>
+          <t>5102010003</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>CANNA ENANA FV ZUMBA</t>
+          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -9836,10 +9836,10 @@
         <v>1</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>4.29</v>
+        <v>5.99</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.96</v>
+        <v>3.51</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>20</v>
@@ -10058,12 +10058,12 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5402020006</t>
+          <t>5404010008</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA CABELLO DE ANGEL 2011</t>
+          <t>CILANTRO</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -10091,7 +10091,7 @@
         <v>1.65</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>22.22</v>
+        <v>20</v>
       </c>
       <c r="L51" s="4" t="n">
         <v>0</v>
@@ -10103,16 +10103,16 @@
         <v>3.1</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S51" s="5" t="n">
         <v>10</v>
@@ -10129,7 +10129,7 @@
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
@@ -10141,12 +10141,12 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>5401030003</t>
+          <t>5402050006</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>CINERARIA ENANA HIBRIDA VARIADA</t>
+          <t>PIMIENTO HABANERO ROJO 2019</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
@@ -10174,7 +10174,7 @@
         <v>1.65</v>
       </c>
       <c r="K52" s="4" t="n">
-        <v>28.57</v>
+        <v>20</v>
       </c>
       <c r="L52" s="4" t="n">
         <v>0</v>
@@ -10186,10 +10186,10 @@
         <v>3.1</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q52" s="4" t="n">
         <v>59</v>
@@ -10224,12 +10224,12 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>5402050006</t>
+          <t>5401010022</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO HABANERO ROJO 2019</t>
+          <t>MARGARITA GRANDE BLANCA</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
@@ -10257,7 +10257,7 @@
         <v>1.65</v>
       </c>
       <c r="K53" s="4" t="n">
-        <v>20</v>
+        <v>66.67</v>
       </c>
       <c r="L53" s="4" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>3.1</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P53" s="4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q53" s="4" t="n">
         <v>59</v>
@@ -10290,7 +10290,7 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
@@ -10300,19 +10300,19 @@
       </c>
       <c r="W53" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>5401010022</t>
+          <t>5401030003</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>MARGARITA GRANDE BLANCA</t>
+          <t>CINERARIA ENANA HIBRIDA VARIADA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
@@ -10340,7 +10340,7 @@
         <v>1.65</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>66.67</v>
+        <v>28.57</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0</v>
@@ -10352,10 +10352,10 @@
         <v>3.1</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Q54" s="4" t="n">
         <v>59</v>
@@ -10373,7 +10373,7 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -10383,19 +10383,19 @@
       </c>
       <c r="W54" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5404010008</t>
+          <t>5401010014</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CILANTRO</t>
+          <t>CRISANTEMOS DE LOS JARDINES, VARIADOS 2011</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
@@ -10423,7 +10423,7 @@
         <v>1.65</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
@@ -10435,50 +10435,50 @@
         <v>3.1</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T55" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T55" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>5401010014</t>
+          <t>5402020006</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>CRISANTEMOS DE LOS JARDINES, VARIADOS 2011</t>
+          <t>CALABAZA CABELLO DE ANGEL 2011</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
@@ -10506,7 +10506,7 @@
         <v>1.65</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>100</v>
+        <v>22.22</v>
       </c>
       <c r="L56" s="4" t="n">
         <v>0</v>
@@ -10518,50 +10518,50 @@
         <v>3.1</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T56" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>5402090001</t>
+          <t>5402040007</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>ACELGA VERDE PENCA BLANCA</t>
+          <t>LECHUGA SUCRINE</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
@@ -10589,7 +10589,7 @@
         <v>1.67</v>
       </c>
       <c r="K57" s="4" t="n">
-        <v>22.22</v>
+        <v>13.33</v>
       </c>
       <c r="L57" s="4" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>3.1</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="P57" s="4" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="Q57" s="4" t="n">
         <v>59</v>
@@ -10802,12 +10802,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5402020013</t>
+          <t>5402090012</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>SANDIA CRIMSON SWEET ECOLOG</t>
+          <t>ESCAROLA CABELLO DE ANGEL 2011</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
@@ -10835,7 +10835,7 @@
         <v>1.67</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.18</v>
+        <v>33.33</v>
       </c>
       <c r="L2" s="4" t="n">
         <v>0</v>
@@ -10847,10 +10847,10 @@
         <v>3.1</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>59</v>
@@ -10968,12 +10968,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5402040002</t>
+          <t>5402040005</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA GRANDES LAGOS -CALIFORNIA</t>
+          <t>LECHUGA RED SALAD BALL 2011</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -11001,7 +11001,7 @@
         <v>1.67</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.26</v>
+        <v>20</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>0</v>
@@ -11013,10 +11013,10 @@
         <v>3.1</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>59</v>
@@ -11051,12 +11051,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5402020012</t>
+          <t>5402040008</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
+          <t>LECHUGA REINA DE MAYO ECO</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -11084,7 +11084,7 @@
         <v>1.67</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>22.22</v>
+        <v>10</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>0</v>
@@ -11096,10 +11096,10 @@
         <v>3.1</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>59</v>
@@ -11134,12 +11134,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5401010036</t>
+          <t>5402040002</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>MEZCLA DE FLORES PARDO JAPONES VARIADA</t>
+          <t>LECHUGA GRANDES LAGOS -CALIFORNIA</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -11167,7 +11167,7 @@
         <v>1.67</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>20</v>
+        <v>4.26</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>0</v>
@@ -11179,10 +11179,10 @@
         <v>3.1</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="4" t="n">
         <v>59</v>
@@ -11217,12 +11217,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5402040008</t>
+          <t>5401010036</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA REINA DE MAYO ECO</t>
+          <t>MEZCLA DE FLORES PARDO JAPONES VARIADA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -11250,7 +11250,7 @@
         <v>1.67</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -11262,10 +11262,10 @@
         <v>3.1</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>59</v>
@@ -11300,12 +11300,12 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5401010020</t>
+          <t>5402020012</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
+          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -11333,7 +11333,7 @@
         <v>1.67</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>9.52</v>
+        <v>22.22</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>0</v>
@@ -11345,10 +11345,10 @@
         <v>3.1</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>59</v>
@@ -11383,12 +11383,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5402040005</t>
+          <t>5402090001</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA RED SALAD BALL 2011</t>
+          <t>ACELGA VERDE PENCA BLANCA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -11416,7 +11416,7 @@
         <v>1.67</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>20</v>
+        <v>22.22</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
@@ -11428,10 +11428,10 @@
         <v>3.1</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>59</v>
@@ -11466,12 +11466,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5402090012</t>
+          <t>5401010020</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ESCAROLA CABELLO DE ANGEL 2011</t>
+          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -11499,7 +11499,7 @@
         <v>1.67</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>33.33</v>
+        <v>9.52</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
@@ -11511,10 +11511,10 @@
         <v>3.1</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>59</v>
@@ -11549,12 +11549,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5402090018</t>
+          <t>5402080005</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>MAIZ PALOMITAS</t>
+          <t>JUDIA PEROLAR 35GR</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -11576,13 +11576,13 @@
         <v>2</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>3.5</v>
+        <v>3.56</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>15.38</v>
+        <v>40</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -11594,10 +11594,10 @@
         <v>3.1</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>59</v>
@@ -11632,12 +11632,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5402080005</t>
+          <t>5404010001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>JUDIA PEROLAR 35GR</t>
+          <t>ALBAHACA FINA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -11659,13 +11659,13 @@
         <v>2</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>3.56</v>
+        <v>3.58</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>40</v>
+        <v>66.67</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>0</v>
@@ -11677,10 +11677,10 @@
         <v>3.1</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>59</v>
@@ -11698,7 +11698,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>OPTIMIZAR: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado. Continuar monitoreo.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -11708,19 +11708,19 @@
       </c>
       <c r="W12" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5404010001</t>
+          <t>5402030005</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA FINA</t>
+          <t>RABANITO REDONDO ROJO ECOL</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -11742,13 +11742,13 @@
         <v>2</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
@@ -11760,10 +11760,10 @@
         <v>3.1</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>59</v>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado. Continuar monitoreo.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -11791,19 +11791,19 @@
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5402040007</t>
+          <t>5402090018</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA SUCRINE</t>
+          <t>MAIZ PALOMITAS</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -11825,13 +11825,13 @@
         <v>2</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>3.58</v>
+        <v>3.5</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>13.33</v>
+        <v>15.38</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
@@ -11843,10 +11843,10 @@
         <v>3.1</v>
       </c>
       <c r="O14" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="P14" s="4" t="n">
         <v>13</v>
-      </c>
-      <c r="P14" s="4" t="n">
-        <v>44</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>59</v>
@@ -11881,12 +11881,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5402090010</t>
+          <t>5402020013</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>COLIFLOR ROMANESCO NATALINO</t>
+          <t>SANDIA CRIMSON SWEET ECOLOG</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -11914,7 +11914,7 @@
         <v>1.67</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>10</v>
+        <v>18.18</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>0</v>
@@ -11926,7 +11926,7 @@
         <v>3.1</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>23</v>
@@ -11964,12 +11964,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5402030005</t>
+          <t>5402090010</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>RABANITO REDONDO ROJO ECOL</t>
+          <t>COLIFLOR ROMANESCO NATALINO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -11991,13 +11991,13 @@
         <v>2</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>3.31</v>
+        <v>3.58</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
@@ -12009,10 +12009,10 @@
         <v>3.1</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>59</v>
@@ -12213,12 +12213,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5401030001</t>
+          <t>5401030002</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CLAVEL GIGANTE ROSA PÁLIDO</t>
+          <t>CLAVEL MARGARITA VARIADO 00543</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -12261,7 +12261,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>0</v>
@@ -12279,7 +12279,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 30%. Stock objetivo: 1 unidades. Monitorear demanda próximas semanas.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -12289,19 +12289,19 @@
       </c>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>26B</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5401030002</t>
+          <t>5401030001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>CLAVEL MARGARITA VARIADO 00543</t>
+          <t>CLAVEL GIGANTE ROSA PÁLIDO</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -12344,7 +12344,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>0</v>
@@ -12362,7 +12362,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>RECOMPRA PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 30%. Stock objetivo: 1 unidades. Monitorear demanda próximas semanas.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -12372,7 +12372,7 @@
       </c>
       <c r="W20" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>26B</t>
         </is>
       </c>
     </row>
@@ -12545,12 +12545,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5402020014</t>
+          <t>5402020008</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>SANDIA SUGAR BABY</t>
+          <t>MELON AMARILLO CANARIO</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
@@ -12578,7 +12578,7 @@
         <v>0.83</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>16.67</v>
+        <v>11.11</v>
       </c>
       <c r="L23" s="4" t="n">
         <v>0</v>
@@ -12590,10 +12590,10 @@
         <v>1.5</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>59</v>
@@ -12628,12 +12628,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5402090023</t>
+          <t>5402090020</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>SANDÍA CRIMSON SWEET 2019</t>
+          <t>PUERRO VDE CARENTAN ECOLOG</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>0.83</v>
       </c>
       <c r="K24" s="4" t="n">
-        <v>0</v>
+        <v>11.11</v>
       </c>
       <c r="L24" s="4" t="n">
         <v>0</v>
@@ -12673,38 +12673,38 @@
         <v>1.5</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T24" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -12794,12 +12794,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5402090020</t>
+          <t>5402090023</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>PUERRO VDE CARENTAN ECOLOG</t>
+          <t>SANDÍA CRIMSON SWEET 2019</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -12827,7 +12827,7 @@
         <v>0.83</v>
       </c>
       <c r="K26" s="4" t="n">
-        <v>11.11</v>
+        <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
         <v>0</v>
@@ -12839,50 +12839,50 @@
         <v>1.5</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T26" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T26" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5402020008</t>
+          <t>5402020014</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>MELON AMARILLO CANARIO</t>
+          <t>SANDIA SUGAR BABY</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -12910,7 +12910,7 @@
         <v>0.83</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>11.11</v>
+        <v>16.67</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
@@ -12922,10 +12922,10 @@
         <v>1.5</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="Q27" s="4" t="n">
         <v>59</v>
@@ -12960,12 +12960,12 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5402040003</t>
+          <t>5401010034</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
+          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -12993,7 +12993,7 @@
         <v>0.84</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L28" s="4" t="n">
         <v>0</v>
@@ -13005,10 +13005,10 @@
         <v>1.5</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="Q28" s="4" t="n">
         <v>59</v>
@@ -13126,12 +13126,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5402030003</t>
+          <t>5402090006</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
+          <t>CEBOLLA ARBO - MORADA DE AMPOSTA 2011</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -13159,7 +13159,7 @@
         <v>0.84</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L30" s="4" t="n">
         <v>0</v>
@@ -13171,50 +13171,50 @@
         <v>1.5</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T30" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5402090028</t>
+          <t>5402090008</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -13242,7 +13242,7 @@
         <v>0.84</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>50</v>
+        <v>11.11</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
@@ -13254,10 +13254,10 @@
         <v>1.5</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>59</v>
@@ -13292,12 +13292,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5404010004</t>
+          <t>5404010022</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA LIMON 2015</t>
+          <t>STEVIA 2015</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -13325,7 +13325,7 @@
         <v>0.84</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>100</v>
+        <v>4.76</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -13337,50 +13337,50 @@
         <v>1.5</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T32" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5404010022</t>
+          <t>5404010004</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>STEVIA 2015</t>
+          <t>ALBAHACA LIMON 2015</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -13408,7 +13408,7 @@
         <v>0.84</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>4.76</v>
+        <v>100</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
@@ -13420,50 +13420,50 @@
         <v>1.5</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T33" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T33" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5402090006</t>
+          <t>5402040003</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA ARBO - MORADA DE AMPOSTA 2011</t>
+          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -13491,7 +13491,7 @@
         <v>0.84</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
@@ -13503,10 +13503,10 @@
         <v>1.5</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="Q34" s="4" t="n">
         <v>59</v>
@@ -13541,12 +13541,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>5401010034</t>
+          <t>5401010032</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
+          <t>GIPSOFILA ELEGANS BLANCA</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -13574,7 +13574,7 @@
         <v>0.84</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L35" s="4" t="n">
         <v>0</v>
@@ -13586,16 +13586,16 @@
         <v>1.5</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S35" s="5" t="n">
         <v>10</v>
@@ -13612,7 +13612,7 @@
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -13624,12 +13624,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5401010032</t>
+          <t>5402030003</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>GIPSOFILA ELEGANS BLANCA</t>
+          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -13657,7 +13657,7 @@
         <v>0.84</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>0</v>
@@ -13669,50 +13669,50 @@
         <v>1.5</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T36" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T36" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5402090008</t>
+          <t>5402090028</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -13740,7 +13740,7 @@
         <v>0.84</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>11.11</v>
+        <v>50</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0</v>
@@ -13752,10 +13752,10 @@
         <v>1.5</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>59</v>
@@ -14368,12 +14368,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5102020014</t>
+          <t>5107190018</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA PAYASO I X1</t>
+          <t>ARUM HOTSHOT 14/+ X1</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
@@ -14451,24 +14451,24 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5102020012</t>
+          <t>5404010007</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA LE THOUREIL I X1</t>
+          <t>CEBOLLINO ANUAL 2011</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -14502,13 +14502,13 @@
         <v>59</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
@@ -14517,12 +14517,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -14534,24 +14534,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5307010005</t>
+          <t>5102020016</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS REPOBLADORAS 1 KG</t>
+          <t>DAHLIA DECORATIVA ENANA ZANZIBAR I X1</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -14579,19 +14579,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
@@ -14600,12 +14600,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.19€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -14617,12 +14617,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5107190009</t>
+          <t>5107190017</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL STARGAZER 16/18 3 UDS</t>
+          <t>ARUM PINK PERSUASION 14/+ X1</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -14700,24 +14700,24 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5102040001</t>
+          <t>5402030001</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA DOBLE MEZCLADO I/II X4</t>
+          <t>NABO DE MESA VIRTUDES MARTILLO</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -14751,13 +14751,13 @@
         <v>59</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T6" s="8" t="inlineStr">
         <is>
@@ -14766,12 +14766,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -14783,24 +14783,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5302010001</t>
+          <t>5402090029</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPORT</t>
+          <t>MAIZ DULCE GOLDEN BANTAAM ECO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -14828,7 +14828,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>59</v>
@@ -14849,7 +14849,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -14866,24 +14866,24 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5402080006</t>
+          <t>5302010001</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>JUDIA HELDA ECO</t>
+          <t>CESPED FORMULA SPORT</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -14911,7 +14911,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>59</v>
@@ -14932,7 +14932,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -14949,32 +14949,24 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5305010001</t>
+          <t>5402090003</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SOMBRA</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ALCACHOFA TALPIOT 2011</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -15002,16 +14994,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S9" s="5" t="n">
         <v>10</v>
@@ -15023,12 +15015,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -15040,12 +15032,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5102070006</t>
+          <t>5102020010</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON ASHADO X1</t>
+          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -15085,7 +15077,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>59</v>
@@ -15123,24 +15115,24 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5402080003</t>
+          <t>5102020012</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>JUDIA GARRAFAL ORO-VELEZ</t>
+          <t>DAHLIA DECORATIVA ENANA LE THOUREIL I X1</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -15168,19 +15160,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
@@ -15189,12 +15181,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -15206,24 +15198,24 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5404010002</t>
+          <t>5103010006</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA GIGANTE</t>
+          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -15251,19 +15243,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T12" s="8" t="inlineStr">
         <is>
@@ -15272,12 +15264,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -15289,12 +15281,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5107190010</t>
+          <t>5102090001</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL BERGAME 16/18 3 UDS</t>
+          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -15372,12 +15364,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5102050000</t>
+          <t>5107190010</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA SIMPLE MEZCLADO I/II X4</t>
+          <t>LIS ORIENTAL BERGAME 16/18 3 UDS</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -15455,32 +15447,24 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5301010001</t>
+          <t>5402050020</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA RESISTENTE</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BERENJENA LARGA NEGRA</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -15508,16 +15492,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S15" s="5" t="n">
         <v>10</v>
@@ -15529,12 +15513,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -15546,24 +15530,24 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5402010002</t>
+          <t>5103030000</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>COL BRUSELAS MEDIO ENANA</t>
+          <t>GLADIOLO FLOR GRANDE MEZCLADO 10/12 40 UDS</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -15591,19 +15575,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
@@ -15612,12 +15596,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -15629,24 +15613,24 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>5402050020</t>
+          <t>5107170001</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA LARGA NEGRA</t>
+          <t>IXIA MACULATA MEZCLADO 5/+ X15</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
       <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -15674,19 +15658,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T17" s="8" t="inlineStr">
         <is>
@@ -15695,12 +15679,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -15712,12 +15696,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>5401010031</t>
+          <t>5402010001</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>GERANIO ZONALE VARIADO</t>
+          <t>COL BRUNSWICK TENTA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
@@ -15757,7 +15741,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>59</v>
@@ -15778,7 +15762,7 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -15795,12 +15779,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5107190013</t>
+          <t>5102050000</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ARUM MAJESTIC RED 14/+ X1</t>
+          <t>DAHLIA ENANA SIMPLE MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -15878,24 +15862,24 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5402010001</t>
+          <t>5103020000</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>COL BRUNSWICK TENTA</t>
+          <t>GLADIOLO COLVILLEI MEZCLADO 8/9 X7</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -15923,19 +15907,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T20" s="8" t="inlineStr">
         <is>
@@ -15944,12 +15928,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -15961,12 +15945,12 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5102090001</t>
+          <t>5107100002</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
+          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
@@ -16006,7 +15990,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>59</v>
@@ -16044,24 +16028,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5101010003</t>
+          <t>5402080006</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE ESCARLATA 5/6 X3</t>
+          <t>JUDIA HELDA ECO</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -16089,19 +16073,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T22" s="8" t="inlineStr">
         <is>
@@ -16110,12 +16094,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -16127,24 +16111,24 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5402080001</t>
+          <t>5102040000</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>JUDÍA EFEQUINCE</t>
+          <t>DAHLIA ENANA DOBLE MACARON I X1 FDF</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -16172,19 +16156,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T23" s="8" t="inlineStr">
         <is>
@@ -16193,12 +16177,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -16210,24 +16194,24 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5102070000</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
+          <t>DAHLIA POMPON VILLA BLANCA 1 UDS</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -16255,19 +16239,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T24" s="8" t="inlineStr">
         <is>
@@ -16276,12 +16260,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -16293,24 +16277,24 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5103010006</t>
+          <t>5404010021</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 12 UDS</t>
+          <t>SALVIA OFFICINALIS</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
       <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -16338,19 +16322,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T25" s="8" t="inlineStr">
         <is>
@@ -16359,12 +16343,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -16376,12 +16360,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5102020010</t>
+          <t>5102040001</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
+          <t>DAHLIA ENANA DOBLE MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -16421,7 +16405,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>59</v>
@@ -16459,12 +16443,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5102020013</t>
+          <t>5102010005</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA JAMAICA I X1</t>
+          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -16625,24 +16609,24 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5107100001</t>
+          <t>5401010031</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>FREESIA DOBLE MEZCLADO 5+ 15 UDS</t>
+          <t>GERANIO ZONALE VARIADO</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
       <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -16670,19 +16654,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T29" s="8" t="inlineStr">
         <is>
@@ -16691,12 +16675,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -16791,24 +16775,24 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5107190017</t>
+          <t>5402080002</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>ARUM PINK PERSUASION 14/+ X1</t>
+          <t>JUDIA GARRAFAL ENANA 250GR</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
       <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
@@ -16836,19 +16820,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T31" s="8" t="inlineStr">
         <is>
@@ -16857,12 +16841,12 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -16874,24 +16858,24 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5402010003</t>
+          <t>5107100001</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>COL RIZADA KALE 2017</t>
+          <t>FREESIA DOBLE MEZCLADO 5+ 15 UDS</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
       <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
@@ -16919,19 +16903,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T32" s="8" t="inlineStr">
         <is>
@@ -16940,12 +16924,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -16957,24 +16941,24 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5402030001</t>
+          <t>5102020014</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>NABO DE MESA VIRTUDES MARTILLO</t>
+          <t>DAHLIA DECORATIVA PAYASO I X1</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
       <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
@@ -17008,13 +16992,13 @@
         <v>59</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T33" s="8" t="inlineStr">
         <is>
@@ -17023,12 +17007,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -17040,12 +17024,12 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5107100002</t>
+          <t>5102010004</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
+          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -17085,7 +17069,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>59</v>
@@ -17123,12 +17107,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>5107170001</t>
+          <t>5107190013</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>IXIA MACULATA MEZCLADO 5/+ X15</t>
+          <t>ARUM MAJESTIC RED 14/+ X1</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -17216,7 +17200,7 @@
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>60G</t>
+          <t>250G</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -17259,7 +17243,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>59</v>
@@ -17297,32 +17281,24 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5301010002</t>
+          <t>5402080001</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPARRING</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>JUDÍA EFEQUINCE</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr"/>
+      <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -17350,7 +17326,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>59</v>
@@ -17388,24 +17364,24 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5103020000</t>
+          <t>5402010002</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO COLVILLEI MEZCLADO 8/9 X7</t>
+          <t>COL BRUSELAS MEDIO ENANA</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
       <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -17433,19 +17409,19 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T38" s="8" t="inlineStr">
         <is>
@@ -17454,12 +17430,12 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -17471,12 +17447,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5102010005</t>
+          <t>5102020019</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
+          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -17554,24 +17530,24 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5107190018</t>
+          <t>5404010002</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ARUM HOTSHOT 14/+ X1</t>
+          <t>ALBAHACA GIGANTE</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
       <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -17599,19 +17575,19 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T40" s="8" t="inlineStr">
         <is>
@@ -17620,12 +17596,12 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -17637,24 +17613,32 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5103030000</t>
+          <t>5305010001</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE MEZCLADO 10/12 40 UDS</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr"/>
-      <c r="D41" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SOMBRA</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -17682,19 +17666,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T41" s="8" t="inlineStr">
         <is>
@@ -17703,12 +17687,12 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -17720,12 +17704,12 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>5102010004</t>
+          <t>5107190009</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
+          <t>LIS ORIENTAL STARGAZER 16/18 3 UDS</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -17803,24 +17787,24 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>5404010021</t>
+          <t>5103010003</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>SALVIA OFFICINALIS</t>
+          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
       <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -17848,19 +17832,19 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T43" s="8" t="inlineStr">
         <is>
@@ -17869,12 +17853,12 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
@@ -17886,12 +17870,12 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>5102020015</t>
+          <t>5102080000</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
+          <t>DAHLIA GIGANTE TARTARUS I X1</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
@@ -17969,12 +17953,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5402080002</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>JUDIA GARRAFAL ENANA 250GR</t>
+          <t>HABA HISTAL</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -18014,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>59</v>
@@ -18035,7 +18019,7 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
@@ -18052,32 +18036,24 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5307010005</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t>250G</t>
-        </is>
-      </c>
-      <c r="D46" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>SEMILLAS REPOBLADORAS 1 KG</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr"/>
+      <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -18105,16 +18081,16 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S46" s="5" t="n">
         <v>10</v>
@@ -18126,12 +18102,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.19€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -18143,12 +18119,12 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5102070000</t>
+          <t>5101010003</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON VILLA BLANCA 1 UDS</t>
+          <t>BEGONIA DOBLE ESCARLATA 5/6 X3</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -18226,12 +18202,12 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5402090029</t>
+          <t>5402080003</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>MAIZ DULCE GOLDEN BANTAAM ECO</t>
+          <t>JUDIA GARRAFAL ORO-VELEZ</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -18271,7 +18247,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>59</v>
@@ -18292,7 +18268,7 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
@@ -18309,12 +18285,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5107190005</t>
+          <t>5102070006</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>ARUM FORET NEGRO 14+1 UDS</t>
+          <t>DAHLIA POMPON ASHADO X1</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -18392,12 +18368,12 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5102080000</t>
+          <t>5102020013</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA GIGANTE TARTARUS I X1</t>
+          <t>DAHLIA DECORATIVA ENANA JAMAICA I X1</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -18475,24 +18451,16 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5301010002</t>
+          <t>5301010003</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPARRING</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>1Kg</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>SEMILLAS CESPED RESISTENTE 1KG</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr"/>
+      <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="4" t="inlineStr">
         <is>
           <t>53</t>
@@ -18528,7 +18496,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>59</v>
@@ -18549,7 +18517,7 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 74.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
@@ -18566,24 +18534,24 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>5404010007</t>
+          <t>5107190005</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLINO ANUAL 2011</t>
+          <t>ARUM FORET NEGRO 14+1 UDS</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
       <c r="D52" s="3" t="inlineStr"/>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -18617,13 +18585,13 @@
         <v>59</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T52" s="8" t="inlineStr">
         <is>
@@ -18632,12 +18600,12 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
@@ -18649,24 +18617,32 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>5402090003</t>
+          <t>5301010001</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>ALCACHOFA TALPIOT 2011</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr"/>
-      <c r="D53" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA RESISTENTE</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
@@ -18694,7 +18670,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>59</v>
@@ -18732,24 +18708,24 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>5404010018</t>
+          <t>5102020011</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL DOBLE RIZADO 2011</t>
+          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -18777,19 +18753,19 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T54" s="8" t="inlineStr">
         <is>
@@ -18798,12 +18774,12 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.01€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
@@ -18815,24 +18791,32 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5102040000</t>
+          <t>5301010002</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA DOBLE MACARON I X1 FDF</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr"/>
-      <c r="D55" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SPARRING</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
@@ -18860,19 +18844,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T55" s="8" t="inlineStr">
         <is>
@@ -18881,12 +18865,12 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 74.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
@@ -18898,24 +18882,24 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>5102020019</t>
+          <t>5404010018</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
+          <t>PEREJIL DOBLE RIZADO 2011</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
       <c r="D56" s="3" t="inlineStr"/>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
@@ -18943,19 +18927,19 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T56" s="8" t="inlineStr">
         <is>
@@ -18964,12 +18948,12 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.01€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
@@ -18981,16 +18965,24 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>5301010003</t>
+          <t>5301010002</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS CESPED RESISTENTE 1KG</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr"/>
-      <c r="D57" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SPARRING</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
           <t>53</t>
@@ -19026,16 +19018,16 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q57" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R57" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S57" s="5" t="n">
         <v>10</v>
@@ -19047,12 +19039,12 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.77€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W57" s="4" t="inlineStr">
@@ -19064,12 +19056,12 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>5102020011</t>
+          <t>5102020015</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
+          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr"/>
@@ -19147,24 +19139,24 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>5103010003</t>
+          <t>5402010003</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
+          <t>COL RIZADA KALE 2017</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
       <c r="D59" s="3" t="inlineStr"/>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
@@ -19192,19 +19184,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T59" s="8" t="inlineStr">
         <is>
@@ -19213,12 +19205,12 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
@@ -19230,24 +19222,32 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>5102020016</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA ZANZIBAR I X1</t>
-        </is>
-      </c>
-      <c r="C60" s="3" t="inlineStr"/>
-      <c r="D60" s="3" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>60G</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
@@ -19275,19 +19275,19 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T60" s="8" t="inlineStr">
         <is>
@@ -19296,12 +19296,12 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_SEMILLAS_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_SEMILLAS_P1_2025.xlsx
@@ -2077,12 +2077,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5104010012</t>
+          <t>5105010009</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>JACINTHE BLEU DE DELFT FDF 15/+ X5</t>
+          <t>NARCISSE GRANDE COUPE PINK CHARM 1</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -2104,10 +2104,10 @@
         <v>2</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>15.98</v>
+        <v>14.98</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>6.53</v>
+        <v>5.62</v>
       </c>
       <c r="K19" s="4" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>-2</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>0</v>
@@ -2160,55 +2160,55 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5105010009</t>
+          <t>5404010019</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>NARCISSE GRANDE COUPE PINK CHARM 1</t>
+          <t>PEREJIL GIGANTE D'ITALIA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>14.98</v>
+        <v>17.63</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>5.62</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>3.1</v>
+        <v>15.3</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>0</v>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -2236,62 +2236,62 @@
       </c>
       <c r="W20" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5404010019</t>
+          <t>5104010012</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL GIGANTE D'ITALIA</t>
+          <t>JACINTHE BLEU DE DELFT FDF 15/+ X5</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>17.63</v>
+        <v>15.98</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>6.53</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>15.3</v>
+        <v>3.1</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>0</v>
@@ -2304,12 +2304,12 @@
       </c>
       <c r="T21" s="7" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="W21" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -3753,12 +3753,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5404010020</t>
+          <t>5402020010</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>ROMERO COMUN</t>
+          <t>PEPINO BELLPUIG LARGO VERDE</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -3780,13 +3780,13 @@
         <v>7</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>12.53</v>
+        <v>12.35</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>5.79</v>
+        <v>5.63</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>116.67</v>
+        <v>77.78</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -3798,50 +3798,50 @@
         <v>10.7</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T39" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5402020010</t>
+          <t>5401010007</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>PEPINO BELLPUIG LARGO VERDE</t>
+          <t>CAPUCHINA ENANA VARIADA</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -3863,13 +3863,13 @@
         <v>7</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>12.35</v>
+        <v>12.53</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>5.63</v>
+        <v>5.79</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>77.78</v>
+        <v>70</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>0</v>
@@ -3881,16 +3881,16 @@
         <v>10.7</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S40" s="5" t="n">
         <v>10</v>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -3919,12 +3919,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5401010007</t>
+          <t>5404010020</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>CAPUCHINA ENANA VARIADA</t>
+          <t>ROMERO COMUN</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -3952,7 +3952,7 @@
         <v>5.79</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>70</v>
+        <v>116.67</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
@@ -3964,38 +3964,38 @@
         <v>10.7</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T41" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T41" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -4251,12 +4251,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5401010030</t>
+          <t>5404010010</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>ZINNIA FLOR DE DALIA</t>
+          <t>HIERBA PARA GATOS</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -4278,13 +4278,13 @@
         <v>6</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>4.96</v>
+        <v>4.72</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>100</v>
+        <v>46.15</v>
       </c>
       <c r="L45" s="4" t="n">
         <v>0</v>
@@ -4296,50 +4296,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T45" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5404010017</t>
+          <t>5401010028</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL COMUN DE HOJA LISA</t>
+          <t>TAGETE ALTO DOBLE VARIADO</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -4367,7 +4367,7 @@
         <v>4.96</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>26.09</v>
+        <v>54.55</v>
       </c>
       <c r="L46" s="4" t="n">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>5</v>
@@ -4417,12 +4417,12 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5402090016</t>
+          <t>5401010030</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>FRESON ALEXANDRIA</t>
+          <t>ZINNIA FLOR DE DALIA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -4450,7 +4450,7 @@
         <v>4.96</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>85.70999999999999</v>
+        <v>100</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>0</v>
@@ -4462,50 +4462,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T47" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T47" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5404010010</t>
+          <t>5401010019</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>HIERBA PARA GATOS</t>
+          <t>GIRASOL ORNAMENTAL 2011</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -4527,13 +4527,13 @@
         <v>6</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>4.72</v>
+        <v>4.96</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>46.15</v>
+        <v>100</v>
       </c>
       <c r="L48" s="4" t="n">
         <v>0</v>
@@ -4545,50 +4545,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T48" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T48" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5402050008</t>
+          <t>5404010017</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PADRON 2011</t>
+          <t>PEREJIL COMUN DE HOJA LISA</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -4610,13 +4610,13 @@
         <v>6</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>4.72</v>
+        <v>4.96</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>100</v>
+        <v>26.09</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>0</v>
@@ -4628,50 +4628,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T49" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5401010019</t>
+          <t>5402050008</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>GIRASOL ORNAMENTAL 2011</t>
+          <t>PIMIENTO PADRON 2011</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -4693,10 +4693,10 @@
         <v>6</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>4.96</v>
+        <v>4.72</v>
       </c>
       <c r="K50" s="4" t="n">
         <v>100</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q50" s="4" t="n">
         <v>0</v>
@@ -4749,12 +4749,12 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5401010028</t>
+          <t>5402090016</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>TAGETE ALTO DOBLE VARIADO</t>
+          <t>FRESON ALEXANDRIA</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -4782,7 +4782,7 @@
         <v>4.96</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>54.55</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="L51" s="4" t="n">
         <v>0</v>
@@ -4794,10 +4794,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="Q51" s="4" t="n">
         <v>59</v>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="W51" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -5081,95 +5081,95 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5107190015</t>
+          <t>5402050015</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>LIS CANDIDUM 22/24 X1</t>
+          <t>TOMATE MARMANDE RAF</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
       <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>5.99</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>1.45</v>
+        <v>4.14</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>0</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="N55" s="5" t="n">
-        <v>1.5</v>
+        <v>7.6</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T55" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>5104010011</t>
+          <t>5107190015</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>JACINTHE JAN BOS FDF 15/+ X5</t>
+          <t>LIS CANDIDUM 22/24 X1</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
@@ -5191,10 +5191,10 @@
         <v>1</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>7.99</v>
+        <v>5.99</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>3.26</v>
+        <v>1.45</v>
       </c>
       <c r="K56" s="4" t="n">
         <v>0</v>
@@ -5247,12 +5247,12 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>5402050015</t>
+          <t>5401010013</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE RAF</t>
+          <t>COSMOS DEL JAPON</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
@@ -5280,7 +5280,7 @@
         <v>4.14</v>
       </c>
       <c r="K57" s="4" t="n">
-        <v>71.43000000000001</v>
+        <v>83.33</v>
       </c>
       <c r="L57" s="4" t="n">
         <v>0</v>
@@ -5292,10 +5292,10 @@
         <v>7.6</v>
       </c>
       <c r="O57" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" s="4" t="n">
         <v>2</v>
-      </c>
-      <c r="P57" s="4" t="n">
-        <v>20</v>
       </c>
       <c r="Q57" s="4" t="n">
         <v>59</v>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
@@ -5323,102 +5323,102 @@
       </c>
       <c r="W57" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>5401010013</t>
+          <t>5104010011</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>COSMOS DEL JAPON</t>
+          <t>JACINTHE JAN BOS FDF 15/+ X5</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr"/>
       <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H58" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>7.99</v>
       </c>
       <c r="J58" s="4" t="n">
-        <v>4.14</v>
+        <v>3.26</v>
       </c>
       <c r="K58" s="4" t="n">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N58" s="5" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P58" s="4" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T58" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T58" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>5401010004</t>
+          <t>5402050018</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>BELLA DE NOCHE</t>
+          <t>TOMATE ROMA</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
@@ -5446,7 +5446,7 @@
         <v>4.19</v>
       </c>
       <c r="K59" s="4" t="n">
-        <v>83.33</v>
+        <v>26.32</v>
       </c>
       <c r="L59" s="4" t="n">
         <v>0</v>
@@ -5458,10 +5458,10 @@
         <v>7.6</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="P59" s="4" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="Q59" s="4" t="n">
         <v>59</v>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
@@ -5489,19 +5489,19 @@
       </c>
       <c r="W59" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>5401010006</t>
+          <t>5401010004</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>CAMPANULA DOBLE, VARIADA 2011</t>
+          <t>BELLA DE NOCHE</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>
@@ -5529,7 +5529,7 @@
         <v>4.19</v>
       </c>
       <c r="K60" s="4" t="n">
-        <v>71.43000000000001</v>
+        <v>83.33</v>
       </c>
       <c r="L60" s="4" t="n">
         <v>0</v>
@@ -5541,10 +5541,10 @@
         <v>7.6</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P60" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q60" s="4" t="n">
         <v>59</v>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="W60" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -5662,12 +5662,12 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>5402050018</t>
+          <t>5401010006</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>TOMATE ROMA</t>
+          <t>CAMPANULA DOBLE, VARIADA 2011</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr"/>
@@ -5695,7 +5695,7 @@
         <v>4.19</v>
       </c>
       <c r="K62" s="4" t="n">
-        <v>26.32</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="L62" s="4" t="n">
         <v>0</v>
@@ -5707,10 +5707,10 @@
         <v>7.6</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P62" s="4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="4" t="n">
         <v>59</v>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
@@ -5738,90 +5738,90 @@
       </c>
       <c r="W62" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>5102070004</t>
+          <t>5401010009</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON MEZCLADO 1/2 4 UDS</t>
+          <t>CLAVEL DE POETA</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr"/>
       <c r="D63" s="3" t="inlineStr"/>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H63" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I63" s="4" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="J63" s="4" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="K63" s="4" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="L63" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" s="5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N63" s="5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O63" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I63" s="4" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="J63" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="K63" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="L63" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N63" s="5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O63" s="4" t="n">
-        <v>24</v>
-      </c>
       <c r="P63" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R63" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T63" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 1416 días.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W63" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -5991,83 +5991,83 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5401010009</t>
+          <t>5102070004</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>CLAVEL DE POETA</t>
+          <t>DAHLIA POMPON MEZCLADO 1/2 4 UDS</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>6.45</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.34</v>
+        <v>2.06</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>83.33</v>
+        <v>4</v>
       </c>
       <c r="L2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M2" s="5" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N2" s="5" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T2" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T2" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 1416 días.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -6323,12 +6323,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5404010013</t>
+          <t>5402090013</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>MANZANILLA</t>
+          <t>ESPARRAGO MARY WASHINGTON 2011</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -6356,7 +6356,7 @@
         <v>3.06</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>57.14</v>
+        <v>80</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>0</v>
@@ -6368,10 +6368,10 @@
         <v>6.1</v>
       </c>
       <c r="O6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4" t="n">
         <v>3</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2</v>
       </c>
       <c r="Q6" s="4" t="n">
         <v>59</v>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -6399,19 +6399,19 @@
       </c>
       <c r="W6" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5402090013</t>
+          <t>5402050004</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ESPARRAGO MARY WASHINGTON 2011</t>
+          <t>PIMIENTO DULCE ITALIANO ECOL</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -6433,13 +6433,13 @@
         <v>4</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>3.06</v>
+        <v>3.31</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -6451,38 +6451,38 @@
         <v>6.1</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T7" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T7" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13B</t>
         </is>
       </c>
     </row>
@@ -6572,12 +6572,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5402050011</t>
+          <t>5404010013</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CORAZÓN DE BUEY 2017</t>
+          <t>MANZANILLA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -6599,13 +6599,13 @@
         <v>4</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>3.31</v>
+        <v>3.06</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>33.33</v>
+        <v>57.14</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
@@ -6617,10 +6617,10 @@
         <v>6.1</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>59</v>
@@ -6655,12 +6655,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5402050004</t>
+          <t>5402050011</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO DULCE ITALIANO ECOL</t>
+          <t>TOMATE CORAZÓN DE BUEY 2017</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>3.31</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>100</v>
+        <v>33.33</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
@@ -6700,50 +6700,50 @@
         <v>6.1</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T10" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
         <is>
-          <t>13B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5402050012</t>
+          <t>5402020003</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>TOMATE DE COLGAR</t>
+          <t>CALABACIN REDONDO DE NIZA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
         <v>3.35</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -6783,50 +6783,50 @@
         <v>6.1</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T11" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5401010008</t>
+          <t>5401010003</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>CAPUCHINA TREPADORA</t>
+          <t>BELLA DE DIA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -6854,7 +6854,7 @@
         <v>3.35</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>100</v>
+        <v>44.44</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>0</v>
@@ -6866,50 +6866,50 @@
         <v>6.1</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T12" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5404010006</t>
+          <t>5402050012</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>ANIS</t>
+          <t>TOMATE DE COLGAR</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -6931,13 +6931,13 @@
         <v>4</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>36.36</v>
+        <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
@@ -6949,50 +6949,50 @@
         <v>6.1</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T13" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T13" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5401010033</t>
+          <t>5401010008</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>STRELITZIA AVE DEL PARAISO</t>
+          <t>CAPUCHINA TREPADORA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -7020,7 +7020,7 @@
         <v>3.35</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
@@ -7032,50 +7032,50 @@
         <v>6.1</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T14" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T14" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5402020003</t>
+          <t>5404010006</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>CALABACIN REDONDO DE NIZA</t>
+          <t>ANIS</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -7097,13 +7097,13 @@
         <v>4</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>33.33</v>
+        <v>36.36</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>0</v>
@@ -7115,10 +7115,10 @@
         <v>6.1</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>59</v>
@@ -7153,12 +7153,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5401010003</t>
+          <t>5401010033</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>BELLA DE DIA</t>
+          <t>STRELITZIA AVE DEL PARAISO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -7186,7 +7186,7 @@
         <v>3.35</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>44.44</v>
+        <v>80</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
@@ -7198,10 +7198,10 @@
         <v>6.1</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>59</v>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -7229,7 +7229,7 @@
       </c>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -7651,12 +7651,12 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5107130001</t>
+          <t>5102090002</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>LIS ASIATICA NASHVILLE 16/18 X3</t>
+          <t>DAHLIA BALLE GENOVA I X1</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
@@ -7678,10 +7678,10 @@
         <v>1</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>5.39</v>
+        <v>4.45</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>2.46</v>
+        <v>1.61</v>
       </c>
       <c r="K22" s="4" t="n">
         <v>20</v>
@@ -7699,7 +7699,7 @@
         <v>4</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>10</v>
@@ -7734,12 +7734,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5102090002</t>
+          <t>5107130001</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA BALLE GENOVA I X1</t>
+          <t>LIS ASIATICA NASHVILLE 16/18 X3</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
@@ -7761,10 +7761,10 @@
         <v>1</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>4.45</v>
+        <v>5.39</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>1.61</v>
+        <v>2.46</v>
       </c>
       <c r="K23" s="4" t="n">
         <v>20</v>
@@ -7782,7 +7782,7 @@
         <v>4</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>10</v>
@@ -7817,12 +7817,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5402020016</t>
+          <t>5402090017</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA BUTTERNUT ECO</t>
+          <t>MAIZ DULCE JUBILEE</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -7844,13 +7844,13 @@
         <v>3</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>5.37</v>
+        <v>5.34</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="K24" s="4" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L24" s="4" t="n">
         <v>0</v>
@@ -7862,50 +7862,50 @@
         <v>4.6</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T24" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T24" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5401010027</t>
+          <t>5404010009</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>SALVIA ENANA ROJA</t>
+          <t>ENELDO</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -7927,13 +7927,13 @@
         <v>3</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>5.37</v>
+        <v>5.1</v>
       </c>
       <c r="J25" s="4" t="n">
-        <v>2.48</v>
+        <v>2.24</v>
       </c>
       <c r="K25" s="4" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L25" s="4" t="n">
         <v>0</v>
@@ -7945,10 +7945,10 @@
         <v>4.6</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>59</v>
@@ -7966,7 +7966,7 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -7976,19 +7976,19 @@
       </c>
       <c r="W25" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5404010015</t>
+          <t>5401010025</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>MENTA VERDE</t>
+          <t>PETUNIA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -8016,7 +8016,7 @@
         <v>2.48</v>
       </c>
       <c r="K26" s="4" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L26" s="4" t="n">
         <v>0</v>
@@ -8028,50 +8028,50 @@
         <v>4.6</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T26" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T26" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13B</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5404010026</t>
+          <t>5401010015</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>MANZANILLA ECO</t>
+          <t>DALIA DECORATIVA, VARIADA 2011</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -8099,7 +8099,7 @@
         <v>2.48</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
@@ -8111,50 +8111,50 @@
         <v>4.6</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T27" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T27" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5402090017</t>
+          <t>5401010027</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>MAIZ DULCE JUBILEE</t>
+          <t>SALVIA ENANA ROJA</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -8176,13 +8176,13 @@
         <v>3</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>5.34</v>
+        <v>5.37</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L28" s="4" t="n">
         <v>0</v>
@@ -8194,50 +8194,50 @@
         <v>4.6</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T28" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5401010025</t>
+          <t>5402020016</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>PETUNIA DOBLE VARIADA</t>
+          <t>CALABAZA BUTTERNUT ECO</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -8265,7 +8265,7 @@
         <v>2.48</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>0</v>
@@ -8277,50 +8277,50 @@
         <v>4.6</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T29" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
         <is>
-          <t>13B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5401010015</t>
+          <t>5402030004</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>DALIA DECORATIVA, VARIADA 2011</t>
+          <t>RABANITO REDONDO ROJO</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -8348,7 +8348,7 @@
         <v>2.48</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>100</v>
+        <v>42.86</v>
       </c>
       <c r="L30" s="4" t="n">
         <v>0</v>
@@ -8360,50 +8360,50 @@
         <v>4.6</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T30" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5404010009</t>
+          <t>5404010015</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>ENELDO</t>
+          <t>MENTA VERDE</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -8425,13 +8425,13 @@
         <v>3</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>5.1</v>
+        <v>5.37</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
@@ -8443,10 +8443,10 @@
         <v>4.6</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>59</v>
@@ -8464,7 +8464,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -8474,19 +8474,19 @@
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5402030004</t>
+          <t>5404010026</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>RABANITO REDONDO ROJO</t>
+          <t>MANZANILLA ECO</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -8514,7 +8514,7 @@
         <v>2.48</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>42.86</v>
+        <v>50</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -8526,10 +8526,10 @@
         <v>4.6</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>59</v>
@@ -8564,12 +8564,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5402090022</t>
+          <t>5402020001</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>REMOLACHA DE MESA ROJA</t>
+          <t>CALABACIN DE MESA NEGRO</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -8597,7 +8597,7 @@
         <v>2.51</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
@@ -8609,50 +8609,50 @@
         <v>4.6</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T33" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T33" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5402020001</t>
+          <t>5402020009</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>CALABACIN DE MESA NEGRO</t>
+          <t>MELON PIÑONET PIEL DE SAPO</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -8680,7 +8680,7 @@
         <v>2.51</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
@@ -8692,10 +8692,10 @@
         <v>4.6</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q34" s="4" t="n">
         <v>0</v>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="T34" s="7" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
@@ -8723,19 +8723,19 @@
       </c>
       <c r="W34" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>5401010035</t>
+          <t>5402050024</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>PORTULACA DOBLE VARIADA</t>
+          <t>BERENJENA LARGA NEGRA ECO</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -8757,13 +8757,13 @@
         <v>3</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>5.37</v>
+        <v>5.1</v>
       </c>
       <c r="J35" s="4" t="n">
-        <v>2.51</v>
+        <v>2.27</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="L35" s="4" t="n">
         <v>0</v>
@@ -8775,10 +8775,10 @@
         <v>4.6</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="Q35" s="4" t="n">
         <v>59</v>
@@ -8813,12 +8813,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5402020009</t>
+          <t>5402050009</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO</t>
+          <t>PIMIENTO PIQUILLO</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -8846,7 +8846,7 @@
         <v>2.51</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>0</v>
@@ -8858,50 +8858,50 @@
         <v>4.6</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T36" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5402050009</t>
+          <t>5402050002</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PIQUILLO</t>
+          <t>PIMIENTO BLOCKY AMARILLO 2019</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -8929,7 +8929,7 @@
         <v>2.51</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>4.6</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>59</v>
@@ -8979,12 +8979,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5402050002</t>
+          <t>5402090022</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO BLOCKY AMARILLO 2019</t>
+          <t>REMOLACHA DE MESA ROJA</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -9062,12 +9062,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5401010017</t>
+          <t>5402020007</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
+          <t>MELON ROCHET</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -9095,7 +9095,7 @@
         <v>2.51</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -9107,10 +9107,10 @@
         <v>4.6</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>59</v>
@@ -9145,12 +9145,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5402020007</t>
+          <t>5401010035</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>MELON ROCHET</t>
+          <t>PORTULACA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -9178,7 +9178,7 @@
         <v>2.51</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>15</v>
+        <v>37.5</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>0</v>
@@ -9190,10 +9190,10 @@
         <v>4.6</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>59</v>
@@ -9311,12 +9311,12 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>5402050024</t>
+          <t>5401010017</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA LARGA NEGRA ECO</t>
+          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -9338,10 +9338,10 @@
         <v>3</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>5.1</v>
+        <v>5.37</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>2.27</v>
+        <v>2.51</v>
       </c>
       <c r="K42" s="4" t="n">
         <v>50</v>
@@ -9359,7 +9359,7 @@
         <v>3</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q42" s="4" t="n">
         <v>59</v>
@@ -9394,12 +9394,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>5402040009</t>
+          <t>5402090007</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA ROMANA LARGA RUBIA ECO</t>
+          <t>CEBOLLA DULCE DE FUENTES 2019</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -9421,13 +9421,13 @@
         <v>3</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>5.1</v>
+        <v>5.37</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>30</v>
+        <v>27.27</v>
       </c>
       <c r="L43" s="4" t="n">
         <v>0</v>
@@ -9439,10 +9439,10 @@
         <v>4.6</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>59</v>
@@ -9477,12 +9477,12 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>5402090007</t>
+          <t>5402040009</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA DULCE DE FUENTES 2019</t>
+          <t>LECHUGA ROMANA LARGA RUBIA ECO</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
@@ -9504,13 +9504,13 @@
         <v>3</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>5.37</v>
+        <v>5.1</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>27.27</v>
+        <v>30</v>
       </c>
       <c r="L44" s="4" t="n">
         <v>0</v>
@@ -9522,10 +9522,10 @@
         <v>4.6</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>59</v>
@@ -9726,12 +9726,12 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5107040000</t>
+          <t>5102070005</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>CANNA ENANA FV ZUMBA</t>
+          <t>DAHLIA POMPON OKAPI I X1</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -9753,10 +9753,10 @@
         <v>1</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>4.29</v>
+        <v>3.5</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.96</v>
+        <v>1.24</v>
       </c>
       <c r="K47" s="4" t="n">
         <v>20</v>
@@ -9774,7 +9774,7 @@
         <v>4</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q47" s="4" t="n">
         <v>10</v>
@@ -9809,12 +9809,12 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5102010003</t>
+          <t>5107040000</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
+          <t>CANNA ENANA FV ZUMBA</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -9836,10 +9836,10 @@
         <v>1</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>5.99</v>
+        <v>4.29</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>3.51</v>
+        <v>1.96</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>20</v>
@@ -9892,12 +9892,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5102070005</t>
+          <t>5102010003</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON OKAPI I X1</t>
+          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -9919,10 +9919,10 @@
         <v>1</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>3.5</v>
+        <v>5.99</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.24</v>
+        <v>3.51</v>
       </c>
       <c r="K49" s="4" t="n">
         <v>20</v>
@@ -9940,7 +9940,7 @@
         <v>4</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="4" t="n">
         <v>10</v>
@@ -10058,12 +10058,12 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5402020006</t>
+          <t>5401030003</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA CABELLO DE ANGEL 2011</t>
+          <t>CINERARIA ENANA HIBRIDA VARIADA</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -10091,7 +10091,7 @@
         <v>1.65</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>22.22</v>
+        <v>28.57</v>
       </c>
       <c r="L51" s="4" t="n">
         <v>0</v>
@@ -10103,10 +10103,10 @@
         <v>3.1</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="Q51" s="4" t="n">
         <v>59</v>
@@ -10141,12 +10141,12 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>5401010022</t>
+          <t>5402050006</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>MARGARITA GRANDE BLANCA</t>
+          <t>PIMIENTO HABANERO ROJO 2019</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
@@ -10174,7 +10174,7 @@
         <v>1.65</v>
       </c>
       <c r="K52" s="4" t="n">
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="L52" s="4" t="n">
         <v>0</v>
@@ -10186,10 +10186,10 @@
         <v>3.1</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q52" s="4" t="n">
         <v>59</v>
@@ -10207,7 +10207,7 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
@@ -10217,19 +10217,19 @@
       </c>
       <c r="W52" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>5402050006</t>
+          <t>5402020006</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO HABANERO ROJO 2019</t>
+          <t>CALABAZA CABELLO DE ANGEL 2011</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
@@ -10257,7 +10257,7 @@
         <v>1.65</v>
       </c>
       <c r="K53" s="4" t="n">
-        <v>20</v>
+        <v>22.22</v>
       </c>
       <c r="L53" s="4" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>3.1</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P53" s="4" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q53" s="4" t="n">
         <v>59</v>
@@ -10390,12 +10390,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5401030003</t>
+          <t>5401010022</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CINERARIA ENANA HIBRIDA VARIADA</t>
+          <t>MARGARITA GRANDE BLANCA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
@@ -10423,7 +10423,7 @@
         <v>1.65</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>28.57</v>
+        <v>66.67</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
@@ -10435,10 +10435,10 @@
         <v>3.1</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="Q55" s="4" t="n">
         <v>59</v>
@@ -10456,7 +10456,7 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
@@ -10466,7 +10466,7 @@
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -10556,12 +10556,12 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>5402040002</t>
+          <t>5401010036</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA GRANDES LAGOS -CALIFORNIA</t>
+          <t>MEZCLA DE FLORES PARDO JAPONES VARIADA</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
@@ -10589,7 +10589,7 @@
         <v>1.67</v>
       </c>
       <c r="K57" s="4" t="n">
-        <v>4.26</v>
+        <v>20</v>
       </c>
       <c r="L57" s="4" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>3.1</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="P57" s="4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q57" s="4" t="n">
         <v>59</v>
@@ -10802,12 +10802,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5402020013</t>
+          <t>5402090012</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>SANDIA CRIMSON SWEET ECOLOG</t>
+          <t>ESCAROLA CABELLO DE ANGEL 2011</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
@@ -10835,7 +10835,7 @@
         <v>1.67</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.18</v>
+        <v>33.33</v>
       </c>
       <c r="L2" s="4" t="n">
         <v>0</v>
@@ -10847,10 +10847,10 @@
         <v>3.1</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>59</v>
@@ -10885,12 +10885,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5402040005</t>
+          <t>5402090018</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA RED SALAD BALL 2011</t>
+          <t>MAIZ PALOMITAS</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
@@ -10912,13 +10912,13 @@
         <v>2</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.58</v>
+        <v>3.5</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>20</v>
+        <v>15.38</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>0</v>
@@ -10930,10 +10930,10 @@
         <v>3.1</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>59</v>
@@ -10968,12 +10968,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5402090010</t>
+          <t>5402040005</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>COLIFLOR ROMANESCO NATALINO</t>
+          <t>LECHUGA RED SALAD BALL 2011</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -11001,7 +11001,7 @@
         <v>1.67</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>0</v>
@@ -11013,10 +11013,10 @@
         <v>3.1</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>59</v>
@@ -11051,12 +11051,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5402090001</t>
+          <t>5402090010</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>ACELGA VERDE PENCA BLANCA</t>
+          <t>COLIFLOR ROMANESCO NATALINO</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -11084,7 +11084,7 @@
         <v>1.67</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>22.22</v>
+        <v>10</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>0</v>
@@ -11096,10 +11096,10 @@
         <v>3.1</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>59</v>
@@ -11134,12 +11134,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5402020012</t>
+          <t>5402080005</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
+          <t>JUDIA PEROLAR 35GR</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -11161,13 +11161,13 @@
         <v>2</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>3.58</v>
+        <v>3.56</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>22.22</v>
+        <v>40</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>0</v>
@@ -11179,7 +11179,7 @@
         <v>3.1</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>25</v>
@@ -11217,12 +11217,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5402080005</t>
+          <t>5404010023</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>JUDIA PEROLAR 35GR</t>
+          <t>TOMILLO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -11244,13 +11244,13 @@
         <v>2</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>3.56</v>
+        <v>3.58</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>40</v>
+        <v>33.33</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -11262,10 +11262,10 @@
         <v>3.1</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>59</v>
@@ -11300,12 +11300,12 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5404010023</t>
+          <t>5402090001</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>TOMILLO</t>
+          <t>ACELGA VERDE PENCA BLANCA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -11333,7 +11333,7 @@
         <v>1.67</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>33.33</v>
+        <v>22.22</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>0</v>
@@ -11345,10 +11345,10 @@
         <v>3.1</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>59</v>
@@ -11383,12 +11383,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5402090012</t>
+          <t>5402040008</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>ESCAROLA CABELLO DE ANGEL 2011</t>
+          <t>LECHUGA REINA DE MAYO ECO</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -11416,7 +11416,7 @@
         <v>1.67</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>33.33</v>
+        <v>10</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
@@ -11428,10 +11428,10 @@
         <v>3.1</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>59</v>
@@ -11466,12 +11466,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5402030005</t>
+          <t>5402020012</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>RABANITO REDONDO ROJO ECOL</t>
+          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -11493,13 +11493,13 @@
         <v>2</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>3.31</v>
+        <v>3.58</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>40</v>
+        <v>22.22</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
@@ -11511,10 +11511,10 @@
         <v>3.1</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>59</v>
@@ -11549,12 +11549,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5401010036</t>
+          <t>5402030005</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>MEZCLA DE FLORES PARDO JAPONES VARIADA</t>
+          <t>RABANITO REDONDO ROJO ECOL</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -11576,13 +11576,13 @@
         <v>2</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -11594,10 +11594,10 @@
         <v>3.1</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>59</v>
@@ -11632,12 +11632,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5402040008</t>
+          <t>5401010020</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA REINA DE MAYO ECO</t>
+          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -11665,7 +11665,7 @@
         <v>1.67</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>10</v>
+        <v>9.52</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>0</v>
@@ -11677,10 +11677,10 @@
         <v>3.1</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>59</v>
@@ -11715,12 +11715,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5402090018</t>
+          <t>5402040007</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>MAIZ PALOMITAS</t>
+          <t>LECHUGA SUCRINE</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -11742,13 +11742,13 @@
         <v>2</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>3.5</v>
+        <v>3.58</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>15.38</v>
+        <v>13.33</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
@@ -11760,10 +11760,10 @@
         <v>3.1</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>59</v>
@@ -11798,12 +11798,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5404010001</t>
+          <t>5402020013</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA FINA</t>
+          <t>SANDIA CRIMSON SWEET ECOLOG</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -11831,7 +11831,7 @@
         <v>1.67</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>66.67</v>
+        <v>18.18</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
@@ -11843,10 +11843,10 @@
         <v>3.1</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>59</v>
@@ -11864,7 +11864,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado. Continuar monitoreo.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -11874,19 +11874,19 @@
       </c>
       <c r="W14" s="4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5402040007</t>
+          <t>5402040002</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA SUCRINE</t>
+          <t>LECHUGA GRANDES LAGOS -CALIFORNIA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -11914,7 +11914,7 @@
         <v>1.67</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>13.33</v>
+        <v>4.26</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>0</v>
@@ -11926,10 +11926,10 @@
         <v>3.1</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>59</v>
@@ -11964,12 +11964,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5401010020</t>
+          <t>5404010001</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
+          <t>ALBAHACA FINA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -11997,7 +11997,7 @@
         <v>1.67</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>9.52</v>
+        <v>66.67</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
@@ -12009,10 +12009,10 @@
         <v>3.1</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>59</v>
@@ -12030,7 +12030,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>OPTIMIZAR: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado. Continuar monitoreo.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -12130,12 +12130,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>5401010012</t>
+          <t>5401030002</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>CORONADO PRINCESA, VARIADO</t>
+          <t>CLAVEL MARGARITA VARIADO 00543</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
@@ -12163,7 +12163,7 @@
         <v>1.71</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L18" s="4" t="n">
         <v>0</v>
@@ -12175,50 +12175,50 @@
         <v>3.1</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T18" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T18" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5401030002</t>
+          <t>5401010012</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CLAVEL MARGARITA VARIADO 00543</t>
+          <t>CORONADO PRINCESA, VARIADO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -12246,7 +12246,7 @@
         <v>1.71</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L19" s="4" t="n">
         <v>0</v>
@@ -12258,38 +12258,38 @@
         <v>3.1</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T19" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -12628,12 +12628,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5402090020</t>
+          <t>5402090023</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>PUERRO VDE CARENTAN ECOLOG</t>
+          <t>SANDÍA CRIMSON SWEET 2019</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>0.83</v>
       </c>
       <c r="K24" s="4" t="n">
-        <v>11.11</v>
+        <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
         <v>0</v>
@@ -12673,50 +12673,50 @@
         <v>1.5</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T24" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T24" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5402090023</t>
+          <t>5402090020</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>SANDÍA CRIMSON SWEET 2019</t>
+          <t>PUERRO VDE CARENTAN ECOLOG</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -12744,7 +12744,7 @@
         <v>0.83</v>
       </c>
       <c r="K25" s="4" t="n">
-        <v>0</v>
+        <v>11.11</v>
       </c>
       <c r="L25" s="4" t="n">
         <v>0</v>
@@ -12756,38 +12756,38 @@
         <v>1.5</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T25" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -12960,12 +12960,12 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5402090008</t>
+          <t>5402030003</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
+          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -12993,7 +12993,7 @@
         <v>0.84</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>11.11</v>
+        <v>100</v>
       </c>
       <c r="L28" s="4" t="n">
         <v>0</v>
@@ -13005,50 +13005,50 @@
         <v>1.5</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T28" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T28" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5404010022</t>
+          <t>5401010034</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>STEVIA 2015</t>
+          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -13076,7 +13076,7 @@
         <v>0.84</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>4.76</v>
+        <v>20</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>0</v>
@@ -13088,10 +13088,10 @@
         <v>1.5</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="Q29" s="4" t="n">
         <v>59</v>
@@ -13126,12 +13126,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5402040003</t>
+          <t>5404010004</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
+          <t>ALBAHACA LIMON 2015</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -13159,7 +13159,7 @@
         <v>0.84</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L30" s="4" t="n">
         <v>0</v>
@@ -13171,50 +13171,50 @@
         <v>1.5</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T30" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T30" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5402090028</t>
+          <t>5402090008</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -13242,7 +13242,7 @@
         <v>0.84</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>50</v>
+        <v>11.11</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
@@ -13254,10 +13254,10 @@
         <v>1.5</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>59</v>
@@ -13292,12 +13292,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5401010034</t>
+          <t>5402090006</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
+          <t>CEBOLLA ARBO - MORADA DE AMPOSTA 2011</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -13325,7 +13325,7 @@
         <v>0.84</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -13337,10 +13337,10 @@
         <v>1.5</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>59</v>
@@ -13375,12 +13375,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5402030003</t>
+          <t>5402020017</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
+          <t>MELON PIÑONET PIEL DE SAPO ECO</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -13408,7 +13408,7 @@
         <v>0.84</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>100</v>
+        <v>11.11</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
@@ -13420,50 +13420,50 @@
         <v>1.5</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T33" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5404010004</t>
+          <t>5402040003</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA LIMON 2015</t>
+          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -13491,7 +13491,7 @@
         <v>0.84</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
@@ -13503,38 +13503,38 @@
         <v>1.5</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T34" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -13624,12 +13624,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5402020017</t>
+          <t>5402090028</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO ECO</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -13657,7 +13657,7 @@
         <v>0.84</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>11.11</v>
+        <v>50</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>0</v>
@@ -13669,10 +13669,10 @@
         <v>1.5</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="Q36" s="4" t="n">
         <v>59</v>
@@ -13707,12 +13707,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5402090006</t>
+          <t>5404010022</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA ARBO - MORADA DE AMPOSTA 2011</t>
+          <t>STEVIA 2015</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -13740,7 +13740,7 @@
         <v>0.84</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>50</v>
+        <v>4.76</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0</v>
@@ -13752,10 +13752,10 @@
         <v>1.5</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>59</v>
@@ -13956,12 +13956,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5402030006</t>
+          <t>5402090005</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ZANAHORIA NANTESA ECOLOGICA</t>
+          <t>CANONIGOS GRANO GRUESO</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -13983,13 +13983,13 @@
         <v>1</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1.52</v>
+        <v>1.79</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>0.62</v>
+        <v>0.87</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>14.29</v>
+        <v>11.11</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>0</v>
@@ -14001,10 +14001,10 @@
         <v>1.5</v>
       </c>
       <c r="O40" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="P40" s="4" t="n">
         <v>6</v>
-      </c>
-      <c r="P40" s="4" t="n">
-        <v>2</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>59</v>
@@ -14039,12 +14039,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5402090005</t>
+          <t>5402030006</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>CANONIGOS GRANO GRUESO</t>
+          <t>ZANAHORIA NANTESA ECOLOGICA</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -14066,13 +14066,13 @@
         <v>1</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.79</v>
+        <v>1.52</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>0.87</v>
+        <v>0.62</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>11.11</v>
+        <v>14.29</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
@@ -14084,10 +14084,10 @@
         <v>1.5</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>59</v>
@@ -14368,24 +14368,32 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5102020015</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="3" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>60G</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -14413,19 +14421,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
@@ -14434,12 +14442,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -14451,24 +14459,24 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5402090003</t>
+          <t>5102020011</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>ALCACHOFA TALPIOT 2011</t>
+          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -14496,19 +14504,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
@@ -14517,12 +14525,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -14534,24 +14542,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5107100002</t>
+          <t>5402080001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
+          <t>JUDÍA EFEQUINCE</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -14585,13 +14593,13 @@
         <v>59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
@@ -14600,12 +14608,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -14617,24 +14625,24 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5107170001</t>
+          <t>5302010001</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IXIA MACULATA MEZCLADO 5/+ X15</t>
+          <t>CESPED FORMULA SPORT</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -14662,19 +14670,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T5" s="8" t="inlineStr">
         <is>
@@ -14683,12 +14691,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -14700,32 +14708,24 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5103010006</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>60G</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 12 UDS</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -14753,19 +14753,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T6" s="8" t="inlineStr">
         <is>
@@ -14774,12 +14774,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -14791,12 +14791,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5101010003</t>
+          <t>5102020013</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE ESCARLATA 5/6 X3</t>
+          <t>DAHLIA DECORATIVA ENANA JAMAICA I X1</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -14874,12 +14874,12 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5102020019</t>
+          <t>5101010003</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
+          <t>BEGONIA DOBLE ESCARLATA 5/6 X3</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -14957,24 +14957,24 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5102010005</t>
+          <t>5401010031</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
+          <t>GERANIO ZONALE VARIADO</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -15002,19 +15002,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T9" s="8" t="inlineStr">
         <is>
@@ -15023,12 +15023,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -15040,24 +15040,24 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5107100001</t>
+          <t>5401010001</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>FREESIA DOBLE MEZCLADO 5+ 15 UDS</t>
+          <t>AMAPOLA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -15085,19 +15085,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
@@ -15106,12 +15106,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -15123,12 +15123,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5102020010</t>
+          <t>5107170001</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
+          <t>IXIA MACULATA MEZCLADO 5/+ X15</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -15168,7 +15168,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
@@ -15206,12 +15206,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5102040001</t>
+          <t>5107190009</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA DOBLE MEZCLADO I/II X4</t>
+          <t>LIS ORIENTAL STARGAZER 16/18 3 UDS</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -15289,12 +15289,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5402080003</t>
+          <t>5404010021</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>JUDIA GARRAFAL ORO-VELEZ</t>
+          <t>SALVIA OFFICINALIS</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
@@ -15355,7 +15355,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -15372,24 +15372,16 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5402090029</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>250G</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MAIZ DULCE GOLDEN BANTAAM ECO</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr"/>
+      <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
           <t>54</t>
@@ -15425,16 +15417,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S14" s="5" t="n">
         <v>10</v>
@@ -15446,12 +15438,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -15463,12 +15455,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5102050000</t>
+          <t>5102040000</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA SIMPLE MEZCLADO I/II X4</t>
+          <t>DAHLIA ENANA DOBLE MACARON I X1 FDF</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -15546,12 +15538,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5107190017</t>
+          <t>5107190005</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ARUM PINK PERSUASION 14/+ X1</t>
+          <t>ARUM FORET NEGRO 14+1 UDS</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -15629,12 +15621,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>5103020000</t>
+          <t>5107190017</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO COLVILLEI MEZCLADO 8/9 X7</t>
+          <t>ARUM PINK PERSUASION 14/+ X1</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
@@ -15795,24 +15787,24 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5302010001</t>
+          <t>5107190013</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPORT</t>
+          <t>ARUM MAJESTIC RED 14/+ X1</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -15840,19 +15832,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T19" s="8" t="inlineStr">
         <is>
@@ -15861,12 +15853,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -15878,24 +15870,24 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5404010018</t>
+          <t>5102020012</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL DOBLE RIZADO 2011</t>
+          <t>DAHLIA DECORATIVA ENANA LE THOUREIL I X1</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -15923,19 +15915,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T20" s="8" t="inlineStr">
         <is>
@@ -15944,12 +15936,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.01€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -15961,24 +15953,24 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5102020016</t>
+          <t>5402010001</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA ZANZIBAR I X1</t>
+          <t>COL BRUNSWICK TENTA</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -16006,19 +15998,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T21" s="8" t="inlineStr">
         <is>
@@ -16027,12 +16019,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -16044,24 +16036,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5402050020</t>
+          <t>5107010002</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA LARGA NEGRA</t>
+          <t>AMARYLLIS BELLADONNA 20/+ X1</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -16089,19 +16081,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T22" s="8" t="inlineStr">
         <is>
@@ -16110,12 +16102,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -16127,24 +16119,32 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5107190009</t>
+          <t>5301010001</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL STARGAZER 16/18 3 UDS</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr"/>
-      <c r="D23" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA RESISTENTE</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -16172,19 +16172,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T23" s="8" t="inlineStr">
         <is>
@@ -16193,12 +16193,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -16210,24 +16210,24 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5102020014</t>
+          <t>5402010003</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA PAYASO I X1</t>
+          <t>COL RIZADA KALE 2017</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -16255,19 +16255,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T24" s="8" t="inlineStr">
         <is>
@@ -16276,12 +16276,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -16293,24 +16293,32 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5107190013</t>
+          <t>5305010001</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>ARUM MAJESTIC RED 14/+ X1</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SOMBRA</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -16338,19 +16346,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T25" s="8" t="inlineStr">
         <is>
@@ -16359,12 +16367,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -16376,24 +16384,24 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5402010001</t>
+          <t>5102070006</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>COL BRUNSWICK TENTA</t>
+          <t>DAHLIA POMPON ASHADO X1</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -16421,19 +16429,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T26" s="8" t="inlineStr">
         <is>
@@ -16442,12 +16450,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -16459,12 +16467,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5107190005</t>
+          <t>5103030000</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>ARUM FORET NEGRO 14+1 UDS</t>
+          <t>GLADIOLO FLOR GRANDE MEZCLADO 10/12 40 UDS</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -16542,24 +16550,24 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5402080001</t>
+          <t>5102010005</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>JUDÍA EFEQUINCE</t>
+          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -16587,19 +16595,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T28" s="8" t="inlineStr">
         <is>
@@ -16608,12 +16616,12 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
@@ -16625,32 +16633,24 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5301010002</t>
+          <t>5402080006</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPARRING</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>1Kg</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>JUDIA HELDA ECO</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr"/>
+      <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -16678,7 +16678,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>59</v>
@@ -16699,7 +16699,7 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 74.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
@@ -16716,24 +16716,24 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5107010002</t>
+          <t>5402050020</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>AMARYLLIS BELLADONNA 20/+ X1</t>
+          <t>BERENJENA LARGA NEGRA</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
       <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -16761,19 +16761,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T30" s="8" t="inlineStr">
         <is>
@@ -16782,12 +16782,12 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -16799,32 +16799,24 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5305010001</t>
+          <t>5102020010</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SOMBRA</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr"/>
+      <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
@@ -16852,19 +16844,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T31" s="8" t="inlineStr">
         <is>
@@ -16873,12 +16865,12 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -16890,12 +16882,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5402090029</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>MAIZ DULCE GOLDEN BANTAAM ECO</t>
+          <t>HABA HISTAL</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -16935,7 +16927,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>59</v>
@@ -16956,7 +16948,7 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
@@ -16973,12 +16965,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5107190010</t>
+          <t>5102010004</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL BERGAME 16/18 3 UDS</t>
+          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -17056,12 +17048,12 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5102010004</t>
+          <t>5107190018</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
+          <t>ARUM HOTSHOT 14/+ X1</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -17139,12 +17131,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>5102020013</t>
+          <t>5103010003</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA JAMAICA I X1</t>
+          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -17222,24 +17214,24 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5402080002</t>
+          <t>5107100002</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>JUDIA GARRAFAL ENANA 250GR</t>
+          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
       <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -17267,19 +17259,19 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T36" s="8" t="inlineStr">
         <is>
@@ -17288,12 +17280,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -17305,12 +17297,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5102020012</t>
+          <t>5102090001</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA LE THOUREIL I X1</t>
+          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -17388,12 +17380,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5404010021</t>
+          <t>5402030001</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>SALVIA OFFICINALIS</t>
+          <t>NABO DE MESA VIRTUDES MARTILLO</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -17433,7 +17425,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>59</v>
@@ -17454,7 +17446,7 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
@@ -17471,24 +17463,24 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5402010002</t>
+          <t>5103020000</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>COL BRUSELAS MEDIO ENANA</t>
+          <t>GLADIOLO COLVILLEI MEZCLADO 8/9 X7</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
       <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -17516,19 +17508,19 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T39" s="8" t="inlineStr">
         <is>
@@ -17537,12 +17529,12 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -17554,24 +17546,24 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5404010007</t>
+          <t>5102020019</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLINO ANUAL 2011</t>
+          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
       <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -17605,13 +17597,13 @@
         <v>59</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T40" s="8" t="inlineStr">
         <is>
@@ -17620,12 +17612,12 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -17637,24 +17629,24 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5102020011</t>
+          <t>5402090003</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
+          <t>ALCACHOFA TALPIOT 2011</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -17682,19 +17674,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T41" s="8" t="inlineStr">
         <is>
@@ -17703,12 +17695,12 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -17720,24 +17712,24 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>5402030001</t>
+          <t>5107100001</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>NABO DE MESA VIRTUDES MARTILLO</t>
+          <t>FREESIA DOBLE MEZCLADO 5+ 15 UDS</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
       <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -17765,19 +17757,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T42" s="8" t="inlineStr">
         <is>
@@ -17786,12 +17778,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -17803,24 +17795,32 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>5102070000</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON VILLA BLANCA 1 UDS</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr"/>
-      <c r="D43" s="3" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>250G</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -17848,19 +17848,19 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T43" s="8" t="inlineStr">
         <is>
@@ -17869,12 +17869,12 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
@@ -17886,24 +17886,32 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>5107190018</t>
+          <t>5301010002</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>ARUM HOTSHOT 14/+ X1</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr"/>
-      <c r="D44" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SPARRING</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -17931,19 +17939,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T44" s="8" t="inlineStr">
         <is>
@@ -17952,12 +17960,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 74.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -17969,24 +17977,24 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5102090001</t>
+          <t>5402080003</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
+          <t>JUDIA GARRAFAL ORO-VELEZ</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
       <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -18014,19 +18022,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T45" s="8" t="inlineStr">
         <is>
@@ -18035,12 +18043,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -18052,32 +18060,24 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5301010001</t>
+          <t>5102070000</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA RESISTENTE</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D46" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DAHLIA POMPON VILLA BLANCA 1 UDS</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr"/>
+      <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -18105,19 +18105,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T46" s="8" t="inlineStr">
         <is>
@@ -18126,12 +18126,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -18143,24 +18143,24 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5102020016</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
+          <t>DAHLIA DECORATIVA ENANA ZANZIBAR I X1</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
       <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
@@ -18188,19 +18188,19 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T47" s="8" t="inlineStr">
         <is>
@@ -18209,12 +18209,12 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
@@ -18226,24 +18226,32 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5103030000</t>
+          <t>5301010002</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE MEZCLADO 10/12 40 UDS</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr"/>
-      <c r="D48" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SPARRING</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -18271,19 +18279,19 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T48" s="8" t="inlineStr">
         <is>
@@ -18292,12 +18300,12 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -18309,12 +18317,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5103010006</t>
+          <t>5102080000</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 12 UDS</t>
+          <t>DAHLIA GIGANTE TARTARUS I X1</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -18392,12 +18400,12 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5404010002</t>
+          <t>5402010002</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA GIGANTE</t>
+          <t>COL BRUSELAS MEDIO ENANA</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -18437,7 +18445,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>59</v>
@@ -18458,7 +18466,7 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
@@ -18475,24 +18483,24 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5402080006</t>
+          <t>5102050000</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>JUDIA HELDA ECO</t>
+          <t>DAHLIA ENANA SIMPLE MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
       <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -18520,19 +18528,19 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T51" s="8" t="inlineStr">
         <is>
@@ -18541,12 +18549,12 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
@@ -18558,12 +18566,12 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>5103010003</t>
+          <t>5102040001</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
+          <t>DAHLIA ENANA DOBLE MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
@@ -18641,24 +18649,24 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>5102080000</t>
+          <t>5301010003</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA GIGANTE TARTARUS I X1</t>
+          <t>SEMILLAS CESPED RESISTENTE 1KG</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
       <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
@@ -18686,19 +18694,19 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T53" s="8" t="inlineStr">
         <is>
@@ -18707,12 +18715,12 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
@@ -18724,24 +18732,24 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>5102070006</t>
+          <t>5402080002</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON ASHADO X1</t>
+          <t>JUDIA GARRAFAL ENANA 250GR</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -18769,19 +18777,19 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T54" s="8" t="inlineStr">
         <is>
@@ -18790,12 +18798,12 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
@@ -18807,24 +18815,24 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5102040000</t>
+          <t>5404010007</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA DOBLE MACARON I X1 FDF</t>
+          <t>CEBOLLINO ANUAL 2011</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
       <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
@@ -18858,13 +18866,13 @@
         <v>59</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T55" s="8" t="inlineStr">
         <is>
@@ -18873,12 +18881,12 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
@@ -18890,24 +18898,24 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>5402010003</t>
+          <t>5107190010</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>COL RIZADA KALE 2017</t>
+          <t>LIS ORIENTAL BERGAME 16/18 3 UDS</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
       <c r="D56" s="3" t="inlineStr"/>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
@@ -18935,19 +18943,19 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T56" s="8" t="inlineStr">
         <is>
@@ -18956,12 +18964,12 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
@@ -18973,32 +18981,24 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>5301010002</t>
+          <t>5404010002</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPARRING</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D57" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ALBAHACA GIGANTE</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr"/>
+      <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -19026,16 +19026,16 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q57" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R57" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S57" s="5" t="n">
         <v>10</v>
@@ -19047,12 +19047,12 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W57" s="4" t="inlineStr">
@@ -19064,24 +19064,24 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>5401010001</t>
+          <t>5102020015</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>AMAPOLA DOBLE VARIADA</t>
+          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr"/>
       <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
@@ -19109,19 +19109,19 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T58" s="8" t="inlineStr">
         <is>
@@ -19130,12 +19130,12 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
@@ -19147,24 +19147,24 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>5301010003</t>
+          <t>5102020014</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS CESPED RESISTENTE 1KG</t>
+          <t>DAHLIA DECORATIVA PAYASO I X1</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
       <c r="D59" s="3" t="inlineStr"/>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
@@ -19192,19 +19192,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T59" s="8" t="inlineStr">
         <is>
@@ -19213,12 +19213,12 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.77€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
@@ -19230,12 +19230,12 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>5401010031</t>
+          <t>5404010018</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>GERANIO ZONALE VARIADO</t>
+          <t>PEREJIL DOBLE RIZADO 2011</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>59</v>
@@ -19296,7 +19296,7 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.01€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_SEMILLAS_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_SEMILLAS_P1_2025.xlsx
@@ -2077,55 +2077,55 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5105010009</t>
+          <t>5402050010</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>NARCISSE GRANDE COUPE PINK CHARM 1</t>
+          <t>TOMATE CHERRY</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>14.98</v>
+        <v>17.72</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>5.62</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>3.1</v>
+        <v>15.3</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>0</v>
@@ -2138,12 +2138,12 @@
       </c>
       <c r="T19" s="7" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -2153,62 +2153,62 @@
       </c>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5404010019</t>
+          <t>5104010012</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL GIGANTE D'ITALIA</t>
+          <t>JACINTHE BLEU DE DELFT FDF 15/+ X5</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>17.63</v>
+        <v>15.98</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>6.53</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>15.3</v>
+        <v>3.1</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>0</v>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -2236,62 +2236,62 @@
       </c>
       <c r="W20" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5104010012</t>
+          <t>5404010019</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>JACINTHE BLEU DE DELFT FDF 15/+ X5</t>
+          <t>PEREJIL GIGANTE D'ITALIA</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>15.98</v>
+        <v>17.63</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>6.53</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L21" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>3.1</v>
+        <v>15.3</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>0</v>
@@ -2304,12 +2304,12 @@
       </c>
       <c r="T21" s="7" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -2319,62 +2319,62 @@
       </c>
       <c r="W21" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5401010005</t>
+          <t>5105010009</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>CALENDULA VARIADA</t>
+          <t>NARCISSE GRANDE COUPE PINK CHARM 1</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>17.9</v>
+        <v>14.98</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>8.27</v>
+        <v>5.62</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>15.3</v>
+        <v>3.1</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>0</v>
@@ -2387,12 +2387,12 @@
       </c>
       <c r="T22" s="7" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -2402,19 +2402,19 @@
       </c>
       <c r="W22" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5402050010</t>
+          <t>5401010005</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CHERRY</t>
+          <t>CALENDULA VARIADA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
@@ -2436,10 +2436,10 @@
         <v>10</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>17.72</v>
+        <v>17.9</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>8.27</v>
       </c>
       <c r="K23" s="4" t="n">
         <v>100</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>0</v>
@@ -3255,12 +3255,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5404010016</t>
+          <t>5401010023</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>OREGANO</t>
+          <t>PASIONARIA</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -3282,13 +3282,13 @@
         <v>8</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>14.05</v>
+        <v>14.32</v>
       </c>
       <c r="J33" s="4" t="n">
-        <v>6.37</v>
+        <v>6.62</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>80</v>
+        <v>88.89</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
@@ -3300,16 +3300,16 @@
         <v>12.2</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S33" s="5" t="n">
         <v>10</v>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -3338,12 +3338,12 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5401010023</t>
+          <t>5404010016</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>PASIONARIA</t>
+          <t>OREGANO</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -3365,13 +3365,13 @@
         <v>8</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>14.32</v>
+        <v>14.05</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>6.62</v>
+        <v>6.37</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>88.89</v>
+        <v>80</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
@@ -3383,16 +3383,16 @@
         <v>12.2</v>
       </c>
       <c r="O34" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="P34" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q34" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S34" s="5" t="n">
         <v>10</v>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -3504,12 +3504,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5103010004</t>
+          <t>5101010002</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE CIMAROSA 14/16 12 UDS</t>
+          <t>BEGONIA DOBLE ROSA 5/6 X3</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -3531,10 +3531,10 @@
         <v>2</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>11.98</v>
+        <v>10.98</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>5.27</v>
+        <v>4.36</v>
       </c>
       <c r="K36" s="4" t="n">
         <v>40</v>
@@ -3587,12 +3587,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5101010002</t>
+          <t>5103010004</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE ROSA 5/6 X3</t>
+          <t>GLADIOLO FLOR GRANDE CIMAROSA 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -3614,10 +3614,10 @@
         <v>2</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>10.98</v>
+        <v>11.98</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>4.36</v>
+        <v>5.27</v>
       </c>
       <c r="K37" s="4" t="n">
         <v>40</v>
@@ -3670,12 +3670,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5402020011</t>
+          <t>5404010020</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>PEPINO MARKETER ECOLOGICO</t>
+          <t>ROMERO COMUN</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -3703,7 +3703,7 @@
         <v>5.79</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>70</v>
+        <v>116.67</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0</v>
@@ -3715,50 +3715,50 @@
         <v>10.7</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>13</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T38" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T38" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5402020010</t>
+          <t>5401010007</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>PEPINO BELLPUIG LARGO VERDE</t>
+          <t>CAPUCHINA ENANA VARIADA</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -3780,13 +3780,13 @@
         <v>7</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>12.35</v>
+        <v>12.53</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>5.63</v>
+        <v>5.79</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>77.78</v>
+        <v>70</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -3798,16 +3798,16 @@
         <v>10.7</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S39" s="5" t="n">
         <v>10</v>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -3836,12 +3836,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5401010007</t>
+          <t>5402020010</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>CAPUCHINA ENANA VARIADA</t>
+          <t>PEPINO BELLPUIG LARGO VERDE</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -3863,13 +3863,13 @@
         <v>7</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>12.53</v>
+        <v>12.35</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>5.79</v>
+        <v>5.63</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>70</v>
+        <v>77.78</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>0</v>
@@ -3881,16 +3881,16 @@
         <v>10.7</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S40" s="5" t="n">
         <v>10</v>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -3919,12 +3919,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5404010020</t>
+          <t>5402020011</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>ROMERO COMUN</t>
+          <t>PEPINO MARKETER ECOLOGICO</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -3952,7 +3952,7 @@
         <v>5.79</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>116.67</v>
+        <v>70</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
@@ -3964,38 +3964,38 @@
         <v>10.7</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>13</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T41" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -4251,12 +4251,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5404010010</t>
+          <t>5402090016</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>HIERBA PARA GATOS</t>
+          <t>FRESON ALEXANDRIA</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -4278,13 +4278,13 @@
         <v>6</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>4.72</v>
+        <v>4.96</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>46.15</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="L45" s="4" t="n">
         <v>0</v>
@@ -4296,16 +4296,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S45" s="5" t="n">
         <v>10</v>
@@ -4317,29 +4317,29 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5401010028</t>
+          <t>5404010017</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>TAGETE ALTO DOBLE VARIADO</t>
+          <t>PEREJIL COMUN DE HOJA LISA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -4367,7 +4367,7 @@
         <v>4.96</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>54.55</v>
+        <v>26.09</v>
       </c>
       <c r="L46" s="4" t="n">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>5</v>
@@ -4417,12 +4417,12 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5401010030</t>
+          <t>5404010010</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>ZINNIA FLOR DE DALIA</t>
+          <t>HIERBA PARA GATOS</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -4444,13 +4444,13 @@
         <v>6</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>4.96</v>
+        <v>4.72</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>100</v>
+        <v>46.15</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>0</v>
@@ -4462,50 +4462,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T47" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5401010019</t>
+          <t>5401010030</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>GIRASOL ORNAMENTAL 2011</t>
+          <t>ZINNIA FLOR DE DALIA</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -4548,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q48" s="4" t="n">
         <v>0</v>
@@ -4583,12 +4583,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5404010017</t>
+          <t>5402050008</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL COMUN DE HOJA LISA</t>
+          <t>PIMIENTO PADRON 2011</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -4610,13 +4610,13 @@
         <v>6</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>4.96</v>
+        <v>4.72</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>26.09</v>
+        <v>100</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>0</v>
@@ -4628,50 +4628,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T49" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T49" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5402050008</t>
+          <t>5401010028</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PADRON 2011</t>
+          <t>TAGETE ALTO DOBLE VARIADO</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -4693,13 +4693,13 @@
         <v>6</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>4.72</v>
+        <v>4.96</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>100</v>
+        <v>54.55</v>
       </c>
       <c r="L50" s="4" t="n">
         <v>0</v>
@@ -4711,50 +4711,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T50" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5402090016</t>
+          <t>5401010019</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>FRESON ALEXANDRIA</t>
+          <t>GIRASOL ORNAMENTAL 2011</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -4782,7 +4782,7 @@
         <v>4.96</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>85.70999999999999</v>
+        <v>100</v>
       </c>
       <c r="L51" s="4" t="n">
         <v>0</v>
@@ -4794,38 +4794,38 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T51" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T51" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
@@ -5081,83 +5081,83 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5402050015</t>
+          <t>5104010011</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE RAF</t>
+          <t>JACINTHE JAN BOS FDF 15/+ X5</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
       <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>7.99</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>4.14</v>
+        <v>3.26</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>71.43000000000001</v>
+        <v>0</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N55" s="5" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T55" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T55" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -5247,12 +5247,12 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>5401010013</t>
+          <t>5402050015</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>COSMOS DEL JAPON</t>
+          <t>TOMATE MARMANDE RAF</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
@@ -5280,7 +5280,7 @@
         <v>4.14</v>
       </c>
       <c r="K57" s="4" t="n">
-        <v>83.33</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="L57" s="4" t="n">
         <v>0</v>
@@ -5292,10 +5292,10 @@
         <v>7.6</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P57" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q57" s="4" t="n">
         <v>59</v>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
@@ -5323,102 +5323,102 @@
       </c>
       <c r="W57" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>5104010011</t>
+          <t>5401010013</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>JACINTHE JAN BOS FDF 15/+ X5</t>
+          <t>COSMOS DEL JAPON</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr"/>
       <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H58" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I58" s="4" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="J58" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="K58" s="4" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="L58" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N58" s="5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O58" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I58" s="4" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="J58" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="K58" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O58" s="4" t="n">
-        <v>-1</v>
-      </c>
       <c r="P58" s="4" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T58" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>5402050018</t>
+          <t>5401010004</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>TOMATE ROMA</t>
+          <t>BELLA DE NOCHE</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
@@ -5446,7 +5446,7 @@
         <v>4.19</v>
       </c>
       <c r="K59" s="4" t="n">
-        <v>26.32</v>
+        <v>83.33</v>
       </c>
       <c r="L59" s="4" t="n">
         <v>0</v>
@@ -5458,10 +5458,10 @@
         <v>7.6</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="P59" s="4" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Q59" s="4" t="n">
         <v>59</v>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
@@ -5489,19 +5489,19 @@
       </c>
       <c r="W59" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>5401010004</t>
+          <t>5401010006</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>BELLA DE NOCHE</t>
+          <t>CAMPANULA DOBLE, VARIADA 2011</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>
@@ -5529,7 +5529,7 @@
         <v>4.19</v>
       </c>
       <c r="K60" s="4" t="n">
-        <v>83.33</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="L60" s="4" t="n">
         <v>0</v>
@@ -5541,10 +5541,10 @@
         <v>7.6</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P60" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="4" t="n">
         <v>59</v>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
@@ -5572,19 +5572,19 @@
       </c>
       <c r="W60" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>5401010010</t>
+          <t>5402050018</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>COLEUS HIBRIDO ARCO IRIS</t>
+          <t>TOMATE ROMA</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr"/>
@@ -5612,7 +5612,7 @@
         <v>4.19</v>
       </c>
       <c r="K61" s="4" t="n">
-        <v>100</v>
+        <v>26.32</v>
       </c>
       <c r="L61" s="4" t="n">
         <v>0</v>
@@ -5624,50 +5624,50 @@
         <v>7.6</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P61" s="4" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Q61" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R61" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T61" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T61" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W61" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>5401010006</t>
+          <t>5401010010</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>CAMPANULA DOBLE, VARIADA 2011</t>
+          <t>COLEUS HIBRIDO ARCO IRIS</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr"/>
@@ -5695,7 +5695,7 @@
         <v>4.19</v>
       </c>
       <c r="K62" s="4" t="n">
-        <v>71.43000000000001</v>
+        <v>100</v>
       </c>
       <c r="L62" s="4" t="n">
         <v>0</v>
@@ -5707,121 +5707,121 @@
         <v>7.6</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P62" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T62" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T62" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>5401010009</t>
+          <t>5102070004</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>CLAVEL DE POETA</t>
+          <t>DAHLIA POMPON MEZCLADO 1/2 4 UDS</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr"/>
       <c r="D63" s="3" t="inlineStr"/>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H63" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>6.45</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>4.34</v>
+        <v>2.06</v>
       </c>
       <c r="K63" s="4" t="n">
-        <v>83.33</v>
+        <v>4</v>
       </c>
       <c r="L63" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N63" s="5" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="P63" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R63" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T63" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T63" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 1416 días.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W63" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5991,83 +5991,83 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5102070004</t>
+          <t>5401010009</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON MEZCLADO 1/2 4 UDS</t>
+          <t>CLAVEL DE POETA</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H2" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N2" s="5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>24</v>
-      </c>
       <c r="P2" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T2" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 1416 días.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -6240,12 +6240,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5401010016</t>
+          <t>5402090013</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>ESTATICE VARIADA</t>
+          <t>ESPARRAGO MARY WASHINGTON 2011</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -6267,13 +6267,13 @@
         <v>4</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.31</v>
+        <v>3.06</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>44.44</v>
+        <v>80</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>0</v>
@@ -6285,7 +6285,7 @@
         <v>6.1</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>3</v>
@@ -6306,7 +6306,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -6316,19 +6316,19 @@
       </c>
       <c r="W5" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5402090013</t>
+          <t>5402050011</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>ESPARRAGO MARY WASHINGTON 2011</t>
+          <t>TOMATE CORAZÓN DE BUEY 2017</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -6350,13 +6350,13 @@
         <v>4</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>3.06</v>
+        <v>3.31</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>80</v>
+        <v>33.33</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>0</v>
@@ -6368,10 +6368,10 @@
         <v>6.1</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q6" s="4" t="n">
         <v>59</v>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -6399,19 +6399,19 @@
       </c>
       <c r="W6" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5402050004</t>
+          <t>5401010016</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO DULCE ITALIANO ECOL</t>
+          <t>ESTATICE VARIADA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -6439,7 +6439,7 @@
         <v>3.31</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>100</v>
+        <v>44.44</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -6451,38 +6451,38 @@
         <v>6.1</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T7" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
         <is>
-          <t>13B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6655,12 +6655,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5402050011</t>
+          <t>5402050004</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CORAZÓN DE BUEY 2017</t>
+          <t>PIMIENTO DULCE ITALIANO ECOL</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>3.31</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>33.33</v>
+        <v>100</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
@@ -6700,38 +6700,38 @@
         <v>6.1</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T10" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T10" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13B</t>
         </is>
       </c>
     </row>
@@ -6821,12 +6821,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5401010003</t>
+          <t>5402050012</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>BELLA DE DIA</t>
+          <t>TOMATE DE COLGAR</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -6854,7 +6854,7 @@
         <v>3.35</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>44.44</v>
+        <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>0</v>
@@ -6866,50 +6866,50 @@
         <v>6.1</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T12" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T12" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5402050012</t>
+          <t>5401010008</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>TOMATE DE COLGAR</t>
+          <t>CAPUCHINA TREPADORA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -6937,7 +6937,7 @@
         <v>3.35</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
@@ -6949,10 +6949,10 @@
         <v>6.1</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>0</v>
@@ -6965,12 +6965,12 @@
       </c>
       <c r="T13" s="7" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -6980,19 +6980,19 @@
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5401010008</t>
+          <t>5404010006</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>CAPUCHINA TREPADORA</t>
+          <t>ANIS</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -7014,13 +7014,13 @@
         <v>4</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>100</v>
+        <v>36.36</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
@@ -7032,50 +7032,50 @@
         <v>6.1</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T14" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5404010006</t>
+          <t>5401010033</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ANIS</t>
+          <t>STRELITZIA AVE DEL PARAISO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -7097,13 +7097,13 @@
         <v>4</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>36.36</v>
+        <v>80</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>0</v>
@@ -7115,10 +7115,10 @@
         <v>6.1</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>59</v>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
@@ -7146,19 +7146,19 @@
       </c>
       <c r="W15" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5401010033</t>
+          <t>5401010003</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>STRELITZIA AVE DEL PARAISO</t>
+          <t>BELLA DE DIA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -7186,7 +7186,7 @@
         <v>3.35</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>80</v>
+        <v>44.44</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
@@ -7198,10 +7198,10 @@
         <v>6.1</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>59</v>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -7229,7 +7229,7 @@
       </c>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -7402,12 +7402,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5107020001</t>
+          <t>5103010002</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ANEMONA DE CAEN MEZCLADO 7/8 15UDS</t>
+          <t>GLADIOLO FLOR GRANDE TRITON 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -7429,10 +7429,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>6.99</v>
+        <v>5.49</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>3.54</v>
+        <v>2.18</v>
       </c>
       <c r="K19" s="4" t="n">
         <v>20</v>
@@ -7450,7 +7450,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>10</v>
@@ -7485,12 +7485,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5103010002</t>
+          <t>5107020001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE TRITON 14/16 12 UDS</t>
+          <t>ANEMONA DE CAEN MEZCLADO 7/8 15UDS</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -7512,10 +7512,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>5.49</v>
+        <v>6.99</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>2.18</v>
+        <v>3.54</v>
       </c>
       <c r="K20" s="4" t="n">
         <v>20</v>
@@ -7533,7 +7533,7 @@
         <v>4</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>10</v>
@@ -7651,12 +7651,12 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5102090002</t>
+          <t>5107130001</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA BALLE GENOVA I X1</t>
+          <t>LIS ASIATICA NASHVILLE 16/18 X3</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
@@ -7678,10 +7678,10 @@
         <v>1</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>4.45</v>
+        <v>5.39</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>1.61</v>
+        <v>2.46</v>
       </c>
       <c r="K22" s="4" t="n">
         <v>20</v>
@@ -7699,7 +7699,7 @@
         <v>4</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>10</v>
@@ -7734,12 +7734,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5107130001</t>
+          <t>5102090002</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>LIS ASIATICA NASHVILLE 16/18 X3</t>
+          <t>DAHLIA BALLE GENOVA I X1</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
@@ -7761,10 +7761,10 @@
         <v>1</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>5.39</v>
+        <v>4.45</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>2.46</v>
+        <v>1.61</v>
       </c>
       <c r="K23" s="4" t="n">
         <v>20</v>
@@ -7782,7 +7782,7 @@
         <v>4</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>10</v>
@@ -7817,12 +7817,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5402090017</t>
+          <t>5404010026</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>MAIZ DULCE JUBILEE</t>
+          <t>MANZANILLA ECO</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -7844,13 +7844,13 @@
         <v>3</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>5.34</v>
+        <v>5.37</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="K24" s="4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L24" s="4" t="n">
         <v>0</v>
@@ -7862,38 +7862,38 @@
         <v>4.6</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>13</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T24" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -7983,12 +7983,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5401010025</t>
+          <t>5402020016</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>PETUNIA DOBLE VARIADA</t>
+          <t>CALABAZA BUTTERNUT ECO</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -8016,7 +8016,7 @@
         <v>2.48</v>
       </c>
       <c r="K26" s="4" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L26" s="4" t="n">
         <v>0</v>
@@ -8028,50 +8028,50 @@
         <v>4.6</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T26" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
         <is>
-          <t>13B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5401010015</t>
+          <t>5402090017</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>DALIA DECORATIVA, VARIADA 2011</t>
+          <t>MAIZ DULCE JUBILEE</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -8093,10 +8093,10 @@
         <v>3</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>5.37</v>
+        <v>5.34</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="K27" s="4" t="n">
         <v>100</v>
@@ -8114,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="Q27" s="4" t="n">
         <v>0</v>
@@ -8132,7 +8132,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -8142,19 +8142,19 @@
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5401010027</t>
+          <t>5404010015</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>SALVIA ENANA ROJA</t>
+          <t>MENTA VERDE</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -8197,7 +8197,7 @@
         <v>1</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q28" s="4" t="n">
         <v>59</v>
@@ -8232,12 +8232,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5402020016</t>
+          <t>5402030004</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA BUTTERNUT ECO</t>
+          <t>RABANITO REDONDO ROJO</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -8265,7 +8265,7 @@
         <v>2.48</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>30</v>
+        <v>42.86</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>0</v>
@@ -8277,10 +8277,10 @@
         <v>4.6</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Q29" s="4" t="n">
         <v>59</v>
@@ -8315,12 +8315,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5402030004</t>
+          <t>5401010015</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>RABANITO REDONDO ROJO</t>
+          <t>DALIA DECORATIVA, VARIADA 2011</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -8348,7 +8348,7 @@
         <v>2.48</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>42.86</v>
+        <v>100</v>
       </c>
       <c r="L30" s="4" t="n">
         <v>0</v>
@@ -8360,50 +8360,50 @@
         <v>4.6</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T30" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T30" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5404010015</t>
+          <t>5401010027</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>MENTA VERDE</t>
+          <t>SALVIA ENANA ROJA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -8446,7 +8446,7 @@
         <v>1</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>59</v>
@@ -8481,12 +8481,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5404010026</t>
+          <t>5401010025</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>MANZANILLA ECO</t>
+          <t>PETUNIA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -8514,7 +8514,7 @@
         <v>2.48</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -8526,50 +8526,50 @@
         <v>4.6</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T32" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T32" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13B</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5402020001</t>
+          <t>5401010017</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>CALABACIN DE MESA NEGRO</t>
+          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -8597,7 +8597,7 @@
         <v>2.51</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
@@ -8609,50 +8609,50 @@
         <v>4.6</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T33" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5402020009</t>
+          <t>5402050009</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO</t>
+          <t>PIMIENTO PIQUILLO</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -8680,7 +8680,7 @@
         <v>2.51</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
@@ -8692,50 +8692,50 @@
         <v>4.6</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T34" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>5402050024</t>
+          <t>5402020007</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA LARGA NEGRA ECO</t>
+          <t>MELON ROCHET</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -8757,13 +8757,13 @@
         <v>3</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>5.1</v>
+        <v>5.37</v>
       </c>
       <c r="J35" s="4" t="n">
-        <v>2.27</v>
+        <v>2.51</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L35" s="4" t="n">
         <v>0</v>
@@ -8775,10 +8775,10 @@
         <v>4.6</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q35" s="4" t="n">
         <v>59</v>
@@ -8813,12 +8813,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5402050009</t>
+          <t>5402020009</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PIQUILLO</t>
+          <t>MELON PIÑONET PIEL DE SAPO</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -8846,7 +8846,7 @@
         <v>2.51</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>0</v>
@@ -8858,38 +8858,38 @@
         <v>4.6</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T36" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T36" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -8979,12 +8979,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5402090022</t>
+          <t>5402060003</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>REMOLACHA DE MESA ROJA</t>
+          <t>GUISANTE RONDO ECO</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -9012,7 +9012,7 @@
         <v>2.51</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0</v>
@@ -9024,50 +9024,50 @@
         <v>4.6</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T38" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T38" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5402020007</t>
+          <t>5402020001</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>MELON ROCHET</t>
+          <t>CALABACIN DE MESA NEGRO</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -9095,7 +9095,7 @@
         <v>2.51</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -9107,50 +9107,50 @@
         <v>4.6</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T39" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T39" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5401010035</t>
+          <t>5402050024</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>PORTULACA DOBLE VARIADA</t>
+          <t>BERENJENA LARGA NEGRA ECO</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -9172,13 +9172,13 @@
         <v>3</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>5.37</v>
+        <v>5.1</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>2.51</v>
+        <v>2.27</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>0</v>
@@ -9190,10 +9190,10 @@
         <v>4.6</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>59</v>
@@ -9228,12 +9228,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5402060003</t>
+          <t>5401010035</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>GUISANTE RONDO ECO</t>
+          <t>PORTULACA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -9261,7 +9261,7 @@
         <v>2.51</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>100</v>
+        <v>37.5</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
@@ -9273,50 +9273,50 @@
         <v>4.6</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T41" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>5401010017</t>
+          <t>5402090022</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
+          <t>REMOLACHA DE MESA ROJA</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -9344,7 +9344,7 @@
         <v>2.51</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>0</v>
@@ -9356,10 +9356,10 @@
         <v>4.6</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q42" s="4" t="n">
         <v>59</v>
@@ -9726,12 +9726,12 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5102070005</t>
+          <t>5107040000</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON OKAPI I X1</t>
+          <t>CANNA ENANA FV ZUMBA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -9753,10 +9753,10 @@
         <v>1</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>3.5</v>
+        <v>4.29</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.24</v>
+        <v>1.96</v>
       </c>
       <c r="K47" s="4" t="n">
         <v>20</v>
@@ -9774,7 +9774,7 @@
         <v>4</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="4" t="n">
         <v>10</v>
@@ -9809,12 +9809,12 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5107040000</t>
+          <t>5102070005</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>CANNA ENANA FV ZUMBA</t>
+          <t>DAHLIA POMPON OKAPI I X1</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -9836,10 +9836,10 @@
         <v>1</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>4.29</v>
+        <v>3.5</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.96</v>
+        <v>1.24</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>20</v>
@@ -9857,7 +9857,7 @@
         <v>4</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q48" s="4" t="n">
         <v>10</v>
@@ -10058,12 +10058,12 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5401030003</t>
+          <t>5404010008</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>CINERARIA ENANA HIBRIDA VARIADA</t>
+          <t>CILANTRO</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -10091,7 +10091,7 @@
         <v>1.65</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>28.57</v>
+        <v>20</v>
       </c>
       <c r="L51" s="4" t="n">
         <v>0</v>
@@ -10103,16 +10103,16 @@
         <v>3.1</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S51" s="5" t="n">
         <v>10</v>
@@ -10129,7 +10129,7 @@
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
@@ -10307,12 +10307,12 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>5401010014</t>
+          <t>5401030003</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>CRISANTEMOS DE LOS JARDINES, VARIADOS 2011</t>
+          <t>CINERARIA ENANA HIBRIDA VARIADA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
@@ -10340,7 +10340,7 @@
         <v>1.65</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>100</v>
+        <v>28.57</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0</v>
@@ -10352,50 +10352,50 @@
         <v>3.1</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T54" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T54" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5401010022</t>
+          <t>5401010014</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>MARGARITA GRANDE BLANCA</t>
+          <t>CRISANTEMOS DE LOS JARDINES, VARIADOS 2011</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
@@ -10423,7 +10423,7 @@
         <v>1.65</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>66.67</v>
+        <v>100</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
@@ -10435,50 +10435,50 @@
         <v>3.1</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T55" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T55" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>5404010008</t>
+          <t>5401010022</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>CILANTRO</t>
+          <t>MARGARITA GRANDE BLANCA</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
@@ -10506,7 +10506,7 @@
         <v>1.65</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>20</v>
+        <v>66.67</v>
       </c>
       <c r="L56" s="4" t="n">
         <v>0</v>
@@ -10518,16 +10518,16 @@
         <v>3.1</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S56" s="5" t="n">
         <v>10</v>
@@ -10539,29 +10539,29 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>5401010036</t>
+          <t>5402020013</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>MEZCLA DE FLORES PARDO JAPONES VARIADA</t>
+          <t>SANDIA CRIMSON SWEET ECOLOG</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
@@ -10589,7 +10589,7 @@
         <v>1.67</v>
       </c>
       <c r="K57" s="4" t="n">
-        <v>20</v>
+        <v>18.18</v>
       </c>
       <c r="L57" s="4" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>3.1</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P57" s="4" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="Q57" s="4" t="n">
         <v>59</v>
@@ -10802,12 +10802,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5402090012</t>
+          <t>5402090010</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>ESCAROLA CABELLO DE ANGEL 2011</t>
+          <t>COLIFLOR ROMANESCO NATALINO</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
@@ -10835,7 +10835,7 @@
         <v>1.67</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>33.33</v>
+        <v>10</v>
       </c>
       <c r="L2" s="4" t="n">
         <v>0</v>
@@ -10847,10 +10847,10 @@
         <v>3.1</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>59</v>
@@ -10885,12 +10885,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5402090018</t>
+          <t>5401010020</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>MAIZ PALOMITAS</t>
+          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
@@ -10912,13 +10912,13 @@
         <v>2</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.5</v>
+        <v>3.58</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.38</v>
+        <v>9.52</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>0</v>
@@ -10930,10 +10930,10 @@
         <v>3.1</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>59</v>
@@ -10968,12 +10968,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5402040005</t>
+          <t>5404010023</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA RED SALAD BALL 2011</t>
+          <t>TOMILLO</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -11001,7 +11001,7 @@
         <v>1.67</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>20</v>
+        <v>33.33</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>0</v>
@@ -11013,10 +11013,10 @@
         <v>3.1</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>59</v>
@@ -11051,12 +11051,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5402090010</t>
+          <t>5402020012</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>COLIFLOR ROMANESCO NATALINO</t>
+          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -11084,7 +11084,7 @@
         <v>1.67</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10</v>
+        <v>22.22</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>0</v>
@@ -11096,10 +11096,10 @@
         <v>3.1</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>59</v>
@@ -11134,12 +11134,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5402080005</t>
+          <t>5404010001</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>JUDIA PEROLAR 35GR</t>
+          <t>ALBAHACA FINA</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -11161,13 +11161,13 @@
         <v>2</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>3.56</v>
+        <v>3.58</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>40</v>
+        <v>66.67</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>0</v>
@@ -11179,10 +11179,10 @@
         <v>3.1</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="Q6" s="4" t="n">
         <v>59</v>
@@ -11200,7 +11200,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>OPTIMIZAR: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado. Continuar monitoreo.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -11210,19 +11210,19 @@
       </c>
       <c r="W6" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5404010023</t>
+          <t>5402040005</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>TOMILLO</t>
+          <t>LECHUGA RED SALAD BALL 2011</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -11250,7 +11250,7 @@
         <v>1.67</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>33.33</v>
+        <v>20</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -11262,10 +11262,10 @@
         <v>3.1</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>59</v>
@@ -11300,12 +11300,12 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5402090001</t>
+          <t>5402040007</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ACELGA VERDE PENCA BLANCA</t>
+          <t>LECHUGA SUCRINE</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -11333,7 +11333,7 @@
         <v>1.67</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>22.22</v>
+        <v>13.33</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>0</v>
@@ -11345,10 +11345,10 @@
         <v>3.1</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>59</v>
@@ -11383,12 +11383,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5402040008</t>
+          <t>5402030005</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA REINA DE MAYO ECO</t>
+          <t>RABANITO REDONDO ROJO ECOL</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -11410,13 +11410,13 @@
         <v>2</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
@@ -11428,10 +11428,10 @@
         <v>3.1</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>59</v>
@@ -11466,12 +11466,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5402020012</t>
+          <t>5401010036</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
+          <t>MEZCLA DE FLORES PARDO JAPONES VARIADA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -11499,7 +11499,7 @@
         <v>1.67</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>22.22</v>
+        <v>20</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
@@ -11511,10 +11511,10 @@
         <v>3.1</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>59</v>
@@ -11549,12 +11549,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5402030005</t>
+          <t>5402090018</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>RABANITO REDONDO ROJO ECOL</t>
+          <t>MAIZ PALOMITAS</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -11576,13 +11576,13 @@
         <v>2</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>3.31</v>
+        <v>3.5</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>40</v>
+        <v>15.38</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -11594,10 +11594,10 @@
         <v>3.1</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>59</v>
@@ -11632,12 +11632,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5401010020</t>
+          <t>5402090001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
+          <t>ACELGA VERDE PENCA BLANCA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -11665,7 +11665,7 @@
         <v>1.67</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>9.52</v>
+        <v>22.22</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>0</v>
@@ -11677,10 +11677,10 @@
         <v>3.1</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>59</v>
@@ -11715,12 +11715,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5402040007</t>
+          <t>5402040008</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA SUCRINE</t>
+          <t>LECHUGA REINA DE MAYO ECO</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -11748,7 +11748,7 @@
         <v>1.67</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>13.33</v>
+        <v>10</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
@@ -11760,10 +11760,10 @@
         <v>3.1</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>59</v>
@@ -11798,12 +11798,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5402020013</t>
+          <t>5402090012</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>SANDIA CRIMSON SWEET ECOLOG</t>
+          <t>ESCAROLA CABELLO DE ANGEL 2011</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -11831,7 +11831,7 @@
         <v>1.67</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>18.18</v>
+        <v>33.33</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
@@ -11843,10 +11843,10 @@
         <v>3.1</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>59</v>
@@ -11964,12 +11964,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5404010001</t>
+          <t>5402080005</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA FINA</t>
+          <t>JUDIA PEROLAR 35GR</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -11991,13 +11991,13 @@
         <v>2</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>3.58</v>
+        <v>3.56</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
@@ -12009,10 +12009,10 @@
         <v>3.1</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>59</v>
@@ -12030,7 +12030,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado. Continuar monitoreo.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -12130,12 +12130,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>5401030002</t>
+          <t>5401010012</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>CLAVEL MARGARITA VARIADO 00543</t>
+          <t>CORONADO PRINCESA, VARIADO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
@@ -12163,7 +12163,7 @@
         <v>1.71</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L18" s="4" t="n">
         <v>0</v>
@@ -12175,50 +12175,50 @@
         <v>3.1</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T18" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5401010012</t>
+          <t>5401030002</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CORONADO PRINCESA, VARIADO</t>
+          <t>CLAVEL MARGARITA VARIADO 00543</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -12246,7 +12246,7 @@
         <v>1.71</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L19" s="4" t="n">
         <v>0</v>
@@ -12258,38 +12258,38 @@
         <v>3.1</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T19" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T19" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
@@ -12960,12 +12960,12 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5402030003</t>
+          <t>5401010034</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
+          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -12993,7 +12993,7 @@
         <v>0.84</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L28" s="4" t="n">
         <v>0</v>
@@ -13005,50 +13005,50 @@
         <v>1.5</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T28" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5401010034</t>
+          <t>5402040003</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
+          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -13076,7 +13076,7 @@
         <v>0.84</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>0</v>
@@ -13088,10 +13088,10 @@
         <v>1.5</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="Q29" s="4" t="n">
         <v>59</v>
@@ -13126,12 +13126,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5404010004</t>
+          <t>5402090006</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA LIMON 2015</t>
+          <t>CEBOLLA ARBO - MORADA DE AMPOSTA 2011</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -13159,7 +13159,7 @@
         <v>0.84</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L30" s="4" t="n">
         <v>0</v>
@@ -13171,50 +13171,50 @@
         <v>1.5</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T30" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5402090008</t>
+          <t>5402020017</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
+          <t>MELON PIÑONET PIEL DE SAPO ECO</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -13257,7 +13257,7 @@
         <v>8</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>59</v>
@@ -13292,12 +13292,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5402090006</t>
+          <t>5402090008</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA ARBO - MORADA DE AMPOSTA 2011</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -13325,7 +13325,7 @@
         <v>0.84</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>50</v>
+        <v>11.11</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -13337,7 +13337,7 @@
         <v>1.5</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>55</v>
@@ -13375,12 +13375,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5402020017</t>
+          <t>5404010004</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO ECO</t>
+          <t>ALBAHACA LIMON 2015</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -13408,7 +13408,7 @@
         <v>0.84</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>11.11</v>
+        <v>100</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
@@ -13420,50 +13420,50 @@
         <v>1.5</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T33" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T33" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5402040003</t>
+          <t>5401010032</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
+          <t>GIPSOFILA ELEGANS BLANCA</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -13506,13 +13506,13 @@
         <v>9</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S34" s="5" t="n">
         <v>10</v>
@@ -13529,7 +13529,7 @@
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -13541,12 +13541,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>5401010032</t>
+          <t>5402090028</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>GIPSOFILA ELEGANS BLANCA</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -13574,7 +13574,7 @@
         <v>0.84</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L35" s="4" t="n">
         <v>0</v>
@@ -13586,16 +13586,16 @@
         <v>1.5</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S35" s="5" t="n">
         <v>10</v>
@@ -13612,7 +13612,7 @@
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -13624,12 +13624,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5402090028</t>
+          <t>5404010022</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
+          <t>STEVIA 2015</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -13657,7 +13657,7 @@
         <v>0.84</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>50</v>
+        <v>4.76</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>0</v>
@@ -13669,10 +13669,10 @@
         <v>1.5</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q36" s="4" t="n">
         <v>59</v>
@@ -13707,12 +13707,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5404010022</t>
+          <t>5402030003</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>STEVIA 2015</t>
+          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -13740,7 +13740,7 @@
         <v>0.84</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>4.76</v>
+        <v>100</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0</v>
@@ -13752,50 +13752,50 @@
         <v>1.5</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T37" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T37" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5402020005</t>
+          <t>5401010021</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA BUTTERNUT</t>
+          <t>IPOMEA CAMPANILLA VARIADA</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -13823,7 +13823,7 @@
         <v>0.86</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0</v>
@@ -13835,50 +13835,50 @@
         <v>1.5</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T38" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5401010021</t>
+          <t>5402020005</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>IPOMEA CAMPANILLA VARIADA</t>
+          <t>CALABAZA BUTTERNUT</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -13906,7 +13906,7 @@
         <v>0.86</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -13918,50 +13918,50 @@
         <v>1.5</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T39" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T39" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5402090005</t>
+          <t>5402030006</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>CANONIGOS GRANO GRUESO</t>
+          <t>ZANAHORIA NANTESA ECOLOGICA</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -13983,13 +13983,13 @@
         <v>1</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1.79</v>
+        <v>1.52</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>0.87</v>
+        <v>0.62</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>11.11</v>
+        <v>14.29</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>0</v>
@@ -14001,10 +14001,10 @@
         <v>1.5</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>59</v>
@@ -14039,12 +14039,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5402030006</t>
+          <t>5402090005</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>ZANAHORIA NANTESA ECOLOGICA</t>
+          <t>CANONIGOS GRANO GRUESO</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -14066,13 +14066,13 @@
         <v>1</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.52</v>
+        <v>1.79</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>0.62</v>
+        <v>0.87</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>14.29</v>
+        <v>11.11</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
@@ -14084,10 +14084,10 @@
         <v>1.5</v>
       </c>
       <c r="O41" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="P41" s="4" t="n">
         <v>6</v>
-      </c>
-      <c r="P41" s="4" t="n">
-        <v>2</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>59</v>
@@ -14368,32 +14368,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5107100002</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>60G</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr"/>
+      <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -14427,13 +14419,13 @@
         <v>59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
@@ -14442,12 +14434,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -14459,12 +14451,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5102020011</t>
+          <t>5107190017</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
+          <t>ARUM PINK PERSUASION 14/+ X1</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
@@ -14542,24 +14534,32 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5402080001</t>
+          <t>5301010002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>JUDÍA EFEQUINCE</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SPARRING</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -14587,16 +14587,16 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S4" s="5" t="n">
         <v>10</v>
@@ -14608,12 +14608,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 74.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -14625,16 +14625,24 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5302010001</t>
+          <t>5301010002</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPORT</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SPARRING</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
           <t>53</t>
@@ -14676,10 +14684,10 @@
         <v>59</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S5" s="5" t="n">
         <v>10</v>
@@ -14691,12 +14699,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -14708,12 +14716,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5103010006</t>
+          <t>5102020016</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 12 UDS</t>
+          <t>DAHLIA DECORATIVA ENANA ZANZIBAR I X1</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -14791,24 +14799,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5102020013</t>
+          <t>5307010005</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA JAMAICA I X1</t>
+          <t>SEMILLAS REPOBLADORAS 1 KG</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -14836,19 +14844,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T7" s="8" t="inlineStr">
         <is>
@@ -14857,12 +14865,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.19€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -14874,24 +14882,32 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5101010003</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE ESCARLATA 5/6 X3</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" s="3" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>60G</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -14919,19 +14935,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T8" s="8" t="inlineStr">
         <is>
@@ -14940,12 +14956,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -14957,24 +14973,24 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5401010031</t>
+          <t>5107100001</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>GERANIO ZONALE VARIADO</t>
+          <t>FREESIA DOBLE MEZCLADO 5+ 15 UDS</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -15002,19 +15018,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T9" s="8" t="inlineStr">
         <is>
@@ -15023,12 +15039,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -15040,24 +15056,32 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5401010001</t>
+          <t>5305010001</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>AMAPOLA DOBLE VARIADA</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr"/>
-      <c r="D10" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SOMBRA</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -15085,7 +15109,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>59</v>
@@ -15106,7 +15130,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -15123,24 +15147,24 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5107170001</t>
+          <t>5404010002</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IXIA MACULATA MEZCLADO 5/+ X15</t>
+          <t>ALBAHACA GIGANTE</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -15168,19 +15192,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
@@ -15189,12 +15213,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -15206,24 +15230,24 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5107190009</t>
+          <t>5401010001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL STARGAZER 16/18 3 UDS</t>
+          <t>AMAPOLA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -15251,19 +15275,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T12" s="8" t="inlineStr">
         <is>
@@ -15272,12 +15296,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -15289,12 +15313,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5404010021</t>
+          <t>5402010003</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>SALVIA OFFICINALIS</t>
+          <t>COL RIZADA KALE 2017</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -15334,7 +15358,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
@@ -15355,7 +15379,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -15372,24 +15396,24 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5402090029</t>
+          <t>5107190010</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>MAIZ DULCE GOLDEN BANTAAM ECO</t>
+          <t>LIS ORIENTAL BERGAME 16/18 3 UDS</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -15417,19 +15441,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
@@ -15438,12 +15462,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -15455,24 +15479,24 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5102040000</t>
+          <t>5402080006</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA DOBLE MACARON I X1 FDF</t>
+          <t>JUDIA HELDA ECO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -15500,19 +15524,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T15" s="8" t="inlineStr">
         <is>
@@ -15521,12 +15545,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -15538,24 +15562,24 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5107190005</t>
+          <t>5402080001</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ARUM FORET NEGRO 14+1 UDS</t>
+          <t>JUDÍA EFEQUINCE</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -15583,19 +15607,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
@@ -15604,12 +15628,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -15621,24 +15645,24 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>5107190017</t>
+          <t>5402090029</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>ARUM PINK PERSUASION 14/+ X1</t>
+          <t>MAIZ DULCE GOLDEN BANTAAM ECO</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
       <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -15666,19 +15690,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T17" s="8" t="inlineStr">
         <is>
@@ -15687,12 +15711,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -15704,24 +15728,24 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>5307010005</t>
+          <t>5102020011</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS REPOBLADORAS 1 KG</t>
+          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -15749,19 +15773,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T18" s="8" t="inlineStr">
         <is>
@@ -15770,12 +15794,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.19€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -15787,12 +15811,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5107190013</t>
+          <t>5102020013</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ARUM MAJESTIC RED 14/+ X1</t>
+          <t>DAHLIA DECORATIVA ENANA JAMAICA I X1</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -15870,24 +15894,24 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5102020012</t>
+          <t>5301010003</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA LE THOUREIL I X1</t>
+          <t>SEMILLAS CESPED RESISTENTE 1KG</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -15915,19 +15939,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T20" s="8" t="inlineStr">
         <is>
@@ -15936,12 +15960,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -15953,12 +15977,12 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5402010001</t>
+          <t>5402010002</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>COL BRUNSWICK TENTA</t>
+          <t>COL BRUSELAS MEDIO ENANA</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
@@ -15998,7 +16022,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>59</v>
@@ -16019,7 +16043,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -16036,24 +16060,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5107010002</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>AMARYLLIS BELLADONNA 20/+ X1</t>
+          <t>HABA HISTAL</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -16081,19 +16105,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T22" s="8" t="inlineStr">
         <is>
@@ -16102,12 +16126,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -16119,32 +16143,24 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5301010001</t>
+          <t>5102070006</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA RESISTENTE</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DAHLIA POMPON ASHADO X1</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr"/>
+      <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -16172,19 +16188,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T23" s="8" t="inlineStr">
         <is>
@@ -16193,12 +16209,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -16210,24 +16226,24 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5402010003</t>
+          <t>5102020010</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>COL RIZADA KALE 2017</t>
+          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -16255,19 +16271,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T24" s="8" t="inlineStr">
         <is>
@@ -16276,12 +16292,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -16293,32 +16309,24 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5305010001</t>
+          <t>5103020000</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SOMBRA</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>GLADIOLO COLVILLEI MEZCLADO 8/9 X7</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+      <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -16346,19 +16354,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T25" s="8" t="inlineStr">
         <is>
@@ -16367,12 +16375,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -16384,12 +16392,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5102070006</t>
+          <t>5102070000</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON ASHADO X1</t>
+          <t>DAHLIA POMPON VILLA BLANCA 1 UDS</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -16467,12 +16475,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5103030000</t>
+          <t>5107190018</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE MEZCLADO 10/12 40 UDS</t>
+          <t>ARUM HOTSHOT 14/+ X1</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -16550,12 +16558,12 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5102010005</t>
+          <t>5103030000</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
+          <t>GLADIOLO FLOR GRANDE MEZCLADO 10/12 40 UDS</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -16633,24 +16641,24 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5402080006</t>
+          <t>5107010002</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>JUDIA HELDA ECO</t>
+          <t>AMARYLLIS BELLADONNA 20/+ X1</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
       <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -16678,19 +16686,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T29" s="8" t="inlineStr">
         <is>
@@ -16699,12 +16707,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -16716,24 +16724,32 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5402050020</t>
+          <t>5301010001</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA LARGA NEGRA</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr"/>
-      <c r="D30" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA RESISTENTE</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -16761,16 +16777,16 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S30" s="5" t="n">
         <v>10</v>
@@ -16782,12 +16798,12 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -16799,12 +16815,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5102020010</t>
+          <t>5107190009</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
+          <t>LIS ORIENTAL STARGAZER 16/18 3 UDS</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -16844,7 +16860,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>59</v>
@@ -16882,12 +16898,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5404010007</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
+          <t>CEBOLLINO ANUAL 2011</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -16927,7 +16943,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>59</v>
@@ -16948,7 +16964,7 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
@@ -16965,24 +16981,32 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5102010004</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr"/>
-      <c r="D33" s="3" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>250G</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
@@ -17010,19 +17034,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T33" s="8" t="inlineStr">
         <is>
@@ -17031,12 +17055,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -17048,12 +17072,12 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5107190018</t>
+          <t>5102050000</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>ARUM HOTSHOT 14/+ X1</t>
+          <t>DAHLIA ENANA SIMPLE MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -17214,24 +17238,24 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5107100002</t>
+          <t>5402080002</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
+          <t>JUDIA GARRAFAL ENANA 250GR</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
       <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -17259,19 +17283,19 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T36" s="8" t="inlineStr">
         <is>
@@ -17280,12 +17304,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -17297,12 +17321,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5102090001</t>
+          <t>5107190005</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
+          <t>ARUM FORET NEGRO 14+1 UDS</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -17380,12 +17404,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5402030001</t>
+          <t>5404010018</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>NABO DE MESA VIRTUDES MARTILLO</t>
+          <t>PEREJIL DOBLE RIZADO 2011</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -17425,7 +17449,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>59</v>
@@ -17446,7 +17470,7 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.01€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
@@ -17463,12 +17487,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5103020000</t>
+          <t>5102040000</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO COLVILLEI MEZCLADO 8/9 X7</t>
+          <t>DAHLIA ENANA DOBLE MACARON I X1 FDF</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -17546,12 +17570,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5102020019</t>
+          <t>5107170001</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
+          <t>IXIA MACULATA MEZCLADO 5/+ X15</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -17629,24 +17653,24 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5402090003</t>
+          <t>5102040001</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>ALCACHOFA TALPIOT 2011</t>
+          <t>DAHLIA ENANA DOBLE MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -17674,19 +17698,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T41" s="8" t="inlineStr">
         <is>
@@ -17695,12 +17719,12 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -17712,24 +17736,24 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>5107100001</t>
+          <t>5404010021</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>FREESIA DOBLE MEZCLADO 5+ 15 UDS</t>
+          <t>SALVIA OFFICINALIS</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
       <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -17757,19 +17781,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T42" s="8" t="inlineStr">
         <is>
@@ -17778,12 +17802,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -17795,32 +17819,24 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5102020012</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>250G</t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DAHLIA DECORATIVA ENANA LE THOUREIL I X1</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr"/>
+      <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -17848,19 +17864,19 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T43" s="8" t="inlineStr">
         <is>
@@ -17869,12 +17885,12 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
@@ -17886,32 +17902,24 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>5301010002</t>
+          <t>5102020019</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPARRING</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>1Kg</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr"/>
+      <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -17939,19 +17947,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T44" s="8" t="inlineStr">
         <is>
@@ -17960,12 +17968,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 74.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -17977,24 +17985,24 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5402080003</t>
+          <t>5102010004</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>JUDIA GARRAFAL ORO-VELEZ</t>
+          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
       <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -18022,19 +18030,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T45" s="8" t="inlineStr">
         <is>
@@ -18043,12 +18051,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -18060,24 +18068,24 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5102070000</t>
+          <t>5302010001</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON VILLA BLANCA 1 UDS</t>
+          <t>CESPED FORMULA SPORT</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -18105,19 +18113,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T46" s="8" t="inlineStr">
         <is>
@@ -18126,12 +18134,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -18143,12 +18151,12 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5102020016</t>
+          <t>5102090001</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA ZANZIBAR I X1</t>
+          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -18226,32 +18234,24 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5301010002</t>
+          <t>5402050020</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPARRING</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BERENJENA LARGA NEGRA</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr"/>
+      <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -18279,16 +18279,16 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S48" s="5" t="n">
         <v>10</v>
@@ -18300,12 +18300,12 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -18317,24 +18317,24 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5102080000</t>
+          <t>5402010001</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA GIGANTE TARTARUS I X1</t>
+          <t>COL BRUNSWICK TENTA</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
       <c r="D49" s="3" t="inlineStr"/>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -18362,19 +18362,19 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T49" s="8" t="inlineStr">
         <is>
@@ -18383,12 +18383,12 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
@@ -18400,24 +18400,24 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5402010002</t>
+          <t>5102020014</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>COL BRUSELAS MEDIO ENANA</t>
+          <t>DAHLIA DECORATIVA PAYASO I X1</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
       <c r="D50" s="3" t="inlineStr"/>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
@@ -18445,19 +18445,19 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T50" s="8" t="inlineStr">
         <is>
@@ -18466,12 +18466,12 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
@@ -18483,24 +18483,24 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5102050000</t>
+          <t>5402030001</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA SIMPLE MEZCLADO I/II X4</t>
+          <t>NABO DE MESA VIRTUDES MARTILLO</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
       <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -18534,13 +18534,13 @@
         <v>59</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T51" s="8" t="inlineStr">
         <is>
@@ -18549,12 +18549,12 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
@@ -18566,24 +18566,24 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>5102040001</t>
+          <t>5401010031</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA DOBLE MEZCLADO I/II X4</t>
+          <t>GERANIO ZONALE VARIADO</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
       <c r="D52" s="3" t="inlineStr"/>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -18611,19 +18611,19 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T52" s="8" t="inlineStr">
         <is>
@@ -18632,12 +18632,12 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
@@ -18649,24 +18649,24 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>5301010003</t>
+          <t>5402080003</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS CESPED RESISTENTE 1KG</t>
+          <t>JUDIA GARRAFAL ORO-VELEZ</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
       <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
@@ -18715,7 +18715,7 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.77€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
@@ -18732,24 +18732,24 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>5402080002</t>
+          <t>5107190013</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>JUDIA GARRAFAL ENANA 250GR</t>
+          <t>ARUM MAJESTIC RED 14/+ X1</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -18777,19 +18777,19 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T54" s="8" t="inlineStr">
         <is>
@@ -18798,12 +18798,12 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
@@ -18815,24 +18815,24 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5404010007</t>
+          <t>5101010003</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLINO ANUAL 2011</t>
+          <t>BEGONIA DOBLE ESCARLATA 5/6 X3</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
       <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
@@ -18866,13 +18866,13 @@
         <v>59</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T55" s="8" t="inlineStr">
         <is>
@@ -18881,12 +18881,12 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
@@ -18898,12 +18898,12 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>5107190010</t>
+          <t>5103010006</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL BERGAME 16/18 3 UDS</t>
+          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
@@ -18981,24 +18981,24 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>5404010002</t>
+          <t>5102080000</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA GIGANTE</t>
+          <t>DAHLIA GIGANTE TARTARUS I X1</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
       <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -19026,19 +19026,19 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q57" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R57" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T57" s="8" t="inlineStr">
         <is>
@@ -19047,12 +19047,12 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W57" s="4" t="inlineStr">
@@ -19064,12 +19064,12 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>5102020015</t>
+          <t>5102010005</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
+          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr"/>
@@ -19147,24 +19147,24 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>5102020014</t>
+          <t>5402090003</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA PAYASO I X1</t>
+          <t>ALCACHOFA TALPIOT 2011</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
       <c r="D59" s="3" t="inlineStr"/>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
@@ -19192,19 +19192,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T59" s="8" t="inlineStr">
         <is>
@@ -19213,12 +19213,12 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
@@ -19230,24 +19230,24 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>5404010018</t>
+          <t>5102020015</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL DOBLE RIZADO 2011</t>
+          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>
       <c r="D60" s="3" t="inlineStr"/>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
@@ -19275,19 +19275,19 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T60" s="8" t="inlineStr">
         <is>
@@ -19296,12 +19296,12 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.01€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_SEMILLAS_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_SEMILLAS_P1_2025.xlsx
@@ -2071,55 +2071,55 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>5402050010</t>
+          <t>5104010012</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>TOMATE CHERRY</t>
+          <t>JACINTHE BLEU DE DELFT FDF 15/+ X5</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G19" s="3" t="n">
         <v>60</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>17.72</v>
+        <v>15.98</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>8.109999999999999</v>
+        <v>6.53</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M19" s="4" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>15.3</v>
+        <v>3.1</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="3" t="n">
         <v>0</v>
@@ -2132,12 +2132,12 @@
       </c>
       <c r="T19" s="6" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V19" s="3" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="W19" s="3" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2320,12 +2320,12 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>5401010005</t>
+          <t>5402050010</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>CALENDULA VARIADA</t>
+          <t>TOMATE CHERRY</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr"/>
@@ -2347,10 +2347,10 @@
         <v>10</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>17.9</v>
+        <v>17.72</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>8.27</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="K22" s="3" t="n">
         <v>100</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q22" s="3" t="n">
         <v>0</v>
@@ -2403,55 +2403,55 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>5104010012</t>
+          <t>5401010005</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>JACINTHE BLEU DE DELFT FDF 15/+ X5</t>
+          <t>CALENDULA VARIADA</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr"/>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G23" s="3" t="n">
         <v>60</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>15.98</v>
+        <v>17.9</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>6.53</v>
+        <v>8.27</v>
       </c>
       <c r="K23" s="3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M23" s="4" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>3.1</v>
+        <v>15.3</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3" t="n">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="Q23" s="3" t="n">
         <v>0</v>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="T23" s="6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V23" s="3" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="W23" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
@@ -2743,12 +2743,12 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>5401010026</t>
+          <t>5402050014</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>PETUNIA PENDULA VARIADA 2011</t>
+          <t>TOMATE MARMANDE ECOLOGICO</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr"/>
@@ -2770,13 +2770,13 @@
         <v>9</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>16.11</v>
+        <v>15.93</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>7.45</v>
+        <v>7.28</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>90</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="L27" s="3" t="n">
         <v>0</v>
@@ -2788,16 +2788,16 @@
         <v>13.7</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P27" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R27" s="3" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S27" s="4" t="n">
         <v>10</v>
@@ -2809,29 +2809,29 @@
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V27" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>5402050014</t>
+          <t>5401010026</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE ECOLOGICO</t>
+          <t>PETUNIA PENDULA VARIADA 2011</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
@@ -2853,13 +2853,13 @@
         <v>9</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>15.93</v>
+        <v>16.11</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>7.28</v>
+        <v>7.45</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>64.29000000000001</v>
+        <v>90</v>
       </c>
       <c r="L28" s="3" t="n">
         <v>0</v>
@@ -2871,16 +2871,16 @@
         <v>13.7</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P28" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R28" s="3" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S28" s="4" t="n">
         <v>10</v>
@@ -2892,17 +2892,17 @@
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V28" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W28" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -3249,12 +3249,12 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>5404010016</t>
+          <t>5401010023</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>OREGANO</t>
+          <t>PASIONARIA</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr"/>
@@ -3276,13 +3276,13 @@
         <v>8</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>14.05</v>
+        <v>14.32</v>
       </c>
       <c r="J33" s="3" t="n">
-        <v>6.37</v>
+        <v>6.62</v>
       </c>
       <c r="K33" s="3" t="n">
-        <v>80</v>
+        <v>88.89</v>
       </c>
       <c r="L33" s="3" t="n">
         <v>0</v>
@@ -3294,16 +3294,16 @@
         <v>12.2</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P33" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R33" s="3" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S33" s="4" t="n">
         <v>10</v>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="V33" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W33" s="3" t="inlineStr">
@@ -3332,12 +3332,12 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>5401010023</t>
+          <t>5404010016</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>PASIONARIA</t>
+          <t>OREGANO</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr"/>
@@ -3359,13 +3359,13 @@
         <v>8</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>14.32</v>
+        <v>14.05</v>
       </c>
       <c r="J34" s="3" t="n">
-        <v>6.62</v>
+        <v>6.37</v>
       </c>
       <c r="K34" s="3" t="n">
-        <v>88.89</v>
+        <v>80</v>
       </c>
       <c r="L34" s="3" t="n">
         <v>0</v>
@@ -3377,16 +3377,16 @@
         <v>12.2</v>
       </c>
       <c r="O34" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P34" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q34" s="3" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R34" s="3" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S34" s="4" t="n">
         <v>10</v>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="V34" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W34" s="3" t="inlineStr">
@@ -3747,12 +3747,12 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>5404010020</t>
+          <t>5401010007</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>ROMERO COMUN</t>
+          <t>CAPUCHINA ENANA VARIADA</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr"/>
@@ -3780,7 +3780,7 @@
         <v>5.79</v>
       </c>
       <c r="K39" s="3" t="n">
-        <v>116.67</v>
+        <v>70</v>
       </c>
       <c r="L39" s="3" t="n">
         <v>0</v>
@@ -3792,50 +3792,50 @@
         <v>10.7</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="P39" s="3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R39" s="3" t="n">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T39" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V39" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W39" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>5401010007</t>
+          <t>5404010020</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>CAPUCHINA ENANA VARIADA</t>
+          <t>ROMERO COMUN</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr"/>
@@ -3863,7 +3863,7 @@
         <v>5.79</v>
       </c>
       <c r="K40" s="3" t="n">
-        <v>70</v>
+        <v>116.67</v>
       </c>
       <c r="L40" s="3" t="n">
         <v>0</v>
@@ -3875,38 +3875,38 @@
         <v>10.7</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P40" s="3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q40" s="3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R40" s="3" t="n">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T40" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T40" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V40" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W40" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -4245,12 +4245,12 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>5402090016</t>
+          <t>5401010030</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>FRESON ALEXANDRIA</t>
+          <t>ZINNIA FLOR DE DALIA</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr"/>
@@ -4278,7 +4278,7 @@
         <v>4.96</v>
       </c>
       <c r="K45" s="3" t="n">
-        <v>85.70999999999999</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3" t="n">
         <v>0</v>
@@ -4290,50 +4290,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="Q45" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S45" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T45" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T45" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U45" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V45" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W45" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>5404010010</t>
+          <t>5404010017</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>HIERBA PARA GATOS</t>
+          <t>PEREJIL COMUN DE HOJA LISA</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr"/>
@@ -4355,13 +4355,13 @@
         <v>6</v>
       </c>
       <c r="I46" s="3" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J46" s="3" t="n">
-        <v>4.72</v>
+        <v>4.96</v>
       </c>
       <c r="K46" s="3" t="n">
-        <v>46.15</v>
+        <v>26.09</v>
       </c>
       <c r="L46" s="3" t="n">
         <v>0</v>
@@ -4373,16 +4373,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="P46" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q46" s="3" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R46" s="3" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S46" s="4" t="n">
         <v>10</v>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="V46" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W46" s="3" t="inlineStr">
@@ -4411,12 +4411,12 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>5401010030</t>
+          <t>5404010010</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>ZINNIA FLOR DE DALIA</t>
+          <t>HIERBA PARA GATOS</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr"/>
@@ -4438,13 +4438,13 @@
         <v>6</v>
       </c>
       <c r="I47" s="3" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J47" s="3" t="n">
-        <v>4.96</v>
+        <v>4.72</v>
       </c>
       <c r="K47" s="3" t="n">
-        <v>100</v>
+        <v>46.15</v>
       </c>
       <c r="L47" s="3" t="n">
         <v>0</v>
@@ -4456,50 +4456,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P47" s="3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R47" s="3" t="n">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="S47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T47" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V47" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W47" s="3" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>5401010019</t>
+          <t>5402090016</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>GIRASOL ORNAMENTAL 2011</t>
+          <t>FRESON ALEXANDRIA</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr"/>
@@ -4527,7 +4527,7 @@
         <v>4.96</v>
       </c>
       <c r="K48" s="3" t="n">
-        <v>100</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="L48" s="3" t="n">
         <v>0</v>
@@ -4539,50 +4539,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="3" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="Q48" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R48" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T48" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V48" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W48" s="3" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>5401010028</t>
+          <t>5401010019</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>TAGETE ALTO DOBLE VARIADO</t>
+          <t>GIRASOL ORNAMENTAL 2011</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr"/>
@@ -4610,7 +4610,7 @@
         <v>4.96</v>
       </c>
       <c r="K49" s="3" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="L49" s="3" t="n">
         <v>0</v>
@@ -4622,50 +4622,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q49" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R49" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S49" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T49" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T49" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V49" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W49" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>5404010017</t>
+          <t>5402050008</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>PEREJIL COMUN DE HOJA LISA</t>
+          <t>PIMIENTO PADRON 2011</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr"/>
@@ -4687,13 +4687,13 @@
         <v>6</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J50" s="3" t="n">
-        <v>4.96</v>
+        <v>4.72</v>
       </c>
       <c r="K50" s="3" t="n">
-        <v>26.09</v>
+        <v>100</v>
       </c>
       <c r="L50" s="3" t="n">
         <v>0</v>
@@ -4705,50 +4705,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O50" s="3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P50" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q50" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R50" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S50" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T50" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T50" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U50" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V50" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W50" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>5402050008</t>
+          <t>5401010028</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>PIMIENTO PADRON 2011</t>
+          <t>TAGETE ALTO DOBLE VARIADO</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr"/>
@@ -4770,13 +4770,13 @@
         <v>6</v>
       </c>
       <c r="I51" s="3" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J51" s="3" t="n">
-        <v>4.72</v>
+        <v>4.96</v>
       </c>
       <c r="K51" s="3" t="n">
-        <v>100</v>
+        <v>54.55</v>
       </c>
       <c r="L51" s="3" t="n">
         <v>0</v>
@@ -4788,38 +4788,38 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P51" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q51" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R51" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S51" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T51" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V51" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W51" s="3" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5075,178 +5075,178 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>5104010011</t>
+          <t>5401010013</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>JACINTHE JAN BOS FDF 15/+ X5</t>
+          <t>COSMOS DEL JAPON</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr"/>
       <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G55" s="3" t="n">
         <v>60</v>
       </c>
       <c r="H55" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I55" s="3" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="J55" s="3" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="K55" s="3" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="L55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N55" s="4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O55" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I55" s="3" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="J55" s="3" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="K55" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N55" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O55" s="3" t="n">
-        <v>-1</v>
-      </c>
       <c r="P55" s="3" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="Q55" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R55" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S55" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T55" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U55" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V55" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W55" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>5402050015</t>
+          <t>5104010011</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE RAF</t>
+          <t>JACINTHE JAN BOS FDF 15/+ X5</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr"/>
       <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G56" s="3" t="n">
         <v>60</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I56" s="3" t="n">
-        <v>8.949999999999999</v>
+        <v>7.99</v>
       </c>
       <c r="J56" s="3" t="n">
-        <v>4.14</v>
+        <v>3.26</v>
       </c>
       <c r="K56" s="3" t="n">
-        <v>71.43000000000001</v>
+        <v>0</v>
       </c>
       <c r="L56" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M56" s="4" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N56" s="4" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P56" s="3" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="Q56" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R56" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S56" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T56" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T56" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U56" s="2" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V56" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W56" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>5401010013</t>
+          <t>5402050015</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>COSMOS DEL JAPON</t>
+          <t>TOMATE MARMANDE RAF</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr"/>
@@ -5274,7 +5274,7 @@
         <v>4.14</v>
       </c>
       <c r="K57" s="3" t="n">
-        <v>83.33</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="L57" s="3" t="n">
         <v>0</v>
@@ -5286,10 +5286,10 @@
         <v>7.6</v>
       </c>
       <c r="O57" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P57" s="3" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q57" s="3" t="n">
         <v>59</v>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="U57" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V57" s="3" t="inlineStr">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="W57" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -5490,12 +5490,12 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>5401010010</t>
+          <t>5401010004</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>COLEUS HIBRIDO ARCO IRIS</t>
+          <t>BELLA DE NOCHE</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr"/>
@@ -5523,7 +5523,7 @@
         <v>4.19</v>
       </c>
       <c r="K60" s="3" t="n">
-        <v>100</v>
+        <v>83.33</v>
       </c>
       <c r="L60" s="3" t="n">
         <v>0</v>
@@ -5535,38 +5535,38 @@
         <v>7.6</v>
       </c>
       <c r="O60" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q60" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R60" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S60" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T60" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T60" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U60" s="2" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V60" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W60" s="3" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -5656,12 +5656,12 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>5401010004</t>
+          <t>5401010010</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>BELLA DE NOCHE</t>
+          <t>COLEUS HIBRIDO ARCO IRIS</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr"/>
@@ -5689,7 +5689,7 @@
         <v>4.19</v>
       </c>
       <c r="K62" s="3" t="n">
-        <v>83.33</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3" t="n">
         <v>0</v>
@@ -5701,121 +5701,121 @@
         <v>7.6</v>
       </c>
       <c r="O62" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q62" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S62" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T62" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T62" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U62" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V62" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W62" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>5102070004</t>
+          <t>5404010011</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON MEZCLADO 1/2 4 UDS</t>
+          <t>HIERBABUENA</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr"/>
       <c r="D63" s="2" t="inlineStr"/>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G63" s="3" t="n">
         <v>60</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I63" s="3" t="n">
-        <v>6.45</v>
+        <v>8.41</v>
       </c>
       <c r="J63" s="3" t="n">
-        <v>2.06</v>
+        <v>3.85</v>
       </c>
       <c r="K63" s="3" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="L63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N63" s="4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O63" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="L63" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N63" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O63" s="3" t="n">
-        <v>24</v>
-      </c>
       <c r="P63" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="3" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R63" s="3" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S63" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T63" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U63" s="2" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 1416 días.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V63" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W63" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5985,95 +5985,95 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>5401010009</t>
+          <t>5102070004</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>CLAVEL DE POETA</t>
+          <t>DAHLIA POMPON MEZCLADO 1/2 4 UDS</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G2" s="3" t="n">
         <v>60</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>8.949999999999999</v>
+        <v>6.45</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>4.34</v>
+        <v>2.06</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>83.33</v>
+        <v>4</v>
       </c>
       <c r="L2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="P2" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T2" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T2" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U2" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 1416 días.</t>
         </is>
       </c>
       <c r="V2" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W2" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>5404010011</t>
+          <t>5401010009</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>HIERBABUENA</t>
+          <t>CLAVEL DE POETA</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr"/>
@@ -6095,13 +6095,13 @@
         <v>5</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>8.41</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>3.85</v>
+        <v>4.34</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>55.56</v>
+        <v>83.33</v>
       </c>
       <c r="L3" s="3" t="n">
         <v>0</v>
@@ -6113,10 +6113,10 @@
         <v>7.6</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q3" s="3" t="n">
         <v>59</v>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="U3" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V3" s="3" t="inlineStr">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="W3" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -6234,12 +6234,12 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>5402050004</t>
+          <t>5401010016</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>PIMIENTO DULCE ITALIANO ECOL</t>
+          <t>ESTATICE VARIADA</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr"/>
@@ -6267,7 +6267,7 @@
         <v>3.31</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>100</v>
+        <v>44.44</v>
       </c>
       <c r="L5" s="3" t="n">
         <v>0</v>
@@ -6279,38 +6279,38 @@
         <v>6.1</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T5" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V5" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W5" s="3" t="inlineStr">
         <is>
-          <t>13B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6400,12 +6400,12 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>5404010013</t>
+          <t>5402090013</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>MANZANILLA</t>
+          <t>ESPARRAGO MARY WASHINGTON 2011</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr"/>
@@ -6433,7 +6433,7 @@
         <v>3.06</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>57.14</v>
+        <v>80</v>
       </c>
       <c r="L7" s="3" t="n">
         <v>0</v>
@@ -6445,10 +6445,10 @@
         <v>6.1</v>
       </c>
       <c r="O7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3" t="n">
         <v>3</v>
-      </c>
-      <c r="P7" s="3" t="n">
-        <v>2</v>
       </c>
       <c r="Q7" s="3" t="n">
         <v>59</v>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V7" s="3" t="inlineStr">
@@ -6476,19 +6476,19 @@
       </c>
       <c r="W7" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>5402090013</t>
+          <t>5404010012</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>ESPARRAGO MARY WASHINGTON 2011</t>
+          <t>LAVANDA OFFICINALIS</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr"/>
@@ -6510,13 +6510,13 @@
         <v>4</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>3.06</v>
+        <v>3.31</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L8" s="3" t="n">
         <v>0</v>
@@ -6528,16 +6528,16 @@
         <v>6.1</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S8" s="4" t="n">
         <v>10</v>
@@ -6549,29 +6549,29 @@
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V8" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W8" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>5401010016</t>
+          <t>5404010013</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>ESTATICE VARIADA</t>
+          <t>MANZANILLA</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>
@@ -6593,13 +6593,13 @@
         <v>4</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>3.31</v>
+        <v>3.06</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>44.44</v>
+        <v>57.14</v>
       </c>
       <c r="L9" s="3" t="n">
         <v>0</v>
@@ -6611,10 +6611,10 @@
         <v>6.1</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="3" t="n">
         <v>59</v>
@@ -6649,12 +6649,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>5404010012</t>
+          <t>5402050004</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>LAVANDA OFFICINALIS</t>
+          <t>PIMIENTO DULCE ITALIANO ECOL</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr"/>
@@ -6682,7 +6682,7 @@
         <v>3.31</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3" t="n">
         <v>0</v>
@@ -6694,50 +6694,50 @@
         <v>6.1</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T10" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T10" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
         </is>
       </c>
       <c r="V10" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W10" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13B</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>5401010033</t>
+          <t>5402050012</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>STRELITZIA AVE DEL PARAISO</t>
+          <t>TOMATE DE COLGAR</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr"/>
@@ -6765,7 +6765,7 @@
         <v>3.35</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L11" s="3" t="n">
         <v>0</v>
@@ -6777,50 +6777,50 @@
         <v>6.1</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="P11" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R11" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S11" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T11" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T11" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V11" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W11" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>5402050012</t>
+          <t>5402020003</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>TOMATE DE COLGAR</t>
+          <t>CALABACIN REDONDO DE NIZA</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr"/>
@@ -6848,7 +6848,7 @@
         <v>3.35</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="L12" s="3" t="n">
         <v>0</v>
@@ -6860,50 +6860,50 @@
         <v>6.1</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="P12" s="3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R12" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T12" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V12" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W12" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>5404010006</t>
+          <t>5401010008</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>ANIS</t>
+          <t>CAPUCHINA TREPADORA</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr"/>
@@ -6925,13 +6925,13 @@
         <v>4</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="L13" s="3" t="n">
         <v>0</v>
@@ -6943,50 +6943,50 @@
         <v>6.1</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P13" s="3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R13" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S13" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T13" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T13" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V13" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W13" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>5401010003</t>
+          <t>5401010033</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>BELLA DE DIA</t>
+          <t>STRELITZIA AVE DEL PARAISO</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr"/>
@@ -7014,7 +7014,7 @@
         <v>3.35</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>44.44</v>
+        <v>80</v>
       </c>
       <c r="L14" s="3" t="n">
         <v>0</v>
@@ -7026,10 +7026,10 @@
         <v>6.1</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="n">
         <v>59</v>
@@ -7047,7 +7047,7 @@
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V14" s="3" t="inlineStr">
@@ -7057,19 +7057,19 @@
       </c>
       <c r="W14" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>5402020003</t>
+          <t>5404010006</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>CALABACIN REDONDO DE NIZA</t>
+          <t>ANIS</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr"/>
@@ -7091,13 +7091,13 @@
         <v>4</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>33.33</v>
+        <v>36.36</v>
       </c>
       <c r="L15" s="3" t="n">
         <v>0</v>
@@ -7109,10 +7109,10 @@
         <v>6.1</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P15" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="3" t="n">
         <v>59</v>
@@ -7147,12 +7147,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>5401010008</t>
+          <t>5401010003</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>CAPUCHINA TREPADORA</t>
+          <t>BELLA DE DIA</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
@@ -7180,7 +7180,7 @@
         <v>3.35</v>
       </c>
       <c r="K16" s="3" t="n">
-        <v>100</v>
+        <v>44.44</v>
       </c>
       <c r="L16" s="3" t="n">
         <v>0</v>
@@ -7192,38 +7192,38 @@
         <v>6.1</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P16" s="3" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R16" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T16" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V16" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W16" s="3" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -7396,12 +7396,12 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>5107020001</t>
+          <t>5103010002</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>ANEMONA DE CAEN MEZCLADO 7/8 15UDS</t>
+          <t>GLADIOLO FLOR GRANDE TRITON 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
@@ -7423,10 +7423,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>6.99</v>
+        <v>5.49</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>3.54</v>
+        <v>2.18</v>
       </c>
       <c r="K19" s="3" t="n">
         <v>20</v>
@@ -7444,7 +7444,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="3" t="n">
         <v>10</v>
@@ -7479,12 +7479,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>5103010002</t>
+          <t>5107020001</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE TRITON 14/16 12 UDS</t>
+          <t>ANEMONA DE CAEN MEZCLADO 7/8 15UDS</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr"/>
@@ -7506,10 +7506,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>5.49</v>
+        <v>6.99</v>
       </c>
       <c r="J20" s="3" t="n">
-        <v>2.18</v>
+        <v>3.54</v>
       </c>
       <c r="K20" s="3" t="n">
         <v>20</v>
@@ -7527,7 +7527,7 @@
         <v>4</v>
       </c>
       <c r="P20" s="3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="3" t="n">
         <v>10</v>
@@ -7645,12 +7645,12 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>5102090002</t>
+          <t>5107130001</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA BALLE GENOVA I X1</t>
+          <t>LIS ASIATICA NASHVILLE 16/18 X3</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr"/>
@@ -7672,10 +7672,10 @@
         <v>1</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>4.45</v>
+        <v>5.39</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>1.61</v>
+        <v>2.46</v>
       </c>
       <c r="K22" s="3" t="n">
         <v>20</v>
@@ -7693,7 +7693,7 @@
         <v>4</v>
       </c>
       <c r="P22" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q22" s="3" t="n">
         <v>10</v>
@@ -7728,12 +7728,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>5107130001</t>
+          <t>5102090002</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>LIS ASIATICA NASHVILLE 16/18 X3</t>
+          <t>DAHLIA BALLE GENOVA I X1</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr"/>
@@ -7755,10 +7755,10 @@
         <v>1</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>5.39</v>
+        <v>4.45</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>2.46</v>
+        <v>1.61</v>
       </c>
       <c r="K23" s="3" t="n">
         <v>20</v>
@@ -7776,7 +7776,7 @@
         <v>4</v>
       </c>
       <c r="P23" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q23" s="3" t="n">
         <v>10</v>
@@ -7811,12 +7811,12 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>5404010009</t>
+          <t>5404010015</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>ENELDO</t>
+          <t>MENTA VERDE</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr"/>
@@ -7838,13 +7838,13 @@
         <v>3</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>5.1</v>
+        <v>5.37</v>
       </c>
       <c r="J24" s="3" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="K24" s="3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L24" s="3" t="n">
         <v>0</v>
@@ -7856,10 +7856,10 @@
         <v>4.6</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P24" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q24" s="3" t="n">
         <v>59</v>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V24" s="3" t="inlineStr">
@@ -7887,19 +7887,19 @@
       </c>
       <c r="W24" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>5402030004</t>
+          <t>5402020016</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>RABANITO REDONDO ROJO</t>
+          <t>CALABAZA BUTTERNUT ECO</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr"/>
@@ -7927,7 +7927,7 @@
         <v>2.48</v>
       </c>
       <c r="K25" s="3" t="n">
-        <v>42.86</v>
+        <v>30</v>
       </c>
       <c r="L25" s="3" t="n">
         <v>0</v>
@@ -7939,10 +7939,10 @@
         <v>4.6</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P25" s="3" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="3" t="n">
         <v>59</v>
@@ -7977,12 +7977,12 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>5402090017</t>
+          <t>5404010009</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>MAIZ DULCE JUBILEE</t>
+          <t>ENELDO</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr"/>
@@ -8004,13 +8004,13 @@
         <v>3</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>5.34</v>
+        <v>5.1</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>2.45</v>
+        <v>2.24</v>
       </c>
       <c r="K26" s="3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L26" s="3" t="n">
         <v>0</v>
@@ -8022,38 +8022,38 @@
         <v>4.6</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P26" s="3" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R26" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S26" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T26" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V26" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W26" s="3" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -8143,12 +8143,12 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>5401010027</t>
+          <t>5402090017</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>SALVIA ENANA ROJA</t>
+          <t>MAIZ DULCE JUBILEE</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
@@ -8170,13 +8170,13 @@
         <v>3</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>5.37</v>
+        <v>5.34</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L28" s="3" t="n">
         <v>0</v>
@@ -8188,50 +8188,50 @@
         <v>4.6</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R28" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S28" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T28" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T28" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V28" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W28" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>5401010025</t>
+          <t>5401010027</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>PETUNIA DOBLE VARIADA</t>
+          <t>SALVIA ENANA ROJA</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr"/>
@@ -8259,7 +8259,7 @@
         <v>2.48</v>
       </c>
       <c r="K29" s="3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L29" s="3" t="n">
         <v>0</v>
@@ -8271,50 +8271,50 @@
         <v>4.6</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="3" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R29" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S29" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T29" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V29" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W29" s="3" t="inlineStr">
         <is>
-          <t>13B</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>5404010015</t>
+          <t>5404010026</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>MENTA VERDE</t>
+          <t>MANZANILLA ECO</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr"/>
@@ -8342,7 +8342,7 @@
         <v>2.48</v>
       </c>
       <c r="K30" s="3" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L30" s="3" t="n">
         <v>0</v>
@@ -8354,10 +8354,10 @@
         <v>4.6</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P30" s="3" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q30" s="3" t="n">
         <v>59</v>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V30" s="3" t="inlineStr">
@@ -8385,19 +8385,19 @@
       </c>
       <c r="W30" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>5404010026</t>
+          <t>5402030004</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>MANZANILLA ECO</t>
+          <t>RABANITO REDONDO ROJO</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr"/>
@@ -8425,7 +8425,7 @@
         <v>2.48</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>50</v>
+        <v>42.86</v>
       </c>
       <c r="L31" s="3" t="n">
         <v>0</v>
@@ -8437,10 +8437,10 @@
         <v>4.6</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P31" s="3" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q31" s="3" t="n">
         <v>59</v>
@@ -8475,12 +8475,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>5402020016</t>
+          <t>5401010025</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>CALABAZA BUTTERNUT ECO</t>
+          <t>PETUNIA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr"/>
@@ -8508,7 +8508,7 @@
         <v>2.48</v>
       </c>
       <c r="K32" s="3" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3" t="n">
         <v>0</v>
@@ -8520,50 +8520,50 @@
         <v>4.6</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S32" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T32" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T32" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
         </is>
       </c>
       <c r="V32" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W32" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13B</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>5402050002</t>
+          <t>5402050009</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>PIMIENTO BLOCKY AMARILLO 2019</t>
+          <t>PIMIENTO PIQUILLO</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr"/>
@@ -8591,7 +8591,7 @@
         <v>2.51</v>
       </c>
       <c r="K33" s="3" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L33" s="3" t="n">
         <v>0</v>
@@ -8603,10 +8603,10 @@
         <v>4.6</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P33" s="3" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="3" t="n">
         <v>59</v>
@@ -8641,12 +8641,12 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>5402050024</t>
+          <t>5402020001</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>BERENJENA LARGA NEGRA ECO</t>
+          <t>CALABACIN DE MESA NEGRO</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr"/>
@@ -8668,13 +8668,13 @@
         <v>3</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>5.1</v>
+        <v>5.37</v>
       </c>
       <c r="J34" s="3" t="n">
-        <v>2.27</v>
+        <v>2.51</v>
       </c>
       <c r="K34" s="3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L34" s="3" t="n">
         <v>0</v>
@@ -8686,50 +8686,50 @@
         <v>4.6</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P34" s="3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R34" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S34" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T34" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T34" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V34" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W34" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>5401010035</t>
+          <t>5402060003</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>PORTULACA DOBLE VARIADA</t>
+          <t>GUISANTE RONDO ECO</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr"/>
@@ -8757,7 +8757,7 @@
         <v>2.51</v>
       </c>
       <c r="K35" s="3" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3" t="n">
         <v>0</v>
@@ -8769,50 +8769,50 @@
         <v>4.6</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S35" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T35" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T35" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V35" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W35" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>5402020009</t>
+          <t>5401010035</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO</t>
+          <t>PORTULACA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr"/>
@@ -8840,7 +8840,7 @@
         <v>2.51</v>
       </c>
       <c r="K36" s="3" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="L36" s="3" t="n">
         <v>0</v>
@@ -8852,50 +8852,50 @@
         <v>4.6</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="P36" s="3" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R36" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T36" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V36" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W36" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>5402020001</t>
+          <t>5402020009</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>CALABACIN DE MESA NEGRO</t>
+          <t>MELON PIÑONET PIEL DE SAPO</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr"/>
@@ -8923,7 +8923,7 @@
         <v>2.51</v>
       </c>
       <c r="K37" s="3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L37" s="3" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>4.6</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="P37" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q37" s="3" t="n">
         <v>0</v>
@@ -8951,12 +8951,12 @@
       </c>
       <c r="T37" s="6" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V37" s="3" t="inlineStr">
@@ -8966,19 +8966,19 @@
       </c>
       <c r="W37" s="3" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>5402050009</t>
+          <t>5402090022</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>PIMIENTO PIQUILLO</t>
+          <t>REMOLACHA DE MESA ROJA</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr"/>
@@ -9006,7 +9006,7 @@
         <v>2.51</v>
       </c>
       <c r="K38" s="3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L38" s="3" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>4.6</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P38" s="3" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="Q38" s="3" t="n">
         <v>59</v>
@@ -9056,12 +9056,12 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>5402090022</t>
+          <t>5401010017</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>REMOLACHA DE MESA ROJA</t>
+          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr"/>
@@ -9089,7 +9089,7 @@
         <v>2.51</v>
       </c>
       <c r="K39" s="3" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L39" s="3" t="n">
         <v>0</v>
@@ -9101,10 +9101,10 @@
         <v>4.6</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P39" s="3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q39" s="3" t="n">
         <v>59</v>
@@ -9222,12 +9222,12 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>5402060003</t>
+          <t>5402050002</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>GUISANTE RONDO ECO</t>
+          <t>PIMIENTO BLOCKY AMARILLO 2019</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr"/>
@@ -9255,7 +9255,7 @@
         <v>2.51</v>
       </c>
       <c r="K41" s="3" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L41" s="3" t="n">
         <v>0</v>
@@ -9267,50 +9267,50 @@
         <v>4.6</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P41" s="3" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R41" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T41" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V41" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W41" s="3" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>5401010017</t>
+          <t>5402050024</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
+          <t>BERENJENA LARGA NEGRA ECO</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr"/>
@@ -9332,10 +9332,10 @@
         <v>3</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>5.37</v>
+        <v>5.1</v>
       </c>
       <c r="J42" s="3" t="n">
-        <v>2.51</v>
+        <v>2.27</v>
       </c>
       <c r="K42" s="3" t="n">
         <v>50</v>
@@ -9353,7 +9353,7 @@
         <v>3</v>
       </c>
       <c r="P42" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q42" s="3" t="n">
         <v>59</v>
@@ -9388,12 +9388,12 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>5402040009</t>
+          <t>5402090007</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA ROMANA LARGA RUBIA ECO</t>
+          <t>CEBOLLA DULCE DE FUENTES 2019</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr"/>
@@ -9415,13 +9415,13 @@
         <v>3</v>
       </c>
       <c r="I43" s="3" t="n">
-        <v>5.1</v>
+        <v>5.37</v>
       </c>
       <c r="J43" s="3" t="n">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="K43" s="3" t="n">
-        <v>30</v>
+        <v>27.27</v>
       </c>
       <c r="L43" s="3" t="n">
         <v>0</v>
@@ -9433,10 +9433,10 @@
         <v>4.6</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P43" s="3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q43" s="3" t="n">
         <v>59</v>
@@ -9471,12 +9471,12 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>5402090007</t>
+          <t>5402040009</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>CEBOLLA DULCE DE FUENTES 2019</t>
+          <t>LECHUGA ROMANA LARGA RUBIA ECO</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr"/>
@@ -9498,13 +9498,13 @@
         <v>3</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>5.37</v>
+        <v>5.1</v>
       </c>
       <c r="J44" s="3" t="n">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="K44" s="3" t="n">
-        <v>27.27</v>
+        <v>30</v>
       </c>
       <c r="L44" s="3" t="n">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>4.6</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P44" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q44" s="3" t="n">
         <v>59</v>
@@ -9720,12 +9720,12 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>5107040000</t>
+          <t>5102010003</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>CANNA ENANA FV ZUMBA</t>
+          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr"/>
@@ -9747,10 +9747,10 @@
         <v>1</v>
       </c>
       <c r="I47" s="3" t="n">
-        <v>4.29</v>
+        <v>5.99</v>
       </c>
       <c r="J47" s="3" t="n">
-        <v>1.96</v>
+        <v>3.51</v>
       </c>
       <c r="K47" s="3" t="n">
         <v>20</v>
@@ -9803,12 +9803,12 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>5102070005</t>
+          <t>5107040000</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON OKAPI I X1</t>
+          <t>CANNA ENANA FV ZUMBA</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr"/>
@@ -9830,10 +9830,10 @@
         <v>1</v>
       </c>
       <c r="I48" s="3" t="n">
-        <v>3.5</v>
+        <v>4.29</v>
       </c>
       <c r="J48" s="3" t="n">
-        <v>1.24</v>
+        <v>1.96</v>
       </c>
       <c r="K48" s="3" t="n">
         <v>20</v>
@@ -9851,7 +9851,7 @@
         <v>4</v>
       </c>
       <c r="P48" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="n">
         <v>10</v>
@@ -9886,12 +9886,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>5102010003</t>
+          <t>5102070005</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
+          <t>DAHLIA POMPON OKAPI I X1</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr"/>
@@ -9913,10 +9913,10 @@
         <v>1</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>5.99</v>
+        <v>3.5</v>
       </c>
       <c r="J49" s="3" t="n">
-        <v>3.51</v>
+        <v>1.24</v>
       </c>
       <c r="K49" s="3" t="n">
         <v>20</v>
@@ -9934,7 +9934,7 @@
         <v>4</v>
       </c>
       <c r="P49" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q49" s="3" t="n">
         <v>10</v>
@@ -10052,12 +10052,12 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>5401010014</t>
+          <t>5401010022</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>CRISANTEMOS DE LOS JARDINES, VARIADOS 2011</t>
+          <t>MARGARITA GRANDE BLANCA</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr"/>
@@ -10085,7 +10085,7 @@
         <v>1.65</v>
       </c>
       <c r="K51" s="3" t="n">
-        <v>100</v>
+        <v>66.67</v>
       </c>
       <c r="L51" s="3" t="n">
         <v>0</v>
@@ -10097,50 +10097,50 @@
         <v>3.1</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="3" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Q51" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R51" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S51" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T51" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V51" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W51" s="3" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>5401030003</t>
+          <t>5401010014</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>CINERARIA ENANA HIBRIDA VARIADA</t>
+          <t>CRISANTEMOS DE LOS JARDINES, VARIADOS 2011</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr"/>
@@ -10168,7 +10168,7 @@
         <v>1.65</v>
       </c>
       <c r="K52" s="3" t="n">
-        <v>28.57</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3" t="n">
         <v>0</v>
@@ -10180,50 +10180,50 @@
         <v>3.1</v>
       </c>
       <c r="O52" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q52" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S52" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T52" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T52" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U52" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V52" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W52" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>5402020006</t>
+          <t>5404010008</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>CALABAZA CABELLO DE ANGEL 2011</t>
+          <t>CILANTRO</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr"/>
@@ -10251,7 +10251,7 @@
         <v>1.65</v>
       </c>
       <c r="K53" s="3" t="n">
-        <v>22.22</v>
+        <v>20</v>
       </c>
       <c r="L53" s="3" t="n">
         <v>0</v>
@@ -10263,16 +10263,16 @@
         <v>3.1</v>
       </c>
       <c r="O53" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P53" s="3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q53" s="3" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R53" s="3" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S53" s="4" t="n">
         <v>10</v>
@@ -10289,7 +10289,7 @@
       </c>
       <c r="V53" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W53" s="3" t="inlineStr">
@@ -10301,12 +10301,12 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>5401010022</t>
+          <t>5401030003</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>MARGARITA GRANDE BLANCA</t>
+          <t>CINERARIA ENANA HIBRIDA VARIADA</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr"/>
@@ -10334,7 +10334,7 @@
         <v>1.65</v>
       </c>
       <c r="K54" s="3" t="n">
-        <v>66.67</v>
+        <v>28.57</v>
       </c>
       <c r="L54" s="3" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>3.1</v>
       </c>
       <c r="O54" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P54" s="3" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Q54" s="3" t="n">
         <v>59</v>
@@ -10367,7 +10367,7 @@
       </c>
       <c r="U54" s="2" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V54" s="3" t="inlineStr">
@@ -10377,19 +10377,19 @@
       </c>
       <c r="W54" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>5402050006</t>
+          <t>5402020006</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>PIMIENTO HABANERO ROJO 2019</t>
+          <t>CALABAZA CABELLO DE ANGEL 2011</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>1.65</v>
       </c>
       <c r="K55" s="3" t="n">
-        <v>20</v>
+        <v>22.22</v>
       </c>
       <c r="L55" s="3" t="n">
         <v>0</v>
@@ -10429,10 +10429,10 @@
         <v>3.1</v>
       </c>
       <c r="O55" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P55" s="3" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q55" s="3" t="n">
         <v>59</v>
@@ -10467,12 +10467,12 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>5404010008</t>
+          <t>5402050006</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>CILANTRO</t>
+          <t>PIMIENTO HABANERO ROJO 2019</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr"/>
@@ -10515,13 +10515,13 @@
         <v>8</v>
       </c>
       <c r="P56" s="3" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Q56" s="3" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R56" s="3" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S56" s="4" t="n">
         <v>10</v>
@@ -10538,7 +10538,7 @@
       </c>
       <c r="V56" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W56" s="3" t="inlineStr">
@@ -10550,12 +10550,12 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>5402020012</t>
+          <t>5402040002</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
+          <t>LECHUGA GRANDES LAGOS -CALIFORNIA</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr"/>
@@ -10583,7 +10583,7 @@
         <v>1.67</v>
       </c>
       <c r="K57" s="3" t="n">
-        <v>22.22</v>
+        <v>4.26</v>
       </c>
       <c r="L57" s="3" t="n">
         <v>0</v>
@@ -10595,10 +10595,10 @@
         <v>3.1</v>
       </c>
       <c r="O57" s="3" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="P57" s="3" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="Q57" s="3" t="n">
         <v>59</v>
@@ -10796,12 +10796,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>5402090010</t>
+          <t>5401010036</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>COLIFLOR ROMANESCO NATALINO</t>
+          <t>MEZCLA DE FLORES PARDO JAPONES VARIADA</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr"/>
@@ -10829,7 +10829,7 @@
         <v>1.67</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L2" s="3" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>3.1</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P2" s="3" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="3" t="n">
         <v>59</v>
@@ -10879,12 +10879,12 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>5401010036</t>
+          <t>5402080005</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>MEZCLA DE FLORES PARDO JAPONES VARIADA</t>
+          <t>JUDIA PEROLAR 35GR</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr"/>
@@ -10906,13 +10906,13 @@
         <v>2</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>3.58</v>
+        <v>3.56</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L3" s="3" t="n">
         <v>0</v>
@@ -10924,10 +10924,10 @@
         <v>3.1</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="3" t="n">
         <v>59</v>
@@ -10962,12 +10962,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>5404010001</t>
+          <t>5402090001</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>ALBAHACA FINA</t>
+          <t>ACELGA VERDE PENCA BLANCA</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr"/>
@@ -10995,7 +10995,7 @@
         <v>1.67</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>66.67</v>
+        <v>22.22</v>
       </c>
       <c r="L4" s="3" t="n">
         <v>0</v>
@@ -11007,10 +11007,10 @@
         <v>3.1</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="3" t="n">
         <v>59</v>
@@ -11028,7 +11028,7 @@
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>OPTIMIZAR: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado. Continuar monitoreo.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V4" s="3" t="inlineStr">
@@ -11038,19 +11038,19 @@
       </c>
       <c r="W4" s="3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>5402040002</t>
+          <t>5404010023</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA GRANDES LAGOS -CALIFORNIA</t>
+          <t>TOMILLO</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr"/>
@@ -11078,7 +11078,7 @@
         <v>1.67</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>4.26</v>
+        <v>33.33</v>
       </c>
       <c r="L5" s="3" t="n">
         <v>0</v>
@@ -11090,10 +11090,10 @@
         <v>3.1</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="3" t="n">
         <v>59</v>
@@ -11128,12 +11128,12 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>5402040005</t>
+          <t>5402030005</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA RED SALAD BALL 2011</t>
+          <t>RABANITO REDONDO ROJO ECOL</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr"/>
@@ -11155,13 +11155,13 @@
         <v>2</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L6" s="3" t="n">
         <v>0</v>
@@ -11173,10 +11173,10 @@
         <v>3.1</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="3" t="n">
         <v>59</v>
@@ -11211,12 +11211,12 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>5402030005</t>
+          <t>5402040005</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>RABANITO REDONDO ROJO ECOL</t>
+          <t>LECHUGA RED SALAD BALL 2011</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr"/>
@@ -11238,13 +11238,13 @@
         <v>2</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>3.31</v>
+        <v>3.58</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L7" s="3" t="n">
         <v>0</v>
@@ -11256,10 +11256,10 @@
         <v>3.1</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="3" t="n">
         <v>59</v>
@@ -11294,12 +11294,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>5402020013</t>
+          <t>5404010001</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>SANDIA CRIMSON SWEET ECOLOG</t>
+          <t>ALBAHACA FINA</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr"/>
@@ -11327,7 +11327,7 @@
         <v>1.67</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>18.18</v>
+        <v>66.67</v>
       </c>
       <c r="L8" s="3" t="n">
         <v>0</v>
@@ -11339,10 +11339,10 @@
         <v>3.1</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="Q8" s="3" t="n">
         <v>59</v>
@@ -11360,7 +11360,7 @@
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>OPTIMIZAR: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado. Continuar monitoreo.</t>
         </is>
       </c>
       <c r="V8" s="3" t="inlineStr">
@@ -11370,19 +11370,19 @@
       </c>
       <c r="W8" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>5402090001</t>
+          <t>5402040007</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>ACELGA VERDE PENCA BLANCA</t>
+          <t>LECHUGA SUCRINE</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>
@@ -11410,7 +11410,7 @@
         <v>1.67</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>22.22</v>
+        <v>13.33</v>
       </c>
       <c r="L9" s="3" t="n">
         <v>0</v>
@@ -11422,10 +11422,10 @@
         <v>3.1</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="3" t="n">
         <v>59</v>
@@ -11460,12 +11460,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>5402040008</t>
+          <t>5402090012</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA REINA DE MAYO ECO</t>
+          <t>ESCAROLA CABELLO DE ANGEL 2011</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr"/>
@@ -11493,7 +11493,7 @@
         <v>1.67</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>10</v>
+        <v>33.33</v>
       </c>
       <c r="L10" s="3" t="n">
         <v>0</v>
@@ -11505,10 +11505,10 @@
         <v>3.1</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="3" t="n">
         <v>59</v>
@@ -11543,12 +11543,12 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>5402080005</t>
+          <t>5402090010</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>JUDIA PEROLAR 35GR</t>
+          <t>COLIFLOR ROMANESCO NATALINO</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr"/>
@@ -11570,13 +11570,13 @@
         <v>2</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>3.56</v>
+        <v>3.58</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L11" s="3" t="n">
         <v>0</v>
@@ -11588,10 +11588,10 @@
         <v>3.1</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="P11" s="3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="3" t="n">
         <v>59</v>
@@ -11626,12 +11626,12 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>5402090012</t>
+          <t>5402020013</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>ESCAROLA CABELLO DE ANGEL 2011</t>
+          <t>SANDIA CRIMSON SWEET ECOLOG</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr"/>
@@ -11659,7 +11659,7 @@
         <v>1.67</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>33.33</v>
+        <v>18.18</v>
       </c>
       <c r="L12" s="3" t="n">
         <v>0</v>
@@ -11671,10 +11671,10 @@
         <v>3.1</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P12" s="3" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="3" t="n">
         <v>59</v>
@@ -11709,12 +11709,12 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>5404010023</t>
+          <t>5401010020</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>TOMILLO</t>
+          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr"/>
@@ -11742,7 +11742,7 @@
         <v>1.67</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>33.33</v>
+        <v>9.52</v>
       </c>
       <c r="L13" s="3" t="n">
         <v>0</v>
@@ -11754,10 +11754,10 @@
         <v>3.1</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="P13" s="3" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="Q13" s="3" t="n">
         <v>59</v>
@@ -11792,12 +11792,12 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>5402040007</t>
+          <t>5402020012</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA SUCRINE</t>
+          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr"/>
@@ -11825,7 +11825,7 @@
         <v>1.67</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>13.33</v>
+        <v>22.22</v>
       </c>
       <c r="L14" s="3" t="n">
         <v>0</v>
@@ -11837,10 +11837,10 @@
         <v>3.1</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="3" t="n">
         <v>59</v>
@@ -11875,12 +11875,12 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>5401010020</t>
+          <t>5402090018</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
+          <t>MAIZ PALOMITAS</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr"/>
@@ -11902,13 +11902,13 @@
         <v>2</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>3.58</v>
+        <v>3.5</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>9.52</v>
+        <v>15.38</v>
       </c>
       <c r="L15" s="3" t="n">
         <v>0</v>
@@ -11920,10 +11920,10 @@
         <v>3.1</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P15" s="3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="3" t="n">
         <v>59</v>
@@ -11958,12 +11958,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>5402090018</t>
+          <t>5402040008</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>MAIZ PALOMITAS</t>
+          <t>LECHUGA REINA DE MAYO ECO</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
@@ -11985,13 +11985,13 @@
         <v>2</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>3.5</v>
+        <v>3.58</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="K16" s="3" t="n">
-        <v>15.38</v>
+        <v>10</v>
       </c>
       <c r="L16" s="3" t="n">
         <v>0</v>
@@ -12003,10 +12003,10 @@
         <v>3.1</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="P16" s="3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q16" s="3" t="n">
         <v>59</v>
@@ -12124,12 +12124,12 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>5401010012</t>
+          <t>5401030001</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>CORONADO PRINCESA, VARIADO</t>
+          <t>CLAVEL GIGANTE ROSA PÁLIDO</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
@@ -12157,7 +12157,7 @@
         <v>1.71</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3" t="n">
         <v>0</v>
@@ -12169,50 +12169,50 @@
         <v>3.1</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S18" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T18" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T18" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 30%. Stock objetivo: 1 unidades. Monitorear demanda próximas semanas.</t>
         </is>
       </c>
       <c r="V18" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W18" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26B</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>5401030001</t>
+          <t>5401030002</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>CLAVEL GIGANTE ROSA PÁLIDO</t>
+          <t>CLAVEL MARGARITA VARIADO 00543</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
@@ -12255,7 +12255,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="3" t="n">
         <v>0</v>
@@ -12273,7 +12273,7 @@
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>RECOMPRA PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 30%. Stock objetivo: 1 unidades. Monitorear demanda próximas semanas.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V19" s="3" t="inlineStr">
@@ -12283,19 +12283,19 @@
       </c>
       <c r="W19" s="3" t="inlineStr">
         <is>
-          <t>26B</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>5401030002</t>
+          <t>5401010012</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>CLAVEL MARGARITA VARIADO 00543</t>
+          <t>CORONADO PRINCESA, VARIADO</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr"/>
@@ -12323,7 +12323,7 @@
         <v>1.71</v>
       </c>
       <c r="K20" s="3" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L20" s="3" t="n">
         <v>0</v>
@@ -12335,38 +12335,38 @@
         <v>3.1</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P20" s="3" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R20" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T20" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V20" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W20" s="3" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -12539,12 +12539,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>5402090023</t>
+          <t>5402090020</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>SANDÍA CRIMSON SWEET 2019</t>
+          <t>PUERRO VDE CARENTAN ECOLOG</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr"/>
@@ -12572,7 +12572,7 @@
         <v>0.83</v>
       </c>
       <c r="K23" s="3" t="n">
-        <v>0</v>
+        <v>11.11</v>
       </c>
       <c r="L23" s="3" t="n">
         <v>0</v>
@@ -12584,50 +12584,50 @@
         <v>1.5</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P23" s="3" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R23" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T23" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V23" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W23" s="3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>5402090020</t>
+          <t>5402020008</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>PUERRO VDE CARENTAN ECOLOG</t>
+          <t>MELON AMARILLO CANARIO</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr"/>
@@ -12670,7 +12670,7 @@
         <v>8</v>
       </c>
       <c r="P24" s="3" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="3" t="n">
         <v>59</v>
@@ -12705,12 +12705,12 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>5404010014</t>
+          <t>5402020014</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>MELISSA OFFICINALIS</t>
+          <t>SANDIA SUGAR BABY</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr"/>
@@ -12753,7 +12753,7 @@
         <v>5</v>
       </c>
       <c r="P25" s="3" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="Q25" s="3" t="n">
         <v>59</v>
@@ -12788,12 +12788,12 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>5402020008</t>
+          <t>5404010014</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>MELON AMARILLO CANARIO</t>
+          <t>MELISSA OFFICINALIS</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr"/>
@@ -12821,7 +12821,7 @@
         <v>0.83</v>
       </c>
       <c r="K26" s="3" t="n">
-        <v>11.11</v>
+        <v>16.67</v>
       </c>
       <c r="L26" s="3" t="n">
         <v>0</v>
@@ -12833,10 +12833,10 @@
         <v>1.5</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P26" s="3" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="Q26" s="3" t="n">
         <v>59</v>
@@ -12871,12 +12871,12 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>5402020014</t>
+          <t>5402090023</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>SANDIA SUGAR BABY</t>
+          <t>SANDÍA CRIMSON SWEET 2019</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr"/>
@@ -12904,7 +12904,7 @@
         <v>0.83</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>16.67</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="n">
         <v>0</v>
@@ -12916,50 +12916,50 @@
         <v>1.5</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="P27" s="3" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S27" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T27" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T27" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V27" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W27" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>5401010034</t>
+          <t>5401010032</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
+          <t>GIPSOFILA ELEGANS BLANCA</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
@@ -12987,7 +12987,7 @@
         <v>0.84</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L28" s="3" t="n">
         <v>0</v>
@@ -12999,16 +12999,16 @@
         <v>1.5</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P28" s="3" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R28" s="3" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S28" s="4" t="n">
         <v>10</v>
@@ -13025,7 +13025,7 @@
       </c>
       <c r="V28" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W28" s="3" t="inlineStr">
@@ -13037,12 +13037,12 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>5404010022</t>
+          <t>5401010034</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>STEVIA 2015</t>
+          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr"/>
@@ -13070,7 +13070,7 @@
         <v>0.84</v>
       </c>
       <c r="K29" s="3" t="n">
-        <v>4.76</v>
+        <v>20</v>
       </c>
       <c r="L29" s="3" t="n">
         <v>0</v>
@@ -13082,10 +13082,10 @@
         <v>1.5</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="P29" s="3" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="Q29" s="3" t="n">
         <v>59</v>
@@ -13120,12 +13120,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>5402020017</t>
+          <t>5404010022</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO ECO</t>
+          <t>STEVIA 2015</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr"/>
@@ -13153,7 +13153,7 @@
         <v>0.84</v>
       </c>
       <c r="K30" s="3" t="n">
-        <v>11.11</v>
+        <v>4.76</v>
       </c>
       <c r="L30" s="3" t="n">
         <v>0</v>
@@ -13165,10 +13165,10 @@
         <v>1.5</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="P30" s="3" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="Q30" s="3" t="n">
         <v>59</v>
@@ -13203,12 +13203,12 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>5402090008</t>
+          <t>5402090028</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr"/>
@@ -13236,7 +13236,7 @@
         <v>0.84</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>11.11</v>
+        <v>50</v>
       </c>
       <c r="L31" s="3" t="n">
         <v>0</v>
@@ -13248,10 +13248,10 @@
         <v>1.5</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P31" s="3" t="n">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="Q31" s="3" t="n">
         <v>59</v>
@@ -13286,12 +13286,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>5402090006</t>
+          <t>5402030003</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>CEBOLLA ARBO - MORADA DE AMPOSTA 2011</t>
+          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr"/>
@@ -13319,7 +13319,7 @@
         <v>0.84</v>
       </c>
       <c r="K32" s="3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3" t="n">
         <v>0</v>
@@ -13331,50 +13331,50 @@
         <v>1.5</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S32" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T32" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T32" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V32" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W32" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>5401010032</t>
+          <t>5402040003</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>GIPSOFILA ELEGANS BLANCA</t>
+          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr"/>
@@ -13417,13 +13417,13 @@
         <v>9</v>
       </c>
       <c r="P33" s="3" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R33" s="3" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S33" s="4" t="n">
         <v>10</v>
@@ -13440,7 +13440,7 @@
       </c>
       <c r="V33" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W33" s="3" t="inlineStr">
@@ -13452,12 +13452,12 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>5402030003</t>
+          <t>5404010004</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
+          <t>ALBAHACA LIMON 2015</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr"/>
@@ -13500,7 +13500,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="3" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="Q34" s="3" t="n">
         <v>0</v>
@@ -13535,12 +13535,12 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>5402040003</t>
+          <t>5402020017</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
+          <t>MELON PIÑONET PIEL DE SAPO ECO</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr"/>
@@ -13568,7 +13568,7 @@
         <v>0.84</v>
       </c>
       <c r="K35" s="3" t="n">
-        <v>10</v>
+        <v>11.11</v>
       </c>
       <c r="L35" s="3" t="n">
         <v>0</v>
@@ -13580,10 +13580,10 @@
         <v>1.5</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P35" s="3" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="Q35" s="3" t="n">
         <v>59</v>
@@ -13618,12 +13618,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>5404010004</t>
+          <t>5402090008</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>ALBAHACA LIMON 2015</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>0.84</v>
       </c>
       <c r="K36" s="3" t="n">
-        <v>100</v>
+        <v>11.11</v>
       </c>
       <c r="L36" s="3" t="n">
         <v>0</v>
@@ -13663,50 +13663,50 @@
         <v>1.5</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P36" s="3" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R36" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T36" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V36" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W36" s="3" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>5402090028</t>
+          <t>5402090006</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
+          <t>CEBOLLA ARBO - MORADA DE AMPOSTA 2011</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr"/>
@@ -13749,7 +13749,7 @@
         <v>1</v>
       </c>
       <c r="P37" s="3" t="n">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="Q37" s="3" t="n">
         <v>59</v>
@@ -13784,12 +13784,12 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>5402020005</t>
+          <t>5401010021</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>CALABAZA BUTTERNUT</t>
+          <t>IPOMEA CAMPANILLA VARIADA</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr"/>
@@ -13817,7 +13817,7 @@
         <v>0.86</v>
       </c>
       <c r="K38" s="3" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L38" s="3" t="n">
         <v>0</v>
@@ -13829,50 +13829,50 @@
         <v>1.5</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P38" s="3" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R38" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T38" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V38" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W38" s="3" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>5401010021</t>
+          <t>5402020005</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>IPOMEA CAMPANILLA VARIADA</t>
+          <t>CALABAZA BUTTERNUT</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr"/>
@@ -13900,7 +13900,7 @@
         <v>0.86</v>
       </c>
       <c r="K39" s="3" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L39" s="3" t="n">
         <v>0</v>
@@ -13912,38 +13912,38 @@
         <v>1.5</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P39" s="3" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R39" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T39" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T39" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V39" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W39" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
@@ -14362,24 +14362,32 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>5102020019</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr"/>
-      <c r="D2" s="2" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>60G</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G2" s="3" t="n">
@@ -14407,19 +14415,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T2" s="7" t="inlineStr">
         <is>
@@ -14428,12 +14436,12 @@
       </c>
       <c r="U2" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W2" s="3" t="inlineStr">
@@ -14445,24 +14453,24 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>5102070000</t>
+          <t>5402030001</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON VILLA BLANCA 1 UDS</t>
+          <t>NABO DE MESA VIRTUDES MARTILLO</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr"/>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G3" s="3" t="n">
@@ -14496,13 +14504,13 @@
         <v>59</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T3" s="7" t="inlineStr">
         <is>
@@ -14511,12 +14519,12 @@
       </c>
       <c r="U3" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W3" s="3" t="inlineStr">
@@ -14528,32 +14536,24 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>5301010002</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPARRING</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1Kg</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G4" s="3" t="n">
@@ -14581,7 +14581,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="P4" s="3" t="n">
         <v>59</v>
@@ -14602,7 +14602,7 @@
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 74.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="3" t="inlineStr">
@@ -14619,24 +14619,24 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>5401010031</t>
+          <t>5103010003</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>GERANIO ZONALE VARIADO</t>
+          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr"/>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G5" s="3" t="n">
@@ -14664,19 +14664,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P5" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7" t="inlineStr">
         <is>
@@ -14685,12 +14685,12 @@
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W5" s="3" t="inlineStr">
@@ -14702,24 +14702,24 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>5404010002</t>
+          <t>5301010003</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>ALBAHACA GIGANTE</t>
+          <t>SEMILLAS CESPED RESISTENTE 1KG</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr"/>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G6" s="3" t="n">
@@ -14747,7 +14747,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P6" s="3" t="n">
         <v>59</v>
@@ -14768,7 +14768,7 @@
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="3" t="inlineStr">
@@ -14785,24 +14785,24 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>5402010001</t>
+          <t>5102020010</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>COL BRUNSWICK TENTA</t>
+          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr"/>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G7" s="3" t="n">
@@ -14830,19 +14830,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P7" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7" t="inlineStr">
         <is>
@@ -14851,12 +14851,12 @@
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W7" s="3" t="inlineStr">
@@ -14868,12 +14868,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>5102020011</t>
+          <t>5101010003</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
+          <t>BEGONIA DOBLE ESCARLATA 5/6 X3</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr"/>
@@ -14951,12 +14951,12 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>5102020014</t>
+          <t>5102080000</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA PAYASO I X1</t>
+          <t>DAHLIA GIGANTE TARTARUS I X1</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>
@@ -15034,12 +15034,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>5102020013</t>
+          <t>5102020015</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA JAMAICA I X1</t>
+          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr"/>
@@ -15117,24 +15117,24 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>5402090029</t>
+          <t>5102040001</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>MAIZ DULCE GOLDEN BANTAAM ECO</t>
+          <t>DAHLIA ENANA DOBLE MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr"/>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G11" s="3" t="n">
@@ -15162,19 +15162,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P11" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R11" s="3" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S11" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T11" s="7" t="inlineStr">
         <is>
@@ -15183,12 +15183,12 @@
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W11" s="3" t="inlineStr">
@@ -15200,24 +15200,24 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>5402010003</t>
+          <t>5103030000</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>COL RIZADA KALE 2017</t>
+          <t>GLADIOLO FLOR GRANDE MEZCLADO 10/12 40 UDS</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr"/>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G12" s="3" t="n">
@@ -15245,19 +15245,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P12" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R12" s="3" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S12" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T12" s="7" t="inlineStr">
         <is>
@@ -15266,12 +15266,12 @@
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W12" s="3" t="inlineStr">
@@ -15283,24 +15283,24 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>5102020010</t>
+          <t>5402010001</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
+          <t>COL BRUNSWICK TENTA</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr"/>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G13" s="3" t="n">
@@ -15328,19 +15328,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P13" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R13" s="3" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S13" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T13" s="7" t="inlineStr">
         <is>
@@ -15349,12 +15349,12 @@
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W13" s="3" t="inlineStr">
@@ -15366,24 +15366,24 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>5402080003</t>
+          <t>5102070006</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>JUDIA GARRAFAL ORO-VELEZ</t>
+          <t>DAHLIA POMPON ASHADO X1</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr"/>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G14" s="3" t="n">
@@ -15411,19 +15411,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P14" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R14" s="3" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S14" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T14" s="7" t="inlineStr">
         <is>
@@ -15432,12 +15432,12 @@
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W14" s="3" t="inlineStr">
@@ -15449,24 +15449,24 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>5402080006</t>
+          <t>5102020014</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>JUDIA HELDA ECO</t>
+          <t>DAHLIA DECORATIVA PAYASO I X1</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr"/>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G15" s="3" t="n">
@@ -15494,19 +15494,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P15" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R15" s="3" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S15" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T15" s="7" t="inlineStr">
         <is>
@@ -15515,12 +15515,12 @@
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W15" s="3" t="inlineStr">
@@ -15532,32 +15532,24 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>5301010002</t>
+          <t>5107190013</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPARRING</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ARUM MAJESTIC RED 14/+ X1</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G16" s="3" t="n">
@@ -15585,19 +15577,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P16" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R16" s="3" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S16" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T16" s="7" t="inlineStr">
         <is>
@@ -15606,12 +15598,12 @@
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W16" s="3" t="inlineStr">
@@ -15623,24 +15615,24 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>5402090003</t>
+          <t>5102050000</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>ALCACHOFA TALPIOT 2011</t>
+          <t>DAHLIA ENANA SIMPLE MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr"/>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G17" s="3" t="n">
@@ -15668,19 +15660,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P17" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R17" s="3" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S17" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T17" s="7" t="inlineStr">
         <is>
@@ -15689,12 +15681,12 @@
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W17" s="3" t="inlineStr">
@@ -15706,24 +15698,24 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>5402030001</t>
+          <t>5107190010</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>NABO DE MESA VIRTUDES MARTILLO</t>
+          <t>LIS ORIENTAL BERGAME 16/18 3 UDS</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G18" s="3" t="n">
@@ -15757,13 +15749,13 @@
         <v>59</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R18" s="3" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S18" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T18" s="7" t="inlineStr">
         <is>
@@ -15772,12 +15764,12 @@
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W18" s="3" t="inlineStr">
@@ -15789,24 +15781,24 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>5107170001</t>
+          <t>5402090003</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>IXIA MACULATA MEZCLADO 5/+ X15</t>
+          <t>ALCACHOFA TALPIOT 2011</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G19" s="3" t="n">
@@ -15834,19 +15826,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P19" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R19" s="3" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S19" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T19" s="7" t="inlineStr">
         <is>
@@ -15855,12 +15847,12 @@
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W19" s="3" t="inlineStr">
@@ -15872,12 +15864,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>5107190018</t>
+          <t>5103020000</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>ARUM HOTSHOT 14/+ X1</t>
+          <t>GLADIOLO COLVILLEI MEZCLADO 8/9 X7</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr"/>
@@ -15955,32 +15947,24 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>5301010001</t>
+          <t>5102020011</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>CESPED FORMULA RESISTENTE</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G21" s="3" t="n">
@@ -16008,19 +15992,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P21" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R21" s="3" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S21" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T21" s="7" t="inlineStr">
         <is>
@@ -16029,12 +16013,12 @@
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W21" s="3" t="inlineStr">
@@ -16046,24 +16030,24 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>5107010002</t>
+          <t>5302010001</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>AMARYLLIS BELLADONNA 20/+ X1</t>
+          <t>CESPED FORMULA SPORT</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr"/>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G22" s="3" t="n">
@@ -16091,19 +16075,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P22" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R22" s="3" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S22" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T22" s="7" t="inlineStr">
         <is>
@@ -16112,12 +16096,12 @@
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W22" s="3" t="inlineStr">
@@ -16129,12 +16113,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>5101010003</t>
+          <t>5107190018</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE ESCARLATA 5/6 X3</t>
+          <t>ARUM HOTSHOT 14/+ X1</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr"/>
@@ -16212,24 +16196,24 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5102020013</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
+          <t>DAHLIA DECORATIVA ENANA JAMAICA I X1</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr"/>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G24" s="3" t="n">
@@ -16257,19 +16241,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P24" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R24" s="3" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S24" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T24" s="7" t="inlineStr">
         <is>
@@ -16278,12 +16262,12 @@
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W24" s="3" t="inlineStr">
@@ -16295,12 +16279,12 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>5102050000</t>
+          <t>5102040000</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA SIMPLE MEZCLADO I/II X4</t>
+          <t>DAHLIA ENANA DOBLE MACARON I X1 FDF</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr"/>
@@ -16378,24 +16362,24 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>5301010003</t>
+          <t>5402050020</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>SEMILLAS CESPED RESISTENTE 1KG</t>
+          <t>BERENJENA LARGA NEGRA</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr"/>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G26" s="3" t="n">
@@ -16423,7 +16407,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P26" s="3" t="n">
         <v>59</v>
@@ -16444,7 +16428,7 @@
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.77€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="3" t="inlineStr">
@@ -16461,24 +16445,32 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>5102070006</t>
+          <t>5301010001</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON ASHADO X1</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr"/>
-      <c r="D27" s="2" t="inlineStr"/>
+          <t>CESPED FORMULA RESISTENTE</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G27" s="3" t="n">
@@ -16506,19 +16498,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P27" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R27" s="3" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S27" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T27" s="7" t="inlineStr">
         <is>
@@ -16527,12 +16519,12 @@
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W27" s="3" t="inlineStr">
@@ -16544,12 +16536,12 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>5102020015</t>
+          <t>5107190017</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
+          <t>ARUM PINK PERSUASION 14/+ X1</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
@@ -16627,24 +16619,16 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5404010007</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>60G</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CEBOLLINO ANUAL 2011</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="3" t="inlineStr">
         <is>
           <t>54</t>
@@ -16680,16 +16664,16 @@
         <v>0</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P29" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R29" s="3" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S29" s="4" t="n">
         <v>10</v>
@@ -16701,12 +16685,12 @@
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W29" s="3" t="inlineStr">
@@ -16718,12 +16702,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>5102020012</t>
+          <t>5107100002</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA LE THOUREIL I X1</t>
+          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr"/>
@@ -16763,7 +16747,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P30" s="3" t="n">
         <v>59</v>
@@ -16801,24 +16785,24 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>5103020000</t>
+          <t>5307010005</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>GLADIOLO COLVILLEI MEZCLADO 8/9 X7</t>
+          <t>SEMILLAS REPOBLADORAS 1 KG</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr"/>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G31" s="3" t="n">
@@ -16846,19 +16830,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="P31" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R31" s="3" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S31" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T31" s="7" t="inlineStr">
         <is>
@@ -16867,12 +16851,12 @@
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.19€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W31" s="3" t="inlineStr">
@@ -16884,24 +16868,24 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>5402080002</t>
+          <t>5107100001</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>JUDIA GARRAFAL ENANA 250GR</t>
+          <t>FREESIA DOBLE MEZCLADO 5+ 15 UDS</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr"/>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G32" s="3" t="n">
@@ -16929,19 +16913,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P32" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R32" s="3" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S32" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T32" s="7" t="inlineStr">
         <is>
@@ -16950,12 +16934,12 @@
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W32" s="3" t="inlineStr">
@@ -16967,24 +16951,32 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>5401010001</t>
+          <t>5301010002</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>AMAPOLA DOBLE VARIADA</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr"/>
-      <c r="D33" s="2" t="inlineStr"/>
+          <t>CESPED FORMULA SPARRING</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G33" s="3" t="n">
@@ -17012,7 +17004,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P33" s="3" t="n">
         <v>59</v>
@@ -17033,7 +17025,7 @@
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 74.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="3" t="inlineStr">
@@ -17050,24 +17042,24 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>5302010001</t>
+          <t>5103010006</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPORT</t>
+          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr"/>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G34" s="3" t="n">
@@ -17095,19 +17087,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P34" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R34" s="3" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S34" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T34" s="7" t="inlineStr">
         <is>
@@ -17116,12 +17108,12 @@
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W34" s="3" t="inlineStr">
@@ -17224,12 +17216,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>5107190009</t>
+          <t>5102090001</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL STARGAZER 16/18 3 UDS</t>
+          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr"/>
@@ -17307,24 +17299,24 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>5107100002</t>
+          <t>5402080001</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
+          <t>JUDÍA EFEQUINCE</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr"/>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G37" s="3" t="n">
@@ -17358,13 +17350,13 @@
         <v>59</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R37" s="3" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S37" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T37" s="7" t="inlineStr">
         <is>
@@ -17373,12 +17365,12 @@
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W37" s="3" t="inlineStr">
@@ -17390,12 +17382,12 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>5102080000</t>
+          <t>5107010002</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA GIGANTE TARTARUS I X1</t>
+          <t>AMARYLLIS BELLADONNA 20/+ X1</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr"/>
@@ -17473,24 +17465,32 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>5402080001</t>
+          <t>5301010002</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>JUDÍA EFEQUINCE</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr"/>
-      <c r="D39" s="2" t="inlineStr"/>
+          <t>CESPED FORMULA SPARRING</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G39" s="3" t="n">
@@ -17518,7 +17518,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P39" s="3" t="n">
         <v>59</v>
@@ -17556,12 +17556,12 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>5107190017</t>
+          <t>5102010005</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>ARUM PINK PERSUASION 14/+ X1</t>
+          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr"/>
@@ -17639,12 +17639,12 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>5102010005</t>
+          <t>5102020016</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
+          <t>DAHLIA DECORATIVA ENANA ZANZIBAR I X1</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr"/>
@@ -17722,24 +17722,24 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>5102040001</t>
+          <t>5404010021</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA DOBLE MEZCLADO I/II X4</t>
+          <t>SALVIA OFFICINALIS</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr"/>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G42" s="3" t="n">
@@ -17767,19 +17767,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="P42" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q42" s="3" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R42" s="3" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S42" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T42" s="7" t="inlineStr">
         <is>
@@ -17788,12 +17788,12 @@
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W42" s="3" t="inlineStr">
@@ -17805,12 +17805,12 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>5404010007</t>
+          <t>5402080003</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>CEBOLLINO ANUAL 2011</t>
+          <t>JUDIA GARRAFAL ORO-VELEZ</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr"/>
@@ -17850,7 +17850,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P43" s="3" t="n">
         <v>59</v>
@@ -17871,7 +17871,7 @@
       </c>
       <c r="U43" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="3" t="inlineStr">
@@ -17888,12 +17888,12 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>5103010003</t>
+          <t>5102070000</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
+          <t>DAHLIA POMPON VILLA BLANCA 1 UDS</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr"/>
@@ -17971,12 +17971,12 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>5107190010</t>
+          <t>5107170001</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL BERGAME 16/18 3 UDS</t>
+          <t>IXIA MACULATA MEZCLADO 5/+ X15</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr"/>
@@ -18054,12 +18054,12 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>5103030000</t>
+          <t>5107190009</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE MEZCLADO 10/12 40 UDS</t>
+          <t>LIS ORIENTAL STARGAZER 16/18 3 UDS</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr"/>
@@ -18137,24 +18137,24 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>5404010018</t>
+          <t>5107190005</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>PEREJIL DOBLE RIZADO 2011</t>
+          <t>ARUM FORET NEGRO 14+1 UDS</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr"/>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G47" s="3" t="n">
@@ -18182,19 +18182,19 @@
         <v>0</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="P47" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q47" s="3" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R47" s="3" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S47" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T47" s="7" t="inlineStr">
         <is>
@@ -18203,12 +18203,12 @@
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.01€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W47" s="3" t="inlineStr">
@@ -18220,12 +18220,12 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>5103010006</t>
+          <t>5102010004</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 12 UDS</t>
+          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr"/>
@@ -18303,12 +18303,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>5102040000</t>
+          <t>5102020019</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA DOBLE MACARON I X1 FDF</t>
+          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr"/>
@@ -18386,24 +18386,32 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>5107190005</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>ARUM FORET NEGRO 14+1 UDS</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr"/>
-      <c r="D50" s="2" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>250G</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G50" s="3" t="n">
@@ -18431,19 +18439,19 @@
         <v>0</v>
       </c>
       <c r="O50" s="3" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="P50" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q50" s="3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R50" s="3" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S50" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T50" s="7" t="inlineStr">
         <is>
@@ -18452,12 +18460,12 @@
       </c>
       <c r="U50" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W50" s="3" t="inlineStr">
@@ -18469,24 +18477,24 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>5102090001</t>
+          <t>5402080002</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
+          <t>JUDIA GARRAFAL ENANA 250GR</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr"/>
       <c r="D51" s="2" t="inlineStr"/>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G51" s="3" t="n">
@@ -18514,19 +18522,19 @@
         <v>0</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P51" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q51" s="3" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R51" s="3" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S51" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T51" s="7" t="inlineStr">
         <is>
@@ -18535,12 +18543,12 @@
       </c>
       <c r="U51" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W51" s="3" t="inlineStr">
@@ -18552,12 +18560,12 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>5402010002</t>
+          <t>5401010031</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>COL BRUSELAS MEDIO ENANA</t>
+          <t>GERANIO ZONALE VARIADO</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr"/>
@@ -18597,7 +18605,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P52" s="3" t="n">
         <v>59</v>
@@ -18618,7 +18626,7 @@
       </c>
       <c r="U52" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="3" t="inlineStr">
@@ -18635,12 +18643,12 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>5107100001</t>
+          <t>5102020012</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>FREESIA DOBLE MEZCLADO 5+ 15 UDS</t>
+          <t>DAHLIA DECORATIVA ENANA LE THOUREIL I X1</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr"/>
@@ -18680,7 +18688,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P53" s="3" t="n">
         <v>59</v>
@@ -18718,12 +18726,12 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>5402050020</t>
+          <t>5404010002</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>BERENJENA LARGA NEGRA</t>
+          <t>ALBAHACA GIGANTE</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr"/>
@@ -18763,7 +18771,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P54" s="3" t="n">
         <v>59</v>
@@ -18784,7 +18792,7 @@
       </c>
       <c r="U54" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="3" t="inlineStr">
@@ -18801,24 +18809,24 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>5102020016</t>
+          <t>5402080006</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA ZANZIBAR I X1</t>
+          <t>JUDIA HELDA ECO</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr"/>
       <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G55" s="3" t="n">
@@ -18846,19 +18854,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P55" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q55" s="3" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R55" s="3" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S55" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T55" s="7" t="inlineStr">
         <is>
@@ -18867,12 +18875,12 @@
       </c>
       <c r="U55" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W55" s="3" t="inlineStr">
@@ -18884,24 +18892,24 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>5102010004</t>
+          <t>5401010001</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
+          <t>AMAPOLA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr"/>
       <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G56" s="3" t="n">
@@ -18929,19 +18937,19 @@
         <v>0</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="P56" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q56" s="3" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R56" s="3" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S56" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T56" s="7" t="inlineStr">
         <is>
@@ -18950,12 +18958,12 @@
       </c>
       <c r="U56" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W56" s="3" t="inlineStr">
@@ -18967,24 +18975,24 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>5107190013</t>
+          <t>5402090029</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>ARUM MAJESTIC RED 14/+ X1</t>
+          <t>MAIZ DULCE GOLDEN BANTAAM ECO</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr"/>
       <c r="D57" s="2" t="inlineStr"/>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G57" s="3" t="n">
@@ -19012,19 +19020,19 @@
         <v>0</v>
       </c>
       <c r="O57" s="3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P57" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q57" s="3" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R57" s="3" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S57" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T57" s="7" t="inlineStr">
         <is>
@@ -19033,12 +19041,12 @@
       </c>
       <c r="U57" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W57" s="3" t="inlineStr">
@@ -19050,24 +19058,24 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>5307010005</t>
+          <t>5402010002</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>SEMILLAS REPOBLADORAS 1 KG</t>
+          <t>COL BRUSELAS MEDIO ENANA</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr"/>
       <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G58" s="3" t="n">
@@ -19095,7 +19103,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="3" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="P58" s="3" t="n">
         <v>59</v>
@@ -19116,7 +19124,7 @@
       </c>
       <c r="U58" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.19€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="3" t="inlineStr">
@@ -19133,24 +19141,16 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5402010003</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>250G</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>COL RIZADA KALE 2017</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr"/>
+      <c r="D59" s="2" t="inlineStr"/>
       <c r="E59" s="3" t="inlineStr">
         <is>
           <t>54</t>
@@ -19186,16 +19186,16 @@
         <v>0</v>
       </c>
       <c r="O59" s="3" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="P59" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q59" s="3" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R59" s="3" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S59" s="4" t="n">
         <v>10</v>
@@ -19207,12 +19207,12 @@
       </c>
       <c r="U59" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W59" s="3" t="inlineStr">
@@ -19224,12 +19224,12 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>5404010021</t>
+          <t>5404010018</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>SALVIA OFFICINALIS</t>
+          <t>PEREJIL DOBLE RIZADO 2011</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr"/>
@@ -19269,7 +19269,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="3" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P60" s="3" t="n">
         <v>59</v>
@@ -19290,7 +19290,7 @@
       </c>
       <c r="U60" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.01€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="3" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_SEMILLAS_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_SEMILLAS_P1_2025.xlsx
@@ -2071,55 +2071,55 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>5104010012</t>
+          <t>5404010019</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>JACINTHE BLEU DE DELFT FDF 15/+ X5</t>
+          <t>PEREJIL GIGANTE D'ITALIA</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G19" s="3" t="n">
         <v>60</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>15.98</v>
+        <v>17.63</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>6.53</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M19" s="4" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>3.1</v>
+        <v>15.3</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="Q19" s="3" t="n">
         <v>0</v>
@@ -2132,12 +2132,12 @@
       </c>
       <c r="T19" s="6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V19" s="3" t="inlineStr">
@@ -2147,19 +2147,19 @@
       </c>
       <c r="W19" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>5404010019</t>
+          <t>5401010005</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>PEREJIL GIGANTE D'ITALIA</t>
+          <t>CALENDULA VARIADA</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr"/>
@@ -2181,10 +2181,10 @@
         <v>10</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>17.63</v>
+        <v>17.9</v>
       </c>
       <c r="J20" s="3" t="n">
-        <v>8.029999999999999</v>
+        <v>8.27</v>
       </c>
       <c r="K20" s="3" t="n">
         <v>100</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q20" s="3" t="n">
         <v>0</v>
@@ -2237,12 +2237,12 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>5105010009</t>
+          <t>5104010012</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>NARCISSE GRANDE COUPE PINK CHARM 1</t>
+          <t>JACINTHE BLEU DE DELFT FDF 15/+ X5</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr"/>
@@ -2264,10 +2264,10 @@
         <v>2</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>14.98</v>
+        <v>15.98</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>5.62</v>
+        <v>6.53</v>
       </c>
       <c r="K21" s="3" t="n">
         <v>0</v>
@@ -2285,7 +2285,7 @@
         <v>-2</v>
       </c>
       <c r="P21" s="3" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="3" t="n">
         <v>0</v>
@@ -2403,55 +2403,55 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>5401010005</t>
+          <t>5105010009</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>CALENDULA VARIADA</t>
+          <t>NARCISSE GRANDE COUPE PINK CHARM 1</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr"/>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G23" s="3" t="n">
         <v>60</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>17.9</v>
+        <v>14.98</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>8.27</v>
+        <v>5.62</v>
       </c>
       <c r="K23" s="3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M23" s="4" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>15.3</v>
+        <v>3.1</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P23" s="3" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="3" t="n">
         <v>0</v>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="T23" s="6" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V23" s="3" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="W23" s="3" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2743,12 +2743,12 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>5402050014</t>
+          <t>5401010026</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE ECOLOGICO</t>
+          <t>PETUNIA PENDULA VARIADA 2011</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr"/>
@@ -2770,13 +2770,13 @@
         <v>9</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>15.93</v>
+        <v>16.11</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>7.28</v>
+        <v>7.45</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>64.29000000000001</v>
+        <v>90</v>
       </c>
       <c r="L27" s="3" t="n">
         <v>0</v>
@@ -2788,16 +2788,16 @@
         <v>13.7</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P27" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R27" s="3" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S27" s="4" t="n">
         <v>10</v>
@@ -2809,29 +2809,29 @@
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V27" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W27" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>5401010026</t>
+          <t>5402050014</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>PETUNIA PENDULA VARIADA 2011</t>
+          <t>TOMATE MARMANDE ECOLOGICO</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
@@ -2853,13 +2853,13 @@
         <v>9</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>16.11</v>
+        <v>15.93</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>7.45</v>
+        <v>7.28</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>90</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="L28" s="3" t="n">
         <v>0</v>
@@ -2871,16 +2871,16 @@
         <v>13.7</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P28" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R28" s="3" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S28" s="4" t="n">
         <v>10</v>
@@ -2892,17 +2892,17 @@
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V28" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W28" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3249,12 +3249,12 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>5401010023</t>
+          <t>5404010016</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>PASIONARIA</t>
+          <t>OREGANO</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr"/>
@@ -3276,13 +3276,13 @@
         <v>8</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>14.32</v>
+        <v>14.05</v>
       </c>
       <c r="J33" s="3" t="n">
-        <v>6.62</v>
+        <v>6.37</v>
       </c>
       <c r="K33" s="3" t="n">
-        <v>88.89</v>
+        <v>80</v>
       </c>
       <c r="L33" s="3" t="n">
         <v>0</v>
@@ -3294,16 +3294,16 @@
         <v>12.2</v>
       </c>
       <c r="O33" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P33" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R33" s="3" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S33" s="4" t="n">
         <v>10</v>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="V33" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W33" s="3" t="inlineStr">
@@ -3332,12 +3332,12 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>5404010016</t>
+          <t>5401010023</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>OREGANO</t>
+          <t>PASIONARIA</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr"/>
@@ -3359,13 +3359,13 @@
         <v>8</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>14.05</v>
+        <v>14.32</v>
       </c>
       <c r="J34" s="3" t="n">
-        <v>6.37</v>
+        <v>6.62</v>
       </c>
       <c r="K34" s="3" t="n">
-        <v>80</v>
+        <v>88.89</v>
       </c>
       <c r="L34" s="3" t="n">
         <v>0</v>
@@ -3377,16 +3377,16 @@
         <v>12.2</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P34" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R34" s="3" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S34" s="4" t="n">
         <v>10</v>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="V34" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W34" s="3" t="inlineStr">
@@ -3664,12 +3664,12 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>5402020011</t>
+          <t>5404010020</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>PEPINO MARKETER ECOLOGICO</t>
+          <t>ROMERO COMUN</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr"/>
@@ -3697,7 +3697,7 @@
         <v>5.79</v>
       </c>
       <c r="K38" s="3" t="n">
-        <v>70</v>
+        <v>116.67</v>
       </c>
       <c r="L38" s="3" t="n">
         <v>0</v>
@@ -3709,50 +3709,50 @@
         <v>10.7</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P38" s="3" t="n">
         <v>13</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R38" s="3" t="n">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T38" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T38" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V38" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W38" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>5401010007</t>
+          <t>5402020011</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>CAPUCHINA ENANA VARIADA</t>
+          <t>PEPINO MARKETER ECOLOGICO</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr"/>
@@ -3795,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="P39" s="3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q39" s="3" t="n">
         <v>50</v>
@@ -3830,12 +3830,12 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>5404010020</t>
+          <t>5402020010</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>ROMERO COMUN</t>
+          <t>PEPINO BELLPUIG LARGO VERDE</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr"/>
@@ -3857,13 +3857,13 @@
         <v>7</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>12.53</v>
+        <v>12.35</v>
       </c>
       <c r="J40" s="3" t="n">
-        <v>5.79</v>
+        <v>5.63</v>
       </c>
       <c r="K40" s="3" t="n">
-        <v>116.67</v>
+        <v>77.78</v>
       </c>
       <c r="L40" s="3" t="n">
         <v>0</v>
@@ -3875,50 +3875,50 @@
         <v>10.7</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P40" s="3" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q40" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R40" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T40" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V40" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W40" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>5402020010</t>
+          <t>5401010007</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>PEPINO BELLPUIG LARGO VERDE</t>
+          <t>CAPUCHINA ENANA VARIADA</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr"/>
@@ -3940,13 +3940,13 @@
         <v>7</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>12.35</v>
+        <v>12.53</v>
       </c>
       <c r="J41" s="3" t="n">
-        <v>5.63</v>
+        <v>5.79</v>
       </c>
       <c r="K41" s="3" t="n">
-        <v>77.78</v>
+        <v>70</v>
       </c>
       <c r="L41" s="3" t="n">
         <v>0</v>
@@ -3958,16 +3958,16 @@
         <v>10.7</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P41" s="3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R41" s="3" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S41" s="4" t="n">
         <v>10</v>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="V41" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W41" s="3" t="inlineStr">
@@ -4245,12 +4245,12 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>5401010030</t>
+          <t>5404010010</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>ZINNIA FLOR DE DALIA</t>
+          <t>HIERBA PARA GATOS</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr"/>
@@ -4272,13 +4272,13 @@
         <v>6</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J45" s="3" t="n">
-        <v>4.96</v>
+        <v>4.72</v>
       </c>
       <c r="K45" s="3" t="n">
-        <v>100</v>
+        <v>46.15</v>
       </c>
       <c r="L45" s="3" t="n">
         <v>0</v>
@@ -4290,50 +4290,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P45" s="3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R45" s="3" t="n">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="S45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T45" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U45" s="2" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V45" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W45" s="3" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>5404010017</t>
+          <t>5401010019</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>PEREJIL COMUN DE HOJA LISA</t>
+          <t>GIRASOL ORNAMENTAL 2011</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr"/>
@@ -4361,7 +4361,7 @@
         <v>4.96</v>
       </c>
       <c r="K46" s="3" t="n">
-        <v>26.09</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3" t="n">
         <v>0</v>
@@ -4373,50 +4373,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q46" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S46" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T46" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T46" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U46" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V46" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W46" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>5404010010</t>
+          <t>5404010017</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>HIERBA PARA GATOS</t>
+          <t>PEREJIL COMUN DE HOJA LISA</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr"/>
@@ -4438,13 +4438,13 @@
         <v>6</v>
       </c>
       <c r="I47" s="3" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J47" s="3" t="n">
-        <v>4.72</v>
+        <v>4.96</v>
       </c>
       <c r="K47" s="3" t="n">
-        <v>46.15</v>
+        <v>26.09</v>
       </c>
       <c r="L47" s="3" t="n">
         <v>0</v>
@@ -4456,16 +4456,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="P47" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q47" s="3" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R47" s="3" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S47" s="4" t="n">
         <v>10</v>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="V47" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W47" s="3" t="inlineStr">
@@ -4577,12 +4577,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>5401010019</t>
+          <t>5401010028</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>GIRASOL ORNAMENTAL 2011</t>
+          <t>TAGETE ALTO DOBLE VARIADO</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr"/>
@@ -4610,7 +4610,7 @@
         <v>4.96</v>
       </c>
       <c r="K49" s="3" t="n">
-        <v>100</v>
+        <v>54.55</v>
       </c>
       <c r="L49" s="3" t="n">
         <v>0</v>
@@ -4622,38 +4622,38 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P49" s="3" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q49" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R49" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T49" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V49" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W49" s="3" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4743,12 +4743,12 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>5401010028</t>
+          <t>5401010030</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>TAGETE ALTO DOBLE VARIADO</t>
+          <t>ZINNIA FLOR DE DALIA</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr"/>
@@ -4776,7 +4776,7 @@
         <v>4.96</v>
       </c>
       <c r="K51" s="3" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="L51" s="3" t="n">
         <v>0</v>
@@ -4788,38 +4788,38 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P51" s="3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q51" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R51" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S51" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T51" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T51" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V51" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W51" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
@@ -5075,83 +5075,83 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>5401010013</t>
+          <t>5107190015</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>COSMOS DEL JAPON</t>
+          <t>LIS CANDIDUM 22/24 X1</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr"/>
       <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G55" s="3" t="n">
         <v>60</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I55" s="3" t="n">
-        <v>8.949999999999999</v>
+        <v>5.99</v>
       </c>
       <c r="J55" s="3" t="n">
-        <v>4.14</v>
+        <v>1.45</v>
       </c>
       <c r="K55" s="3" t="n">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="L55" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M55" s="4" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N55" s="4" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="O55" s="3" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P55" s="3" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="Q55" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R55" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S55" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T55" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T55" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U55" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V55" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W55" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -5241,12 +5241,12 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>5402050015</t>
+          <t>5401010013</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE RAF</t>
+          <t>COSMOS DEL JAPON</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr"/>
@@ -5274,7 +5274,7 @@
         <v>4.14</v>
       </c>
       <c r="K57" s="3" t="n">
-        <v>71.43000000000001</v>
+        <v>83.33</v>
       </c>
       <c r="L57" s="3" t="n">
         <v>0</v>
@@ -5286,10 +5286,10 @@
         <v>7.6</v>
       </c>
       <c r="O57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" s="3" t="n">
         <v>2</v>
-      </c>
-      <c r="P57" s="3" t="n">
-        <v>20</v>
       </c>
       <c r="Q57" s="3" t="n">
         <v>59</v>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="U57" s="2" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V57" s="3" t="inlineStr">
@@ -5317,102 +5317,102 @@
       </c>
       <c r="W57" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>5107190015</t>
+          <t>5402050015</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>LIS CANDIDUM 22/24 X1</t>
+          <t>TOMATE MARMANDE RAF</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr"/>
       <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G58" s="3" t="n">
         <v>60</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>5.99</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="J58" s="3" t="n">
-        <v>1.45</v>
+        <v>4.14</v>
       </c>
       <c r="K58" s="3" t="n">
-        <v>0</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="L58" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M58" s="4" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="N58" s="4" t="n">
-        <v>1.5</v>
+        <v>7.6</v>
       </c>
       <c r="O58" s="3" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P58" s="3" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="Q58" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R58" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S58" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T58" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U58" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V58" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W58" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>5401010006</t>
+          <t>5402050018</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>CAMPANULA DOBLE, VARIADA 2011</t>
+          <t>TOMATE ROMA</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr"/>
@@ -5440,7 +5440,7 @@
         <v>4.19</v>
       </c>
       <c r="K59" s="3" t="n">
-        <v>71.43000000000001</v>
+        <v>26.32</v>
       </c>
       <c r="L59" s="3" t="n">
         <v>0</v>
@@ -5452,10 +5452,10 @@
         <v>7.6</v>
       </c>
       <c r="O59" s="3" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P59" s="3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q59" s="3" t="n">
         <v>59</v>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="U59" s="2" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V59" s="3" t="inlineStr">
@@ -5483,19 +5483,19 @@
       </c>
       <c r="W59" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>5401010004</t>
+          <t>5401010010</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>BELLA DE NOCHE</t>
+          <t>COLEUS HIBRIDO ARCO IRIS</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr"/>
@@ -5523,7 +5523,7 @@
         <v>4.19</v>
       </c>
       <c r="K60" s="3" t="n">
-        <v>83.33</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3" t="n">
         <v>0</v>
@@ -5535,50 +5535,50 @@
         <v>7.6</v>
       </c>
       <c r="O60" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q60" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R60" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S60" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T60" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T60" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U60" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V60" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W60" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>5402050018</t>
+          <t>5401010006</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>TOMATE ROMA</t>
+          <t>CAMPANULA DOBLE, VARIADA 2011</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr"/>
@@ -5606,7 +5606,7 @@
         <v>4.19</v>
       </c>
       <c r="K61" s="3" t="n">
-        <v>26.32</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="L61" s="3" t="n">
         <v>0</v>
@@ -5618,10 +5618,10 @@
         <v>7.6</v>
       </c>
       <c r="O61" s="3" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P61" s="3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3" t="n">
         <v>59</v>
@@ -5639,7 +5639,7 @@
       </c>
       <c r="U61" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V61" s="3" t="inlineStr">
@@ -5649,19 +5649,19 @@
       </c>
       <c r="W61" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>5401010010</t>
+          <t>5401010004</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>COLEUS HIBRIDO ARCO IRIS</t>
+          <t>BELLA DE NOCHE</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr"/>
@@ -5689,7 +5689,7 @@
         <v>4.19</v>
       </c>
       <c r="K62" s="3" t="n">
-        <v>100</v>
+        <v>83.33</v>
       </c>
       <c r="L62" s="3" t="n">
         <v>0</v>
@@ -5701,50 +5701,50 @@
         <v>7.6</v>
       </c>
       <c r="O62" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q62" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R62" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S62" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T62" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T62" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U62" s="2" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V62" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W62" s="3" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>5404010011</t>
+          <t>5401010009</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>HIERBABUENA</t>
+          <t>CLAVEL DE POETA</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr"/>
@@ -5766,13 +5766,13 @@
         <v>5</v>
       </c>
       <c r="I63" s="3" t="n">
-        <v>8.41</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="J63" s="3" t="n">
-        <v>3.85</v>
+        <v>4.34</v>
       </c>
       <c r="K63" s="3" t="n">
-        <v>55.56</v>
+        <v>83.33</v>
       </c>
       <c r="L63" s="3" t="n">
         <v>0</v>
@@ -5784,10 +5784,10 @@
         <v>7.6</v>
       </c>
       <c r="O63" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P63" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q63" s="3" t="n">
         <v>59</v>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="U63" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V63" s="3" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="W63" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -6068,12 +6068,12 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>5401010009</t>
+          <t>5404010011</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>CLAVEL DE POETA</t>
+          <t>HIERBABUENA</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr"/>
@@ -6095,13 +6095,13 @@
         <v>5</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>8.949999999999999</v>
+        <v>8.41</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>4.34</v>
+        <v>3.85</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>83.33</v>
+        <v>55.56</v>
       </c>
       <c r="L3" s="3" t="n">
         <v>0</v>
@@ -6113,10 +6113,10 @@
         <v>7.6</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="3" t="n">
         <v>59</v>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="U3" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V3" s="3" t="inlineStr">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="W3" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6317,12 +6317,12 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>5402050011</t>
+          <t>5402090013</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>TOMATE CORAZÓN DE BUEY 2017</t>
+          <t>ESPARRAGO MARY WASHINGTON 2011</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr"/>
@@ -6344,13 +6344,13 @@
         <v>4</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>3.31</v>
+        <v>3.06</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>33.33</v>
+        <v>80</v>
       </c>
       <c r="L6" s="3" t="n">
         <v>0</v>
@@ -6362,10 +6362,10 @@
         <v>6.1</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="3" t="n">
         <v>59</v>
@@ -6383,7 +6383,7 @@
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V6" s="3" t="inlineStr">
@@ -6393,19 +6393,19 @@
       </c>
       <c r="W6" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>5402090013</t>
+          <t>5404010013</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>ESPARRAGO MARY WASHINGTON 2011</t>
+          <t>MANZANILLA</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr"/>
@@ -6433,7 +6433,7 @@
         <v>3.06</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>80</v>
+        <v>57.14</v>
       </c>
       <c r="L7" s="3" t="n">
         <v>0</v>
@@ -6445,10 +6445,10 @@
         <v>6.1</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="3" t="n">
         <v>59</v>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V7" s="3" t="inlineStr">
@@ -6476,19 +6476,19 @@
       </c>
       <c r="W7" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>5404010012</t>
+          <t>5402050004</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>LAVANDA OFFICINALIS</t>
+          <t>PIMIENTO DULCE ITALIANO ECOL</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr"/>
@@ -6516,7 +6516,7 @@
         <v>3.31</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3" t="n">
         <v>0</v>
@@ -6528,50 +6528,50 @@
         <v>6.1</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T8" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T8" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
         </is>
       </c>
       <c r="V8" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W8" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13B</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>5404010013</t>
+          <t>5402050011</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>MANZANILLA</t>
+          <t>TOMATE CORAZÓN DE BUEY 2017</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>
@@ -6593,13 +6593,13 @@
         <v>4</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>3.06</v>
+        <v>3.31</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>57.14</v>
+        <v>33.33</v>
       </c>
       <c r="L9" s="3" t="n">
         <v>0</v>
@@ -6611,10 +6611,10 @@
         <v>6.1</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q9" s="3" t="n">
         <v>59</v>
@@ -6649,12 +6649,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>5402050004</t>
+          <t>5404010012</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>PIMIENTO DULCE ITALIANO ECOL</t>
+          <t>LAVANDA OFFICINALIS</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr"/>
@@ -6682,7 +6682,7 @@
         <v>3.31</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L10" s="3" t="n">
         <v>0</v>
@@ -6694,50 +6694,50 @@
         <v>6.1</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T10" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V10" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W10" s="3" t="inlineStr">
         <is>
-          <t>13B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>5402050012</t>
+          <t>5401010033</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>TOMATE DE COLGAR</t>
+          <t>STRELITZIA AVE DEL PARAISO</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr"/>
@@ -6765,7 +6765,7 @@
         <v>3.35</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L11" s="3" t="n">
         <v>0</v>
@@ -6777,38 +6777,38 @@
         <v>6.1</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="P11" s="3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R11" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T11" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V11" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W11" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -6898,12 +6898,12 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>5401010008</t>
+          <t>5404010006</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>CAPUCHINA TREPADORA</t>
+          <t>ANIS</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr"/>
@@ -6925,13 +6925,13 @@
         <v>4</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>100</v>
+        <v>36.36</v>
       </c>
       <c r="L13" s="3" t="n">
         <v>0</v>
@@ -6943,50 +6943,50 @@
         <v>6.1</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P13" s="3" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R13" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T13" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V13" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W13" s="3" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>5401010033</t>
+          <t>5401010003</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>STRELITZIA AVE DEL PARAISO</t>
+          <t>BELLA DE DIA</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr"/>
@@ -7014,7 +7014,7 @@
         <v>3.35</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>80</v>
+        <v>44.44</v>
       </c>
       <c r="L14" s="3" t="n">
         <v>0</v>
@@ -7026,10 +7026,10 @@
         <v>6.1</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="3" t="n">
         <v>59</v>
@@ -7047,7 +7047,7 @@
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V14" s="3" t="inlineStr">
@@ -7057,19 +7057,19 @@
       </c>
       <c r="W14" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>5404010006</t>
+          <t>5401010008</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>ANIS</t>
+          <t>CAPUCHINA TREPADORA</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr"/>
@@ -7091,13 +7091,13 @@
         <v>4</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3" t="n">
         <v>0</v>
@@ -7109,50 +7109,50 @@
         <v>6.1</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S15" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T15" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T15" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V15" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W15" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>5401010003</t>
+          <t>5402050012</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>BELLA DE DIA</t>
+          <t>TOMATE DE COLGAR</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
@@ -7180,7 +7180,7 @@
         <v>3.35</v>
       </c>
       <c r="K16" s="3" t="n">
-        <v>44.44</v>
+        <v>0</v>
       </c>
       <c r="L16" s="3" t="n">
         <v>0</v>
@@ -7192,38 +7192,38 @@
         <v>6.1</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="P16" s="3" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R16" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S16" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T16" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T16" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V16" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W16" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -7645,12 +7645,12 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>5107130001</t>
+          <t>5102090002</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>LIS ASIATICA NASHVILLE 16/18 X3</t>
+          <t>DAHLIA BALLE GENOVA I X1</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr"/>
@@ -7672,10 +7672,10 @@
         <v>1</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>5.39</v>
+        <v>4.45</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>2.46</v>
+        <v>1.61</v>
       </c>
       <c r="K22" s="3" t="n">
         <v>20</v>
@@ -7693,7 +7693,7 @@
         <v>4</v>
       </c>
       <c r="P22" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="3" t="n">
         <v>10</v>
@@ -7728,12 +7728,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>5102090002</t>
+          <t>5107130001</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA BALLE GENOVA I X1</t>
+          <t>LIS ASIATICA NASHVILLE 16/18 X3</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr"/>
@@ -7755,10 +7755,10 @@
         <v>1</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>4.45</v>
+        <v>5.39</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>1.61</v>
+        <v>2.46</v>
       </c>
       <c r="K23" s="3" t="n">
         <v>20</v>
@@ -7776,7 +7776,7 @@
         <v>4</v>
       </c>
       <c r="P23" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q23" s="3" t="n">
         <v>10</v>
@@ -7811,12 +7811,12 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>5404010015</t>
+          <t>5401010025</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>MENTA VERDE</t>
+          <t>PETUNIA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr"/>
@@ -7844,7 +7844,7 @@
         <v>2.48</v>
       </c>
       <c r="K24" s="3" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3" t="n">
         <v>0</v>
@@ -7856,50 +7856,50 @@
         <v>4.6</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S24" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T24" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T24" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
         </is>
       </c>
       <c r="V24" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W24" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13B</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>5402020016</t>
+          <t>5402090017</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>CALABAZA BUTTERNUT ECO</t>
+          <t>MAIZ DULCE JUBILEE</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr"/>
@@ -7921,13 +7921,13 @@
         <v>3</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>5.37</v>
+        <v>5.34</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="K25" s="3" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L25" s="3" t="n">
         <v>0</v>
@@ -7939,50 +7939,50 @@
         <v>4.6</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P25" s="3" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R25" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S25" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T25" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T25" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V25" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W25" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>5404010009</t>
+          <t>5404010026</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>ENELDO</t>
+          <t>MANZANILLA ECO</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr"/>
@@ -8004,10 +8004,10 @@
         <v>3</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>5.1</v>
+        <v>5.37</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="K26" s="3" t="n">
         <v>50</v>
@@ -8025,7 +8025,7 @@
         <v>3</v>
       </c>
       <c r="P26" s="3" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q26" s="3" t="n">
         <v>59</v>
@@ -8060,12 +8060,12 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>5401010015</t>
+          <t>5402020016</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>DALIA DECORATIVA, VARIADA 2011</t>
+          <t>CALABAZA BUTTERNUT ECO</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr"/>
@@ -8093,7 +8093,7 @@
         <v>2.48</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L27" s="3" t="n">
         <v>0</v>
@@ -8105,50 +8105,50 @@
         <v>4.6</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P27" s="3" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R27" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S27" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T27" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V27" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="3" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>5402090017</t>
+          <t>5401010027</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>MAIZ DULCE JUBILEE</t>
+          <t>SALVIA ENANA ROJA</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
@@ -8170,13 +8170,13 @@
         <v>3</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>5.34</v>
+        <v>5.37</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L28" s="3" t="n">
         <v>0</v>
@@ -8188,50 +8188,50 @@
         <v>4.6</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="3" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R28" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T28" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V28" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W28" s="3" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>5401010027</t>
+          <t>5404010009</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>SALVIA ENANA ROJA</t>
+          <t>ENELDO</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr"/>
@@ -8253,13 +8253,13 @@
         <v>3</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>5.37</v>
+        <v>5.1</v>
       </c>
       <c r="J29" s="3" t="n">
-        <v>2.48</v>
+        <v>2.24</v>
       </c>
       <c r="K29" s="3" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L29" s="3" t="n">
         <v>0</v>
@@ -8271,10 +8271,10 @@
         <v>4.6</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P29" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q29" s="3" t="n">
         <v>59</v>
@@ -8292,7 +8292,7 @@
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V29" s="3" t="inlineStr">
@@ -8302,19 +8302,19 @@
       </c>
       <c r="W29" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>5404010026</t>
+          <t>5401010015</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>MANZANILLA ECO</t>
+          <t>DALIA DECORATIVA, VARIADA 2011</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr"/>
@@ -8342,7 +8342,7 @@
         <v>2.48</v>
       </c>
       <c r="K30" s="3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L30" s="3" t="n">
         <v>0</v>
@@ -8354,38 +8354,38 @@
         <v>4.6</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P30" s="3" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R30" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S30" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T30" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T30" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V30" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W30" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
@@ -8475,12 +8475,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>5401010025</t>
+          <t>5404010015</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>PETUNIA DOBLE VARIADA</t>
+          <t>MENTA VERDE</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr"/>
@@ -8508,7 +8508,7 @@
         <v>2.48</v>
       </c>
       <c r="K32" s="3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L32" s="3" t="n">
         <v>0</v>
@@ -8520,38 +8520,38 @@
         <v>4.6</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="3" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R32" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T32" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V32" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W32" s="3" t="inlineStr">
         <is>
-          <t>13B</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -8641,12 +8641,12 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>5402020001</t>
+          <t>5402020009</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>CALABACIN DE MESA NEGRO</t>
+          <t>MELON PIÑONET PIEL DE SAPO</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr"/>
@@ -8674,7 +8674,7 @@
         <v>2.51</v>
       </c>
       <c r="K34" s="3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L34" s="3" t="n">
         <v>0</v>
@@ -8686,10 +8686,10 @@
         <v>4.6</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="P34" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q34" s="3" t="n">
         <v>0</v>
@@ -8702,12 +8702,12 @@
       </c>
       <c r="T34" s="6" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V34" s="3" t="inlineStr">
@@ -8717,19 +8717,19 @@
       </c>
       <c r="W34" s="3" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>5402060003</t>
+          <t>5401010035</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>GUISANTE RONDO ECO</t>
+          <t>PORTULACA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr"/>
@@ -8757,7 +8757,7 @@
         <v>2.51</v>
       </c>
       <c r="K35" s="3" t="n">
-        <v>100</v>
+        <v>37.5</v>
       </c>
       <c r="L35" s="3" t="n">
         <v>0</v>
@@ -8769,50 +8769,50 @@
         <v>4.6</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P35" s="3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R35" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T35" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V35" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W35" s="3" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>5401010035</t>
+          <t>5401010017</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>PORTULACA DOBLE VARIADA</t>
+          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr"/>
@@ -8840,7 +8840,7 @@
         <v>2.51</v>
       </c>
       <c r="K36" s="3" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="L36" s="3" t="n">
         <v>0</v>
@@ -8852,10 +8852,10 @@
         <v>4.6</v>
       </c>
       <c r="O36" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P36" s="3" t="n">
         <v>5</v>
-      </c>
-      <c r="P36" s="3" t="n">
-        <v>16</v>
       </c>
       <c r="Q36" s="3" t="n">
         <v>59</v>
@@ -8890,12 +8890,12 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>5402020009</t>
+          <t>5402020007</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO</t>
+          <t>MELON ROCHET</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr"/>
@@ -8923,7 +8923,7 @@
         <v>2.51</v>
       </c>
       <c r="K37" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L37" s="3" t="n">
         <v>0</v>
@@ -8935,50 +8935,50 @@
         <v>4.6</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="P37" s="3" t="n">
         <v>6</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R37" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T37" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V37" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W37" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>5402090022</t>
+          <t>5402060003</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>REMOLACHA DE MESA ROJA</t>
+          <t>GUISANTE RONDO ECO</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr"/>
@@ -9006,7 +9006,7 @@
         <v>2.51</v>
       </c>
       <c r="K38" s="3" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L38" s="3" t="n">
         <v>0</v>
@@ -9018,50 +9018,50 @@
         <v>4.6</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P38" s="3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R38" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T38" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T38" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V38" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W38" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>5401010017</t>
+          <t>5402050002</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
+          <t>PIMIENTO BLOCKY AMARILLO 2019</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr"/>
@@ -9089,7 +9089,7 @@
         <v>2.51</v>
       </c>
       <c r="K39" s="3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L39" s="3" t="n">
         <v>0</v>
@@ -9101,10 +9101,10 @@
         <v>4.6</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P39" s="3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q39" s="3" t="n">
         <v>59</v>
@@ -9139,12 +9139,12 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>5402020007</t>
+          <t>5402020001</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>MELON ROCHET</t>
+          <t>CALABACIN DE MESA NEGRO</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr"/>
@@ -9172,7 +9172,7 @@
         <v>2.51</v>
       </c>
       <c r="K40" s="3" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="L40" s="3" t="n">
         <v>0</v>
@@ -9184,50 +9184,50 @@
         <v>4.6</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P40" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q40" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R40" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T40" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T40" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V40" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W40" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>5402050002</t>
+          <t>5402090022</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>PIMIENTO BLOCKY AMARILLO 2019</t>
+          <t>REMOLACHA DE MESA ROJA</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr"/>
@@ -9720,12 +9720,12 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>5102010003</t>
+          <t>5102070005</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
+          <t>DAHLIA POMPON OKAPI I X1</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr"/>
@@ -9747,10 +9747,10 @@
         <v>1</v>
       </c>
       <c r="I47" s="3" t="n">
-        <v>5.99</v>
+        <v>3.5</v>
       </c>
       <c r="J47" s="3" t="n">
-        <v>3.51</v>
+        <v>1.24</v>
       </c>
       <c r="K47" s="3" t="n">
         <v>20</v>
@@ -9768,7 +9768,7 @@
         <v>4</v>
       </c>
       <c r="P47" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q47" s="3" t="n">
         <v>10</v>
@@ -9886,12 +9886,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>5102070005</t>
+          <t>5102010003</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON OKAPI I X1</t>
+          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr"/>
@@ -9913,10 +9913,10 @@
         <v>1</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>3.5</v>
+        <v>5.99</v>
       </c>
       <c r="J49" s="3" t="n">
-        <v>1.24</v>
+        <v>3.51</v>
       </c>
       <c r="K49" s="3" t="n">
         <v>20</v>
@@ -9934,7 +9934,7 @@
         <v>4</v>
       </c>
       <c r="P49" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="3" t="n">
         <v>10</v>
@@ -10052,12 +10052,12 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>5401010022</t>
+          <t>5401030003</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>MARGARITA GRANDE BLANCA</t>
+          <t>CINERARIA ENANA HIBRIDA VARIADA</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr"/>
@@ -10085,7 +10085,7 @@
         <v>1.65</v>
       </c>
       <c r="K51" s="3" t="n">
-        <v>66.67</v>
+        <v>28.57</v>
       </c>
       <c r="L51" s="3" t="n">
         <v>0</v>
@@ -10097,10 +10097,10 @@
         <v>3.1</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P51" s="3" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Q51" s="3" t="n">
         <v>59</v>
@@ -10118,7 +10118,7 @@
       </c>
       <c r="U51" s="2" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V51" s="3" t="inlineStr">
@@ -10128,19 +10128,19 @@
       </c>
       <c r="W51" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>5401010014</t>
+          <t>5401010022</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>CRISANTEMOS DE LOS JARDINES, VARIADOS 2011</t>
+          <t>MARGARITA GRANDE BLANCA</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr"/>
@@ -10168,7 +10168,7 @@
         <v>1.65</v>
       </c>
       <c r="K52" s="3" t="n">
-        <v>100</v>
+        <v>66.67</v>
       </c>
       <c r="L52" s="3" t="n">
         <v>0</v>
@@ -10180,50 +10180,50 @@
         <v>3.1</v>
       </c>
       <c r="O52" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" s="3" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Q52" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R52" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S52" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T52" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U52" s="2" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V52" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W52" s="3" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>5404010008</t>
+          <t>5402020006</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>CILANTRO</t>
+          <t>CALABAZA CABELLO DE ANGEL 2011</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr"/>
@@ -10251,7 +10251,7 @@
         <v>1.65</v>
       </c>
       <c r="K53" s="3" t="n">
-        <v>20</v>
+        <v>22.22</v>
       </c>
       <c r="L53" s="3" t="n">
         <v>0</v>
@@ -10263,16 +10263,16 @@
         <v>3.1</v>
       </c>
       <c r="O53" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P53" s="3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q53" s="3" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R53" s="3" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S53" s="4" t="n">
         <v>10</v>
@@ -10289,7 +10289,7 @@
       </c>
       <c r="V53" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W53" s="3" t="inlineStr">
@@ -10301,12 +10301,12 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>5401030003</t>
+          <t>5404010008</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>CINERARIA ENANA HIBRIDA VARIADA</t>
+          <t>CILANTRO</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr"/>
@@ -10334,7 +10334,7 @@
         <v>1.65</v>
       </c>
       <c r="K54" s="3" t="n">
-        <v>28.57</v>
+        <v>20</v>
       </c>
       <c r="L54" s="3" t="n">
         <v>0</v>
@@ -10346,16 +10346,16 @@
         <v>3.1</v>
       </c>
       <c r="O54" s="3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P54" s="3" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q54" s="3" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R54" s="3" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S54" s="4" t="n">
         <v>10</v>
@@ -10372,7 +10372,7 @@
       </c>
       <c r="V54" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W54" s="3" t="inlineStr">
@@ -10384,12 +10384,12 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>5402020006</t>
+          <t>5402050006</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>CALABAZA CABELLO DE ANGEL 2011</t>
+          <t>PIMIENTO HABANERO ROJO 2019</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>1.65</v>
       </c>
       <c r="K55" s="3" t="n">
-        <v>22.22</v>
+        <v>20</v>
       </c>
       <c r="L55" s="3" t="n">
         <v>0</v>
@@ -10429,10 +10429,10 @@
         <v>3.1</v>
       </c>
       <c r="O55" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P55" s="3" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Q55" s="3" t="n">
         <v>59</v>
@@ -10467,12 +10467,12 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>5402050006</t>
+          <t>5401010014</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>PIMIENTO HABANERO ROJO 2019</t>
+          <t>CRISANTEMOS DE LOS JARDINES, VARIADOS 2011</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         <v>1.65</v>
       </c>
       <c r="K56" s="3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L56" s="3" t="n">
         <v>0</v>
@@ -10512,50 +10512,50 @@
         <v>3.1</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P56" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q56" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R56" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S56" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T56" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T56" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U56" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V56" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W56" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>5402040002</t>
+          <t>5402090010</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA GRANDES LAGOS -CALIFORNIA</t>
+          <t>COLIFLOR ROMANESCO NATALINO</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr"/>
@@ -10583,7 +10583,7 @@
         <v>1.67</v>
       </c>
       <c r="K57" s="3" t="n">
-        <v>4.26</v>
+        <v>10</v>
       </c>
       <c r="L57" s="3" t="n">
         <v>0</v>
@@ -10595,10 +10595,10 @@
         <v>3.1</v>
       </c>
       <c r="O57" s="3" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="P57" s="3" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="Q57" s="3" t="n">
         <v>59</v>
@@ -10796,12 +10796,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>5401010036</t>
+          <t>5402020012</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>MEZCLA DE FLORES PARDO JAPONES VARIADA</t>
+          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr"/>
@@ -10829,7 +10829,7 @@
         <v>1.67</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>20</v>
+        <v>22.22</v>
       </c>
       <c r="L2" s="3" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>3.1</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P2" s="3" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="3" t="n">
         <v>59</v>
@@ -10879,12 +10879,12 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>5402080005</t>
+          <t>5402040002</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>JUDIA PEROLAR 35GR</t>
+          <t>LECHUGA GRANDES LAGOS -CALIFORNIA</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr"/>
@@ -10906,13 +10906,13 @@
         <v>2</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>3.56</v>
+        <v>3.58</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>40</v>
+        <v>4.26</v>
       </c>
       <c r="L3" s="3" t="n">
         <v>0</v>
@@ -10924,10 +10924,10 @@
         <v>3.1</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="3" t="n">
         <v>59</v>
@@ -10962,12 +10962,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>5402090001</t>
+          <t>5402040008</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>ACELGA VERDE PENCA BLANCA</t>
+          <t>LECHUGA REINA DE MAYO ECO</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr"/>
@@ -10995,7 +10995,7 @@
         <v>1.67</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>22.22</v>
+        <v>10</v>
       </c>
       <c r="L4" s="3" t="n">
         <v>0</v>
@@ -11007,10 +11007,10 @@
         <v>3.1</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="3" t="n">
         <v>59</v>
@@ -11045,12 +11045,12 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>5404010023</t>
+          <t>5402090012</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>TOMILLO</t>
+          <t>ESCAROLA CABELLO DE ANGEL 2011</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr"/>
@@ -11093,7 +11093,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="3" t="n">
         <v>59</v>
@@ -11128,12 +11128,12 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>5402030005</t>
+          <t>5404010001</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>RABANITO REDONDO ROJO ECOL</t>
+          <t>ALBAHACA FINA</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr"/>
@@ -11155,13 +11155,13 @@
         <v>2</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>3.31</v>
+        <v>3.58</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>40</v>
+        <v>66.67</v>
       </c>
       <c r="L6" s="3" t="n">
         <v>0</v>
@@ -11173,10 +11173,10 @@
         <v>3.1</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q6" s="3" t="n">
         <v>59</v>
@@ -11194,7 +11194,7 @@
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>OPTIMIZAR: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado. Continuar monitoreo.</t>
         </is>
       </c>
       <c r="V6" s="3" t="inlineStr">
@@ -11204,7 +11204,7 @@
       </c>
       <c r="W6" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -11294,12 +11294,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>5404010001</t>
+          <t>5402040007</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>ALBAHACA FINA</t>
+          <t>LECHUGA SUCRINE</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr"/>
@@ -11327,7 +11327,7 @@
         <v>1.67</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>66.67</v>
+        <v>13.33</v>
       </c>
       <c r="L8" s="3" t="n">
         <v>0</v>
@@ -11339,10 +11339,10 @@
         <v>3.1</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="3" t="n">
         <v>59</v>
@@ -11360,7 +11360,7 @@
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>OPTIMIZAR: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado. Continuar monitoreo.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V8" s="3" t="inlineStr">
@@ -11370,19 +11370,19 @@
       </c>
       <c r="W8" s="3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>5402040007</t>
+          <t>5402090001</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA SUCRINE</t>
+          <t>ACELGA VERDE PENCA BLANCA</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>
@@ -11410,7 +11410,7 @@
         <v>1.67</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>13.33</v>
+        <v>22.22</v>
       </c>
       <c r="L9" s="3" t="n">
         <v>0</v>
@@ -11422,10 +11422,10 @@
         <v>3.1</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="3" t="n">
         <v>59</v>
@@ -11460,12 +11460,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>5402090012</t>
+          <t>5402090018</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>ESCAROLA CABELLO DE ANGEL 2011</t>
+          <t>MAIZ PALOMITAS</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr"/>
@@ -11487,13 +11487,13 @@
         <v>2</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>3.58</v>
+        <v>3.5</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>33.33</v>
+        <v>15.38</v>
       </c>
       <c r="L10" s="3" t="n">
         <v>0</v>
@@ -11505,10 +11505,10 @@
         <v>3.1</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="Q10" s="3" t="n">
         <v>59</v>
@@ -11543,12 +11543,12 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>5402090010</t>
+          <t>5402080005</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>COLIFLOR ROMANESCO NATALINO</t>
+          <t>JUDIA PEROLAR 35GR</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr"/>
@@ -11570,13 +11570,13 @@
         <v>2</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>3.58</v>
+        <v>3.56</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L11" s="3" t="n">
         <v>0</v>
@@ -11588,10 +11588,10 @@
         <v>3.1</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P11" s="3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="3" t="n">
         <v>59</v>
@@ -11792,12 +11792,12 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>5402020012</t>
+          <t>5404010023</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
+          <t>TOMILLO</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr"/>
@@ -11825,7 +11825,7 @@
         <v>1.67</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>22.22</v>
+        <v>33.33</v>
       </c>
       <c r="L14" s="3" t="n">
         <v>0</v>
@@ -11837,10 +11837,10 @@
         <v>3.1</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="3" t="n">
         <v>59</v>
@@ -11875,12 +11875,12 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>5402090018</t>
+          <t>5401010036</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>MAIZ PALOMITAS</t>
+          <t>MEZCLA DE FLORES PARDO JAPONES VARIADA</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr"/>
@@ -11902,13 +11902,13 @@
         <v>2</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>3.5</v>
+        <v>3.58</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>15.38</v>
+        <v>20</v>
       </c>
       <c r="L15" s="3" t="n">
         <v>0</v>
@@ -11920,10 +11920,10 @@
         <v>3.1</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P15" s="3" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="3" t="n">
         <v>59</v>
@@ -11958,12 +11958,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>5402040008</t>
+          <t>5402030005</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA REINA DE MAYO ECO</t>
+          <t>RABANITO REDONDO ROJO ECOL</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
@@ -11985,13 +11985,13 @@
         <v>2</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="K16" s="3" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L16" s="3" t="n">
         <v>0</v>
@@ -12003,10 +12003,10 @@
         <v>3.1</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P16" s="3" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="Q16" s="3" t="n">
         <v>59</v>
@@ -12124,12 +12124,12 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>5401030001</t>
+          <t>5401030002</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>CLAVEL GIGANTE ROSA PÁLIDO</t>
+          <t>CLAVEL MARGARITA VARIADO 00543</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
@@ -12172,7 +12172,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="3" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="3" t="n">
         <v>0</v>
@@ -12190,7 +12190,7 @@
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>RECOMPRA PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 30%. Stock objetivo: 1 unidades. Monitorear demanda próximas semanas.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V18" s="3" t="inlineStr">
@@ -12200,19 +12200,19 @@
       </c>
       <c r="W18" s="3" t="inlineStr">
         <is>
-          <t>26B</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>5401030002</t>
+          <t>5401030001</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>CLAVEL MARGARITA VARIADO 00543</t>
+          <t>CLAVEL GIGANTE ROSA PÁLIDO</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
@@ -12255,7 +12255,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="3" t="n">
         <v>0</v>
@@ -12273,7 +12273,7 @@
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>RECOMPRA PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 30%. Stock objetivo: 1 unidades. Monitorear demanda próximas semanas.</t>
         </is>
       </c>
       <c r="V19" s="3" t="inlineStr">
@@ -12283,7 +12283,7 @@
       </c>
       <c r="W19" s="3" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>26B</t>
         </is>
       </c>
     </row>
@@ -12539,12 +12539,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>5402090020</t>
+          <t>5404010014</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>PUERRO VDE CARENTAN ECOLOG</t>
+          <t>MELISSA OFFICINALIS</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr"/>
@@ -12572,7 +12572,7 @@
         <v>0.83</v>
       </c>
       <c r="K23" s="3" t="n">
-        <v>11.11</v>
+        <v>16.67</v>
       </c>
       <c r="L23" s="3" t="n">
         <v>0</v>
@@ -12584,10 +12584,10 @@
         <v>1.5</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P23" s="3" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="3" t="n">
         <v>59</v>
@@ -12622,12 +12622,12 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>5402020008</t>
+          <t>5402090023</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>MELON AMARILLO CANARIO</t>
+          <t>SANDÍA CRIMSON SWEET 2019</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr"/>
@@ -12655,7 +12655,7 @@
         <v>0.83</v>
       </c>
       <c r="K24" s="3" t="n">
-        <v>11.11</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="n">
         <v>0</v>
@@ -12667,38 +12667,38 @@
         <v>1.5</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="P24" s="3" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S24" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T24" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T24" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V24" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W24" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -12788,12 +12788,12 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>5404010014</t>
+          <t>5402020008</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>MELISSA OFFICINALIS</t>
+          <t>MELON AMARILLO CANARIO</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr"/>
@@ -12821,7 +12821,7 @@
         <v>0.83</v>
       </c>
       <c r="K26" s="3" t="n">
-        <v>16.67</v>
+        <v>11.11</v>
       </c>
       <c r="L26" s="3" t="n">
         <v>0</v>
@@ -12833,10 +12833,10 @@
         <v>1.5</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P26" s="3" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="Q26" s="3" t="n">
         <v>59</v>
@@ -12871,12 +12871,12 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>5402090023</t>
+          <t>5402090020</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>SANDÍA CRIMSON SWEET 2019</t>
+          <t>PUERRO VDE CARENTAN ECOLOG</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr"/>
@@ -12904,7 +12904,7 @@
         <v>0.83</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>0</v>
+        <v>11.11</v>
       </c>
       <c r="L27" s="3" t="n">
         <v>0</v>
@@ -12916,50 +12916,50 @@
         <v>1.5</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P27" s="3" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R27" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S27" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T27" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V27" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>5401010032</t>
+          <t>5404010022</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>GIPSOFILA ELEGANS BLANCA</t>
+          <t>STEVIA 2015</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
@@ -12987,7 +12987,7 @@
         <v>0.84</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>10</v>
+        <v>4.76</v>
       </c>
       <c r="L28" s="3" t="n">
         <v>0</v>
@@ -12999,16 +12999,16 @@
         <v>1.5</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="P28" s="3" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R28" s="3" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S28" s="4" t="n">
         <v>10</v>
@@ -13025,7 +13025,7 @@
       </c>
       <c r="V28" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W28" s="3" t="inlineStr">
@@ -13037,12 +13037,12 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>5401010034</t>
+          <t>5402020017</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
+          <t>MELON PIÑONET PIEL DE SAPO ECO</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr"/>
@@ -13070,7 +13070,7 @@
         <v>0.84</v>
       </c>
       <c r="K29" s="3" t="n">
-        <v>20</v>
+        <v>11.11</v>
       </c>
       <c r="L29" s="3" t="n">
         <v>0</v>
@@ -13082,10 +13082,10 @@
         <v>1.5</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P29" s="3" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="Q29" s="3" t="n">
         <v>59</v>
@@ -13120,12 +13120,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>5404010022</t>
+          <t>5402090008</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>STEVIA 2015</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr"/>
@@ -13153,7 +13153,7 @@
         <v>0.84</v>
       </c>
       <c r="K30" s="3" t="n">
-        <v>4.76</v>
+        <v>11.11</v>
       </c>
       <c r="L30" s="3" t="n">
         <v>0</v>
@@ -13165,10 +13165,10 @@
         <v>1.5</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="P30" s="3" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="Q30" s="3" t="n">
         <v>59</v>
@@ -13203,12 +13203,12 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>5402090028</t>
+          <t>5402030003</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
+          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr"/>
@@ -13236,7 +13236,7 @@
         <v>0.84</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L31" s="3" t="n">
         <v>0</v>
@@ -13248,50 +13248,50 @@
         <v>1.5</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="3" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R31" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S31" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T31" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T31" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V31" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W31" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>5402030003</t>
+          <t>5401010032</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
+          <t>GIPSOFILA ELEGANS BLANCA</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr"/>
@@ -13319,7 +13319,7 @@
         <v>0.84</v>
       </c>
       <c r="K32" s="3" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L32" s="3" t="n">
         <v>0</v>
@@ -13331,50 +13331,50 @@
         <v>1.5</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P32" s="3" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R32" s="3" t="n">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="S32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T32" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V32" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W32" s="3" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>5402040003</t>
+          <t>5404010004</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
+          <t>ALBAHACA LIMON 2015</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr"/>
@@ -13402,7 +13402,7 @@
         <v>0.84</v>
       </c>
       <c r="K33" s="3" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3" t="n">
         <v>0</v>
@@ -13414,50 +13414,50 @@
         <v>1.5</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="n">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S33" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T33" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T33" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V33" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W33" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>5404010004</t>
+          <t>5402090028</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>ALBAHACA LIMON 2015</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr"/>
@@ -13485,7 +13485,7 @@
         <v>0.84</v>
       </c>
       <c r="K34" s="3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L34" s="3" t="n">
         <v>0</v>
@@ -13497,50 +13497,50 @@
         <v>1.5</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="3" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R34" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T34" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V34" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W34" s="3" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>5402020017</t>
+          <t>5402090006</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO ECO</t>
+          <t>CEBOLLA ARBO - MORADA DE AMPOSTA 2011</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr"/>
@@ -13568,7 +13568,7 @@
         <v>0.84</v>
       </c>
       <c r="K35" s="3" t="n">
-        <v>11.11</v>
+        <v>50</v>
       </c>
       <c r="L35" s="3" t="n">
         <v>0</v>
@@ -13580,10 +13580,10 @@
         <v>1.5</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P35" s="3" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="Q35" s="3" t="n">
         <v>59</v>
@@ -13618,12 +13618,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>5402090008</t>
+          <t>5401010034</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
+          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>0.84</v>
       </c>
       <c r="K36" s="3" t="n">
-        <v>11.11</v>
+        <v>20</v>
       </c>
       <c r="L36" s="3" t="n">
         <v>0</v>
@@ -13663,10 +13663,10 @@
         <v>1.5</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P36" s="3" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="Q36" s="3" t="n">
         <v>59</v>
@@ -13701,12 +13701,12 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>5402090006</t>
+          <t>5402040003</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>CEBOLLA ARBO - MORADA DE AMPOSTA 2011</t>
+          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr"/>
@@ -13734,7 +13734,7 @@
         <v>0.84</v>
       </c>
       <c r="K37" s="3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L37" s="3" t="n">
         <v>0</v>
@@ -13746,10 +13746,10 @@
         <v>1.5</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P37" s="3" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="Q37" s="3" t="n">
         <v>59</v>
@@ -13784,12 +13784,12 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>5401010021</t>
+          <t>5402020005</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>IPOMEA CAMPANILLA VARIADA</t>
+          <t>CALABAZA BUTTERNUT</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr"/>
@@ -13817,7 +13817,7 @@
         <v>0.86</v>
       </c>
       <c r="K38" s="3" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L38" s="3" t="n">
         <v>0</v>
@@ -13829,50 +13829,50 @@
         <v>1.5</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P38" s="3" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R38" s="3" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T38" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T38" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V38" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W38" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>5402020005</t>
+          <t>5401010021</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>CALABAZA BUTTERNUT</t>
+          <t>IPOMEA CAMPANILLA VARIADA</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr"/>
@@ -13900,7 +13900,7 @@
         <v>0.86</v>
       </c>
       <c r="K39" s="3" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L39" s="3" t="n">
         <v>0</v>
@@ -13912,38 +13912,38 @@
         <v>1.5</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P39" s="3" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R39" s="3" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T39" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V39" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W39" s="3" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -14362,32 +14362,24 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5102020014</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>60G</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DAHLIA DECORATIVA PAYASO I X1</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G2" s="3" t="n">
@@ -14415,19 +14407,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T2" s="7" t="inlineStr">
         <is>
@@ -14436,12 +14428,12 @@
       </c>
       <c r="U2" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W2" s="3" t="inlineStr">
@@ -14453,24 +14445,24 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>5402030001</t>
+          <t>5102020015</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>NABO DE MESA VIRTUDES MARTILLO</t>
+          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr"/>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G3" s="3" t="n">
@@ -14504,13 +14496,13 @@
         <v>59</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7" t="inlineStr">
         <is>
@@ -14519,12 +14511,12 @@
       </c>
       <c r="U3" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W3" s="3" t="inlineStr">
@@ -14536,24 +14528,24 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5102020013</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
+          <t>DAHLIA DECORATIVA ENANA JAMAICA I X1</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr"/>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G4" s="3" t="n">
@@ -14581,19 +14573,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P4" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7" t="inlineStr">
         <is>
@@ -14602,12 +14594,12 @@
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W4" s="3" t="inlineStr">
@@ -14619,12 +14611,12 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>5103010003</t>
+          <t>5102020016</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
+          <t>DAHLIA DECORATIVA ENANA ZANZIBAR I X1</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr"/>
@@ -14702,24 +14694,24 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>5301010003</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>SEMILLAS CESPED RESISTENTE 1KG</t>
+          <t>HABA HISTAL</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr"/>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G6" s="3" t="n">
@@ -14747,7 +14739,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P6" s="3" t="n">
         <v>59</v>
@@ -14768,7 +14760,7 @@
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.77€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="3" t="inlineStr">
@@ -14785,12 +14777,12 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>5102020010</t>
+          <t>5102040001</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
+          <t>DAHLIA ENANA DOBLE MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr"/>
@@ -14830,7 +14822,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P7" s="3" t="n">
         <v>59</v>
@@ -14868,12 +14860,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>5101010003</t>
+          <t>5102070000</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE ESCARLATA 5/6 X3</t>
+          <t>DAHLIA POMPON VILLA BLANCA 1 UDS</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr"/>
@@ -14951,24 +14943,24 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>5102080000</t>
+          <t>5402080001</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA GIGANTE TARTARUS I X1</t>
+          <t>JUDÍA EFEQUINCE</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G9" s="3" t="n">
@@ -14996,19 +14988,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P9" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T9" s="7" t="inlineStr">
         <is>
@@ -15017,12 +15009,12 @@
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W9" s="3" t="inlineStr">
@@ -15034,24 +15026,24 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>5102020015</t>
+          <t>5404010018</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
+          <t>PEREJIL DOBLE RIZADO 2011</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr"/>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G10" s="3" t="n">
@@ -15079,19 +15071,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="P10" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T10" s="7" t="inlineStr">
         <is>
@@ -15100,12 +15092,12 @@
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.01€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W10" s="3" t="inlineStr">
@@ -15117,12 +15109,12 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>5102040001</t>
+          <t>5107190013</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA DOBLE MEZCLADO I/II X4</t>
+          <t>ARUM MAJESTIC RED 14/+ X1</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr"/>
@@ -15200,24 +15192,24 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>5103030000</t>
+          <t>5402080002</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE MEZCLADO 10/12 40 UDS</t>
+          <t>JUDIA GARRAFAL ENANA 250GR</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr"/>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G12" s="3" t="n">
@@ -15245,19 +15237,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P12" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R12" s="3" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S12" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T12" s="7" t="inlineStr">
         <is>
@@ -15266,12 +15258,12 @@
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W12" s="3" t="inlineStr">
@@ -15283,24 +15275,24 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>5402010001</t>
+          <t>5103020000</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>COL BRUNSWICK TENTA</t>
+          <t>GLADIOLO COLVILLEI MEZCLADO 8/9 X7</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr"/>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G13" s="3" t="n">
@@ -15328,19 +15320,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P13" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R13" s="3" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S13" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T13" s="7" t="inlineStr">
         <is>
@@ -15349,12 +15341,12 @@
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W13" s="3" t="inlineStr">
@@ -15366,24 +15358,24 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>5102070006</t>
+          <t>5404010021</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON ASHADO X1</t>
+          <t>SALVIA OFFICINALIS</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr"/>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G14" s="3" t="n">
@@ -15411,19 +15403,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="P14" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R14" s="3" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S14" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T14" s="7" t="inlineStr">
         <is>
@@ -15432,12 +15424,12 @@
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W14" s="3" t="inlineStr">
@@ -15449,24 +15441,24 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>5102020014</t>
+          <t>5402090029</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA PAYASO I X1</t>
+          <t>MAIZ DULCE GOLDEN BANTAAM ECO</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr"/>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G15" s="3" t="n">
@@ -15494,19 +15486,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P15" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R15" s="3" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S15" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T15" s="7" t="inlineStr">
         <is>
@@ -15515,12 +15507,12 @@
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W15" s="3" t="inlineStr">
@@ -15532,12 +15524,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>5107190013</t>
+          <t>5107170001</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>ARUM MAJESTIC RED 14/+ X1</t>
+          <t>IXIA MACULATA MEZCLADO 5/+ X15</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
@@ -15615,12 +15607,12 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>5102050000</t>
+          <t>5102080000</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA SIMPLE MEZCLADO I/II X4</t>
+          <t>DAHLIA GIGANTE TARTARUS I X1</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr"/>
@@ -15698,12 +15690,12 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>5107190010</t>
+          <t>5102020010</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL BERGAME 16/18 3 UDS</t>
+          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
@@ -15743,7 +15735,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P18" s="3" t="n">
         <v>59</v>
@@ -15781,24 +15773,24 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>5402090003</t>
+          <t>5102010005</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>ALCACHOFA TALPIOT 2011</t>
+          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G19" s="3" t="n">
@@ -15826,19 +15818,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P19" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R19" s="3" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S19" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T19" s="7" t="inlineStr">
         <is>
@@ -15847,12 +15839,12 @@
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W19" s="3" t="inlineStr">
@@ -15864,24 +15856,24 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>5103020000</t>
+          <t>5404010007</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>GLADIOLO COLVILLEI MEZCLADO 8/9 X7</t>
+          <t>CEBOLLINO ANUAL 2011</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr"/>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G20" s="3" t="n">
@@ -15915,13 +15907,13 @@
         <v>59</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R20" s="3" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S20" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
@@ -15930,12 +15922,12 @@
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W20" s="3" t="inlineStr">
@@ -15947,12 +15939,12 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>5102020011</t>
+          <t>5107190017</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
+          <t>ARUM PINK PERSUASION 14/+ X1</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr"/>
@@ -16030,24 +16022,24 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>5302010001</t>
+          <t>5102020019</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPORT</t>
+          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr"/>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G22" s="3" t="n">
@@ -16075,19 +16067,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P22" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R22" s="3" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S22" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T22" s="7" t="inlineStr">
         <is>
@@ -16096,12 +16088,12 @@
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W22" s="3" t="inlineStr">
@@ -16113,12 +16105,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>5107190018</t>
+          <t>5107190005</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>ARUM HOTSHOT 14/+ X1</t>
+          <t>ARUM FORET NEGRO 14+1 UDS</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr"/>
@@ -16196,24 +16188,24 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>5102020013</t>
+          <t>5402010001</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA JAMAICA I X1</t>
+          <t>COL BRUNSWICK TENTA</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr"/>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G24" s="3" t="n">
@@ -16241,19 +16233,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P24" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R24" s="3" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S24" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T24" s="7" t="inlineStr">
         <is>
@@ -16262,12 +16254,12 @@
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W24" s="3" t="inlineStr">
@@ -16279,12 +16271,12 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>5102040000</t>
+          <t>5107190009</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA DOBLE MACARON I X1 FDF</t>
+          <t>LIS ORIENTAL STARGAZER 16/18 3 UDS</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr"/>
@@ -16362,24 +16354,24 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>5402050020</t>
+          <t>5102040000</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>BERENJENA LARGA NEGRA</t>
+          <t>DAHLIA ENANA DOBLE MACARON I X1 FDF</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr"/>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G26" s="3" t="n">
@@ -16407,19 +16399,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P26" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R26" s="3" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S26" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T26" s="7" t="inlineStr">
         <is>
@@ -16428,12 +16420,12 @@
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W26" s="3" t="inlineStr">
@@ -16445,32 +16437,24 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>5301010001</t>
+          <t>5402030001</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>CESPED FORMULA RESISTENTE</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>NABO DE MESA VIRTUDES MARTILLO</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr"/>
+      <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G27" s="3" t="n">
@@ -16498,16 +16482,16 @@
         <v>0</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P27" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R27" s="3" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S27" s="4" t="n">
         <v>10</v>
@@ -16519,12 +16503,12 @@
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="3" t="inlineStr">
@@ -16536,12 +16520,12 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>5107190017</t>
+          <t>5102050000</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>ARUM PINK PERSUASION 14/+ X1</t>
+          <t>DAHLIA ENANA SIMPLE MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
@@ -16619,24 +16603,24 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>5404010007</t>
+          <t>5102070006</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>CEBOLLINO ANUAL 2011</t>
+          <t>DAHLIA POMPON ASHADO X1</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr"/>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G29" s="3" t="n">
@@ -16670,13 +16654,13 @@
         <v>59</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R29" s="3" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S29" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T29" s="7" t="inlineStr">
         <is>
@@ -16685,12 +16669,12 @@
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W29" s="3" t="inlineStr">
@@ -16702,12 +16686,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>5107100002</t>
+          <t>5102090001</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
+          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr"/>
@@ -16747,7 +16731,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P30" s="3" t="n">
         <v>59</v>
@@ -16785,24 +16769,32 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>5307010005</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>SEMILLAS REPOBLADORAS 1 KG</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr"/>
-      <c r="D31" s="2" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>250G</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G31" s="3" t="n">
@@ -16830,16 +16822,16 @@
         <v>0</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P31" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R31" s="3" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S31" s="4" t="n">
         <v>10</v>
@@ -16851,12 +16843,12 @@
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.19€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W31" s="3" t="inlineStr">
@@ -16868,12 +16860,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>5107100001</t>
+          <t>5101010003</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>FREESIA DOBLE MEZCLADO 5+ 15 UDS</t>
+          <t>BEGONIA DOBLE ESCARLATA 5/6 X3</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr"/>
@@ -16913,7 +16905,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P32" s="3" t="n">
         <v>59</v>
@@ -16951,17 +16943,17 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>5301010002</t>
+          <t>5305010001</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPARRING</t>
+          <t>CESPED FORMULA SOMBRA</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1Kg</t>
+          <t>5KG</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
@@ -17004,7 +16996,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="P33" s="3" t="n">
         <v>59</v>
@@ -17025,7 +17017,7 @@
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 74.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="3" t="inlineStr">
@@ -17042,12 +17034,12 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>5103010006</t>
+          <t>5107190010</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 12 UDS</t>
+          <t>LIS ORIENTAL BERGAME 16/18 3 UDS</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr"/>
@@ -17125,32 +17117,24 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>5305010001</t>
+          <t>5402090003</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SOMBRA</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ALCACHOFA TALPIOT 2011</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G35" s="3" t="n">
@@ -17178,16 +17162,16 @@
         <v>0</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P35" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R35" s="3" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S35" s="4" t="n">
         <v>10</v>
@@ -17199,12 +17183,12 @@
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W35" s="3" t="inlineStr">
@@ -17216,12 +17200,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>5102090001</t>
+          <t>5102010004</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
+          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr"/>
@@ -17299,24 +17283,24 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>5402080001</t>
+          <t>5301010003</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>JUDÍA EFEQUINCE</t>
+          <t>SEMILLAS CESPED RESISTENTE 1KG</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr"/>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G37" s="3" t="n">
@@ -17350,10 +17334,10 @@
         <v>59</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R37" s="3" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S37" s="4" t="n">
         <v>10</v>
@@ -17365,12 +17349,12 @@
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W37" s="3" t="inlineStr">
@@ -17382,24 +17366,32 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>5107010002</t>
+          <t>5301010002</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>AMARYLLIS BELLADONNA 20/+ X1</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr"/>
-      <c r="D38" s="2" t="inlineStr"/>
+          <t>CESPED FORMULA SPARRING</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G38" s="3" t="n">
@@ -17427,19 +17419,19 @@
         <v>0</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P38" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R38" s="3" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T38" s="7" t="inlineStr">
         <is>
@@ -17448,12 +17440,12 @@
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W38" s="3" t="inlineStr">
@@ -17465,24 +17457,16 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>5301010002</t>
+          <t>5307010005</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPARRING</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>SEMILLAS REPOBLADORAS 1 KG</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr"/>
+      <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="3" t="inlineStr">
         <is>
           <t>53</t>
@@ -17518,16 +17502,16 @@
         <v>0</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="P39" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R39" s="3" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S39" s="4" t="n">
         <v>10</v>
@@ -17539,12 +17523,12 @@
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.19€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W39" s="3" t="inlineStr">
@@ -17556,12 +17540,12 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>5102010005</t>
+          <t>5103010003</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
+          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr"/>
@@ -17639,24 +17623,24 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>5102020016</t>
+          <t>5402010003</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA ZANZIBAR I X1</t>
+          <t>COL RIZADA KALE 2017</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr"/>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G41" s="3" t="n">
@@ -17684,19 +17668,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P41" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R41" s="3" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T41" s="7" t="inlineStr">
         <is>
@@ -17705,12 +17689,12 @@
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W41" s="3" t="inlineStr">
@@ -17722,12 +17706,12 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>5404010021</t>
+          <t>5402080003</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>SALVIA OFFICINALIS</t>
+          <t>JUDIA GARRAFAL ORO-VELEZ</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr"/>
@@ -17767,7 +17751,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P42" s="3" t="n">
         <v>59</v>
@@ -17788,7 +17772,7 @@
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="3" t="inlineStr">
@@ -17805,12 +17789,12 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>5402080003</t>
+          <t>5402010002</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>JUDIA GARRAFAL ORO-VELEZ</t>
+          <t>COL BRUSELAS MEDIO ENANA</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr"/>
@@ -17850,7 +17834,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P43" s="3" t="n">
         <v>59</v>
@@ -17871,7 +17855,7 @@
       </c>
       <c r="U43" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="3" t="inlineStr">
@@ -17888,12 +17872,12 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>5102070000</t>
+          <t>5102020011</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON VILLA BLANCA 1 UDS</t>
+          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr"/>
@@ -17971,24 +17955,32 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>5107170001</t>
+          <t>5301010001</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>IXIA MACULATA MEZCLADO 5/+ X15</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr"/>
-      <c r="D45" s="2" t="inlineStr"/>
+          <t>CESPED FORMULA RESISTENTE</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G45" s="3" t="n">
@@ -18016,19 +18008,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P45" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q45" s="3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R45" s="3" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S45" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T45" s="7" t="inlineStr">
         <is>
@@ -18037,12 +18029,12 @@
       </c>
       <c r="U45" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W45" s="3" t="inlineStr">
@@ -18054,12 +18046,12 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>5107190009</t>
+          <t>5102020012</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL STARGAZER 16/18 3 UDS</t>
+          <t>DAHLIA DECORATIVA ENANA LE THOUREIL I X1</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr"/>
@@ -18137,24 +18129,32 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>5107190005</t>
+          <t>5301010002</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>ARUM FORET NEGRO 14+1 UDS</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr"/>
-      <c r="D47" s="2" t="inlineStr"/>
+          <t>CESPED FORMULA SPARRING</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G47" s="3" t="n">
@@ -18182,19 +18182,19 @@
         <v>0</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="P47" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q47" s="3" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R47" s="3" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S47" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T47" s="7" t="inlineStr">
         <is>
@@ -18203,12 +18203,12 @@
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 74.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W47" s="3" t="inlineStr">
@@ -18220,24 +18220,24 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>5102010004</t>
+          <t>5401010031</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
+          <t>GERANIO ZONALE VARIADO</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr"/>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G48" s="3" t="n">
@@ -18265,19 +18265,19 @@
         <v>0</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P48" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q48" s="3" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R48" s="3" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S48" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T48" s="7" t="inlineStr">
         <is>
@@ -18286,12 +18286,12 @@
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W48" s="3" t="inlineStr">
@@ -18303,12 +18303,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>5102020019</t>
+          <t>5107100002</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
+          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr"/>
@@ -18348,7 +18348,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P49" s="3" t="n">
         <v>59</v>
@@ -18386,32 +18386,24 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5107100001</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>250G</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>FREESIA DOBLE MEZCLADO 5+ 15 UDS</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr"/>
+      <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G50" s="3" t="n">
@@ -18439,19 +18431,19 @@
         <v>0</v>
       </c>
       <c r="O50" s="3" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="P50" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q50" s="3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R50" s="3" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S50" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T50" s="7" t="inlineStr">
         <is>
@@ -18460,12 +18452,12 @@
       </c>
       <c r="U50" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="3" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W50" s="3" t="inlineStr">
@@ -18477,24 +18469,24 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>5402080002</t>
+          <t>5103010006</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>JUDIA GARRAFAL ENANA 250GR</t>
+          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr"/>
       <c r="D51" s="2" t="inlineStr"/>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G51" s="3" t="n">
@@ -18522,19 +18514,19 @@
         <v>0</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P51" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q51" s="3" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R51" s="3" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S51" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T51" s="7" t="inlineStr">
         <is>
@@ -18543,12 +18535,12 @@
       </c>
       <c r="U51" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W51" s="3" t="inlineStr">
@@ -18560,16 +18552,24 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>5401010031</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>GERANIO ZONALE VARIADO</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr"/>
-      <c r="D52" s="2" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>60G</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
           <t>54</t>
@@ -18605,16 +18605,16 @@
         <v>0</v>
       </c>
       <c r="O52" s="3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P52" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q52" s="3" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R52" s="3" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S52" s="4" t="n">
         <v>10</v>
@@ -18626,12 +18626,12 @@
       </c>
       <c r="U52" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W52" s="3" t="inlineStr">
@@ -18643,24 +18643,24 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>5102020012</t>
+          <t>5302010001</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA LE THOUREIL I X1</t>
+          <t>CESPED FORMULA SPORT</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr"/>
       <c r="D53" s="2" t="inlineStr"/>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G53" s="3" t="n">
@@ -18688,19 +18688,19 @@
         <v>0</v>
       </c>
       <c r="O53" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P53" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q53" s="3" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R53" s="3" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S53" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T53" s="7" t="inlineStr">
         <is>
@@ -18709,12 +18709,12 @@
       </c>
       <c r="U53" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W53" s="3" t="inlineStr">
@@ -18726,12 +18726,12 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>5404010002</t>
+          <t>5402080006</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>ALBAHACA GIGANTE</t>
+          <t>JUDIA HELDA ECO</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr"/>
@@ -18771,7 +18771,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P54" s="3" t="n">
         <v>59</v>
@@ -18792,7 +18792,7 @@
       </c>
       <c r="U54" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="3" t="inlineStr">
@@ -18809,24 +18809,24 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>5402080006</t>
+          <t>5107010002</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>JUDIA HELDA ECO</t>
+          <t>AMARYLLIS BELLADONNA 20/+ X1</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr"/>
       <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G55" s="3" t="n">
@@ -18854,19 +18854,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P55" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q55" s="3" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R55" s="3" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S55" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T55" s="7" t="inlineStr">
         <is>
@@ -18875,12 +18875,12 @@
       </c>
       <c r="U55" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W55" s="3" t="inlineStr">
@@ -18892,12 +18892,12 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>5401010001</t>
+          <t>5404010002</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>AMAPOLA DOBLE VARIADA</t>
+          <t>ALBAHACA GIGANTE</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr"/>
@@ -18937,7 +18937,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="P56" s="3" t="n">
         <v>59</v>
@@ -18958,7 +18958,7 @@
       </c>
       <c r="U56" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="3" t="inlineStr">
@@ -18975,12 +18975,12 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>5402090029</t>
+          <t>5402050020</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>MAIZ DULCE GOLDEN BANTAAM ECO</t>
+          <t>BERENJENA LARGA NEGRA</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr"/>
@@ -19020,7 +19020,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P57" s="3" t="n">
         <v>59</v>
@@ -19041,7 +19041,7 @@
       </c>
       <c r="U57" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="3" t="inlineStr">
@@ -19058,24 +19058,24 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>5402010002</t>
+          <t>5107190018</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>COL BRUSELAS MEDIO ENANA</t>
+          <t>ARUM HOTSHOT 14/+ X1</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr"/>
       <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G58" s="3" t="n">
@@ -19103,19 +19103,19 @@
         <v>0</v>
       </c>
       <c r="O58" s="3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P58" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q58" s="3" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R58" s="3" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S58" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T58" s="7" t="inlineStr">
         <is>
@@ -19124,12 +19124,12 @@
       </c>
       <c r="U58" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W58" s="3" t="inlineStr">
@@ -19141,24 +19141,24 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>5402010003</t>
+          <t>5103030000</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>COL RIZADA KALE 2017</t>
+          <t>GLADIOLO FLOR GRANDE MEZCLADO 10/12 40 UDS</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr"/>
       <c r="D59" s="2" t="inlineStr"/>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G59" s="3" t="n">
@@ -19186,19 +19186,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P59" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q59" s="3" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R59" s="3" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S59" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T59" s="7" t="inlineStr">
         <is>
@@ -19207,12 +19207,12 @@
       </c>
       <c r="U59" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W59" s="3" t="inlineStr">
@@ -19224,12 +19224,12 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>5404010018</t>
+          <t>5401010001</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>PEREJIL DOBLE RIZADO 2011</t>
+          <t>AMAPOLA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr"/>
@@ -19269,7 +19269,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P60" s="3" t="n">
         <v>59</v>
@@ -19290,7 +19290,7 @@
       </c>
       <c r="U60" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.01€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="3" t="inlineStr">
